--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D3C866-6A60-4586-AE7B-6738780BA6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D72F01-CEE9-4498-B31F-D0972E7CD440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -371,11 +371,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,9 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,19 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,12 +458,34 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,31 +513,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,28 +811,28 @@
   <dimension ref="A1:AL133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="10.21875" style="42" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="42"/>
-    <col min="8" max="8" width="10.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11" style="42" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="5" max="5" width="10.21875" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="27"/>
+    <col min="8" max="8" width="10.6640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="27" customWidth="1"/>
     <col min="11" max="11" width="5.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="11" customWidth="1"/>
-    <col min="15" max="15" width="10" style="11" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="11"/>
-    <col min="18" max="19" width="8.88671875" style="12"/>
+    <col min="12" max="12" width="15" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10" style="10" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="19" width="8.88671875" style="11"/>
     <col min="22" max="22" width="14.109375" customWidth="1"/>
     <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
@@ -830,104 +847,106 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="16" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="40" cm="1">
+      <c r="B2" s="8">
+        <v>40230</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="25" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F2" s="40" cm="1">
+      <c r="F2" s="25" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G2" s="40" t="e" cm="1">
+      <c r="G2" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="40" t="e" cm="1">
+      <c r="H2" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C2)*INDIRECT(ADDRESS(5,38))/(D2*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I2" s="40" cm="1">
+      <c r="I2" s="25" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">1/((D2*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J2" s="40" cm="1">
+      <c r="J2" s="25" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="str" cm="1">
+      <c r="O2" s="13"/>
+      <c r="P2" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT(ADDRESS(Q2+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15" t="e" cm="1">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDIRECT(ADDRESS(Q2+2,23))/(O2*INDIRECT(ADDRESS(Q2+2,27))*INDIRECT(ADDRESS(Q2+2,28))*INDIRECT(ADDRESS(Q2+2,29))*INDIRECT(ADDRESS(Q2+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S2" s="15" t="e" cm="1">
+      <c r="S2" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDIRECT(ADDRESS(Q2+2,24))/(O2*INDIRECT(ADDRESS(Q2+2,27))*INDIRECT(ADDRESS(Q2+2,28))*INDIRECT(ADDRESS(Q2+2,29))*INDIRECT(ADDRESS(Q2+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -987,50 +1006,52 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="40" cm="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="8">
+        <v>40240</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="25" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F3" s="40" cm="1">
+      <c r="F3" s="25" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G3" s="40" t="e" cm="1">
+      <c r="G3" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="40" t="e" cm="1">
+      <c r="H3" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C3)*INDIRECT(ADDRESS(5,38))/(D3*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="40" cm="1">
+      <c r="I3" s="25" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">1/((D3*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J3" s="40" cm="1">
+      <c r="J3" s="25" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="14" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15" t="str" cm="1">
+      <c r="O3" s="13"/>
+      <c r="P3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(Q3+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15" t="e" cm="1">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDIRECT(ADDRESS(Q3+2,23))/(O3*INDIRECT(ADDRESS(Q3+2,27))*INDIRECT(ADDRESS(Q3+2,28))*INDIRECT(ADDRESS(Q3+2,29))*INDIRECT(ADDRESS(Q3+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S3" s="15" t="e" cm="1">
+      <c r="S3" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDIRECT(ADDRESS(Q3+2,24))/(O3*INDIRECT(ADDRESS(Q3+2,27))*INDIRECT(ADDRESS(Q3+2,28))*INDIRECT(ADDRESS(Q3+2,29))*INDIRECT(ADDRESS(Q3+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -1072,50 +1093,52 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="40" cm="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="8">
+        <v>40250</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="25" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F4" s="40" cm="1">
+      <c r="F4" s="25" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G4" s="40" t="e" cm="1">
+      <c r="G4" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="40" t="e" cm="1">
+      <c r="H4" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C4)*INDIRECT(ADDRESS(5,38))/(D4*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="40" cm="1">
+      <c r="I4" s="25" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">1/((D4*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J4" s="40" cm="1">
+      <c r="J4" s="25" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="14" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15" t="str" cm="1">
+      <c r="O4" s="13"/>
+      <c r="P4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(Q4+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15" t="e" cm="1">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDIRECT(ADDRESS(Q4+2,23))/(O4*INDIRECT(ADDRESS(Q4+2,27))*INDIRECT(ADDRESS(Q4+2,28))*INDIRECT(ADDRESS(Q4+2,29))*INDIRECT(ADDRESS(Q4+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S4" s="15" t="e" cm="1">
+      <c r="S4" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDIRECT(ADDRESS(Q4+2,24))/(O4*INDIRECT(ADDRESS(Q4+2,27))*INDIRECT(ADDRESS(Q4+2,28))*INDIRECT(ADDRESS(Q4+2,29))*INDIRECT(ADDRESS(Q4+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -1157,52 +1180,54 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="40" cm="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="8">
+        <v>40360</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="25" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F5" s="40" cm="1">
+      <c r="F5" s="25" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G5" s="40" t="e" cm="1">
+      <c r="G5" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="40" t="e" cm="1">
+      <c r="H5" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C5)*INDIRECT(ADDRESS(5,38))/(D5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="40" cm="1">
+      <c r="I5" s="25" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">1/((D5*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J5" s="40" cm="1">
+      <c r="J5" s="25" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="49"/>
+      <c r="M5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15" t="str" cm="1">
+      <c r="O5" s="13"/>
+      <c r="P5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(Q5+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15" t="e" cm="1">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDIRECT(ADDRESS(Q5+2,23))/(O5*INDIRECT(ADDRESS(Q5+2,27))*INDIRECT(ADDRESS(Q5+2,28))*INDIRECT(ADDRESS(Q5+2,29))*INDIRECT(ADDRESS(Q5+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S5" s="15" t="e" cm="1">
+      <c r="S5" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDIRECT(ADDRESS(Q5+2,24))/(O5*INDIRECT(ADDRESS(Q5+2,27))*INDIRECT(ADDRESS(Q5+2,28))*INDIRECT(ADDRESS(Q5+2,29))*INDIRECT(ADDRESS(Q5+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -1262,287 +1287,355 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="40" cm="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="8">
+        <v>40390</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="25" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F6" s="40" cm="1">
+      <c r="F6" s="25" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G6" s="40" t="e" cm="1">
+      <c r="G6" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="40" t="e" cm="1">
+      <c r="H6" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C6)*INDIRECT(ADDRESS(5,38))/(D6*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="40" cm="1">
+      <c r="I6" s="25" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">1/((D6*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J6" s="40" cm="1">
+      <c r="J6" s="25" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="14" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15" t="str" cm="1">
+      <c r="O6" s="13"/>
+      <c r="P6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(Q6+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15" t="e" cm="1">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDIRECT(ADDRESS(Q6+2,23))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S6" s="15" t="e" cm="1">
+      <c r="S6" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT(ADDRESS(Q6+2,24))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="40" cm="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="8">
+        <v>40710</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="25" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F7" s="40" cm="1">
+      <c r="F7" s="25" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G7" s="40" t="e" cm="1">
+      <c r="G7" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="40" t="e" cm="1">
+      <c r="H7" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C7)*INDIRECT(ADDRESS(5,38))/(D7*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="40" cm="1">
+      <c r="I7" s="25" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">1/((D7*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J7" s="40" cm="1">
+      <c r="J7" s="25" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="14" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15" t="str" cm="1">
+      <c r="O7" s="13"/>
+      <c r="P7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(Q7+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15" t="e" cm="1">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDIRECT(ADDRESS(Q7+2,23))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S7" s="15" t="e" cm="1">
+      <c r="S7" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(Q7+2,24))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="40" cm="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="8">
+        <v>40740</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="25" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F8" s="40" cm="1">
+      <c r="F8" s="25" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G8" s="40" t="e" cm="1">
+      <c r="G8" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="40" t="e" cm="1">
+      <c r="H8" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C8)*INDIRECT(ADDRESS(5,38))/(D8*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="40" cm="1">
+      <c r="I8" s="25" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">1/((D8*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J8" s="40" cm="1">
+      <c r="J8" s="25" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15" t="str" cm="1">
+      <c r="O8" s="13"/>
+      <c r="P8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(Q8+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15" t="e" cm="1">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDIRECT(ADDRESS(Q8+2,23))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S8" s="15" t="e" cm="1">
+      <c r="S8" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(Q8+2,24))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="40" cm="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="8">
+        <v>40750</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="25" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F9" s="40" cm="1">
+      <c r="F9" s="25" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G9" s="40" t="e" cm="1">
+      <c r="G9" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="40" t="e" cm="1">
+      <c r="H9" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C9)*INDIRECT(ADDRESS(5,38))/(D9*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="40" cm="1">
+      <c r="I9" s="25" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">1/((D9*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J9" s="40" cm="1">
+      <c r="J9" s="25" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="14" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15" t="str" cm="1">
+      <c r="O9" s="13"/>
+      <c r="P9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(Q9+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15" t="e" cm="1">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(Q9+2,23))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S9" s="15" t="e" cm="1">
+      <c r="S9" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDIRECT(ADDRESS(Q9+2,24))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="14" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="8">
+        <v>40760</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="25" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F10" s="25" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G10" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G10" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C10)*INDIRECT(ADDRESS(5,38))/(D10*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="25" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">1/((D10*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J10" s="25" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15" t="str" cm="1">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(Q10+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15" t="e" cm="1">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT(ADDRESS(Q10+2,23))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S10" s="15" t="e" cm="1">
+      <c r="S10" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDIRECT(ADDRESS(Q10+2,24))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="8">
+        <v>40770</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="25" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F11" s="25" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G11" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G11" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C11)*INDIRECT(ADDRESS(5,38))/(D11*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="25" cm="1">
+        <f t="array" aca="1" ref="I11" ca="1">1/((D11*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J11" s="25" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15" t="str" cm="1">
+      <c r="O11" s="13"/>
+      <c r="P11" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(Q11+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15" t="e" cm="1">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDIRECT(ADDRESS(Q11+2,23))/(O11*INDIRECT(ADDRESS(Q11+2,27))*INDIRECT(ADDRESS(Q11+2,28))*INDIRECT(ADDRESS(Q11+2,29))*INDIRECT(ADDRESS(Q11+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S11" s="15" t="e" cm="1">
+      <c r="S11" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDIRECT(ADDRESS(Q11+2,24))/(O11*INDIRECT(ADDRESS(Q11+2,27))*INDIRECT(ADDRESS(Q11+2,28))*INDIRECT(ADDRESS(Q11+2,29))*INDIRECT(ADDRESS(Q11+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="14" t="s">
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15" t="str" cm="1">
+      <c r="O12" s="13"/>
+      <c r="P12" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(Q12+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15" t="e" cm="1">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDIRECT(ADDRESS(Q12+2,23))/(O12*INDIRECT(ADDRESS(Q12+2,27))*INDIRECT(ADDRESS(Q12+2,28))*INDIRECT(ADDRESS(Q12+2,29))*INDIRECT(ADDRESS(Q12+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S12" s="15" t="e" cm="1">
+      <c r="S12" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDIRECT(ADDRESS(Q12+2,24))/(O12*INDIRECT(ADDRESS(Q12+2,27))*INDIRECT(ADDRESS(Q12+2,28))*INDIRECT(ADDRESS(Q12+2,29))*INDIRECT(ADDRESS(Q12+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="14" t="s">
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15" t="str" cm="1">
+      <c r="O13" s="13"/>
+      <c r="P13" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(Q13+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15" t="e" cm="1">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDIRECT(ADDRESS(Q13+2,23))/(O13*INDIRECT(ADDRESS(Q13+2,27))*INDIRECT(ADDRESS(Q13+2,28))*INDIRECT(ADDRESS(Q13+2,29))*INDIRECT(ADDRESS(Q13+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S13" s="15" t="e" cm="1">
+      <c r="S13" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDIRECT(ADDRESS(Q13+2,24))/(O13*INDIRECT(ADDRESS(Q13+2,27))*INDIRECT(ADDRESS(Q13+2,28))*INDIRECT(ADDRESS(Q13+2,29))*INDIRECT(ADDRESS(Q13+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -1554,4347 +1647,4955 @@
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="16" t="s">
+      <c r="O14" s="42"/>
+      <c r="P14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="40" cm="1">
+      <c r="B15" s="8">
+        <v>40230</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="25" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F15" s="40" cm="1">
+      <c r="F15" s="25" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G15" s="40" t="e" cm="1">
+      <c r="G15" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="40" t="e" cm="1">
+      <c r="H15" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C15)*INDIRECT(ADDRESS(5,38))/(D15*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="40" cm="1">
+      <c r="I15" s="25" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">1/((D15*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J15" s="40" cm="1">
+      <c r="J15" s="25" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15" t="str" cm="1">
+      <c r="O15" s="13"/>
+      <c r="P15" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(Q15+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15" t="e" cm="1">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(Q15+2,23))/(O15*INDIRECT(ADDRESS(Q15+2,27))*INDIRECT(ADDRESS(Q15+2,28))*INDIRECT(ADDRESS(Q15+2,29))*INDIRECT(ADDRESS(Q15+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S15" s="15" t="e" cm="1">
+      <c r="S15" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDIRECT(ADDRESS(Q15+2,24))/(O15*INDIRECT(ADDRESS(Q15+2,27))*INDIRECT(ADDRESS(Q15+2,28))*INDIRECT(ADDRESS(Q15+2,29))*INDIRECT(ADDRESS(Q15+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="40" cm="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="8">
+        <v>40240</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="25" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F16" s="40" cm="1">
+      <c r="F16" s="25" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G16" s="40" t="e" cm="1">
+      <c r="G16" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="40" t="e" cm="1">
+      <c r="H16" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C16)*INDIRECT(ADDRESS(5,38))/(D16*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="40" cm="1">
+      <c r="I16" s="25" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">1/((D16*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J16" s="40" cm="1">
+      <c r="J16" s="25" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="14" t="s">
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15" t="str" cm="1">
+      <c r="O16" s="13"/>
+      <c r="P16" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(Q16+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15" t="e" cm="1">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDIRECT(ADDRESS(Q16+2,23))/(O16*INDIRECT(ADDRESS(Q16+2,27))*INDIRECT(ADDRESS(Q16+2,28))*INDIRECT(ADDRESS(Q16+2,29))*INDIRECT(ADDRESS(Q16+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S16" s="15" t="e" cm="1">
+      <c r="S16" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDIRECT(ADDRESS(Q16+2,24))/(O16*INDIRECT(ADDRESS(Q16+2,27))*INDIRECT(ADDRESS(Q16+2,28))*INDIRECT(ADDRESS(Q16+2,29))*INDIRECT(ADDRESS(Q16+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="40" cm="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="8">
+        <v>40250</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="25" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F17" s="40" cm="1">
+      <c r="F17" s="25" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G17" s="40" t="e" cm="1">
+      <c r="G17" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="40" t="e" cm="1">
+      <c r="H17" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C17)*INDIRECT(ADDRESS(5,38))/(D17*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="40" cm="1">
+      <c r="I17" s="25" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">1/((D17*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J17" s="40" cm="1">
+      <c r="J17" s="25" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="14" t="s">
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15" t="str" cm="1">
+      <c r="O17" s="13"/>
+      <c r="P17" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(Q17+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15" t="e" cm="1">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(Q17+2,23))/(O17*INDIRECT(ADDRESS(Q17+2,27))*INDIRECT(ADDRESS(Q17+2,28))*INDIRECT(ADDRESS(Q17+2,29))*INDIRECT(ADDRESS(Q17+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S17" s="15" t="e" cm="1">
+      <c r="S17" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDIRECT(ADDRESS(Q17+2,24))/(O17*INDIRECT(ADDRESS(Q17+2,27))*INDIRECT(ADDRESS(Q17+2,28))*INDIRECT(ADDRESS(Q17+2,29))*INDIRECT(ADDRESS(Q17+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="40" cm="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="8">
+        <v>40360</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="25" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F18" s="40" cm="1">
+      <c r="F18" s="25" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G18" s="40" t="e" cm="1">
+      <c r="G18" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="40" t="e" cm="1">
+      <c r="H18" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C18)*INDIRECT(ADDRESS(5,38))/(D18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="40" cm="1">
+      <c r="I18" s="25" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">1/((D18*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J18" s="40" cm="1">
+      <c r="J18" s="25" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15" t="str" cm="1">
+      <c r="O18" s="13"/>
+      <c r="P18" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(Q18+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15" t="e" cm="1">
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(Q18+2,23))/(O18*INDIRECT(ADDRESS(Q18+2,27))*INDIRECT(ADDRESS(Q18+2,28))*INDIRECT(ADDRESS(Q18+2,29))*INDIRECT(ADDRESS(Q18+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S18" s="15" t="e" cm="1">
+      <c r="S18" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDIRECT(ADDRESS(Q18+2,24))/(O18*INDIRECT(ADDRESS(Q18+2,27))*INDIRECT(ADDRESS(Q18+2,28))*INDIRECT(ADDRESS(Q18+2,29))*INDIRECT(ADDRESS(Q18+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="40" cm="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="8">
+        <v>40390</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="25" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F19" s="40" cm="1">
+      <c r="F19" s="25" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G19" s="40" t="e" cm="1">
+      <c r="G19" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="40" t="e" cm="1">
+      <c r="H19" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C19)*INDIRECT(ADDRESS(5,38))/(D19*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="40" cm="1">
+      <c r="I19" s="25" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">1/((D19*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J19" s="40" cm="1">
+      <c r="J19" s="25" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="14" t="s">
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15" t="str" cm="1">
+      <c r="O19" s="13"/>
+      <c r="P19" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDIRECT(ADDRESS(Q19+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15" t="e" cm="1">
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDIRECT(ADDRESS(Q19+2,23))/(O19*INDIRECT(ADDRESS(Q19+2,27))*INDIRECT(ADDRESS(Q19+2,28))*INDIRECT(ADDRESS(Q19+2,29))*INDIRECT(ADDRESS(Q19+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S19" s="15" t="e" cm="1">
+      <c r="S19" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDIRECT(ADDRESS(Q19+2,24))/(O19*INDIRECT(ADDRESS(Q19+2,27))*INDIRECT(ADDRESS(Q19+2,28))*INDIRECT(ADDRESS(Q19+2,29))*INDIRECT(ADDRESS(Q19+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="40" cm="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="8">
+        <v>40710</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="25" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F20" s="40" cm="1">
+      <c r="F20" s="25" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G20" s="40" t="e" cm="1">
+      <c r="G20" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="40" t="e" cm="1">
+      <c r="H20" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C20)*INDIRECT(ADDRESS(5,38))/(D20*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="40" cm="1">
+      <c r="I20" s="25" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">1/((D20*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J20" s="40" cm="1">
+      <c r="J20" s="25" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="14" t="s">
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15" t="str" cm="1">
+      <c r="O20" s="13"/>
+      <c r="P20" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDIRECT(ADDRESS(Q20+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15" t="e" cm="1">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDIRECT(ADDRESS(Q20+2,23))/(O20*INDIRECT(ADDRESS(Q20+2,27))*INDIRECT(ADDRESS(Q20+2,28))*INDIRECT(ADDRESS(Q20+2,29))*INDIRECT(ADDRESS(Q20+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S20" s="15" t="e" cm="1">
+      <c r="S20" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDIRECT(ADDRESS(Q20+2,24))/(O20*INDIRECT(ADDRESS(Q20+2,27))*INDIRECT(ADDRESS(Q20+2,28))*INDIRECT(ADDRESS(Q20+2,29))*INDIRECT(ADDRESS(Q20+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="40" cm="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="8">
+        <v>40740</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="25" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F21" s="40" cm="1">
+      <c r="F21" s="25" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G21" s="40" t="e" cm="1">
+      <c r="G21" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="40" t="e" cm="1">
+      <c r="H21" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C21)*INDIRECT(ADDRESS(5,38))/(D21*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="40" cm="1">
+      <c r="I21" s="25" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">1/((D21*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J21" s="40" cm="1">
+      <c r="J21" s="25" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15" t="str" cm="1">
+      <c r="O21" s="13"/>
+      <c r="P21" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDIRECT(ADDRESS(Q21+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15" t="e" cm="1">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDIRECT(ADDRESS(Q21+2,23))/(O21*INDIRECT(ADDRESS(Q21+2,27))*INDIRECT(ADDRESS(Q21+2,28))*INDIRECT(ADDRESS(Q21+2,29))*INDIRECT(ADDRESS(Q21+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S21" s="15" t="e" cm="1">
+      <c r="S21" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDIRECT(ADDRESS(Q21+2,24))/(O21*INDIRECT(ADDRESS(Q21+2,27))*INDIRECT(ADDRESS(Q21+2,28))*INDIRECT(ADDRESS(Q21+2,29))*INDIRECT(ADDRESS(Q21+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="40" cm="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="8">
+        <v>40750</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F22" s="40" cm="1">
+      <c r="F22" s="25" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G22" s="40" t="e" cm="1">
+      <c r="G22" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="40" t="e" cm="1">
+      <c r="H22" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C22)*INDIRECT(ADDRESS(5,38))/(D22*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="40" cm="1">
+      <c r="I22" s="25" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">1/((D22*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J22" s="40" cm="1">
+      <c r="J22" s="25" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="14" t="s">
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15" t="str" cm="1">
+      <c r="O22" s="13"/>
+      <c r="P22" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDIRECT(ADDRESS(Q22+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15" t="e" cm="1">
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDIRECT(ADDRESS(Q22+2,23))/(O22*INDIRECT(ADDRESS(Q22+2,27))*INDIRECT(ADDRESS(Q22+2,28))*INDIRECT(ADDRESS(Q22+2,29))*INDIRECT(ADDRESS(Q22+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S22" s="15" t="e" cm="1">
+      <c r="S22" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDIRECT(ADDRESS(Q22+2,24))/(O22*INDIRECT(ADDRESS(Q22+2,27))*INDIRECT(ADDRESS(Q22+2,28))*INDIRECT(ADDRESS(Q22+2,29))*INDIRECT(ADDRESS(Q22+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="14" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="8">
+        <v>40760</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="25" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F23" s="25" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G23" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C23)*INDIRECT(ADDRESS(5,38))/(D23*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="25" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">1/((D23*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J23" s="25" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15" t="str" cm="1">
+      <c r="O23" s="13"/>
+      <c r="P23" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">INDIRECT(ADDRESS(Q23+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15" t="e" cm="1">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDIRECT(ADDRESS(Q23+2,23))/(O23*INDIRECT(ADDRESS(Q23+2,27))*INDIRECT(ADDRESS(Q23+2,28))*INDIRECT(ADDRESS(Q23+2,29))*INDIRECT(ADDRESS(Q23+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S23" s="15" t="e" cm="1">
+      <c r="S23" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDIRECT(ADDRESS(Q23+2,24))/(O23*INDIRECT(ADDRESS(Q23+2,27))*INDIRECT(ADDRESS(Q23+2,28))*INDIRECT(ADDRESS(Q23+2,29))*INDIRECT(ADDRESS(Q23+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L24" s="10"/>
-      <c r="M24" s="10" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="8">
+        <v>40770</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F24" s="25" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G24" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C24)*INDIRECT(ADDRESS(5,38))/(D24*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="25" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">1/((D24*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J24" s="25" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15" t="str" cm="1">
+      <c r="O24" s="13"/>
+      <c r="P24" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDIRECT(ADDRESS(Q24+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15" t="e" cm="1">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(Q24+2,23))/(O24*INDIRECT(ADDRESS(Q24+2,27))*INDIRECT(ADDRESS(Q24+2,28))*INDIRECT(ADDRESS(Q24+2,29))*INDIRECT(ADDRESS(Q24+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S24" s="15" t="e" cm="1">
+      <c r="S24" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDIRECT(ADDRESS(Q24+2,24))/(O24*INDIRECT(ADDRESS(Q24+2,27))*INDIRECT(ADDRESS(Q24+2,28))*INDIRECT(ADDRESS(Q24+2,29))*INDIRECT(ADDRESS(Q24+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="14" t="s">
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15" t="str" cm="1">
+      <c r="O25" s="13"/>
+      <c r="P25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDIRECT(ADDRESS(Q25+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15" t="e" cm="1">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(Q25+2,23))/(O25*INDIRECT(ADDRESS(Q25+2,27))*INDIRECT(ADDRESS(Q25+2,28))*INDIRECT(ADDRESS(Q25+2,29))*INDIRECT(ADDRESS(Q25+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S25" s="15" t="e" cm="1">
+      <c r="S25" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDIRECT(ADDRESS(Q25+2,24))/(O25*INDIRECT(ADDRESS(Q25+2,27))*INDIRECT(ADDRESS(Q25+2,28))*INDIRECT(ADDRESS(Q25+2,29))*INDIRECT(ADDRESS(Q25+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="14" t="s">
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15" t="str" cm="1">
+      <c r="O26" s="13"/>
+      <c r="P26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">INDIRECT(ADDRESS(Q26+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15" t="e" cm="1">
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(Q26+2,23))/(O26*INDIRECT(ADDRESS(Q26+2,27))*INDIRECT(ADDRESS(Q26+2,28))*INDIRECT(ADDRESS(Q26+2,29))*INDIRECT(ADDRESS(Q26+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S26" s="15" t="e" cm="1">
+      <c r="S26" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">INDIRECT(ADDRESS(Q26+2,24))/(O26*INDIRECT(ADDRESS(Q26+2,27))*INDIRECT(ADDRESS(Q26+2,28))*INDIRECT(ADDRESS(Q26+2,29))*INDIRECT(ADDRESS(Q26+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="16" t="s">
+      <c r="O27" s="42"/>
+      <c r="P27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="R27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="40" cm="1">
+      <c r="B28" s="8">
+        <v>40230</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="25" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F28" s="40" cm="1">
+      <c r="F28" s="25" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G28" s="40" t="e" cm="1">
+      <c r="G28" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="40" t="e" cm="1">
+      <c r="H28" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C28)*INDIRECT(ADDRESS(5,38))/(D28*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="40" cm="1">
+      <c r="I28" s="25" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">1/((D28*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J28" s="40" cm="1">
+      <c r="J28" s="25" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="15" t="str" cm="1">
+      <c r="O28" s="13"/>
+      <c r="P28" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P28" ca="1">INDIRECT(ADDRESS(Q28+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15" t="e" cm="1">
+      <c r="Q28" s="13"/>
+      <c r="R28" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(Q28+2,23))/(O28*INDIRECT(ADDRESS(Q28+2,27))*INDIRECT(ADDRESS(Q28+2,28))*INDIRECT(ADDRESS(Q28+2,29))*INDIRECT(ADDRESS(Q28+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S28" s="15" t="e" cm="1">
+      <c r="S28" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S28" ca="1">INDIRECT(ADDRESS(Q28+2,24))/(O28*INDIRECT(ADDRESS(Q28+2,27))*INDIRECT(ADDRESS(Q28+2,28))*INDIRECT(ADDRESS(Q28+2,29))*INDIRECT(ADDRESS(Q28+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="40" cm="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="8">
+        <v>40240</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="25" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F29" s="40" cm="1">
+      <c r="F29" s="25" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G29" s="40" t="e" cm="1">
+      <c r="G29" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="40" t="e" cm="1">
+      <c r="H29" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C29)*INDIRECT(ADDRESS(5,38))/(D29*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="40" cm="1">
+      <c r="I29" s="25" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">1/((D29*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J29" s="40" cm="1">
+      <c r="J29" s="25" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="14" t="s">
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15" t="str" cm="1">
+      <c r="O29" s="13"/>
+      <c r="P29" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P29" ca="1">INDIRECT(ADDRESS(Q29+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15" t="e" cm="1">
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R29" ca="1">INDIRECT(ADDRESS(Q29+2,23))/(O29*INDIRECT(ADDRESS(Q29+2,27))*INDIRECT(ADDRESS(Q29+2,28))*INDIRECT(ADDRESS(Q29+2,29))*INDIRECT(ADDRESS(Q29+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S29" s="15" t="e" cm="1">
+      <c r="S29" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S29" ca="1">INDIRECT(ADDRESS(Q29+2,24))/(O29*INDIRECT(ADDRESS(Q29+2,27))*INDIRECT(ADDRESS(Q29+2,28))*INDIRECT(ADDRESS(Q29+2,29))*INDIRECT(ADDRESS(Q29+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="40" cm="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="8">
+        <v>40250</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="25" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F30" s="40" cm="1">
+      <c r="F30" s="25" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G30" s="40" t="e" cm="1">
+      <c r="G30" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="40" t="e" cm="1">
+      <c r="H30" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C30)*INDIRECT(ADDRESS(5,38))/(D30*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="40" cm="1">
+      <c r="I30" s="25" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">1/((D30*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J30" s="40" cm="1">
+      <c r="J30" s="25" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="14" t="s">
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15" t="str" cm="1">
+      <c r="O30" s="13"/>
+      <c r="P30" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P30" ca="1">INDIRECT(ADDRESS(Q30+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15" t="e" cm="1">
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R30" ca="1">INDIRECT(ADDRESS(Q30+2,23))/(O30*INDIRECT(ADDRESS(Q30+2,27))*INDIRECT(ADDRESS(Q30+2,28))*INDIRECT(ADDRESS(Q30+2,29))*INDIRECT(ADDRESS(Q30+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S30" s="15" t="e" cm="1">
+      <c r="S30" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S30" ca="1">INDIRECT(ADDRESS(Q30+2,24))/(O30*INDIRECT(ADDRESS(Q30+2,27))*INDIRECT(ADDRESS(Q30+2,28))*INDIRECT(ADDRESS(Q30+2,29))*INDIRECT(ADDRESS(Q30+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="40" cm="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="8">
+        <v>40360</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="25" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F31" s="40" cm="1">
+      <c r="F31" s="25" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G31" s="40" t="e" cm="1">
+      <c r="G31" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="40" t="e" cm="1">
+      <c r="H31" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C31)*INDIRECT(ADDRESS(5,38))/(D31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="40" cm="1">
+      <c r="I31" s="25" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">1/((D31*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J31" s="40" cm="1">
+      <c r="J31" s="25" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
+      <c r="L31" s="49"/>
+      <c r="M31" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15" t="str" cm="1">
+      <c r="O31" s="13"/>
+      <c r="P31" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P31" ca="1">INDIRECT(ADDRESS(Q31+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15" t="e" cm="1">
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R31" ca="1">INDIRECT(ADDRESS(Q31+2,23))/(O31*INDIRECT(ADDRESS(Q31+2,27))*INDIRECT(ADDRESS(Q31+2,28))*INDIRECT(ADDRESS(Q31+2,29))*INDIRECT(ADDRESS(Q31+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S31" s="15" t="e" cm="1">
+      <c r="S31" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S31" ca="1">INDIRECT(ADDRESS(Q31+2,24))/(O31*INDIRECT(ADDRESS(Q31+2,27))*INDIRECT(ADDRESS(Q31+2,28))*INDIRECT(ADDRESS(Q31+2,29))*INDIRECT(ADDRESS(Q31+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="40" cm="1">
+      <c r="A32" s="51"/>
+      <c r="B32" s="8">
+        <v>40390</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="25" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F32" s="40" cm="1">
+      <c r="F32" s="25" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G32" s="40" t="e" cm="1">
+      <c r="G32" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="40" t="e" cm="1">
+      <c r="H32" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C32)*INDIRECT(ADDRESS(5,38))/(D32*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="40" cm="1">
+      <c r="I32" s="25" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">1/((D32*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J32" s="40" cm="1">
+      <c r="J32" s="25" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="14" t="s">
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15" t="str" cm="1">
+      <c r="O32" s="13"/>
+      <c r="P32" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">INDIRECT(ADDRESS(Q32+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15" t="e" cm="1">
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R32" ca="1">INDIRECT(ADDRESS(Q32+2,23))/(O32*INDIRECT(ADDRESS(Q32+2,27))*INDIRECT(ADDRESS(Q32+2,28))*INDIRECT(ADDRESS(Q32+2,29))*INDIRECT(ADDRESS(Q32+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S32" s="15" t="e" cm="1">
+      <c r="S32" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">INDIRECT(ADDRESS(Q32+2,24))/(O32*INDIRECT(ADDRESS(Q32+2,27))*INDIRECT(ADDRESS(Q32+2,28))*INDIRECT(ADDRESS(Q32+2,29))*INDIRECT(ADDRESS(Q32+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="40" cm="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="8">
+        <v>40710</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="25" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F33" s="40" cm="1">
+      <c r="F33" s="25" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G33" s="40" t="e" cm="1">
+      <c r="G33" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="40" t="e" cm="1">
+      <c r="H33" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C33)*INDIRECT(ADDRESS(5,38))/(D33*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="40" cm="1">
+      <c r="I33" s="25" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">1/((D33*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J33" s="40" cm="1">
+      <c r="J33" s="25" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="14" t="s">
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15" t="str" cm="1">
+      <c r="O33" s="13"/>
+      <c r="P33" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P33" ca="1">INDIRECT(ADDRESS(Q33+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15" t="e" cm="1">
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R33" ca="1">INDIRECT(ADDRESS(Q33+2,23))/(O33*INDIRECT(ADDRESS(Q33+2,27))*INDIRECT(ADDRESS(Q33+2,28))*INDIRECT(ADDRESS(Q33+2,29))*INDIRECT(ADDRESS(Q33+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S33" s="15" t="e" cm="1">
+      <c r="S33" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S33" ca="1">INDIRECT(ADDRESS(Q33+2,24))/(O33*INDIRECT(ADDRESS(Q33+2,27))*INDIRECT(ADDRESS(Q33+2,28))*INDIRECT(ADDRESS(Q33+2,29))*INDIRECT(ADDRESS(Q33+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="40" cm="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="8">
+        <v>40740</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="25" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F34" s="40" cm="1">
+      <c r="F34" s="25" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G34" s="40" t="e" cm="1">
+      <c r="G34" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="40" t="e" cm="1">
+      <c r="H34" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C34)*INDIRECT(ADDRESS(5,38))/(D34*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="40" cm="1">
+      <c r="I34" s="25" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">1/((D34*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J34" s="40" cm="1">
+      <c r="J34" s="25" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15" t="str" cm="1">
+      <c r="O34" s="13"/>
+      <c r="P34" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P34" ca="1">INDIRECT(ADDRESS(Q34+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="15" t="e" cm="1">
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R34" ca="1">INDIRECT(ADDRESS(Q34+2,23))/(O34*INDIRECT(ADDRESS(Q34+2,27))*INDIRECT(ADDRESS(Q34+2,28))*INDIRECT(ADDRESS(Q34+2,29))*INDIRECT(ADDRESS(Q34+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S34" s="15" t="e" cm="1">
+      <c r="S34" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S34" ca="1">INDIRECT(ADDRESS(Q34+2,24))/(O34*INDIRECT(ADDRESS(Q34+2,27))*INDIRECT(ADDRESS(Q34+2,28))*INDIRECT(ADDRESS(Q34+2,29))*INDIRECT(ADDRESS(Q34+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="40" cm="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="8">
+        <v>40750</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="25" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F35" s="40" cm="1">
+      <c r="F35" s="25" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G35" s="40" t="e" cm="1">
+      <c r="G35" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="40" t="e" cm="1">
+      <c r="H35" s="25" t="e" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C35)*INDIRECT(ADDRESS(5,38))/(D35*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="40" cm="1">
+      <c r="I35" s="25" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">1/((D35*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J35" s="40" cm="1">
+      <c r="J35" s="25" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="14" t="s">
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="15" t="str" cm="1">
+      <c r="O35" s="13"/>
+      <c r="P35" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P35" ca="1">INDIRECT(ADDRESS(Q35+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15" t="e" cm="1">
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R35" ca="1">INDIRECT(ADDRESS(Q35+2,23))/(O35*INDIRECT(ADDRESS(Q35+2,27))*INDIRECT(ADDRESS(Q35+2,28))*INDIRECT(ADDRESS(Q35+2,29))*INDIRECT(ADDRESS(Q35+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S35" s="15" t="e" cm="1">
+      <c r="S35" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S35" ca="1">INDIRECT(ADDRESS(Q35+2,24))/(O35*INDIRECT(ADDRESS(Q35+2,27))*INDIRECT(ADDRESS(Q35+2,28))*INDIRECT(ADDRESS(Q35+2,29))*INDIRECT(ADDRESS(Q35+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="14" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="8">
+        <v>40760</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="25" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F36" s="25" cm="1">
+        <f t="array" aca="1" ref="F36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G36" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G36" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C36)*INDIRECT(ADDRESS(5,38))/(D36*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="25" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">1/((D36*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J36" s="25" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15" t="str" cm="1">
+      <c r="O36" s="13"/>
+      <c r="P36" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P36" ca="1">INDIRECT(ADDRESS(Q36+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15" t="e" cm="1">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R36" ca="1">INDIRECT(ADDRESS(Q36+2,23))/(O36*INDIRECT(ADDRESS(Q36+2,27))*INDIRECT(ADDRESS(Q36+2,28))*INDIRECT(ADDRESS(Q36+2,29))*INDIRECT(ADDRESS(Q36+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S36" s="15" t="e" cm="1">
+      <c r="S36" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S36" ca="1">INDIRECT(ADDRESS(Q36+2,24))/(O36*INDIRECT(ADDRESS(Q36+2,27))*INDIRECT(ADDRESS(Q36+2,28))*INDIRECT(ADDRESS(Q36+2,29))*INDIRECT(ADDRESS(Q36+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L37" s="10"/>
-      <c r="M37" s="10" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="8">
+        <v>40770</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="25" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F37" s="25" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G37" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="25" t="e" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C37)*INDIRECT(ADDRESS(5,38))/(D37*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="25" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">1/((D37*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J37" s="25" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="15" t="str" cm="1">
+      <c r="O37" s="13"/>
+      <c r="P37" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P37" ca="1">INDIRECT(ADDRESS(Q37+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15" t="e" cm="1">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R37" ca="1">INDIRECT(ADDRESS(Q37+2,23))/(O37*INDIRECT(ADDRESS(Q37+2,27))*INDIRECT(ADDRESS(Q37+2,28))*INDIRECT(ADDRESS(Q37+2,29))*INDIRECT(ADDRESS(Q37+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S37" s="15" t="e" cm="1">
+      <c r="S37" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S37" ca="1">INDIRECT(ADDRESS(Q37+2,24))/(O37*INDIRECT(ADDRESS(Q37+2,27))*INDIRECT(ADDRESS(Q37+2,28))*INDIRECT(ADDRESS(Q37+2,29))*INDIRECT(ADDRESS(Q37+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="14" t="s">
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15" t="str" cm="1">
+      <c r="O38" s="13"/>
+      <c r="P38" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P38" ca="1">INDIRECT(ADDRESS(Q38+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15" t="e" cm="1">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R38" ca="1">INDIRECT(ADDRESS(Q38+2,23))/(O38*INDIRECT(ADDRESS(Q38+2,27))*INDIRECT(ADDRESS(Q38+2,28))*INDIRECT(ADDRESS(Q38+2,29))*INDIRECT(ADDRESS(Q38+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S38" s="15" t="e" cm="1">
+      <c r="S38" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S38" ca="1">INDIRECT(ADDRESS(Q38+2,24))/(O38*INDIRECT(ADDRESS(Q38+2,27))*INDIRECT(ADDRESS(Q38+2,28))*INDIRECT(ADDRESS(Q38+2,29))*INDIRECT(ADDRESS(Q38+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="14" t="s">
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="15" t="str" cm="1">
+      <c r="O39" s="13"/>
+      <c r="P39" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P39" ca="1">INDIRECT(ADDRESS(Q39+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="15" t="e" cm="1">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="R39" ca="1">INDIRECT(ADDRESS(Q39+2,23))/(O39*INDIRECT(ADDRESS(Q39+2,27))*INDIRECT(ADDRESS(Q39+2,28))*INDIRECT(ADDRESS(Q39+2,29))*INDIRECT(ADDRESS(Q39+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S39" s="15" t="e" cm="1">
+      <c r="S39" s="14" t="e" cm="1">
         <f t="array" aca="1" ref="S39" ca="1">INDIRECT(ADDRESS(Q39+2,24))/(O39*INDIRECT(ADDRESS(Q39+2,27))*INDIRECT(ADDRESS(Q39+2,28))*INDIRECT(ADDRESS(Q39+2,29))*INDIRECT(ADDRESS(Q39+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="49" t="s">
+      <c r="J40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="36" t="s">
+      <c r="N40" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="37"/>
-      <c r="P40" s="19" t="s">
+      <c r="O40" s="44"/>
+      <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="19" t="s">
+      <c r="Q40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="19" t="s">
+      <c r="R40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S40" s="19" t="s">
+      <c r="S40" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="52" cm="1">
+      <c r="B41" s="19">
+        <v>40230</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="37" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F41" s="52" cm="1">
+      <c r="F41" s="37" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G41" s="52" t="e" cm="1">
+      <c r="G41" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="52" t="e" cm="1">
+      <c r="H41" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C41)*INDIRECT(ADDRESS(5,38))/(D41*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="52" cm="1">
+      <c r="I41" s="37" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">1/((D41*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J41" s="52" cm="1">
+      <c r="J41" s="37" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22" t="str" cm="1">
+      <c r="O41" s="19"/>
+      <c r="P41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT(ADDRESS(Q41+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="22" t="e" cm="1">
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">INDIRECT(ADDRESS(Q41+2,23))/(O41*INDIRECT(ADDRESS(Q41+2,27))*INDIRECT(ADDRESS(Q41+2,28))*INDIRECT(ADDRESS(Q41+2,29))*INDIRECT(ADDRESS(Q41+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S41" s="22" t="e" cm="1">
+      <c r="S41" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDIRECT(ADDRESS(Q41+2,24))/(O41*INDIRECT(ADDRESS(Q41+2,27))*INDIRECT(ADDRESS(Q41+2,28))*INDIRECT(ADDRESS(Q41+2,29))*INDIRECT(ADDRESS(Q41+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="52" cm="1">
+      <c r="A42" s="48"/>
+      <c r="B42" s="19">
+        <v>40240</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="37" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F42" s="52" cm="1">
+      <c r="F42" s="37" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G42" s="52" t="e" cm="1">
+      <c r="G42" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="52" t="e" cm="1">
+      <c r="H42" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C42)*INDIRECT(ADDRESS(5,38))/(D42*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="52" cm="1">
+      <c r="I42" s="37" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">1/((D42*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J42" s="52" cm="1">
+      <c r="J42" s="37" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21" t="s">
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22" t="str" cm="1">
+      <c r="O42" s="19"/>
+      <c r="P42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT(ADDRESS(Q42+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="22" t="e" cm="1">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R42" ca="1">INDIRECT(ADDRESS(Q42+2,23))/(O42*INDIRECT(ADDRESS(Q42+2,27))*INDIRECT(ADDRESS(Q42+2,28))*INDIRECT(ADDRESS(Q42+2,29))*INDIRECT(ADDRESS(Q42+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S42" s="22" t="e" cm="1">
+      <c r="S42" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDIRECT(ADDRESS(Q42+2,24))/(O42*INDIRECT(ADDRESS(Q42+2,27))*INDIRECT(ADDRESS(Q42+2,28))*INDIRECT(ADDRESS(Q42+2,29))*INDIRECT(ADDRESS(Q42+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="52" cm="1">
+      <c r="A43" s="48"/>
+      <c r="B43" s="19">
+        <v>40250</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="37" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F43" s="52" cm="1">
+      <c r="F43" s="37" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G43" s="52" t="e" cm="1">
+      <c r="G43" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="52" t="e" cm="1">
+      <c r="H43" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C43)*INDIRECT(ADDRESS(5,38))/(D43*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="52" cm="1">
+      <c r="I43" s="37" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J43" s="52" cm="1">
+      <c r="J43" s="37" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21" t="s">
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22" t="str" cm="1">
+      <c r="O43" s="19"/>
+      <c r="P43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT(ADDRESS(Q43+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="22" t="e" cm="1">
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R43" ca="1">INDIRECT(ADDRESS(Q43+2,23))/(O43*INDIRECT(ADDRESS(Q43+2,27))*INDIRECT(ADDRESS(Q43+2,28))*INDIRECT(ADDRESS(Q43+2,29))*INDIRECT(ADDRESS(Q43+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S43" s="22" t="e" cm="1">
+      <c r="S43" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDIRECT(ADDRESS(Q43+2,24))/(O43*INDIRECT(ADDRESS(Q43+2,27))*INDIRECT(ADDRESS(Q43+2,28))*INDIRECT(ADDRESS(Q43+2,29))*INDIRECT(ADDRESS(Q43+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="52" cm="1">
+      <c r="A44" s="48"/>
+      <c r="B44" s="19">
+        <v>40360</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="37" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F44" s="52" cm="1">
+      <c r="F44" s="37" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G44" s="52" t="e" cm="1">
+      <c r="G44" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="52" t="e" cm="1">
+      <c r="H44" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C44)*INDIRECT(ADDRESS(5,38))/(D44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="52" cm="1">
+      <c r="I44" s="37" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">1/((D44*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J44" s="52" cm="1">
+      <c r="J44" s="37" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20" t="s">
+      <c r="L44" s="48"/>
+      <c r="M44" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="22" t="str" cm="1">
+      <c r="O44" s="19"/>
+      <c r="P44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">INDIRECT(ADDRESS(Q44+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="22" t="e" cm="1">
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R44" ca="1">INDIRECT(ADDRESS(Q44+2,23))/(O44*INDIRECT(ADDRESS(Q44+2,27))*INDIRECT(ADDRESS(Q44+2,28))*INDIRECT(ADDRESS(Q44+2,29))*INDIRECT(ADDRESS(Q44+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S44" s="22" t="e" cm="1">
+      <c r="S44" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDIRECT(ADDRESS(Q44+2,24))/(O44*INDIRECT(ADDRESS(Q44+2,27))*INDIRECT(ADDRESS(Q44+2,28))*INDIRECT(ADDRESS(Q44+2,29))*INDIRECT(ADDRESS(Q44+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="52" cm="1">
+      <c r="A45" s="48"/>
+      <c r="B45" s="19">
+        <v>40390</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="37" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F45" s="52" cm="1">
+      <c r="F45" s="37" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G45" s="52" t="e" cm="1">
+      <c r="G45" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="52" t="e" cm="1">
+      <c r="H45" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C45)*INDIRECT(ADDRESS(5,38))/(D45*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="52" cm="1">
+      <c r="I45" s="37" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">1/((D45*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J45" s="52" cm="1">
+      <c r="J45" s="37" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21" t="s">
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="22" t="str" cm="1">
+      <c r="O45" s="19"/>
+      <c r="P45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT(ADDRESS(Q45+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="22" t="e" cm="1">
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDIRECT(ADDRESS(Q45+2,23))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S45" s="22" t="e" cm="1">
+      <c r="S45" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDIRECT(ADDRESS(Q45+2,24))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="52" cm="1">
+      <c r="A46" s="48"/>
+      <c r="B46" s="19">
+        <v>40710</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="37" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F46" s="52" cm="1">
+      <c r="F46" s="37" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G46" s="52" t="e" cm="1">
+      <c r="G46" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="52" t="e" cm="1">
+      <c r="H46" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C46)*INDIRECT(ADDRESS(5,38))/(D46*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="52" cm="1">
+      <c r="I46" s="37" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">1/((D46*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J46" s="52" cm="1">
+      <c r="J46" s="37" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21" t="s">
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22" t="str" cm="1">
+      <c r="O46" s="19"/>
+      <c r="P46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT(ADDRESS(Q46+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="22" t="e" cm="1">
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R46" ca="1">INDIRECT(ADDRESS(Q46+2,23))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S46" s="22" t="e" cm="1">
+      <c r="S46" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDIRECT(ADDRESS(Q46+2,24))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="52" cm="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="19">
+        <v>40740</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="37" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F47" s="52" cm="1">
+      <c r="F47" s="37" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G47" s="52" t="e" cm="1">
+      <c r="G47" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="52" t="e" cm="1">
+      <c r="H47" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C47)*INDIRECT(ADDRESS(5,38))/(D47*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="52" cm="1">
+      <c r="I47" s="37" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">1/((D47*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J47" s="52" cm="1">
+      <c r="J47" s="37" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L47" s="20" t="s">
+      <c r="L47" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="20" t="s">
+      <c r="M47" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="22" t="str" cm="1">
+      <c r="O47" s="19"/>
+      <c r="P47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">INDIRECT(ADDRESS(Q47+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="22" t="e" cm="1">
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R47" ca="1">INDIRECT(ADDRESS(Q47+2,23))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S47" s="22" t="e" cm="1">
+      <c r="S47" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S47" ca="1">INDIRECT(ADDRESS(Q47+2,24))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="52" cm="1">
+      <c r="A48" s="48"/>
+      <c r="B48" s="19">
+        <v>40750</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="37" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F48" s="52" cm="1">
+      <c r="F48" s="37" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G48" s="52" t="e" cm="1">
+      <c r="G48" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="52" t="e" cm="1">
+      <c r="H48" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C48)*INDIRECT(ADDRESS(5,38))/(D48*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="52" cm="1">
+      <c r="I48" s="37" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">1/((D48*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J48" s="52" cm="1">
+      <c r="J48" s="37" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21" t="s">
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="21"/>
-      <c r="P48" s="22" t="str" cm="1">
+      <c r="O48" s="19"/>
+      <c r="P48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">INDIRECT(ADDRESS(Q48+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="22" t="e" cm="1">
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R48" ca="1">INDIRECT(ADDRESS(Q48+2,23))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S48" s="22" t="e" cm="1">
+      <c r="S48" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S48" ca="1">INDIRECT(ADDRESS(Q48+2,24))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="19">
+        <v>40760</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="37" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F49" s="37" cm="1">
+        <f t="array" aca="1" ref="F49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G49" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G49" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H49" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C49)*INDIRECT(ADDRESS(5,38))/(D49*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="37" cm="1">
+        <f t="array" aca="1" ref="I49" ca="1">1/((D49*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J49" s="37" cm="1">
+        <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22" t="str" cm="1">
+      <c r="O49" s="19"/>
+      <c r="P49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">INDIRECT(ADDRESS(Q49+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="22" t="e" cm="1">
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R49" ca="1">INDIRECT(ADDRESS(Q49+2,23))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S49" s="22" t="e" cm="1">
+      <c r="S49" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S49" ca="1">INDIRECT(ADDRESS(Q49+2,24))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L50" s="20"/>
-      <c r="M50" s="20" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="19">
+        <v>40770</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="37" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F50" s="37" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G50" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C50)*INDIRECT(ADDRESS(5,38))/(D50*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I50" s="37" cm="1">
+        <f t="array" aca="1" ref="I50" ca="1">1/((D50*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J50" s="37" cm="1">
+        <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N50" s="21" t="s">
+      <c r="N50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="21"/>
-      <c r="P50" s="22" t="str" cm="1">
+      <c r="O50" s="19"/>
+      <c r="P50" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P50" ca="1">INDIRECT(ADDRESS(Q50+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="22" t="e" cm="1">
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R50" ca="1">INDIRECT(ADDRESS(Q50+2,23))/(O50*INDIRECT(ADDRESS(Q50+2,27))*INDIRECT(ADDRESS(Q50+2,28))*INDIRECT(ADDRESS(Q50+2,29))*INDIRECT(ADDRESS(Q50+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S50" s="22" t="e" cm="1">
+      <c r="S50" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S50" ca="1">INDIRECT(ADDRESS(Q50+2,24))/(O50*INDIRECT(ADDRESS(Q50+2,27))*INDIRECT(ADDRESS(Q50+2,28))*INDIRECT(ADDRESS(Q50+2,29))*INDIRECT(ADDRESS(Q50+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="21" t="s">
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="22" t="str" cm="1">
+      <c r="O51" s="19"/>
+      <c r="P51" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P51" ca="1">INDIRECT(ADDRESS(Q51+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="22" t="e" cm="1">
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R51" ca="1">INDIRECT(ADDRESS(Q51+2,23))/(O51*INDIRECT(ADDRESS(Q51+2,27))*INDIRECT(ADDRESS(Q51+2,28))*INDIRECT(ADDRESS(Q51+2,29))*INDIRECT(ADDRESS(Q51+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S51" s="22" t="e" cm="1">
+      <c r="S51" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S51" ca="1">INDIRECT(ADDRESS(Q51+2,24))/(O51*INDIRECT(ADDRESS(Q51+2,27))*INDIRECT(ADDRESS(Q51+2,28))*INDIRECT(ADDRESS(Q51+2,29))*INDIRECT(ADDRESS(Q51+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="21" t="s">
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="22" t="str" cm="1">
+      <c r="O52" s="19"/>
+      <c r="P52" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P52" ca="1">INDIRECT(ADDRESS(Q52+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="22" t="e" cm="1">
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R52" ca="1">INDIRECT(ADDRESS(Q52+2,23))/(O52*INDIRECT(ADDRESS(Q52+2,27))*INDIRECT(ADDRESS(Q52+2,28))*INDIRECT(ADDRESS(Q52+2,29))*INDIRECT(ADDRESS(Q52+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S52" s="22" t="e" cm="1">
+      <c r="S52" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S52" ca="1">INDIRECT(ADDRESS(Q52+2,24))/(O52*INDIRECT(ADDRESS(Q52+2,27))*INDIRECT(ADDRESS(Q52+2,28))*INDIRECT(ADDRESS(Q52+2,29))*INDIRECT(ADDRESS(Q52+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="45" t="s">
+      <c r="H53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="18" t="s">
+      <c r="L53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="M53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="36" t="s">
+      <c r="N53" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="37"/>
-      <c r="P53" s="19" t="s">
+      <c r="O53" s="44"/>
+      <c r="P53" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q53" s="19" t="s">
+      <c r="Q53" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R53" s="19" t="s">
+      <c r="R53" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S53" s="19" t="s">
+      <c r="S53" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="52" cm="1">
+      <c r="B54" s="19">
+        <v>40230</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="37" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F54" s="52" cm="1">
+      <c r="F54" s="37" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G54" s="52" t="e" cm="1">
+      <c r="G54" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="52" t="e" cm="1">
+      <c r="H54" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C54)*INDIRECT(ADDRESS(5,38))/(D54*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I54" s="52" cm="1">
+      <c r="I54" s="37" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">1/((D54*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J54" s="52" cm="1">
+      <c r="J54" s="37" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L54" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="22" t="str" cm="1">
+      <c r="O54" s="19"/>
+      <c r="P54" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P54" ca="1">INDIRECT(ADDRESS(Q54+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="22" t="e" cm="1">
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R54" ca="1">INDIRECT(ADDRESS(Q54+2,23))/(O54*INDIRECT(ADDRESS(Q54+2,27))*INDIRECT(ADDRESS(Q54+2,28))*INDIRECT(ADDRESS(Q54+2,29))*INDIRECT(ADDRESS(Q54+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S54" s="22" t="e" cm="1">
+      <c r="S54" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S54" ca="1">INDIRECT(ADDRESS(Q54+2,24))/(O54*INDIRECT(ADDRESS(Q54+2,27))*INDIRECT(ADDRESS(Q54+2,28))*INDIRECT(ADDRESS(Q54+2,29))*INDIRECT(ADDRESS(Q54+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="52" cm="1">
+      <c r="A55" s="48"/>
+      <c r="B55" s="19">
+        <v>40240</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="37" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F55" s="52" cm="1">
+      <c r="F55" s="37" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G55" s="52" t="e" cm="1">
+      <c r="G55" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="52" t="e" cm="1">
+      <c r="H55" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C55)*INDIRECT(ADDRESS(5,38))/(D55*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I55" s="52" cm="1">
+      <c r="I55" s="37" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">1/((D55*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J55" s="52" cm="1">
+      <c r="J55" s="37" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="21" t="s">
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="22" t="str" cm="1">
+      <c r="O55" s="19"/>
+      <c r="P55" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P55" ca="1">INDIRECT(ADDRESS(Q55+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="22" t="e" cm="1">
+      <c r="Q55" s="19"/>
+      <c r="R55" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R55" ca="1">INDIRECT(ADDRESS(Q55+2,23))/(O55*INDIRECT(ADDRESS(Q55+2,27))*INDIRECT(ADDRESS(Q55+2,28))*INDIRECT(ADDRESS(Q55+2,29))*INDIRECT(ADDRESS(Q55+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S55" s="22" t="e" cm="1">
+      <c r="S55" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S55" ca="1">INDIRECT(ADDRESS(Q55+2,24))/(O55*INDIRECT(ADDRESS(Q55+2,27))*INDIRECT(ADDRESS(Q55+2,28))*INDIRECT(ADDRESS(Q55+2,29))*INDIRECT(ADDRESS(Q55+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="52" cm="1">
+      <c r="A56" s="48"/>
+      <c r="B56" s="19">
+        <v>40250</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="37" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F56" s="52" cm="1">
+      <c r="F56" s="37" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G56" s="52" t="e" cm="1">
+      <c r="G56" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="52" t="e" cm="1">
+      <c r="H56" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C56)*INDIRECT(ADDRESS(5,38))/(D56*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I56" s="52" cm="1">
+      <c r="I56" s="37" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">1/((D56*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J56" s="52" cm="1">
+      <c r="J56" s="37" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="21" t="s">
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="22" t="str" cm="1">
+      <c r="O56" s="19"/>
+      <c r="P56" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P56" ca="1">INDIRECT(ADDRESS(Q56+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="22" t="e" cm="1">
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R56" ca="1">INDIRECT(ADDRESS(Q56+2,23))/(O56*INDIRECT(ADDRESS(Q56+2,27))*INDIRECT(ADDRESS(Q56+2,28))*INDIRECT(ADDRESS(Q56+2,29))*INDIRECT(ADDRESS(Q56+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S56" s="22" t="e" cm="1">
+      <c r="S56" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S56" ca="1">INDIRECT(ADDRESS(Q56+2,24))/(O56*INDIRECT(ADDRESS(Q56+2,27))*INDIRECT(ADDRESS(Q56+2,28))*INDIRECT(ADDRESS(Q56+2,29))*INDIRECT(ADDRESS(Q56+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="52" cm="1">
+      <c r="A57" s="48"/>
+      <c r="B57" s="19">
+        <v>40360</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="37" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F57" s="52" cm="1">
+      <c r="F57" s="37" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G57" s="52" t="e" cm="1">
+      <c r="G57" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="52" t="e" cm="1">
+      <c r="H57" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C57)*INDIRECT(ADDRESS(5,38))/(D57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="52" cm="1">
+      <c r="I57" s="37" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">1/((D57*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J57" s="52" cm="1">
+      <c r="J57" s="37" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20" t="s">
+      <c r="L57" s="48"/>
+      <c r="M57" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="22" t="str" cm="1">
+      <c r="O57" s="19"/>
+      <c r="P57" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P57" ca="1">INDIRECT(ADDRESS(Q57+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="22" t="e" cm="1">
+      <c r="Q57" s="19"/>
+      <c r="R57" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R57" ca="1">INDIRECT(ADDRESS(Q57+2,23))/(O57*INDIRECT(ADDRESS(Q57+2,27))*INDIRECT(ADDRESS(Q57+2,28))*INDIRECT(ADDRESS(Q57+2,29))*INDIRECT(ADDRESS(Q57+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S57" s="22" t="e" cm="1">
+      <c r="S57" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S57" ca="1">INDIRECT(ADDRESS(Q57+2,24))/(O57*INDIRECT(ADDRESS(Q57+2,27))*INDIRECT(ADDRESS(Q57+2,28))*INDIRECT(ADDRESS(Q57+2,29))*INDIRECT(ADDRESS(Q57+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="52" cm="1">
+      <c r="A58" s="48"/>
+      <c r="B58" s="19">
+        <v>40390</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="37" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F58" s="52" cm="1">
+      <c r="F58" s="37" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G58" s="52" t="e" cm="1">
+      <c r="G58" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="52" t="e" cm="1">
+      <c r="H58" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C58)*INDIRECT(ADDRESS(5,38))/(D58*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="52" cm="1">
+      <c r="I58" s="37" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">1/((D58*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J58" s="52" cm="1">
+      <c r="J58" s="37" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="21" t="s">
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="22" t="str" cm="1">
+      <c r="O58" s="19"/>
+      <c r="P58" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P58" ca="1">INDIRECT(ADDRESS(Q58+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="22" t="e" cm="1">
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R58" ca="1">INDIRECT(ADDRESS(Q58+2,23))/(O58*INDIRECT(ADDRESS(Q58+2,27))*INDIRECT(ADDRESS(Q58+2,28))*INDIRECT(ADDRESS(Q58+2,29))*INDIRECT(ADDRESS(Q58+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S58" s="22" t="e" cm="1">
+      <c r="S58" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S58" ca="1">INDIRECT(ADDRESS(Q58+2,24))/(O58*INDIRECT(ADDRESS(Q58+2,27))*INDIRECT(ADDRESS(Q58+2,28))*INDIRECT(ADDRESS(Q58+2,29))*INDIRECT(ADDRESS(Q58+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="52" cm="1">
+      <c r="A59" s="48"/>
+      <c r="B59" s="19">
+        <v>40710</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="37" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F59" s="52" cm="1">
+      <c r="F59" s="37" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G59" s="52" t="e" cm="1">
+      <c r="G59" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="52" t="e" cm="1">
+      <c r="H59" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C59)*INDIRECT(ADDRESS(5,38))/(D59*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I59" s="52" cm="1">
+      <c r="I59" s="37" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">1/((D59*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J59" s="52" cm="1">
+      <c r="J59" s="37" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="21" t="s">
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O59" s="21"/>
-      <c r="P59" s="22" t="str" cm="1">
+      <c r="O59" s="19"/>
+      <c r="P59" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P59" ca="1">INDIRECT(ADDRESS(Q59+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="22" t="e" cm="1">
+      <c r="Q59" s="19"/>
+      <c r="R59" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R59" ca="1">INDIRECT(ADDRESS(Q59+2,23))/(O59*INDIRECT(ADDRESS(Q59+2,27))*INDIRECT(ADDRESS(Q59+2,28))*INDIRECT(ADDRESS(Q59+2,29))*INDIRECT(ADDRESS(Q59+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S59" s="22" t="e" cm="1">
+      <c r="S59" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S59" ca="1">INDIRECT(ADDRESS(Q59+2,24))/(O59*INDIRECT(ADDRESS(Q59+2,27))*INDIRECT(ADDRESS(Q59+2,28))*INDIRECT(ADDRESS(Q59+2,29))*INDIRECT(ADDRESS(Q59+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="52" cm="1">
+      <c r="A60" s="48"/>
+      <c r="B60" s="19">
+        <v>40740</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="37" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F60" s="52" cm="1">
+      <c r="F60" s="37" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G60" s="52" t="e" cm="1">
+      <c r="G60" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="52" t="e" cm="1">
+      <c r="H60" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C60)*INDIRECT(ADDRESS(5,38))/(D60*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I60" s="52" cm="1">
+      <c r="I60" s="37" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">1/((D60*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J60" s="52" cm="1">
+      <c r="J60" s="37" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L60" s="20" t="s">
+      <c r="L60" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M60" s="20" t="s">
+      <c r="M60" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="22" t="str" cm="1">
+      <c r="O60" s="19"/>
+      <c r="P60" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P60" ca="1">INDIRECT(ADDRESS(Q60+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="22" t="e" cm="1">
+      <c r="Q60" s="19"/>
+      <c r="R60" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R60" ca="1">INDIRECT(ADDRESS(Q60+2,23))/(O60*INDIRECT(ADDRESS(Q60+2,27))*INDIRECT(ADDRESS(Q60+2,28))*INDIRECT(ADDRESS(Q60+2,29))*INDIRECT(ADDRESS(Q60+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S60" s="22" t="e" cm="1">
+      <c r="S60" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S60" ca="1">INDIRECT(ADDRESS(Q60+2,24))/(O60*INDIRECT(ADDRESS(Q60+2,27))*INDIRECT(ADDRESS(Q60+2,28))*INDIRECT(ADDRESS(Q60+2,29))*INDIRECT(ADDRESS(Q60+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="52" cm="1">
+      <c r="A61" s="48"/>
+      <c r="B61" s="19">
+        <v>40750</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="37" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F61" s="52" cm="1">
+      <c r="F61" s="37" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G61" s="52" t="e" cm="1">
+      <c r="G61" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="52" t="e" cm="1">
+      <c r="H61" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C61)*INDIRECT(ADDRESS(5,38))/(D61*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I61" s="52" cm="1">
+      <c r="I61" s="37" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">1/((D61*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J61" s="52" cm="1">
+      <c r="J61" s="37" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="21" t="s">
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22" t="str" cm="1">
+      <c r="O61" s="19"/>
+      <c r="P61" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P61" ca="1">INDIRECT(ADDRESS(Q61+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="22" t="e" cm="1">
+      <c r="Q61" s="19"/>
+      <c r="R61" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R61" ca="1">INDIRECT(ADDRESS(Q61+2,23))/(O61*INDIRECT(ADDRESS(Q61+2,27))*INDIRECT(ADDRESS(Q61+2,28))*INDIRECT(ADDRESS(Q61+2,29))*INDIRECT(ADDRESS(Q61+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S61" s="22" t="e" cm="1">
+      <c r="S61" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S61" ca="1">INDIRECT(ADDRESS(Q61+2,24))/(O61*INDIRECT(ADDRESS(Q61+2,27))*INDIRECT(ADDRESS(Q61+2,28))*INDIRECT(ADDRESS(Q61+2,29))*INDIRECT(ADDRESS(Q61+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="21" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="19">
+        <v>40760</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="37" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F62" s="37" cm="1">
+        <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G62" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H62" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C62)*INDIRECT(ADDRESS(5,38))/(D62*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I62" s="37" cm="1">
+        <f t="array" aca="1" ref="I62" ca="1">1/((D62*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J62" s="37" cm="1">
+        <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="22" t="str" cm="1">
+      <c r="O62" s="19"/>
+      <c r="P62" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P62" ca="1">INDIRECT(ADDRESS(Q62+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="22" t="e" cm="1">
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R62" ca="1">INDIRECT(ADDRESS(Q62+2,23))/(O62*INDIRECT(ADDRESS(Q62+2,27))*INDIRECT(ADDRESS(Q62+2,28))*INDIRECT(ADDRESS(Q62+2,29))*INDIRECT(ADDRESS(Q62+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S62" s="22" t="e" cm="1">
+      <c r="S62" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S62" ca="1">INDIRECT(ADDRESS(Q62+2,24))/(O62*INDIRECT(ADDRESS(Q62+2,27))*INDIRECT(ADDRESS(Q62+2,28))*INDIRECT(ADDRESS(Q62+2,29))*INDIRECT(ADDRESS(Q62+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L63" s="20"/>
-      <c r="M63" s="20" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="19">
+        <v>40770</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="37" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F63" s="37" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G63" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H63" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C63)*INDIRECT(ADDRESS(5,38))/(D63*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="37" cm="1">
+        <f t="array" aca="1" ref="I63" ca="1">1/((D63*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J63" s="37" cm="1">
+        <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N63" s="21" t="s">
+      <c r="N63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O63" s="21"/>
-      <c r="P63" s="22" t="str" cm="1">
+      <c r="O63" s="19"/>
+      <c r="P63" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P63" ca="1">INDIRECT(ADDRESS(Q63+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="22" t="e" cm="1">
+      <c r="Q63" s="19"/>
+      <c r="R63" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R63" ca="1">INDIRECT(ADDRESS(Q63+2,23))/(O63*INDIRECT(ADDRESS(Q63+2,27))*INDIRECT(ADDRESS(Q63+2,28))*INDIRECT(ADDRESS(Q63+2,29))*INDIRECT(ADDRESS(Q63+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S63" s="22" t="e" cm="1">
+      <c r="S63" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S63" ca="1">INDIRECT(ADDRESS(Q63+2,24))/(O63*INDIRECT(ADDRESS(Q63+2,27))*INDIRECT(ADDRESS(Q63+2,28))*INDIRECT(ADDRESS(Q63+2,29))*INDIRECT(ADDRESS(Q63+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="21" t="s">
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O64" s="21"/>
-      <c r="P64" s="22" t="str" cm="1">
+      <c r="O64" s="19"/>
+      <c r="P64" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P64" ca="1">INDIRECT(ADDRESS(Q64+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="22" t="e" cm="1">
+      <c r="Q64" s="19"/>
+      <c r="R64" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R64" ca="1">INDIRECT(ADDRESS(Q64+2,23))/(O64*INDIRECT(ADDRESS(Q64+2,27))*INDIRECT(ADDRESS(Q64+2,28))*INDIRECT(ADDRESS(Q64+2,29))*INDIRECT(ADDRESS(Q64+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S64" s="22" t="e" cm="1">
+      <c r="S64" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S64" ca="1">INDIRECT(ADDRESS(Q64+2,24))/(O64*INDIRECT(ADDRESS(Q64+2,27))*INDIRECT(ADDRESS(Q64+2,28))*INDIRECT(ADDRESS(Q64+2,29))*INDIRECT(ADDRESS(Q64+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="21" t="s">
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O65" s="21"/>
-      <c r="P65" s="22" t="str" cm="1">
+      <c r="O65" s="19"/>
+      <c r="P65" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P65" ca="1">INDIRECT(ADDRESS(Q65+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="22" t="e" cm="1">
+      <c r="Q65" s="19"/>
+      <c r="R65" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R65" ca="1">INDIRECT(ADDRESS(Q65+2,23))/(O65*INDIRECT(ADDRESS(Q65+2,27))*INDIRECT(ADDRESS(Q65+2,28))*INDIRECT(ADDRESS(Q65+2,29))*INDIRECT(ADDRESS(Q65+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S65" s="22" t="e" cm="1">
+      <c r="S65" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S65" ca="1">INDIRECT(ADDRESS(Q65+2,24))/(O65*INDIRECT(ADDRESS(Q65+2,27))*INDIRECT(ADDRESS(Q65+2,28))*INDIRECT(ADDRESS(Q65+2,29))*INDIRECT(ADDRESS(Q65+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="45" t="s">
+      <c r="F66" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="18" t="s">
+      <c r="L66" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M66" s="18" t="s">
+      <c r="M66" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N66" s="36" t="s">
+      <c r="N66" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="19" t="s">
+      <c r="O66" s="44"/>
+      <c r="P66" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q66" s="19" t="s">
+      <c r="Q66" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="19" t="s">
+      <c r="R66" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S66" s="19" t="s">
+      <c r="S66" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="52" cm="1">
+      <c r="B67" s="19">
+        <v>40230</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="37" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F67" s="52" cm="1">
+      <c r="F67" s="37" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G67" s="52" t="e" cm="1">
+      <c r="G67" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="52" t="e" cm="1">
+      <c r="H67" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C67)*INDIRECT(ADDRESS(5,38))/(D67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="52" cm="1">
+      <c r="I67" s="37" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">1/((D67*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J67" s="52" cm="1">
+      <c r="J67" s="37" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L67" s="20" t="s">
+      <c r="L67" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="20" t="s">
+      <c r="M67" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N67" s="21" t="s">
+      <c r="N67" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="22" t="str" cm="1">
+      <c r="O67" s="19"/>
+      <c r="P67" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P67" ca="1">INDIRECT(ADDRESS(Q67+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="22" t="e" cm="1">
+      <c r="Q67" s="19"/>
+      <c r="R67" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R67" ca="1">INDIRECT(ADDRESS(Q67+2,23))/(O67*INDIRECT(ADDRESS(Q67+2,27))*INDIRECT(ADDRESS(Q67+2,28))*INDIRECT(ADDRESS(Q67+2,29))*INDIRECT(ADDRESS(Q67+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S67" s="22" t="e" cm="1">
+      <c r="S67" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S67" ca="1">INDIRECT(ADDRESS(Q67+2,24))/(O67*INDIRECT(ADDRESS(Q67+2,27))*INDIRECT(ADDRESS(Q67+2,28))*INDIRECT(ADDRESS(Q67+2,29))*INDIRECT(ADDRESS(Q67+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="52" cm="1">
+      <c r="A68" s="48"/>
+      <c r="B68" s="19">
+        <v>40240</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="37" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F68" s="52" cm="1">
+      <c r="F68" s="37" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G68" s="52" t="e" cm="1">
+      <c r="G68" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="52" t="e" cm="1">
+      <c r="H68" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C68)*INDIRECT(ADDRESS(5,38))/(D68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="52" cm="1">
+      <c r="I68" s="37" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">1/((D68*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J68" s="52" cm="1">
+      <c r="J68" s="37" cm="1">
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="21" t="s">
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="22" t="str" cm="1">
+      <c r="O68" s="19"/>
+      <c r="P68" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P68" ca="1">INDIRECT(ADDRESS(Q68+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="22" t="e" cm="1">
+      <c r="Q68" s="19"/>
+      <c r="R68" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R68" ca="1">INDIRECT(ADDRESS(Q68+2,23))/(O68*INDIRECT(ADDRESS(Q68+2,27))*INDIRECT(ADDRESS(Q68+2,28))*INDIRECT(ADDRESS(Q68+2,29))*INDIRECT(ADDRESS(Q68+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S68" s="22" t="e" cm="1">
+      <c r="S68" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S68" ca="1">INDIRECT(ADDRESS(Q68+2,24))/(O68*INDIRECT(ADDRESS(Q68+2,27))*INDIRECT(ADDRESS(Q68+2,28))*INDIRECT(ADDRESS(Q68+2,29))*INDIRECT(ADDRESS(Q68+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="52" cm="1">
+      <c r="A69" s="48"/>
+      <c r="B69" s="19">
+        <v>40250</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="37" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F69" s="52" cm="1">
+      <c r="F69" s="37" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G69" s="52" t="e" cm="1">
+      <c r="G69" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="52" t="e" cm="1">
+      <c r="H69" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C69)*INDIRECT(ADDRESS(5,38))/(D69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="52" cm="1">
+      <c r="I69" s="37" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">1/((D69*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J69" s="52" cm="1">
+      <c r="J69" s="37" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="21" t="s">
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="22" t="str" cm="1">
+      <c r="O69" s="19"/>
+      <c r="P69" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P69" ca="1">INDIRECT(ADDRESS(Q69+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="22" t="e" cm="1">
+      <c r="Q69" s="19"/>
+      <c r="R69" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R69" ca="1">INDIRECT(ADDRESS(Q69+2,23))/(O69*INDIRECT(ADDRESS(Q69+2,27))*INDIRECT(ADDRESS(Q69+2,28))*INDIRECT(ADDRESS(Q69+2,29))*INDIRECT(ADDRESS(Q69+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S69" s="22" t="e" cm="1">
+      <c r="S69" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S69" ca="1">INDIRECT(ADDRESS(Q69+2,24))/(O69*INDIRECT(ADDRESS(Q69+2,27))*INDIRECT(ADDRESS(Q69+2,28))*INDIRECT(ADDRESS(Q69+2,29))*INDIRECT(ADDRESS(Q69+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="52" cm="1">
+      <c r="A70" s="48"/>
+      <c r="B70" s="19">
+        <v>40360</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="37" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F70" s="52" cm="1">
+      <c r="F70" s="37" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G70" s="52" t="e" cm="1">
+      <c r="G70" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="52" t="e" cm="1">
+      <c r="H70" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C70)*INDIRECT(ADDRESS(5,38))/(D70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="52" cm="1">
+      <c r="I70" s="37" cm="1">
         <f t="array" aca="1" ref="I70" ca="1">1/((D70*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J70" s="52" cm="1">
+      <c r="J70" s="37" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20" t="s">
+      <c r="L70" s="48"/>
+      <c r="M70" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N70" s="21" t="s">
+      <c r="N70" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O70" s="21"/>
-      <c r="P70" s="22" t="str" cm="1">
+      <c r="O70" s="19"/>
+      <c r="P70" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P70" ca="1">INDIRECT(ADDRESS(Q70+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="22" t="e" cm="1">
+      <c r="Q70" s="19"/>
+      <c r="R70" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R70" ca="1">INDIRECT(ADDRESS(Q70+2,23))/(O70*INDIRECT(ADDRESS(Q70+2,27))*INDIRECT(ADDRESS(Q70+2,28))*INDIRECT(ADDRESS(Q70+2,29))*INDIRECT(ADDRESS(Q70+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S70" s="22" t="e" cm="1">
+      <c r="S70" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S70" ca="1">INDIRECT(ADDRESS(Q70+2,24))/(O70*INDIRECT(ADDRESS(Q70+2,27))*INDIRECT(ADDRESS(Q70+2,28))*INDIRECT(ADDRESS(Q70+2,29))*INDIRECT(ADDRESS(Q70+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="52" cm="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="19">
+        <v>40390</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="37" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F71" s="52" cm="1">
+      <c r="F71" s="37" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G71" s="52" t="e" cm="1">
+      <c r="G71" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="52" t="e" cm="1">
+      <c r="H71" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C71)*INDIRECT(ADDRESS(5,38))/(D71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I71" s="52" cm="1">
+      <c r="I71" s="37" cm="1">
         <f t="array" aca="1" ref="I71" ca="1">1/((D71*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J71" s="52" cm="1">
+      <c r="J71" s="37" cm="1">
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="21" t="s">
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="22" t="str" cm="1">
+      <c r="O71" s="19"/>
+      <c r="P71" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P71" ca="1">INDIRECT(ADDRESS(Q71+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="22" t="e" cm="1">
+      <c r="Q71" s="19"/>
+      <c r="R71" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R71" ca="1">INDIRECT(ADDRESS(Q71+2,23))/(O71*INDIRECT(ADDRESS(Q71+2,27))*INDIRECT(ADDRESS(Q71+2,28))*INDIRECT(ADDRESS(Q71+2,29))*INDIRECT(ADDRESS(Q71+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S71" s="22" t="e" cm="1">
+      <c r="S71" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S71" ca="1">INDIRECT(ADDRESS(Q71+2,24))/(O71*INDIRECT(ADDRESS(Q71+2,27))*INDIRECT(ADDRESS(Q71+2,28))*INDIRECT(ADDRESS(Q71+2,29))*INDIRECT(ADDRESS(Q71+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="52" cm="1">
+      <c r="A72" s="48"/>
+      <c r="B72" s="19">
+        <v>40710</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="37" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F72" s="52" cm="1">
+      <c r="F72" s="37" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G72" s="52" t="e" cm="1">
+      <c r="G72" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="52" t="e" cm="1">
+      <c r="H72" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C72)*INDIRECT(ADDRESS(5,38))/(D72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I72" s="52" cm="1">
+      <c r="I72" s="37" cm="1">
         <f t="array" aca="1" ref="I72" ca="1">1/((D72*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J72" s="52" cm="1">
+      <c r="J72" s="37" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="21" t="s">
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="22" t="str" cm="1">
+      <c r="O72" s="19"/>
+      <c r="P72" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P72" ca="1">INDIRECT(ADDRESS(Q72+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="22" t="e" cm="1">
+      <c r="Q72" s="19"/>
+      <c r="R72" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R72" ca="1">INDIRECT(ADDRESS(Q72+2,23))/(O72*INDIRECT(ADDRESS(Q72+2,27))*INDIRECT(ADDRESS(Q72+2,28))*INDIRECT(ADDRESS(Q72+2,29))*INDIRECT(ADDRESS(Q72+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S72" s="22" t="e" cm="1">
+      <c r="S72" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S72" ca="1">INDIRECT(ADDRESS(Q72+2,24))/(O72*INDIRECT(ADDRESS(Q72+2,27))*INDIRECT(ADDRESS(Q72+2,28))*INDIRECT(ADDRESS(Q72+2,29))*INDIRECT(ADDRESS(Q72+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="52" cm="1">
+      <c r="A73" s="48"/>
+      <c r="B73" s="19">
+        <v>40740</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="37" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F73" s="52" cm="1">
+      <c r="F73" s="37" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G73" s="52" t="e" cm="1">
+      <c r="G73" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="52" t="e" cm="1">
+      <c r="H73" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C73)*INDIRECT(ADDRESS(5,38))/(D73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I73" s="52" cm="1">
+      <c r="I73" s="37" cm="1">
         <f t="array" aca="1" ref="I73" ca="1">1/((D73*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J73" s="52" cm="1">
+      <c r="J73" s="37" cm="1">
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L73" s="20" t="s">
+      <c r="L73" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M73" s="20" t="s">
+      <c r="M73" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="N73" s="21" t="s">
+      <c r="N73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O73" s="21"/>
-      <c r="P73" s="22" t="str" cm="1">
+      <c r="O73" s="19"/>
+      <c r="P73" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P73" ca="1">INDIRECT(ADDRESS(Q73+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="22" t="e" cm="1">
+      <c r="Q73" s="19"/>
+      <c r="R73" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R73" ca="1">INDIRECT(ADDRESS(Q73+2,23))/(O73*INDIRECT(ADDRESS(Q73+2,27))*INDIRECT(ADDRESS(Q73+2,28))*INDIRECT(ADDRESS(Q73+2,29))*INDIRECT(ADDRESS(Q73+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S73" s="22" t="e" cm="1">
+      <c r="S73" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S73" ca="1">INDIRECT(ADDRESS(Q73+2,24))/(O73*INDIRECT(ADDRESS(Q73+2,27))*INDIRECT(ADDRESS(Q73+2,28))*INDIRECT(ADDRESS(Q73+2,29))*INDIRECT(ADDRESS(Q73+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="52" cm="1">
+      <c r="A74" s="48"/>
+      <c r="B74" s="19">
+        <v>40750</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="37" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F74" s="52" cm="1">
+      <c r="F74" s="37" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G74" s="52" t="e" cm="1">
+      <c r="G74" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="52" t="e" cm="1">
+      <c r="H74" s="37" t="e" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C74)*INDIRECT(ADDRESS(5,38))/(D74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" s="52" cm="1">
+      <c r="I74" s="37" cm="1">
         <f t="array" aca="1" ref="I74" ca="1">1/((D74*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J74" s="52" cm="1">
+      <c r="J74" s="37" cm="1">
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="21" t="s">
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O74" s="21"/>
-      <c r="P74" s="22" t="str" cm="1">
+      <c r="O74" s="19"/>
+      <c r="P74" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P74" ca="1">INDIRECT(ADDRESS(Q74+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="22" t="e" cm="1">
+      <c r="Q74" s="19"/>
+      <c r="R74" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R74" ca="1">INDIRECT(ADDRESS(Q74+2,23))/(O74*INDIRECT(ADDRESS(Q74+2,27))*INDIRECT(ADDRESS(Q74+2,28))*INDIRECT(ADDRESS(Q74+2,29))*INDIRECT(ADDRESS(Q74+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S74" s="22" t="e" cm="1">
+      <c r="S74" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S74" ca="1">INDIRECT(ADDRESS(Q74+2,24))/(O74*INDIRECT(ADDRESS(Q74+2,27))*INDIRECT(ADDRESS(Q74+2,28))*INDIRECT(ADDRESS(Q74+2,29))*INDIRECT(ADDRESS(Q74+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="21" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="19">
+        <v>40760</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="37" cm="1">
+        <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F75" s="37" cm="1">
+        <f t="array" aca="1" ref="F75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G75" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G75" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H75" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C75)*INDIRECT(ADDRESS(5,38))/(D75*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="37" cm="1">
+        <f t="array" aca="1" ref="I75" ca="1">1/((D75*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J75" s="37" cm="1">
+        <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O75" s="21"/>
-      <c r="P75" s="22" t="str" cm="1">
+      <c r="O75" s="19"/>
+      <c r="P75" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P75" ca="1">INDIRECT(ADDRESS(Q75+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="22" t="e" cm="1">
+      <c r="Q75" s="19"/>
+      <c r="R75" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R75" ca="1">INDIRECT(ADDRESS(Q75+2,23))/(O75*INDIRECT(ADDRESS(Q75+2,27))*INDIRECT(ADDRESS(Q75+2,28))*INDIRECT(ADDRESS(Q75+2,29))*INDIRECT(ADDRESS(Q75+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S75" s="22" t="e" cm="1">
+      <c r="S75" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S75" ca="1">INDIRECT(ADDRESS(Q75+2,24))/(O75*INDIRECT(ADDRESS(Q75+2,27))*INDIRECT(ADDRESS(Q75+2,28))*INDIRECT(ADDRESS(Q75+2,29))*INDIRECT(ADDRESS(Q75+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L76" s="20"/>
-      <c r="M76" s="20" t="s">
+      <c r="A76" s="48"/>
+      <c r="B76" s="19">
+        <v>40770</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="37" cm="1">
+        <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F76" s="37" cm="1">
+        <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G76" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="37" t="e" cm="1">
+        <f t="array" aca="1" ref="H76" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C76)*INDIRECT(ADDRESS(5,38))/(D76*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="37" cm="1">
+        <f t="array" aca="1" ref="I76" ca="1">1/((D76*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J76" s="37" cm="1">
+        <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N76" s="21" t="s">
+      <c r="N76" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O76" s="21"/>
-      <c r="P76" s="22" t="str" cm="1">
+      <c r="O76" s="19"/>
+      <c r="P76" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P76" ca="1">INDIRECT(ADDRESS(Q76+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="22" t="e" cm="1">
+      <c r="Q76" s="19"/>
+      <c r="R76" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R76" ca="1">INDIRECT(ADDRESS(Q76+2,23))/(O76*INDIRECT(ADDRESS(Q76+2,27))*INDIRECT(ADDRESS(Q76+2,28))*INDIRECT(ADDRESS(Q76+2,29))*INDIRECT(ADDRESS(Q76+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S76" s="22" t="e" cm="1">
+      <c r="S76" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S76" ca="1">INDIRECT(ADDRESS(Q76+2,24))/(O76*INDIRECT(ADDRESS(Q76+2,27))*INDIRECT(ADDRESS(Q76+2,28))*INDIRECT(ADDRESS(Q76+2,29))*INDIRECT(ADDRESS(Q76+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="21" t="s">
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="22" t="str" cm="1">
+      <c r="O77" s="19"/>
+      <c r="P77" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P77" ca="1">INDIRECT(ADDRESS(Q77+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="22" t="e" cm="1">
+      <c r="Q77" s="19"/>
+      <c r="R77" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R77" ca="1">INDIRECT(ADDRESS(Q77+2,23))/(O77*INDIRECT(ADDRESS(Q77+2,27))*INDIRECT(ADDRESS(Q77+2,28))*INDIRECT(ADDRESS(Q77+2,29))*INDIRECT(ADDRESS(Q77+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S77" s="22" t="e" cm="1">
+      <c r="S77" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S77" ca="1">INDIRECT(ADDRESS(Q77+2,24))/(O77*INDIRECT(ADDRESS(Q77+2,27))*INDIRECT(ADDRESS(Q77+2,28))*INDIRECT(ADDRESS(Q77+2,29))*INDIRECT(ADDRESS(Q77+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="21" t="s">
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O78" s="21"/>
-      <c r="P78" s="22" t="str" cm="1">
+      <c r="O78" s="19"/>
+      <c r="P78" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P78" ca="1">INDIRECT(ADDRESS(Q78+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="22" t="e" cm="1">
+      <c r="Q78" s="19"/>
+      <c r="R78" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R78" ca="1">INDIRECT(ADDRESS(Q78+2,23))/(O78*INDIRECT(ADDRESS(Q78+2,27))*INDIRECT(ADDRESS(Q78+2,28))*INDIRECT(ADDRESS(Q78+2,29))*INDIRECT(ADDRESS(Q78+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S78" s="22" t="e" cm="1">
+      <c r="S78" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="S78" ca="1">INDIRECT(ADDRESS(Q78+2,24))/(O78*INDIRECT(ADDRESS(Q78+2,27))*INDIRECT(ADDRESS(Q78+2,28))*INDIRECT(ADDRESS(Q78+2,29))*INDIRECT(ADDRESS(Q78+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="46" t="s">
+      <c r="H79" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="46" t="s">
+      <c r="I79" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="26" t="s">
+      <c r="M79" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="38" t="s">
+      <c r="N79" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="39"/>
-      <c r="P79" s="27" t="s">
+      <c r="O79" s="46"/>
+      <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q79" s="27" t="s">
+      <c r="Q79" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="R79" s="27" t="s">
+      <c r="R79" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S79" s="27" t="s">
+      <c r="S79" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="51" cm="1">
+      <c r="B80" s="23">
+        <v>40230</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="36" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F80" s="51" cm="1">
+      <c r="F80" s="36" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G80" s="51" t="e" cm="1">
+      <c r="G80" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="51" t="e" cm="1">
+      <c r="H80" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C80)*INDIRECT(ADDRESS(5,38))/(D80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" s="51" cm="1">
+      <c r="I80" s="36" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J80" s="51" cm="1">
+      <c r="J80" s="36" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L80" s="28" t="s">
+      <c r="L80" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="28" t="s">
+      <c r="M80" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N80" s="29" t="s">
+      <c r="N80" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O80" s="29"/>
-      <c r="P80" s="30" t="str" cm="1">
+      <c r="O80" s="23"/>
+      <c r="P80" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P80" ca="1">INDIRECT(ADDRESS(Q80+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="30" t="e" cm="1">
+      <c r="Q80" s="23"/>
+      <c r="R80" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R80" ca="1">INDIRECT(ADDRESS(Q80+2,23))/(O80*INDIRECT(ADDRESS(Q80+2,27))*INDIRECT(ADDRESS(Q80+2,28))*INDIRECT(ADDRESS(Q80+2,29))*INDIRECT(ADDRESS(Q80+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S80" s="30" t="e" cm="1">
+      <c r="S80" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S80" ca="1">INDIRECT(ADDRESS(Q80+2,24))/(O80*INDIRECT(ADDRESS(Q80+2,27))*INDIRECT(ADDRESS(Q80+2,28))*INDIRECT(ADDRESS(Q80+2,29))*INDIRECT(ADDRESS(Q80+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="51" cm="1">
+      <c r="A81" s="39"/>
+      <c r="B81" s="23">
+        <v>40240</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="36" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F81" s="51" cm="1">
+      <c r="F81" s="36" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G81" s="51" t="e" cm="1">
+      <c r="G81" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="51" t="e" cm="1">
+      <c r="H81" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C81)*INDIRECT(ADDRESS(5,38))/(D81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="51" cm="1">
+      <c r="I81" s="36" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J81" s="51" cm="1">
+      <c r="J81" s="36" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="29" t="s">
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="29"/>
-      <c r="P81" s="30" t="str" cm="1">
+      <c r="O81" s="23"/>
+      <c r="P81" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P81" ca="1">INDIRECT(ADDRESS(Q81+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="30" t="e" cm="1">
+      <c r="Q81" s="23"/>
+      <c r="R81" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R81" ca="1">INDIRECT(ADDRESS(Q81+2,23))/(O81*INDIRECT(ADDRESS(Q81+2,27))*INDIRECT(ADDRESS(Q81+2,28))*INDIRECT(ADDRESS(Q81+2,29))*INDIRECT(ADDRESS(Q81+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S81" s="30" t="e" cm="1">
+      <c r="S81" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S81" ca="1">INDIRECT(ADDRESS(Q81+2,24))/(O81*INDIRECT(ADDRESS(Q81+2,27))*INDIRECT(ADDRESS(Q81+2,28))*INDIRECT(ADDRESS(Q81+2,29))*INDIRECT(ADDRESS(Q81+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="51" cm="1">
+      <c r="A82" s="39"/>
+      <c r="B82" s="23">
+        <v>40250</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="36" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F82" s="51" cm="1">
+      <c r="F82" s="36" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G82" s="51" t="e" cm="1">
+      <c r="G82" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="51" t="e" cm="1">
+      <c r="H82" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C82)*INDIRECT(ADDRESS(5,38))/(D82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I82" s="51" cm="1">
+      <c r="I82" s="36" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J82" s="51" cm="1">
+      <c r="J82" s="36" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="29" t="s">
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="29"/>
-      <c r="P82" s="30" t="str" cm="1">
+      <c r="O82" s="23"/>
+      <c r="P82" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P82" ca="1">INDIRECT(ADDRESS(Q82+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="30" t="e" cm="1">
+      <c r="Q82" s="23"/>
+      <c r="R82" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R82" ca="1">INDIRECT(ADDRESS(Q82+2,23))/(O82*INDIRECT(ADDRESS(Q82+2,27))*INDIRECT(ADDRESS(Q82+2,28))*INDIRECT(ADDRESS(Q82+2,29))*INDIRECT(ADDRESS(Q82+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S82" s="30" t="e" cm="1">
+      <c r="S82" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S82" ca="1">INDIRECT(ADDRESS(Q82+2,24))/(O82*INDIRECT(ADDRESS(Q82+2,27))*INDIRECT(ADDRESS(Q82+2,28))*INDIRECT(ADDRESS(Q82+2,29))*INDIRECT(ADDRESS(Q82+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="51" cm="1">
+      <c r="A83" s="39"/>
+      <c r="B83" s="23">
+        <v>40360</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="36" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F83" s="51" cm="1">
+      <c r="F83" s="36" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G83" s="51" t="e" cm="1">
+      <c r="G83" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="51" t="e" cm="1">
+      <c r="H83" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C83)*INDIRECT(ADDRESS(5,38))/(D83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="51" cm="1">
+      <c r="I83" s="36" cm="1">
         <f t="array" aca="1" ref="I83" ca="1">1/((D83*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J83" s="51" cm="1">
+      <c r="J83" s="36" cm="1">
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28" t="s">
+      <c r="L83" s="47"/>
+      <c r="M83" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N83" s="29" t="s">
+      <c r="N83" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O83" s="29"/>
-      <c r="P83" s="30" t="str" cm="1">
+      <c r="O83" s="23"/>
+      <c r="P83" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">INDIRECT(ADDRESS(Q83+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="30" t="e" cm="1">
+      <c r="Q83" s="23"/>
+      <c r="R83" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R83" ca="1">INDIRECT(ADDRESS(Q83+2,23))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S83" s="30" t="e" cm="1">
+      <c r="S83" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S83" ca="1">INDIRECT(ADDRESS(Q83+2,24))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="51" cm="1">
+      <c r="A84" s="39"/>
+      <c r="B84" s="23">
+        <v>40390</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="36" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F84" s="51" cm="1">
+      <c r="F84" s="36" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G84" s="51" t="e" cm="1">
+      <c r="G84" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="51" t="e" cm="1">
+      <c r="H84" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C84)*INDIRECT(ADDRESS(5,38))/(D84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I84" s="51" cm="1">
+      <c r="I84" s="36" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J84" s="51" cm="1">
+      <c r="J84" s="36" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="29" t="s">
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="30" t="str" cm="1">
+      <c r="O84" s="23"/>
+      <c r="P84" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P84" ca="1">INDIRECT(ADDRESS(Q84+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="30" t="e" cm="1">
+      <c r="Q84" s="23"/>
+      <c r="R84" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R84" ca="1">INDIRECT(ADDRESS(Q84+2,23))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S84" s="30" t="e" cm="1">
+      <c r="S84" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S84" ca="1">INDIRECT(ADDRESS(Q84+2,24))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="51" cm="1">
+      <c r="A85" s="39"/>
+      <c r="B85" s="23">
+        <v>40710</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="36" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F85" s="51" cm="1">
+      <c r="F85" s="36" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G85" s="51" t="e" cm="1">
+      <c r="G85" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="51" t="e" cm="1">
+      <c r="H85" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C85)*INDIRECT(ADDRESS(5,38))/(D85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I85" s="51" cm="1">
+      <c r="I85" s="36" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J85" s="51" cm="1">
+      <c r="J85" s="36" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="29" t="s">
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O85" s="29"/>
-      <c r="P85" s="30" t="str" cm="1">
+      <c r="O85" s="23"/>
+      <c r="P85" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P85" ca="1">INDIRECT(ADDRESS(Q85+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="30" t="e" cm="1">
+      <c r="Q85" s="23"/>
+      <c r="R85" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R85" ca="1">INDIRECT(ADDRESS(Q85+2,23))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S85" s="30" t="e" cm="1">
+      <c r="S85" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S85" ca="1">INDIRECT(ADDRESS(Q85+2,24))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="51" cm="1">
+      <c r="A86" s="39"/>
+      <c r="B86" s="23">
+        <v>40740</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="36" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F86" s="51" cm="1">
+      <c r="F86" s="36" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G86" s="51" t="e" cm="1">
+      <c r="G86" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="51" t="e" cm="1">
+      <c r="H86" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C86)*INDIRECT(ADDRESS(5,38))/(D86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I86" s="51" cm="1">
+      <c r="I86" s="36" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J86" s="51" cm="1">
+      <c r="J86" s="36" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L86" s="28" t="s">
+      <c r="L86" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M86" s="28" t="s">
+      <c r="M86" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="29" t="s">
+      <c r="N86" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O86" s="29"/>
-      <c r="P86" s="30" t="str" cm="1">
+      <c r="O86" s="23"/>
+      <c r="P86" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P86" ca="1">INDIRECT(ADDRESS(Q86+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="30" t="e" cm="1">
+      <c r="Q86" s="23"/>
+      <c r="R86" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R86" ca="1">INDIRECT(ADDRESS(Q86+2,23))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S86" s="30" t="e" cm="1">
+      <c r="S86" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S86" ca="1">INDIRECT(ADDRESS(Q86+2,24))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="33"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="51" cm="1">
+      <c r="A87" s="39"/>
+      <c r="B87" s="23">
+        <v>40750</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="36" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F87" s="51" cm="1">
+      <c r="F87" s="36" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G87" s="51" t="e" cm="1">
+      <c r="G87" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="51" t="e" cm="1">
+      <c r="H87" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C87)*INDIRECT(ADDRESS(5,38))/(D87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I87" s="51" cm="1">
+      <c r="I87" s="36" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J87" s="51" cm="1">
+      <c r="J87" s="36" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="29" t="s">
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="29"/>
-      <c r="P87" s="30" t="str" cm="1">
+      <c r="O87" s="23"/>
+      <c r="P87" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P87" ca="1">INDIRECT(ADDRESS(Q87+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="30" t="e" cm="1">
+      <c r="Q87" s="23"/>
+      <c r="R87" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R87" ca="1">INDIRECT(ADDRESS(Q87+2,23))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S87" s="30" t="e" cm="1">
+      <c r="S87" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S87" ca="1">INDIRECT(ADDRESS(Q87+2,24))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="29" t="s">
+      <c r="A88" s="39"/>
+      <c r="B88" s="23">
+        <v>40760</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="36" cm="1">
+        <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F88" s="36" cm="1">
+        <f t="array" aca="1" ref="F88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G88" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G88" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H88" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C88)*INDIRECT(ADDRESS(5,38))/(D88*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" s="36" cm="1">
+        <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J88" s="36" cm="1">
+        <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O88" s="29"/>
-      <c r="P88" s="30" t="str" cm="1">
+      <c r="O88" s="23"/>
+      <c r="P88" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P88" ca="1">INDIRECT(ADDRESS(Q88+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="30" t="e" cm="1">
+      <c r="Q88" s="23"/>
+      <c r="R88" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R88" ca="1">INDIRECT(ADDRESS(Q88+2,23))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S88" s="30" t="e" cm="1">
+      <c r="S88" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S88" ca="1">INDIRECT(ADDRESS(Q88+2,24))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L89" s="28"/>
-      <c r="M89" s="28" t="s">
+      <c r="A89" s="40"/>
+      <c r="B89" s="23">
+        <v>40770</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="36" cm="1">
+        <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F89" s="36" cm="1">
+        <f t="array" aca="1" ref="F89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G89" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G89" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H89" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C89)*INDIRECT(ADDRESS(5,38))/(D89*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I89" s="36" cm="1">
+        <f t="array" aca="1" ref="I89" ca="1">1/((D89*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J89" s="36" cm="1">
+        <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N89" s="29" t="s">
+      <c r="N89" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O89" s="29"/>
-      <c r="P89" s="30" t="str" cm="1">
+      <c r="O89" s="23"/>
+      <c r="P89" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P89" ca="1">INDIRECT(ADDRESS(Q89+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="30" t="e" cm="1">
+      <c r="Q89" s="23"/>
+      <c r="R89" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R89" ca="1">INDIRECT(ADDRESS(Q89+2,23))/(O89*INDIRECT(ADDRESS(Q89+2,27))*INDIRECT(ADDRESS(Q89+2,28))*INDIRECT(ADDRESS(Q89+2,29))*INDIRECT(ADDRESS(Q89+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S89" s="30" t="e" cm="1">
+      <c r="S89" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S89" ca="1">INDIRECT(ADDRESS(Q89+2,24))/(O89*INDIRECT(ADDRESS(Q89+2,27))*INDIRECT(ADDRESS(Q89+2,28))*INDIRECT(ADDRESS(Q89+2,29))*INDIRECT(ADDRESS(Q89+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="29" t="s">
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O90" s="29"/>
-      <c r="P90" s="30" t="str" cm="1">
+      <c r="O90" s="23"/>
+      <c r="P90" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P90" ca="1">INDIRECT(ADDRESS(Q90+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="30" t="e" cm="1">
+      <c r="Q90" s="23"/>
+      <c r="R90" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R90" ca="1">INDIRECT(ADDRESS(Q90+2,23))/(O90*INDIRECT(ADDRESS(Q90+2,27))*INDIRECT(ADDRESS(Q90+2,28))*INDIRECT(ADDRESS(Q90+2,29))*INDIRECT(ADDRESS(Q90+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S90" s="30" t="e" cm="1">
+      <c r="S90" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S90" ca="1">INDIRECT(ADDRESS(Q90+2,24))/(O90*INDIRECT(ADDRESS(Q90+2,27))*INDIRECT(ADDRESS(Q90+2,28))*INDIRECT(ADDRESS(Q90+2,29))*INDIRECT(ADDRESS(Q90+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="29" t="s">
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O91" s="29"/>
-      <c r="P91" s="30" t="str" cm="1">
+      <c r="O91" s="23"/>
+      <c r="P91" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P91" ca="1">INDIRECT(ADDRESS(Q91+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="30" t="e" cm="1">
+      <c r="Q91" s="23"/>
+      <c r="R91" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R91" ca="1">INDIRECT(ADDRESS(Q91+2,23))/(O91*INDIRECT(ADDRESS(Q91+2,27))*INDIRECT(ADDRESS(Q91+2,28))*INDIRECT(ADDRESS(Q91+2,29))*INDIRECT(ADDRESS(Q91+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S91" s="30" t="e" cm="1">
+      <c r="S91" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S91" ca="1">INDIRECT(ADDRESS(Q91+2,24))/(O91*INDIRECT(ADDRESS(Q91+2,27))*INDIRECT(ADDRESS(Q91+2,28))*INDIRECT(ADDRESS(Q91+2,29))*INDIRECT(ADDRESS(Q91+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F92" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="46" t="s">
+      <c r="G92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H92" s="46" t="s">
+      <c r="H92" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="46" t="s">
+      <c r="I92" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="46" t="s">
+      <c r="J92" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L92" s="26" t="s">
+      <c r="L92" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M92" s="26" t="s">
+      <c r="M92" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="38" t="s">
+      <c r="N92" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O92" s="39"/>
-      <c r="P92" s="27" t="s">
+      <c r="O92" s="46"/>
+      <c r="P92" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q92" s="27" t="s">
+      <c r="Q92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="R92" s="27" t="s">
+      <c r="R92" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S92" s="27" t="s">
+      <c r="S92" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="51" cm="1">
+      <c r="B93" s="23">
+        <v>40230</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="36" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F93" s="51" cm="1">
+      <c r="F93" s="36" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G93" s="51" t="e" cm="1">
+      <c r="G93" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="51" t="e" cm="1">
+      <c r="H93" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C93)*INDIRECT(ADDRESS(5,38))/(D93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I93" s="51" cm="1">
+      <c r="I93" s="36" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J93" s="51" cm="1">
+      <c r="J93" s="36" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L93" s="28" t="s">
+      <c r="L93" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M93" s="28" t="s">
+      <c r="M93" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N93" s="29" t="s">
+      <c r="N93" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O93" s="29"/>
-      <c r="P93" s="30" t="str" cm="1">
+      <c r="O93" s="23"/>
+      <c r="P93" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P93" ca="1">INDIRECT(ADDRESS(Q93+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="30" t="e" cm="1">
+      <c r="Q93" s="23"/>
+      <c r="R93" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R93" ca="1">INDIRECT(ADDRESS(Q93+2,23))/(O93*INDIRECT(ADDRESS(Q93+2,27))*INDIRECT(ADDRESS(Q93+2,28))*INDIRECT(ADDRESS(Q93+2,29))*INDIRECT(ADDRESS(Q93+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S93" s="30" t="e" cm="1">
+      <c r="S93" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S93" ca="1">INDIRECT(ADDRESS(Q93+2,24))/(O93*INDIRECT(ADDRESS(Q93+2,27))*INDIRECT(ADDRESS(Q93+2,28))*INDIRECT(ADDRESS(Q93+2,29))*INDIRECT(ADDRESS(Q93+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="51" cm="1">
+      <c r="A94" s="47"/>
+      <c r="B94" s="23">
+        <v>40240</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="36" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F94" s="51" cm="1">
+      <c r="F94" s="36" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G94" s="51" t="e" cm="1">
+      <c r="G94" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="51" t="e" cm="1">
+      <c r="H94" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C94)*INDIRECT(ADDRESS(5,38))/(D94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I94" s="51" cm="1">
+      <c r="I94" s="36" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J94" s="51" cm="1">
+      <c r="J94" s="36" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="29" t="s">
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O94" s="29"/>
-      <c r="P94" s="30" t="str" cm="1">
+      <c r="O94" s="23"/>
+      <c r="P94" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P94" ca="1">INDIRECT(ADDRESS(Q94+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="30" t="e" cm="1">
+      <c r="Q94" s="23"/>
+      <c r="R94" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R94" ca="1">INDIRECT(ADDRESS(Q94+2,23))/(O94*INDIRECT(ADDRESS(Q94+2,27))*INDIRECT(ADDRESS(Q94+2,28))*INDIRECT(ADDRESS(Q94+2,29))*INDIRECT(ADDRESS(Q94+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S94" s="30" t="e" cm="1">
+      <c r="S94" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S94" ca="1">INDIRECT(ADDRESS(Q94+2,24))/(O94*INDIRECT(ADDRESS(Q94+2,27))*INDIRECT(ADDRESS(Q94+2,28))*INDIRECT(ADDRESS(Q94+2,29))*INDIRECT(ADDRESS(Q94+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="51" cm="1">
+      <c r="A95" s="47"/>
+      <c r="B95" s="23">
+        <v>40250</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="36" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F95" s="51" cm="1">
+      <c r="F95" s="36" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G95" s="51" t="e" cm="1">
+      <c r="G95" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="51" t="e" cm="1">
+      <c r="H95" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C95)*INDIRECT(ADDRESS(5,38))/(D95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I95" s="51" cm="1">
+      <c r="I95" s="36" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J95" s="51" cm="1">
+      <c r="J95" s="36" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="29" t="s">
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O95" s="29"/>
-      <c r="P95" s="30" t="str" cm="1">
+      <c r="O95" s="23"/>
+      <c r="P95" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P95" ca="1">INDIRECT(ADDRESS(Q95+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="30" t="e" cm="1">
+      <c r="Q95" s="23"/>
+      <c r="R95" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R95" ca="1">INDIRECT(ADDRESS(Q95+2,23))/(O95*INDIRECT(ADDRESS(Q95+2,27))*INDIRECT(ADDRESS(Q95+2,28))*INDIRECT(ADDRESS(Q95+2,29))*INDIRECT(ADDRESS(Q95+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S95" s="30" t="e" cm="1">
+      <c r="S95" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S95" ca="1">INDIRECT(ADDRESS(Q95+2,24))/(O95*INDIRECT(ADDRESS(Q95+2,27))*INDIRECT(ADDRESS(Q95+2,28))*INDIRECT(ADDRESS(Q95+2,29))*INDIRECT(ADDRESS(Q95+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="51" cm="1">
+      <c r="A96" s="47"/>
+      <c r="B96" s="23">
+        <v>40360</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="36" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F96" s="51" cm="1">
+      <c r="F96" s="36" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G96" s="51" t="e" cm="1">
+      <c r="G96" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="51" t="e" cm="1">
+      <c r="H96" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C96)*INDIRECT(ADDRESS(5,38))/(D96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I96" s="51" cm="1">
+      <c r="I96" s="36" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">1/((D96*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J96" s="51" cm="1">
+      <c r="J96" s="36" cm="1">
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28" t="s">
+      <c r="L96" s="47"/>
+      <c r="M96" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N96" s="29" t="s">
+      <c r="N96" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O96" s="29"/>
-      <c r="P96" s="30" t="str" cm="1">
+      <c r="O96" s="23"/>
+      <c r="P96" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P96" ca="1">INDIRECT(ADDRESS(Q96+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="30" t="e" cm="1">
+      <c r="Q96" s="23"/>
+      <c r="R96" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R96" ca="1">INDIRECT(ADDRESS(Q96+2,23))/(O96*INDIRECT(ADDRESS(Q96+2,27))*INDIRECT(ADDRESS(Q96+2,28))*INDIRECT(ADDRESS(Q96+2,29))*INDIRECT(ADDRESS(Q96+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S96" s="30" t="e" cm="1">
+      <c r="S96" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S96" ca="1">INDIRECT(ADDRESS(Q96+2,24))/(O96*INDIRECT(ADDRESS(Q96+2,27))*INDIRECT(ADDRESS(Q96+2,28))*INDIRECT(ADDRESS(Q96+2,29))*INDIRECT(ADDRESS(Q96+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="51" cm="1">
+      <c r="A97" s="47"/>
+      <c r="B97" s="23">
+        <v>40390</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="36" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F97" s="51" cm="1">
+      <c r="F97" s="36" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G97" s="51" t="e" cm="1">
+      <c r="G97" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="51" t="e" cm="1">
+      <c r="H97" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C97)*INDIRECT(ADDRESS(5,38))/(D97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I97" s="51" cm="1">
+      <c r="I97" s="36" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J97" s="51" cm="1">
+      <c r="J97" s="36" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="29" t="s">
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O97" s="29"/>
-      <c r="P97" s="30" t="str" cm="1">
+      <c r="O97" s="23"/>
+      <c r="P97" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P97" ca="1">INDIRECT(ADDRESS(Q97+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="30" t="e" cm="1">
+      <c r="Q97" s="23"/>
+      <c r="R97" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R97" ca="1">INDIRECT(ADDRESS(Q97+2,23))/(O97*INDIRECT(ADDRESS(Q97+2,27))*INDIRECT(ADDRESS(Q97+2,28))*INDIRECT(ADDRESS(Q97+2,29))*INDIRECT(ADDRESS(Q97+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S97" s="30" t="e" cm="1">
+      <c r="S97" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S97" ca="1">INDIRECT(ADDRESS(Q97+2,24))/(O97*INDIRECT(ADDRESS(Q97+2,27))*INDIRECT(ADDRESS(Q97+2,28))*INDIRECT(ADDRESS(Q97+2,29))*INDIRECT(ADDRESS(Q97+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="51" cm="1">
+      <c r="A98" s="47"/>
+      <c r="B98" s="23">
+        <v>40710</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="36" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F98" s="51" cm="1">
+      <c r="F98" s="36" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G98" s="51" t="e" cm="1">
+      <c r="G98" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="51" t="e" cm="1">
+      <c r="H98" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C98)*INDIRECT(ADDRESS(5,38))/(D98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I98" s="51" cm="1">
+      <c r="I98" s="36" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J98" s="51" cm="1">
+      <c r="J98" s="36" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="29" t="s">
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O98" s="29"/>
-      <c r="P98" s="30" t="str" cm="1">
+      <c r="O98" s="23"/>
+      <c r="P98" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P98" ca="1">INDIRECT(ADDRESS(Q98+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="30" t="e" cm="1">
+      <c r="Q98" s="23"/>
+      <c r="R98" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R98" ca="1">INDIRECT(ADDRESS(Q98+2,23))/(O98*INDIRECT(ADDRESS(Q98+2,27))*INDIRECT(ADDRESS(Q98+2,28))*INDIRECT(ADDRESS(Q98+2,29))*INDIRECT(ADDRESS(Q98+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S98" s="30" t="e" cm="1">
+      <c r="S98" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S98" ca="1">INDIRECT(ADDRESS(Q98+2,24))/(O98*INDIRECT(ADDRESS(Q98+2,27))*INDIRECT(ADDRESS(Q98+2,28))*INDIRECT(ADDRESS(Q98+2,29))*INDIRECT(ADDRESS(Q98+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="51" cm="1">
+      <c r="A99" s="47"/>
+      <c r="B99" s="23">
+        <v>40740</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="36" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F99" s="51" cm="1">
+      <c r="F99" s="36" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G99" s="51" t="e" cm="1">
+      <c r="G99" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="51" t="e" cm="1">
+      <c r="H99" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C99)*INDIRECT(ADDRESS(5,38))/(D99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I99" s="51" cm="1">
+      <c r="I99" s="36" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J99" s="51" cm="1">
+      <c r="J99" s="36" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L99" s="28" t="s">
+      <c r="L99" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M99" s="28" t="s">
+      <c r="M99" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N99" s="29" t="s">
+      <c r="N99" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O99" s="29"/>
-      <c r="P99" s="30" t="str" cm="1">
+      <c r="O99" s="23"/>
+      <c r="P99" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P99" ca="1">INDIRECT(ADDRESS(Q99+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="30" t="e" cm="1">
+      <c r="Q99" s="23"/>
+      <c r="R99" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R99" ca="1">INDIRECT(ADDRESS(Q99+2,23))/(O99*INDIRECT(ADDRESS(Q99+2,27))*INDIRECT(ADDRESS(Q99+2,28))*INDIRECT(ADDRESS(Q99+2,29))*INDIRECT(ADDRESS(Q99+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S99" s="30" t="e" cm="1">
+      <c r="S99" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S99" ca="1">INDIRECT(ADDRESS(Q99+2,24))/(O99*INDIRECT(ADDRESS(Q99+2,27))*INDIRECT(ADDRESS(Q99+2,28))*INDIRECT(ADDRESS(Q99+2,29))*INDIRECT(ADDRESS(Q99+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="33"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="51" cm="1">
+      <c r="A100" s="47"/>
+      <c r="B100" s="23">
+        <v>40750</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="36" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F100" s="51" cm="1">
+      <c r="F100" s="36" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G100" s="51" t="e" cm="1">
+      <c r="G100" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="51" t="e" cm="1">
+      <c r="H100" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C100)*INDIRECT(ADDRESS(5,38))/(D100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I100" s="51" cm="1">
+      <c r="I100" s="36" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J100" s="51" cm="1">
+      <c r="J100" s="36" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="29" t="s">
+      <c r="L100" s="47"/>
+      <c r="M100" s="47"/>
+      <c r="N100" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O100" s="29"/>
-      <c r="P100" s="30" t="str" cm="1">
+      <c r="O100" s="23"/>
+      <c r="P100" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P100" ca="1">INDIRECT(ADDRESS(Q100+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="30" t="e" cm="1">
+      <c r="Q100" s="23"/>
+      <c r="R100" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R100" ca="1">INDIRECT(ADDRESS(Q100+2,23))/(O100*INDIRECT(ADDRESS(Q100+2,27))*INDIRECT(ADDRESS(Q100+2,28))*INDIRECT(ADDRESS(Q100+2,29))*INDIRECT(ADDRESS(Q100+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S100" s="30" t="e" cm="1">
+      <c r="S100" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S100" ca="1">INDIRECT(ADDRESS(Q100+2,24))/(O100*INDIRECT(ADDRESS(Q100+2,27))*INDIRECT(ADDRESS(Q100+2,28))*INDIRECT(ADDRESS(Q100+2,29))*INDIRECT(ADDRESS(Q100+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="29" t="s">
+      <c r="A101" s="47"/>
+      <c r="B101" s="23">
+        <v>40760</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="36" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F101" s="36" cm="1">
+        <f t="array" aca="1" ref="F101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G101" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G101" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H101" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C101)*INDIRECT(ADDRESS(5,38))/(D101*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I101" s="36" cm="1">
+        <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J101" s="36" cm="1">
+        <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L101" s="47"/>
+      <c r="M101" s="47"/>
+      <c r="N101" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O101" s="29"/>
-      <c r="P101" s="30" t="str" cm="1">
+      <c r="O101" s="23"/>
+      <c r="P101" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P101" ca="1">INDIRECT(ADDRESS(Q101+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="30" t="e" cm="1">
+      <c r="Q101" s="23"/>
+      <c r="R101" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R101" ca="1">INDIRECT(ADDRESS(Q101+2,23))/(O101*INDIRECT(ADDRESS(Q101+2,27))*INDIRECT(ADDRESS(Q101+2,28))*INDIRECT(ADDRESS(Q101+2,29))*INDIRECT(ADDRESS(Q101+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S101" s="30" t="e" cm="1">
+      <c r="S101" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S101" ca="1">INDIRECT(ADDRESS(Q101+2,24))/(O101*INDIRECT(ADDRESS(Q101+2,27))*INDIRECT(ADDRESS(Q101+2,28))*INDIRECT(ADDRESS(Q101+2,29))*INDIRECT(ADDRESS(Q101+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L102" s="28"/>
-      <c r="M102" s="28" t="s">
+      <c r="A102" s="47"/>
+      <c r="B102" s="23">
+        <v>40770</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="36" cm="1">
+        <f t="array" aca="1" ref="E102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F102" s="36" cm="1">
+        <f t="array" aca="1" ref="F102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G102" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G102" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H102" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C102)*INDIRECT(ADDRESS(5,38))/(D102*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I102" s="36" cm="1">
+        <f t="array" aca="1" ref="I102" ca="1">1/((D102*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J102" s="36" cm="1">
+        <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L102" s="47"/>
+      <c r="M102" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N102" s="29" t="s">
+      <c r="N102" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O102" s="29"/>
-      <c r="P102" s="30" t="str" cm="1">
+      <c r="O102" s="23"/>
+      <c r="P102" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P102" ca="1">INDIRECT(ADDRESS(Q102+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="30" t="e" cm="1">
+      <c r="Q102" s="23"/>
+      <c r="R102" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R102" ca="1">INDIRECT(ADDRESS(Q102+2,23))/(O102*INDIRECT(ADDRESS(Q102+2,27))*INDIRECT(ADDRESS(Q102+2,28))*INDIRECT(ADDRESS(Q102+2,29))*INDIRECT(ADDRESS(Q102+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S102" s="30" t="e" cm="1">
+      <c r="S102" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S102" ca="1">INDIRECT(ADDRESS(Q102+2,24))/(O102*INDIRECT(ADDRESS(Q102+2,27))*INDIRECT(ADDRESS(Q102+2,28))*INDIRECT(ADDRESS(Q102+2,29))*INDIRECT(ADDRESS(Q102+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="29" t="s">
+      <c r="L103" s="47"/>
+      <c r="M103" s="47"/>
+      <c r="N103" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O103" s="29"/>
-      <c r="P103" s="30" t="str" cm="1">
+      <c r="O103" s="23"/>
+      <c r="P103" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P103" ca="1">INDIRECT(ADDRESS(Q103+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="30" t="e" cm="1">
+      <c r="Q103" s="23"/>
+      <c r="R103" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R103" ca="1">INDIRECT(ADDRESS(Q103+2,23))/(O103*INDIRECT(ADDRESS(Q103+2,27))*INDIRECT(ADDRESS(Q103+2,28))*INDIRECT(ADDRESS(Q103+2,29))*INDIRECT(ADDRESS(Q103+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S103" s="30" t="e" cm="1">
+      <c r="S103" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S103" ca="1">INDIRECT(ADDRESS(Q103+2,24))/(O103*INDIRECT(ADDRESS(Q103+2,27))*INDIRECT(ADDRESS(Q103+2,28))*INDIRECT(ADDRESS(Q103+2,29))*INDIRECT(ADDRESS(Q103+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="29" t="s">
+      <c r="L104" s="47"/>
+      <c r="M104" s="47"/>
+      <c r="N104" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O104" s="29"/>
-      <c r="P104" s="30" t="str" cm="1">
+      <c r="O104" s="23"/>
+      <c r="P104" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P104" ca="1">INDIRECT(ADDRESS(Q104+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="30" t="e" cm="1">
+      <c r="Q104" s="23"/>
+      <c r="R104" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R104" ca="1">INDIRECT(ADDRESS(Q104+2,23))/(O104*INDIRECT(ADDRESS(Q104+2,27))*INDIRECT(ADDRESS(Q104+2,28))*INDIRECT(ADDRESS(Q104+2,29))*INDIRECT(ADDRESS(Q104+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S104" s="30" t="e" cm="1">
+      <c r="S104" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S104" ca="1">INDIRECT(ADDRESS(Q104+2,24))/(O104*INDIRECT(ADDRESS(Q104+2,27))*INDIRECT(ADDRESS(Q104+2,28))*INDIRECT(ADDRESS(Q104+2,29))*INDIRECT(ADDRESS(Q104+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="46" t="s">
+      <c r="E105" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="46" t="s">
+      <c r="H105" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="46" t="s">
+      <c r="I105" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J105" s="46" t="s">
+      <c r="J105" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L105" s="26" t="s">
+      <c r="L105" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M105" s="26" t="s">
+      <c r="M105" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N105" s="38" t="s">
+      <c r="N105" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O105" s="39"/>
-      <c r="P105" s="27" t="s">
+      <c r="O105" s="46"/>
+      <c r="P105" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q105" s="27" t="s">
+      <c r="Q105" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="R105" s="27" t="s">
+      <c r="R105" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S105" s="27" t="s">
+      <c r="S105" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="51" cm="1">
+      <c r="B106" s="23">
+        <v>40230</v>
+      </c>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="36" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F106" s="51" cm="1">
+      <c r="F106" s="36" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G106" s="51" t="e" cm="1">
+      <c r="G106" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H106" s="51" t="e" cm="1">
+      <c r="H106" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C106)*INDIRECT(ADDRESS(5,38))/(D106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I106" s="51" cm="1">
+      <c r="I106" s="36" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J106" s="51" cm="1">
+      <c r="J106" s="36" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L106" s="28" t="s">
+      <c r="L106" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M106" s="28" t="s">
+      <c r="M106" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N106" s="29" t="s">
+      <c r="N106" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O106" s="29"/>
-      <c r="P106" s="30" t="str" cm="1">
+      <c r="O106" s="23"/>
+      <c r="P106" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P106" ca="1">INDIRECT(ADDRESS(Q106+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="30" t="e" cm="1">
+      <c r="Q106" s="23"/>
+      <c r="R106" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R106" ca="1">INDIRECT(ADDRESS(Q106+2,23))/(O106*INDIRECT(ADDRESS(Q106+2,27))*INDIRECT(ADDRESS(Q106+2,28))*INDIRECT(ADDRESS(Q106+2,29))*INDIRECT(ADDRESS(Q106+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S106" s="30" t="e" cm="1">
+      <c r="S106" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S106" ca="1">INDIRECT(ADDRESS(Q106+2,24))/(O106*INDIRECT(ADDRESS(Q106+2,27))*INDIRECT(ADDRESS(Q106+2,28))*INDIRECT(ADDRESS(Q106+2,29))*INDIRECT(ADDRESS(Q106+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="51" cm="1">
+      <c r="A107" s="47"/>
+      <c r="B107" s="23">
+        <v>40240</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="36" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F107" s="51" cm="1">
+      <c r="F107" s="36" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G107" s="51" t="e" cm="1">
+      <c r="G107" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H107" s="51" t="e" cm="1">
+      <c r="H107" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C107)*INDIRECT(ADDRESS(5,38))/(D107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I107" s="51" cm="1">
+      <c r="I107" s="36" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J107" s="51" cm="1">
+      <c r="J107" s="36" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="29" t="s">
+      <c r="L107" s="47"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O107" s="29"/>
-      <c r="P107" s="30" t="str" cm="1">
+      <c r="O107" s="23"/>
+      <c r="P107" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P107" ca="1">INDIRECT(ADDRESS(Q107+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="30" t="e" cm="1">
+      <c r="Q107" s="23"/>
+      <c r="R107" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R107" ca="1">INDIRECT(ADDRESS(Q107+2,23))/(O107*INDIRECT(ADDRESS(Q107+2,27))*INDIRECT(ADDRESS(Q107+2,28))*INDIRECT(ADDRESS(Q107+2,29))*INDIRECT(ADDRESS(Q107+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S107" s="30" t="e" cm="1">
+      <c r="S107" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S107" ca="1">INDIRECT(ADDRESS(Q107+2,24))/(O107*INDIRECT(ADDRESS(Q107+2,27))*INDIRECT(ADDRESS(Q107+2,28))*INDIRECT(ADDRESS(Q107+2,29))*INDIRECT(ADDRESS(Q107+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="51" cm="1">
+      <c r="A108" s="47"/>
+      <c r="B108" s="23">
+        <v>40250</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="36" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F108" s="51" cm="1">
+      <c r="F108" s="36" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G108" s="51" t="e" cm="1">
+      <c r="G108" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H108" s="51" t="e" cm="1">
+      <c r="H108" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C108)*INDIRECT(ADDRESS(5,38))/(D108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I108" s="51" cm="1">
+      <c r="I108" s="36" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J108" s="51" cm="1">
+      <c r="J108" s="36" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="29" t="s">
+      <c r="L108" s="47"/>
+      <c r="M108" s="47"/>
+      <c r="N108" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O108" s="29"/>
-      <c r="P108" s="30" t="str" cm="1">
+      <c r="O108" s="23"/>
+      <c r="P108" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P108" ca="1">INDIRECT(ADDRESS(Q108+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q108" s="29"/>
-      <c r="R108" s="30" t="e" cm="1">
+      <c r="Q108" s="23"/>
+      <c r="R108" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R108" ca="1">INDIRECT(ADDRESS(Q108+2,23))/(O108*INDIRECT(ADDRESS(Q108+2,27))*INDIRECT(ADDRESS(Q108+2,28))*INDIRECT(ADDRESS(Q108+2,29))*INDIRECT(ADDRESS(Q108+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S108" s="30" t="e" cm="1">
+      <c r="S108" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S108" ca="1">INDIRECT(ADDRESS(Q108+2,24))/(O108*INDIRECT(ADDRESS(Q108+2,27))*INDIRECT(ADDRESS(Q108+2,28))*INDIRECT(ADDRESS(Q108+2,29))*INDIRECT(ADDRESS(Q108+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="51" cm="1">
+      <c r="A109" s="47"/>
+      <c r="B109" s="23">
+        <v>40360</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="36" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F109" s="51" cm="1">
+      <c r="F109" s="36" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G109" s="51" t="e" cm="1">
+      <c r="G109" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H109" s="51" t="e" cm="1">
+      <c r="H109" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C109)*INDIRECT(ADDRESS(5,38))/(D109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I109" s="51" cm="1">
+      <c r="I109" s="36" cm="1">
         <f t="array" aca="1" ref="I109" ca="1">1/((D109*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J109" s="51" cm="1">
+      <c r="J109" s="36" cm="1">
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28" t="s">
+      <c r="L109" s="47"/>
+      <c r="M109" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N109" s="29" t="s">
+      <c r="N109" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O109" s="29"/>
-      <c r="P109" s="30" t="str" cm="1">
+      <c r="O109" s="23"/>
+      <c r="P109" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P109" ca="1">INDIRECT(ADDRESS(Q109+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="30" t="e" cm="1">
+      <c r="Q109" s="23"/>
+      <c r="R109" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R109" ca="1">INDIRECT(ADDRESS(Q109+2,23))/(O109*INDIRECT(ADDRESS(Q109+2,27))*INDIRECT(ADDRESS(Q109+2,28))*INDIRECT(ADDRESS(Q109+2,29))*INDIRECT(ADDRESS(Q109+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S109" s="30" t="e" cm="1">
+      <c r="S109" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S109" ca="1">INDIRECT(ADDRESS(Q109+2,24))/(O109*INDIRECT(ADDRESS(Q109+2,27))*INDIRECT(ADDRESS(Q109+2,28))*INDIRECT(ADDRESS(Q109+2,29))*INDIRECT(ADDRESS(Q109+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="51" cm="1">
+      <c r="A110" s="47"/>
+      <c r="B110" s="23">
+        <v>40390</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="36" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F110" s="51" cm="1">
+      <c r="F110" s="36" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G110" s="51" t="e" cm="1">
+      <c r="G110" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="51" t="e" cm="1">
+      <c r="H110" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C110)*INDIRECT(ADDRESS(5,38))/(D110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I110" s="51" cm="1">
+      <c r="I110" s="36" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J110" s="51" cm="1">
+      <c r="J110" s="36" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="29" t="s">
+      <c r="L110" s="47"/>
+      <c r="M110" s="47"/>
+      <c r="N110" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O110" s="29"/>
-      <c r="P110" s="30" t="str" cm="1">
+      <c r="O110" s="23"/>
+      <c r="P110" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P110" ca="1">INDIRECT(ADDRESS(Q110+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q110" s="29"/>
-      <c r="R110" s="30" t="e" cm="1">
+      <c r="Q110" s="23"/>
+      <c r="R110" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R110" ca="1">INDIRECT(ADDRESS(Q110+2,23))/(O110*INDIRECT(ADDRESS(Q110+2,27))*INDIRECT(ADDRESS(Q110+2,28))*INDIRECT(ADDRESS(Q110+2,29))*INDIRECT(ADDRESS(Q110+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S110" s="30" t="e" cm="1">
+      <c r="S110" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S110" ca="1">INDIRECT(ADDRESS(Q110+2,24))/(O110*INDIRECT(ADDRESS(Q110+2,27))*INDIRECT(ADDRESS(Q110+2,28))*INDIRECT(ADDRESS(Q110+2,29))*INDIRECT(ADDRESS(Q110+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="51" cm="1">
+      <c r="A111" s="47"/>
+      <c r="B111" s="23">
+        <v>40710</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="36" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F111" s="51" cm="1">
+      <c r="F111" s="36" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G111" s="51" t="e" cm="1">
+      <c r="G111" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H111" s="51" t="e" cm="1">
+      <c r="H111" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C111)*INDIRECT(ADDRESS(5,38))/(D111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I111" s="51" cm="1">
+      <c r="I111" s="36" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J111" s="51" cm="1">
+      <c r="J111" s="36" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="29" t="s">
+      <c r="L111" s="47"/>
+      <c r="M111" s="47"/>
+      <c r="N111" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O111" s="29"/>
-      <c r="P111" s="30" t="str" cm="1">
+      <c r="O111" s="23"/>
+      <c r="P111" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P111" ca="1">INDIRECT(ADDRESS(Q111+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q111" s="29"/>
-      <c r="R111" s="30" t="e" cm="1">
+      <c r="Q111" s="23"/>
+      <c r="R111" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R111" ca="1">INDIRECT(ADDRESS(Q111+2,23))/(O111*INDIRECT(ADDRESS(Q111+2,27))*INDIRECT(ADDRESS(Q111+2,28))*INDIRECT(ADDRESS(Q111+2,29))*INDIRECT(ADDRESS(Q111+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S111" s="30" t="e" cm="1">
+      <c r="S111" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S111" ca="1">INDIRECT(ADDRESS(Q111+2,24))/(O111*INDIRECT(ADDRESS(Q111+2,27))*INDIRECT(ADDRESS(Q111+2,28))*INDIRECT(ADDRESS(Q111+2,29))*INDIRECT(ADDRESS(Q111+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="32"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="51" cm="1">
+      <c r="A112" s="47"/>
+      <c r="B112" s="23">
+        <v>40740</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="36" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F112" s="51" cm="1">
+      <c r="F112" s="36" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G112" s="51" t="e" cm="1">
+      <c r="G112" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H112" s="51" t="e" cm="1">
+      <c r="H112" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C112)*INDIRECT(ADDRESS(5,38))/(D112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I112" s="51" cm="1">
+      <c r="I112" s="36" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J112" s="51" cm="1">
+      <c r="J112" s="36" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="28" t="s">
+      <c r="M112" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N112" s="29" t="s">
+      <c r="N112" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O112" s="29"/>
-      <c r="P112" s="30" t="str" cm="1">
+      <c r="O112" s="23"/>
+      <c r="P112" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P112" ca="1">INDIRECT(ADDRESS(Q112+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q112" s="29"/>
-      <c r="R112" s="30" t="e" cm="1">
+      <c r="Q112" s="23"/>
+      <c r="R112" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R112" ca="1">INDIRECT(ADDRESS(Q112+2,23))/(O112*INDIRECT(ADDRESS(Q112+2,27))*INDIRECT(ADDRESS(Q112+2,28))*INDIRECT(ADDRESS(Q112+2,29))*INDIRECT(ADDRESS(Q112+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S112" s="30" t="e" cm="1">
+      <c r="S112" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S112" ca="1">INDIRECT(ADDRESS(Q112+2,24))/(O112*INDIRECT(ADDRESS(Q112+2,27))*INDIRECT(ADDRESS(Q112+2,28))*INDIRECT(ADDRESS(Q112+2,29))*INDIRECT(ADDRESS(Q112+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="33"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="51" cm="1">
+      <c r="A113" s="47"/>
+      <c r="B113" s="23">
+        <v>40750</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="36" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F113" s="51" cm="1">
+      <c r="F113" s="36" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G113" s="51" t="e" cm="1">
+      <c r="G113" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H113" s="51" t="e" cm="1">
+      <c r="H113" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C113)*INDIRECT(ADDRESS(5,38))/(D113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I113" s="51" cm="1">
+      <c r="I113" s="36" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J113" s="51" cm="1">
+      <c r="J113" s="36" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L113" s="28"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="29" t="s">
+      <c r="L113" s="47"/>
+      <c r="M113" s="47"/>
+      <c r="N113" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O113" s="29"/>
-      <c r="P113" s="30" t="str" cm="1">
+      <c r="O113" s="23"/>
+      <c r="P113" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P113" ca="1">INDIRECT(ADDRESS(Q113+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q113" s="29"/>
-      <c r="R113" s="30" t="e" cm="1">
+      <c r="Q113" s="23"/>
+      <c r="R113" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R113" ca="1">INDIRECT(ADDRESS(Q113+2,23))/(O113*INDIRECT(ADDRESS(Q113+2,27))*INDIRECT(ADDRESS(Q113+2,28))*INDIRECT(ADDRESS(Q113+2,29))*INDIRECT(ADDRESS(Q113+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S113" s="30" t="e" cm="1">
+      <c r="S113" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S113" ca="1">INDIRECT(ADDRESS(Q113+2,24))/(O113*INDIRECT(ADDRESS(Q113+2,27))*INDIRECT(ADDRESS(Q113+2,28))*INDIRECT(ADDRESS(Q113+2,29))*INDIRECT(ADDRESS(Q113+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L114" s="28"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="29" t="s">
+      <c r="A114" s="47"/>
+      <c r="B114" s="23">
+        <v>40760</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="36" cm="1">
+        <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F114" s="36" cm="1">
+        <f t="array" aca="1" ref="F114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G114" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G114" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H114" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H114" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C114)*INDIRECT(ADDRESS(5,38))/(D114*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I114" s="36" cm="1">
+        <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J114" s="36" cm="1">
+        <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
+      <c r="N114" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O114" s="29"/>
-      <c r="P114" s="30" t="str" cm="1">
+      <c r="O114" s="23"/>
+      <c r="P114" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P114" ca="1">INDIRECT(ADDRESS(Q114+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q114" s="29"/>
-      <c r="R114" s="30" t="e" cm="1">
+      <c r="Q114" s="23"/>
+      <c r="R114" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R114" ca="1">INDIRECT(ADDRESS(Q114+2,23))/(O114*INDIRECT(ADDRESS(Q114+2,27))*INDIRECT(ADDRESS(Q114+2,28))*INDIRECT(ADDRESS(Q114+2,29))*INDIRECT(ADDRESS(Q114+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S114" s="30" t="e" cm="1">
+      <c r="S114" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S114" ca="1">INDIRECT(ADDRESS(Q114+2,24))/(O114*INDIRECT(ADDRESS(Q114+2,27))*INDIRECT(ADDRESS(Q114+2,28))*INDIRECT(ADDRESS(Q114+2,29))*INDIRECT(ADDRESS(Q114+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L115" s="28"/>
-      <c r="M115" s="28" t="s">
+      <c r="A115" s="47"/>
+      <c r="B115" s="23">
+        <v>40770</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="36" cm="1">
+        <f t="array" aca="1" ref="E115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))-1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="F115" s="36" cm="1">
+        <f t="array" aca="1" ref="F115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="G115" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="G115" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="36" t="e" cm="1">
+        <f t="array" aca="1" ref="H115" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C115)*INDIRECT(ADDRESS(5,38))/(D115*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I115" s="36" cm="1">
+        <f t="array" aca="1" ref="I115" ca="1">1/((D115*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
+        <v>0.58289376072382715</v>
+      </c>
+      <c r="J115" s="36" cm="1">
+        <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
+        <v>0.83282435452232617</v>
+      </c>
+      <c r="L115" s="47"/>
+      <c r="M115" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N115" s="29" t="s">
+      <c r="N115" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O115" s="29"/>
-      <c r="P115" s="30" t="str" cm="1">
+      <c r="O115" s="23"/>
+      <c r="P115" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P115" ca="1">INDIRECT(ADDRESS(Q115+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q115" s="29"/>
-      <c r="R115" s="30" t="e" cm="1">
+      <c r="Q115" s="23"/>
+      <c r="R115" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R115" ca="1">INDIRECT(ADDRESS(Q115+2,23))/(O115*INDIRECT(ADDRESS(Q115+2,27))*INDIRECT(ADDRESS(Q115+2,28))*INDIRECT(ADDRESS(Q115+2,29))*INDIRECT(ADDRESS(Q115+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S115" s="30" t="e" cm="1">
+      <c r="S115" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S115" ca="1">INDIRECT(ADDRESS(Q115+2,24))/(O115*INDIRECT(ADDRESS(Q115+2,27))*INDIRECT(ADDRESS(Q115+2,28))*INDIRECT(ADDRESS(Q115+2,29))*INDIRECT(ADDRESS(Q115+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="29" t="s">
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O116" s="29"/>
-      <c r="P116" s="30" t="str" cm="1">
+      <c r="O116" s="23"/>
+      <c r="P116" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P116" ca="1">INDIRECT(ADDRESS(Q116+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="30" t="e" cm="1">
+      <c r="Q116" s="23"/>
+      <c r="R116" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R116" ca="1">INDIRECT(ADDRESS(Q116+2,23))/(O116*INDIRECT(ADDRESS(Q116+2,27))*INDIRECT(ADDRESS(Q116+2,28))*INDIRECT(ADDRESS(Q116+2,29))*INDIRECT(ADDRESS(Q116+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S116" s="30" t="e" cm="1">
+      <c r="S116" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S116" ca="1">INDIRECT(ADDRESS(Q116+2,24))/(O116*INDIRECT(ADDRESS(Q116+2,27))*INDIRECT(ADDRESS(Q116+2,28))*INDIRECT(ADDRESS(Q116+2,29))*INDIRECT(ADDRESS(Q116+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="29" t="s">
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O117" s="29"/>
-      <c r="P117" s="30" t="str" cm="1">
+      <c r="O117" s="23"/>
+      <c r="P117" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P117" ca="1">INDIRECT(ADDRESS(Q117+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q117" s="29"/>
-      <c r="R117" s="30" t="e" cm="1">
+      <c r="Q117" s="23"/>
+      <c r="R117" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R117" ca="1">INDIRECT(ADDRESS(Q117+2,23))/(O117*INDIRECT(ADDRESS(Q117+2,27))*INDIRECT(ADDRESS(Q117+2,28))*INDIRECT(ADDRESS(Q117+2,29))*INDIRECT(ADDRESS(Q117+2,30))) -1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S117" s="30" t="e" cm="1">
+      <c r="S117" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="S117" ca="1">INDIRECT(ADDRESS(Q117+2,24))/(O117*INDIRECT(ADDRESS(Q117+2,27))*INDIRECT(ADDRESS(Q117+2,28))*INDIRECT(ADDRESS(Q117+2,29))*INDIRECT(ADDRESS(Q117+2,31))) -1</f>
         <v>#VALUE!</v>
       </c>
@@ -5904,48 +6605,104 @@
       <c r="U125" s="9"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L126" s="17"/>
+      <c r="L126" s="16"/>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L127" s="17"/>
+      <c r="L127" s="16"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L128" s="17"/>
+      <c r="L128" s="16"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
     <row r="129" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L129" s="17"/>
+      <c r="L129" s="16"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
     <row r="130" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L130" s="17"/>
+      <c r="L130" s="16"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
     <row r="131" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L131" s="17"/>
+      <c r="L131" s="16"/>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
     <row r="132" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L132" s="17"/>
+      <c r="L132" s="16"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
     <row r="133" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L133" s="17"/>
+      <c r="L133" s="16"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="L34:L39"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="L73:L78"/>
+    <mergeCell ref="M73:M75"/>
+    <mergeCell ref="M76:M78"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="L47:L52"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="L54:L59"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="L41:L46"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="L67:L72"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="M96:M98"/>
+    <mergeCell ref="L99:L104"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="L86:L91"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="M89:M91"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N40:O40"/>
     <mergeCell ref="N53:O53"/>
@@ -5961,62 +6718,6 @@
     <mergeCell ref="M115:M117"/>
     <mergeCell ref="L93:L98"/>
     <mergeCell ref="M93:M95"/>
-    <mergeCell ref="M96:M98"/>
-    <mergeCell ref="L99:L104"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="L86:L91"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="M89:M91"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="L67:L72"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="L73:L78"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="L54:L59"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="L34:L39"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D72F01-CEE9-4498-B31F-D0972E7CD440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389F1E2-646F-4F93-8C0A-96FA50AEAFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="57">
   <si>
     <t>Elemento</t>
   </si>
@@ -212,6 +212,21 @@
   </si>
   <si>
     <t>mu s</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>Fz</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>FA</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,6 +501,21 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,19 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL133"/>
+  <dimension ref="A1:AL225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,10 +895,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="42"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -895,7 +913,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
@@ -927,10 +945,10 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1006,7 +1024,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
@@ -1036,8 +1054,8 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1111,7 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
@@ -1123,8 +1141,8 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1180,7 +1198,7 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
@@ -1210,8 +1228,8 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="13" t="s">
@@ -1287,7 +1305,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
@@ -1317,8 +1335,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="13" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1356,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
@@ -1368,8 +1386,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="13" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1407,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
@@ -1419,10 +1437,10 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="13" t="s">
@@ -1444,7 +1462,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
@@ -1474,8 +1492,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1495,7 +1513,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
@@ -1525,8 +1543,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="13" t="s">
         <v>24</v>
       </c>
@@ -1546,7 +1564,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
@@ -1576,8 +1594,8 @@
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -1599,8 +1617,8 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1620,8 +1638,8 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1677,10 +1695,10 @@
       <c r="M14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="42"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="15" t="s">
         <v>9</v>
       </c>
@@ -1695,7 +1713,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
@@ -1727,10 +1745,10 @@
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N15" s="13" t="s">
@@ -1752,7 +1770,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
@@ -1782,8 +1800,8 @@
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="13" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1821,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
@@ -1833,8 +1851,8 @@
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="13" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1872,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
@@ -1884,8 +1902,8 @@
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49" t="s">
+      <c r="L18" s="40"/>
+      <c r="M18" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="13" t="s">
@@ -1907,7 +1925,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
@@ -1937,8 +1955,8 @@
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="13" t="s">
         <v>23</v>
       </c>
@@ -1958,7 +1976,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
@@ -1988,8 +2006,8 @@
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
       <c r="N20" s="13" t="s">
         <v>24</v>
       </c>
@@ -2009,7 +2027,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
@@ -2039,10 +2057,10 @@
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N21" s="13" t="s">
@@ -2064,7 +2082,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
@@ -2094,8 +2112,8 @@
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="13" t="s">
         <v>23</v>
       </c>
@@ -2115,7 +2133,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
@@ -2145,8 +2163,8 @@
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="13" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2184,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2196,8 +2214,8 @@
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49" t="s">
+      <c r="L24" s="40"/>
+      <c r="M24" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="13" t="s">
@@ -2219,8 +2237,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="13" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2258,8 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="13" t="s">
         <v>24</v>
       </c>
@@ -2297,10 +2315,10 @@
       <c r="M27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="42"/>
+      <c r="O27" s="47"/>
       <c r="P27" s="15" t="s">
         <v>9</v>
       </c>
@@ -2315,7 +2333,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
@@ -2347,10 +2365,10 @@
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="M28" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N28" s="13" t="s">
@@ -2372,7 +2390,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
@@ -2402,8 +2420,8 @@
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="13" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2441,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
@@ -2453,8 +2471,8 @@
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="13" t="s">
         <v>24</v>
       </c>
@@ -2474,7 +2492,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
@@ -2504,8 +2522,8 @@
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49" t="s">
+      <c r="L31" s="40"/>
+      <c r="M31" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N31" s="13" t="s">
@@ -2527,7 +2545,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
@@ -2557,8 +2575,8 @@
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
       <c r="N32" s="13" t="s">
         <v>23</v>
       </c>
@@ -2578,7 +2596,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
@@ -2608,8 +2626,8 @@
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="13" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2647,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
@@ -2659,10 +2677,10 @@
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="M34" s="49" t="s">
+      <c r="M34" s="40" t="s">
         <v>39</v>
       </c>
       <c r="N34" s="13" t="s">
@@ -2684,7 +2702,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
@@ -2714,8 +2732,8 @@
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="13" t="s">
         <v>23</v>
       </c>
@@ -2735,7 +2753,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
@@ -2765,8 +2783,8 @@
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
       <c r="N36" s="13" t="s">
         <v>24</v>
       </c>
@@ -2786,7 +2804,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -2816,8 +2834,8 @@
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49" t="s">
+      <c r="L37" s="40"/>
+      <c r="M37" s="40" t="s">
         <v>40</v>
       </c>
       <c r="N37" s="13" t="s">
@@ -2839,8 +2857,8 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
       <c r="N38" s="13" t="s">
         <v>23</v>
       </c>
@@ -2860,8 +2878,8 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
       <c r="N39" s="13" t="s">
         <v>24</v>
       </c>
@@ -2917,10 +2935,10 @@
       <c r="M40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="43" t="s">
+      <c r="N40" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="44"/>
+      <c r="O40" s="49"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2953,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -2967,10 +2985,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L41" s="48" t="s">
+      <c r="L41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="48" t="s">
+      <c r="M41" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N41" s="19" t="s">
@@ -2992,7 +3010,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3022,8 +3040,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3043,7 +3061,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3073,8 +3091,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3094,7 +3112,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3124,8 +3142,8 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N44" s="19" t="s">
@@ -3147,7 +3165,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3177,8 +3195,8 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
       <c r="N45" s="19" t="s">
         <v>23</v>
       </c>
@@ -3198,7 +3216,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3228,8 +3246,8 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
       <c r="N46" s="19" t="s">
         <v>24</v>
       </c>
@@ -3249,7 +3267,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3279,10 +3297,10 @@
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L47" s="48" t="s">
+      <c r="L47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M47" s="48" t="s">
+      <c r="M47" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N47" s="19" t="s">
@@ -3304,7 +3322,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3334,8 +3352,8 @@
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
       <c r="N48" s="19" t="s">
         <v>23</v>
       </c>
@@ -3355,7 +3373,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3385,8 +3403,8 @@
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
       <c r="N49" s="19" t="s">
         <v>24</v>
       </c>
@@ -3406,7 +3424,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3436,8 +3454,8 @@
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48" t="s">
+      <c r="L50" s="39"/>
+      <c r="M50" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N50" s="19" t="s">
@@ -3459,8 +3477,8 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
       <c r="N51" s="19" t="s">
         <v>23</v>
       </c>
@@ -3480,8 +3498,8 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
       <c r="N52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3537,10 +3555,10 @@
       <c r="M53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="43" t="s">
+      <c r="N53" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="O53" s="44"/>
+      <c r="O53" s="49"/>
       <c r="P53" s="18" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +3573,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3587,10 +3605,10 @@
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L54" s="48" t="s">
+      <c r="L54" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="48" t="s">
+      <c r="M54" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N54" s="19" t="s">
@@ -3612,7 +3630,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3642,8 +3660,8 @@
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
       <c r="N55" s="19" t="s">
         <v>23</v>
       </c>
@@ -3663,7 +3681,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3693,8 +3711,8 @@
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
       <c r="N56" s="19" t="s">
         <v>24</v>
       </c>
@@ -3714,7 +3732,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3744,8 +3762,8 @@
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48" t="s">
+      <c r="L57" s="39"/>
+      <c r="M57" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N57" s="19" t="s">
@@ -3767,7 +3785,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3797,8 +3815,8 @@
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
       <c r="N58" s="19" t="s">
         <v>23</v>
       </c>
@@ -3818,7 +3836,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3848,8 +3866,8 @@
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
       <c r="N59" s="19" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +3887,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3899,10 +3917,10 @@
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L60" s="48" t="s">
+      <c r="L60" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M60" s="48" t="s">
+      <c r="M60" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N60" s="19" t="s">
@@ -3924,7 +3942,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3954,8 +3972,8 @@
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
       <c r="N61" s="19" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3993,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="48"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -4005,8 +4023,8 @@
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
       <c r="N62" s="19" t="s">
         <v>24</v>
       </c>
@@ -4026,7 +4044,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -4056,8 +4074,8 @@
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48" t="s">
+      <c r="L63" s="39"/>
+      <c r="M63" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N63" s="19" t="s">
@@ -4079,8 +4097,8 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
       <c r="N64" s="19" t="s">
         <v>23</v>
       </c>
@@ -4100,8 +4118,8 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
       <c r="N65" s="19" t="s">
         <v>24</v>
       </c>
@@ -4157,10 +4175,10 @@
       <c r="M66" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N66" s="43" t="s">
+      <c r="N66" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="44"/>
+      <c r="O66" s="49"/>
       <c r="P66" s="18" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4193,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="39" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4207,10 +4225,10 @@
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L67" s="48" t="s">
+      <c r="L67" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="48" t="s">
+      <c r="M67" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N67" s="19" t="s">
@@ -4232,7 +4250,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="48"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4262,8 +4280,8 @@
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
       <c r="N68" s="19" t="s">
         <v>23</v>
       </c>
@@ -4283,7 +4301,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="48"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4313,8 +4331,8 @@
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
       <c r="N69" s="19" t="s">
         <v>24</v>
       </c>
@@ -4334,7 +4352,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="48"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4364,8 +4382,8 @@
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48" t="s">
+      <c r="L70" s="39"/>
+      <c r="M70" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N70" s="19" t="s">
@@ -4387,7 +4405,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="48"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4417,8 +4435,8 @@
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
       <c r="N71" s="19" t="s">
         <v>23</v>
       </c>
@@ -4438,7 +4456,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="48"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4468,8 +4486,8 @@
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
       <c r="N72" s="19" t="s">
         <v>24</v>
       </c>
@@ -4489,7 +4507,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4519,10 +4537,10 @@
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L73" s="48" t="s">
+      <c r="L73" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="M73" s="48" t="s">
+      <c r="M73" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N73" s="19" t="s">
@@ -4544,7 +4562,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="48"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4574,8 +4592,8 @@
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L74" s="48"/>
-      <c r="M74" s="48"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
       <c r="N74" s="19" t="s">
         <v>23</v>
       </c>
@@ -4595,7 +4613,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="48"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4625,8 +4643,8 @@
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L75" s="48"/>
-      <c r="M75" s="48"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
       <c r="N75" s="19" t="s">
         <v>24</v>
       </c>
@@ -4646,7 +4664,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="48"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4676,8 +4694,8 @@
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L76" s="48"/>
-      <c r="M76" s="48" t="s">
+      <c r="L76" s="39"/>
+      <c r="M76" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N76" s="19" t="s">
@@ -4699,8 +4717,8 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
       <c r="N77" s="19" t="s">
         <v>23</v>
       </c>
@@ -4720,8 +4738,8 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
       <c r="N78" s="19" t="s">
         <v>24</v>
       </c>
@@ -4777,10 +4795,10 @@
       <c r="M79" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="45" t="s">
+      <c r="N79" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="46"/>
+      <c r="O79" s="51"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4795,7 +4813,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4827,10 +4845,10 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L80" s="47" t="s">
+      <c r="L80" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="47" t="s">
+      <c r="M80" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="23" t="s">
@@ -4852,7 +4870,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
@@ -4882,8 +4900,8 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L81" s="47"/>
-      <c r="M81" s="47"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4903,7 +4921,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
@@ -4933,8 +4951,8 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L82" s="47"/>
-      <c r="M82" s="47"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4954,7 +4972,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
@@ -4984,8 +5002,8 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47" t="s">
+      <c r="L83" s="38"/>
+      <c r="M83" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="23" t="s">
@@ -5007,7 +5025,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
@@ -5037,8 +5055,8 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
       <c r="N84" s="23" t="s">
         <v>23</v>
       </c>
@@ -5058,7 +5076,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
@@ -5088,8 +5106,8 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
       <c r="N85" s="23" t="s">
         <v>24</v>
       </c>
@@ -5109,7 +5127,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
@@ -5139,10 +5157,10 @@
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L86" s="47" t="s">
+      <c r="L86" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M86" s="47" t="s">
+      <c r="M86" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="23" t="s">
@@ -5164,7 +5182,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
@@ -5194,8 +5212,8 @@
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
       <c r="N87" s="23" t="s">
         <v>23</v>
       </c>
@@ -5215,7 +5233,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
@@ -5245,8 +5263,8 @@
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
       <c r="N88" s="23" t="s">
         <v>24</v>
       </c>
@@ -5266,7 +5284,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
@@ -5296,8 +5314,8 @@
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47" t="s">
+      <c r="L89" s="38"/>
+      <c r="M89" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="23" t="s">
@@ -5319,8 +5337,8 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
       <c r="N90" s="23" t="s">
         <v>23</v>
       </c>
@@ -5340,8 +5358,8 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L91" s="47"/>
-      <c r="M91" s="47"/>
+      <c r="L91" s="38"/>
+      <c r="M91" s="38"/>
       <c r="N91" s="23" t="s">
         <v>24</v>
       </c>
@@ -5397,10 +5415,10 @@
       <c r="M92" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="45" t="s">
+      <c r="N92" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O92" s="46"/>
+      <c r="O92" s="51"/>
       <c r="P92" s="22" t="s">
         <v>9</v>
       </c>
@@ -5415,7 +5433,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5447,10 +5465,10 @@
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L93" s="47" t="s">
+      <c r="L93" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M93" s="47" t="s">
+      <c r="M93" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="23" t="s">
@@ -5472,7 +5490,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5502,8 +5520,8 @@
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
       <c r="N94" s="23" t="s">
         <v>23</v>
       </c>
@@ -5523,7 +5541,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5553,8 +5571,8 @@
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
       <c r="N95" s="23" t="s">
         <v>24</v>
       </c>
@@ -5574,7 +5592,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
@@ -5604,8 +5622,8 @@
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L96" s="47"/>
-      <c r="M96" s="47" t="s">
+      <c r="L96" s="38"/>
+      <c r="M96" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N96" s="23" t="s">
@@ -5627,7 +5645,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
@@ -5657,8 +5675,8 @@
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
       <c r="N97" s="23" t="s">
         <v>23</v>
       </c>
@@ -5678,7 +5696,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="47"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
@@ -5708,8 +5726,8 @@
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L98" s="47"/>
-      <c r="M98" s="47"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
       <c r="N98" s="23" t="s">
         <v>24</v>
       </c>
@@ -5729,7 +5747,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
@@ -5759,10 +5777,10 @@
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L99" s="47" t="s">
+      <c r="L99" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M99" s="47" t="s">
+      <c r="M99" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N99" s="23" t="s">
@@ -5784,7 +5802,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="47"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
@@ -5814,8 +5832,8 @@
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L100" s="47"/>
-      <c r="M100" s="47"/>
+      <c r="L100" s="38"/>
+      <c r="M100" s="38"/>
       <c r="N100" s="23" t="s">
         <v>23</v>
       </c>
@@ -5835,7 +5853,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="47"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
@@ -5865,8 +5883,8 @@
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L101" s="47"/>
-      <c r="M101" s="47"/>
+      <c r="L101" s="38"/>
+      <c r="M101" s="38"/>
       <c r="N101" s="23" t="s">
         <v>24</v>
       </c>
@@ -5886,7 +5904,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="47"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
@@ -5916,8 +5934,8 @@
         <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L102" s="47"/>
-      <c r="M102" s="47" t="s">
+      <c r="L102" s="38"/>
+      <c r="M102" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N102" s="23" t="s">
@@ -5939,8 +5957,8 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L103" s="47"/>
-      <c r="M103" s="47"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
       <c r="N103" s="23" t="s">
         <v>23</v>
       </c>
@@ -5960,8 +5978,8 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L104" s="47"/>
-      <c r="M104" s="47"/>
+      <c r="L104" s="38"/>
+      <c r="M104" s="38"/>
       <c r="N104" s="23" t="s">
         <v>24</v>
       </c>
@@ -6017,10 +6035,10 @@
       <c r="M105" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N105" s="45" t="s">
+      <c r="N105" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O105" s="46"/>
+      <c r="O105" s="51"/>
       <c r="P105" s="22" t="s">
         <v>9</v>
       </c>
@@ -6035,7 +6053,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -6067,10 +6085,10 @@
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L106" s="47" t="s">
+      <c r="L106" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M106" s="47" t="s">
+      <c r="M106" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N106" s="23" t="s">
@@ -6092,7 +6110,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="47"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
@@ -6122,8 +6140,8 @@
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L107" s="47"/>
-      <c r="M107" s="47"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
       <c r="N107" s="23" t="s">
         <v>23</v>
       </c>
@@ -6143,7 +6161,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="47"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
@@ -6173,8 +6191,8 @@
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L108" s="47"/>
-      <c r="M108" s="47"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
       <c r="N108" s="23" t="s">
         <v>24</v>
       </c>
@@ -6194,7 +6212,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="47"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
@@ -6224,8 +6242,8 @@
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L109" s="47"/>
-      <c r="M109" s="47" t="s">
+      <c r="L109" s="38"/>
+      <c r="M109" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N109" s="23" t="s">
@@ -6247,7 +6265,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="47"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
@@ -6277,8 +6295,8 @@
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L110" s="47"/>
-      <c r="M110" s="47"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
       <c r="N110" s="23" t="s">
         <v>23</v>
       </c>
@@ -6298,7 +6316,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="47"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
@@ -6328,8 +6346,8 @@
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L111" s="47"/>
-      <c r="M111" s="47"/>
+      <c r="L111" s="38"/>
+      <c r="M111" s="38"/>
       <c r="N111" s="23" t="s">
         <v>24</v>
       </c>
@@ -6349,7 +6367,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="47"/>
+      <c r="A112" s="38"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
@@ -6379,10 +6397,10 @@
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L112" s="47" t="s">
+      <c r="L112" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="47" t="s">
+      <c r="M112" s="38" t="s">
         <v>39</v>
       </c>
       <c r="N112" s="23" t="s">
@@ -6404,7 +6422,7 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="47"/>
+      <c r="A113" s="38"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
@@ -6434,8 +6452,8 @@
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L113" s="47"/>
-      <c r="M113" s="47"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
       <c r="N113" s="23" t="s">
         <v>23</v>
       </c>
@@ -6455,7 +6473,7 @@
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="47"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
@@ -6485,8 +6503,8 @@
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
       <c r="N114" s="23" t="s">
         <v>24</v>
       </c>
@@ -6506,7 +6524,7 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="47"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
@@ -6536,8 +6554,8 @@
         <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L115" s="47"/>
-      <c r="M115" s="47" t="s">
+      <c r="L115" s="38"/>
+      <c r="M115" s="38" t="s">
         <v>40</v>
       </c>
       <c r="N115" s="23" t="s">
@@ -6559,8 +6577,8 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
       <c r="N116" s="23" t="s">
         <v>23</v>
       </c>
@@ -6580,8 +6598,8 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
       <c r="N117" s="23" t="s">
         <v>24</v>
       </c>
@@ -6610,71 +6628,1196 @@
       <c r="U126" s="9"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="52" t="s">
+        <v>55</v>
+      </c>
       <c r="L127" s="16"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A128" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="27">
+        <f>B128*1.1*1</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="27">
+        <f>(C128^2 + D128^2)*1.1</f>
+        <v>0</v>
+      </c>
       <c r="L128" s="16"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A129" s="40"/>
+      <c r="E129" s="27">
+        <f t="shared" ref="E129:E182" si="0">B129*1.1*1</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="27">
+        <f t="shared" ref="F129:F192" si="1">(C129^2 + D129^2)*1.1</f>
+        <v>0</v>
+      </c>
       <c r="L129" s="16"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="E130" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L130" s="16"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="E131" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L131" s="16"/>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="E132" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L132" s="16"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="12:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="E133" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L133" s="16"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="E134" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="E135" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="E136" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="E137" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="42"/>
+      <c r="E140" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="42"/>
+      <c r="E141" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A142" s="42"/>
+      <c r="E142" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A143" s="42"/>
+      <c r="E143" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="42"/>
+      <c r="E144" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="42"/>
+      <c r="E145" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="42"/>
+      <c r="E146" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="42"/>
+      <c r="E147" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="42"/>
+      <c r="E148" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="42"/>
+      <c r="E151" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="42"/>
+      <c r="E152" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="42"/>
+      <c r="E153" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="42"/>
+      <c r="E154" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="42"/>
+      <c r="E155" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="42"/>
+      <c r="E156" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="42"/>
+      <c r="E157" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="42"/>
+      <c r="E158" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="42"/>
+      <c r="E159" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="39"/>
+      <c r="E162" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="39"/>
+      <c r="E163" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F163" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="39"/>
+      <c r="E164" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="39"/>
+      <c r="E165" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="39"/>
+      <c r="E166" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="39"/>
+      <c r="E167" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="39"/>
+      <c r="E168" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="39"/>
+      <c r="E169" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="39"/>
+      <c r="E170" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="39"/>
+      <c r="E173" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="39"/>
+      <c r="E174" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="39"/>
+      <c r="E175" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="39"/>
+      <c r="E176" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="39"/>
+      <c r="E177" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="39"/>
+      <c r="E178" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="39"/>
+      <c r="E179" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="39"/>
+      <c r="E180" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="39"/>
+      <c r="E181" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="27">
+        <f t="shared" ref="E183:E225" si="2">B183*1.1*1</f>
+        <v>0</v>
+      </c>
+      <c r="F183" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="39"/>
+      <c r="E184" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F184" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="39"/>
+      <c r="E185" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="39"/>
+      <c r="E186" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="39"/>
+      <c r="E187" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="39"/>
+      <c r="E188" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="39"/>
+      <c r="E189" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F189" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="39"/>
+      <c r="E190" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="39"/>
+      <c r="E191" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="39"/>
+      <c r="E192" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="27">
+        <f t="shared" ref="F193:F225" si="3">(C193^2 + D193^2)*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F194" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="44"/>
+      <c r="E195" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F195" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="44"/>
+      <c r="E196" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="44"/>
+      <c r="E197" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F197" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="44"/>
+      <c r="E198" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="44"/>
+      <c r="E199" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F199" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="44"/>
+      <c r="E200" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="44"/>
+      <c r="E201" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="44"/>
+      <c r="E202" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="45"/>
+      <c r="E203" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F203" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E204" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="38"/>
+      <c r="E206" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F206" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="38"/>
+      <c r="E207" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="38"/>
+      <c r="E208" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="38"/>
+      <c r="E209" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="38"/>
+      <c r="E210" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="38"/>
+      <c r="E211" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F211" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="38"/>
+      <c r="E212" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="38"/>
+      <c r="E213" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="38"/>
+      <c r="E214" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="38"/>
+      <c r="E217" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F217" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="38"/>
+      <c r="E218" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F218" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="38"/>
+      <c r="E219" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F219" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="38"/>
+      <c r="E220" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="38"/>
+      <c r="E221" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="38"/>
+      <c r="E222" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="38"/>
+      <c r="E223" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="38"/>
+      <c r="E224" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="38"/>
+      <c r="E225" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A93:A102"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="L34:L39"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
+  <mergeCells count="81">
+    <mergeCell ref="A183:A192"/>
+    <mergeCell ref="A194:A203"/>
+    <mergeCell ref="A205:A214"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="A161:A170"/>
+    <mergeCell ref="A172:A181"/>
+    <mergeCell ref="L112:L117"/>
+    <mergeCell ref="M112:M114"/>
+    <mergeCell ref="M115:M117"/>
+    <mergeCell ref="L93:L98"/>
+    <mergeCell ref="M93:M95"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="L106:L111"/>
+    <mergeCell ref="M106:M108"/>
+    <mergeCell ref="M109:M111"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="M96:M98"/>
+    <mergeCell ref="L99:L104"/>
+    <mergeCell ref="M99:M101"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="L86:L91"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="M89:M91"/>
     <mergeCell ref="L73:L78"/>
     <mergeCell ref="M73:M75"/>
     <mergeCell ref="M76:M78"/>
@@ -6691,33 +7834,35 @@
     <mergeCell ref="M60:M62"/>
     <mergeCell ref="M63:M65"/>
     <mergeCell ref="L67:L72"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="M96:M98"/>
-    <mergeCell ref="L99:L104"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="L86:L91"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="M89:M91"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="M106:M108"/>
-    <mergeCell ref="M109:M111"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="M112:M114"/>
-    <mergeCell ref="M115:M117"/>
-    <mergeCell ref="L93:L98"/>
-    <mergeCell ref="M93:M95"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="L34:L39"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L15:L20"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A93:A102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389F1E2-646F-4F93-8C0A-96FA50AEAFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE54CAF-D2F2-47BE-9463-523A2D2A63A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
   <si>
     <t>Elemento</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>FA</t>
+  </si>
+  <si>
+    <t>Tensor de tensiones</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,10 +513,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,6 +526,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,15 +558,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL225"/>
+  <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="O147" sqref="O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,7 +868,7 @@
     <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
     <col min="3" max="3" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="9.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="27" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="27"/>
     <col min="8" max="8" width="10.6640625" style="27" customWidth="1"/>
@@ -895,10 +926,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="47"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -913,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
@@ -945,28 +976,32 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="40" t="s">
-        <v>39</v>
+      <c r="M2" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="35">
+        <v>6090000</v>
+      </c>
       <c r="P2" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDIRECT(ADDRESS(Q2+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>2</v>
+      </c>
+      <c r="R2" s="14" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDIRECT(ADDRESS(Q2+2,23))/(O2*INDIRECT(ADDRESS(Q2+2,27))*INDIRECT(ADDRESS(Q2+2,28))*INDIRECT(ADDRESS(Q2+2,29))*INDIRECT(ADDRESS(Q2+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S2" s="14" t="e" cm="1">
+        <v>14.421075552167025</v>
+      </c>
+      <c r="S2" s="14" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDIRECT(ADDRESS(Q2+2,24))/(O2*INDIRECT(ADDRESS(Q2+2,27))*INDIRECT(ADDRESS(Q2+2,28))*INDIRECT(ADDRESS(Q2+2,29))*INDIRECT(ADDRESS(Q2+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>13.47524958496745</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>8</v>
@@ -1024,7 +1059,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
@@ -1054,24 +1089,28 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="35">
+        <v>6800000</v>
+      </c>
       <c r="P3" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDIRECT(ADDRESS(Q3+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>2</v>
+      </c>
+      <c r="R3" s="14" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDIRECT(ADDRESS(Q3+2,23))/(O3*INDIRECT(ADDRESS(Q3+2,27))*INDIRECT(ADDRESS(Q3+2,28))*INDIRECT(ADDRESS(Q3+2,29))*INDIRECT(ADDRESS(Q3+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S3" s="14" t="e" cm="1">
+        <v>12.810933840102532</v>
+      </c>
+      <c r="S3" s="14" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDIRECT(ADDRESS(Q3+2,24))/(O3*INDIRECT(ADDRESS(Q3+2,27))*INDIRECT(ADDRESS(Q3+2,28))*INDIRECT(ADDRESS(Q3+2,29))*INDIRECT(ADDRESS(Q3+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>11.963863231242911</v>
       </c>
       <c r="U3" s="4">
         <v>1</v>
@@ -1111,7 +1150,7 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
@@ -1141,24 +1180,28 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="35">
+        <v>18200000</v>
+      </c>
       <c r="P4" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDIRECT(ADDRESS(Q4+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2</v>
+      </c>
+      <c r="R4" s="14" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDIRECT(ADDRESS(Q4+2,23))/(O4*INDIRECT(ADDRESS(Q4+2,27))*INDIRECT(ADDRESS(Q4+2,28))*INDIRECT(ADDRESS(Q4+2,29))*INDIRECT(ADDRESS(Q4+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S4" s="14" t="e" cm="1">
+        <v>4.1601291270712748</v>
+      </c>
+      <c r="S4" s="14" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDIRECT(ADDRESS(Q4+2,24))/(O4*INDIRECT(ADDRESS(Q4+2,27))*INDIRECT(ADDRESS(Q4+2,28))*INDIRECT(ADDRESS(Q4+2,29))*INDIRECT(ADDRESS(Q4+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>3.8436412072775701</v>
       </c>
       <c r="U4" s="4">
         <v>2</v>
@@ -1198,7 +1241,7 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
@@ -1228,26 +1271,32 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="L5" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="13"/>
+      <c r="O5" s="35">
+        <v>11200000</v>
+      </c>
       <c r="P5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(Q5+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>2</v>
+      </c>
+      <c r="R5" s="14" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDIRECT(ADDRESS(Q5+2,23))/(O5*INDIRECT(ADDRESS(Q5+2,27))*INDIRECT(ADDRESS(Q5+2,28))*INDIRECT(ADDRESS(Q5+2,29))*INDIRECT(ADDRESS(Q5+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S5" s="14" t="e" cm="1">
+        <v>7.3852098314908208</v>
+      </c>
+      <c r="S5" s="14" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDIRECT(ADDRESS(Q5+2,24))/(O5*INDIRECT(ADDRESS(Q5+2,27))*INDIRECT(ADDRESS(Q5+2,28))*INDIRECT(ADDRESS(Q5+2,29))*INDIRECT(ADDRESS(Q5+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>6.8709169618260511</v>
       </c>
       <c r="U5" s="4">
         <v>3</v>
@@ -1305,7 +1354,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
@@ -1335,28 +1384,32 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="13" t="s">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="35">
+        <v>11500000</v>
+      </c>
       <c r="P6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(Q6+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>2</v>
+      </c>
+      <c r="R6" s="14" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDIRECT(ADDRESS(Q6+2,23))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" s="14" t="e" cm="1">
+        <v>7.1664652271910612</v>
+      </c>
+      <c r="S6" s="14" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT(ADDRESS(Q6+2,24))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>6.6655886932566757</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
@@ -1386,28 +1439,32 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="13" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="35">
+        <v>30500000</v>
+      </c>
       <c r="P7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(Q7+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>2</v>
+      </c>
+      <c r="R7" s="14" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDIRECT(ADDRESS(Q7+2,23))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" s="14" t="e" cm="1">
+        <v>2.0791590200884329</v>
+      </c>
+      <c r="S7" s="14" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(Q7+2,24))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>1.8903039335230094</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
@@ -1437,32 +1494,34 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L8" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="57"/>
+      <c r="M8" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="35">
+        <v>-718000</v>
+      </c>
       <c r="P8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(Q8+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>2</v>
+      </c>
+      <c r="R8" s="14" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDIRECT(ADDRESS(Q8+2,23))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" s="14" t="e" cm="1">
+        <v>-131.79993051907687</v>
+      </c>
+      <c r="S8" s="14" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(Q8+2,24))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>-123.7775347805735</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
@@ -1492,28 +1551,32 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="13" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="35">
+        <v>-596000</v>
+      </c>
       <c r="P9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(Q9+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(Q9+2,23))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S9" s="14" t="e" cm="1">
+        <v>-158.5744129407671</v>
+      </c>
+      <c r="S9" s="14" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDIRECT(ADDRESS(Q9+2,24))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>-148.90984894706673</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
@@ -1543,28 +1606,32 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="13" t="s">
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="35">
+        <v>-1710000</v>
+      </c>
       <c r="P10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(Q10+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>2</v>
+      </c>
+      <c r="R10" s="14" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT(ADDRESS(Q10+2,23))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S10" s="14" t="e" cm="1">
+        <v>-55.920672580524688</v>
+      </c>
+      <c r="S10" s="14" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDIRECT(ADDRESS(Q10+2,24))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>-52.552204662252507</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
@@ -1594,69 +1661,6 @@
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P11" ca="1">INDIRECT(ADDRESS(Q11+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R11" ca="1">INDIRECT(ADDRESS(Q11+2,23))/(O11*INDIRECT(ADDRESS(Q11+2,27))*INDIRECT(ADDRESS(Q11+2,28))*INDIRECT(ADDRESS(Q11+2,29))*INDIRECT(ADDRESS(Q11+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S11" ca="1">INDIRECT(ADDRESS(Q11+2,24))/(O11*INDIRECT(ADDRESS(Q11+2,27))*INDIRECT(ADDRESS(Q11+2,28))*INDIRECT(ADDRESS(Q11+2,29))*INDIRECT(ADDRESS(Q11+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P12" ca="1">INDIRECT(ADDRESS(Q12+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R12" ca="1">INDIRECT(ADDRESS(Q12+2,23))/(O12*INDIRECT(ADDRESS(Q12+2,27))*INDIRECT(ADDRESS(Q12+2,28))*INDIRECT(ADDRESS(Q12+2,29))*INDIRECT(ADDRESS(Q12+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S12" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S12" ca="1">INDIRECT(ADDRESS(Q12+2,24))/(O12*INDIRECT(ADDRESS(Q12+2,27))*INDIRECT(ADDRESS(Q12+2,28))*INDIRECT(ADDRESS(Q12+2,29))*INDIRECT(ADDRESS(Q12+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P13" ca="1">INDIRECT(ADDRESS(Q13+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R13" ca="1">INDIRECT(ADDRESS(Q13+2,23))/(O13*INDIRECT(ADDRESS(Q13+2,27))*INDIRECT(ADDRESS(Q13+2,28))*INDIRECT(ADDRESS(Q13+2,29))*INDIRECT(ADDRESS(Q13+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S13" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S13" ca="1">INDIRECT(ADDRESS(Q13+2,24))/(O13*INDIRECT(ADDRESS(Q13+2,27))*INDIRECT(ADDRESS(Q13+2,28))*INDIRECT(ADDRESS(Q13+2,29))*INDIRECT(ADDRESS(Q13+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1689,31 +1693,17 @@
       <c r="J14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="47"/>
-      <c r="P14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
@@ -1745,32 +1735,17 @@
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L15" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P15" ca="1">INDIRECT(ADDRESS(Q15+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R15" ca="1">INDIRECT(ADDRESS(Q15+2,23))/(O15*INDIRECT(ADDRESS(Q15+2,27))*INDIRECT(ADDRESS(Q15+2,28))*INDIRECT(ADDRESS(Q15+2,29))*INDIRECT(ADDRESS(Q15+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S15" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S15" ca="1">INDIRECT(ADDRESS(Q15+2,24))/(O15*INDIRECT(ADDRESS(Q15+2,27))*INDIRECT(ADDRESS(Q15+2,28))*INDIRECT(ADDRESS(Q15+2,29))*INDIRECT(ADDRESS(Q15+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
@@ -1800,28 +1775,17 @@
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P16" ca="1">INDIRECT(ADDRESS(Q16+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R16" ca="1">INDIRECT(ADDRESS(Q16+2,23))/(O16*INDIRECT(ADDRESS(Q16+2,27))*INDIRECT(ADDRESS(Q16+2,28))*INDIRECT(ADDRESS(Q16+2,29))*INDIRECT(ADDRESS(Q16+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S16" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S16" ca="1">INDIRECT(ADDRESS(Q16+2,24))/(O16*INDIRECT(ADDRESS(Q16+2,27))*INDIRECT(ADDRESS(Q16+2,28))*INDIRECT(ADDRESS(Q16+2,29))*INDIRECT(ADDRESS(Q16+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
@@ -1851,28 +1815,17 @@
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P17" ca="1">INDIRECT(ADDRESS(Q17+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R17" ca="1">INDIRECT(ADDRESS(Q17+2,23))/(O17*INDIRECT(ADDRESS(Q17+2,27))*INDIRECT(ADDRESS(Q17+2,28))*INDIRECT(ADDRESS(Q17+2,29))*INDIRECT(ADDRESS(Q17+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S17" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S17" ca="1">INDIRECT(ADDRESS(Q17+2,24))/(O17*INDIRECT(ADDRESS(Q17+2,27))*INDIRECT(ADDRESS(Q17+2,28))*INDIRECT(ADDRESS(Q17+2,29))*INDIRECT(ADDRESS(Q17+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
@@ -1902,30 +1855,17 @@
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P18" ca="1">INDIRECT(ADDRESS(Q18+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R18" ca="1">INDIRECT(ADDRESS(Q18+2,23))/(O18*INDIRECT(ADDRESS(Q18+2,27))*INDIRECT(ADDRESS(Q18+2,28))*INDIRECT(ADDRESS(Q18+2,29))*INDIRECT(ADDRESS(Q18+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S18" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S18" ca="1">INDIRECT(ADDRESS(Q18+2,24))/(O18*INDIRECT(ADDRESS(Q18+2,27))*INDIRECT(ADDRESS(Q18+2,28))*INDIRECT(ADDRESS(Q18+2,29))*INDIRECT(ADDRESS(Q18+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
@@ -1955,28 +1895,17 @@
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P19" ca="1">INDIRECT(ADDRESS(Q19+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R19" ca="1">INDIRECT(ADDRESS(Q19+2,23))/(O19*INDIRECT(ADDRESS(Q19+2,27))*INDIRECT(ADDRESS(Q19+2,28))*INDIRECT(ADDRESS(Q19+2,29))*INDIRECT(ADDRESS(Q19+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S19" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S19" ca="1">INDIRECT(ADDRESS(Q19+2,24))/(O19*INDIRECT(ADDRESS(Q19+2,27))*INDIRECT(ADDRESS(Q19+2,28))*INDIRECT(ADDRESS(Q19+2,29))*INDIRECT(ADDRESS(Q19+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
@@ -2006,28 +1935,17 @@
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P20" ca="1">INDIRECT(ADDRESS(Q20+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R20" ca="1">INDIRECT(ADDRESS(Q20+2,23))/(O20*INDIRECT(ADDRESS(Q20+2,27))*INDIRECT(ADDRESS(Q20+2,28))*INDIRECT(ADDRESS(Q20+2,29))*INDIRECT(ADDRESS(Q20+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S20" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S20" ca="1">INDIRECT(ADDRESS(Q20+2,24))/(O20*INDIRECT(ADDRESS(Q20+2,27))*INDIRECT(ADDRESS(Q20+2,28))*INDIRECT(ADDRESS(Q20+2,29))*INDIRECT(ADDRESS(Q20+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
@@ -2057,32 +1975,17 @@
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L21" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P21" ca="1">INDIRECT(ADDRESS(Q21+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R21" ca="1">INDIRECT(ADDRESS(Q21+2,23))/(O21*INDIRECT(ADDRESS(Q21+2,27))*INDIRECT(ADDRESS(Q21+2,28))*INDIRECT(ADDRESS(Q21+2,29))*INDIRECT(ADDRESS(Q21+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S21" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S21" ca="1">INDIRECT(ADDRESS(Q21+2,24))/(O21*INDIRECT(ADDRESS(Q21+2,27))*INDIRECT(ADDRESS(Q21+2,28))*INDIRECT(ADDRESS(Q21+2,29))*INDIRECT(ADDRESS(Q21+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
@@ -2112,28 +2015,17 @@
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P22" ca="1">INDIRECT(ADDRESS(Q22+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R22" ca="1">INDIRECT(ADDRESS(Q22+2,23))/(O22*INDIRECT(ADDRESS(Q22+2,27))*INDIRECT(ADDRESS(Q22+2,28))*INDIRECT(ADDRESS(Q22+2,29))*INDIRECT(ADDRESS(Q22+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S22" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S22" ca="1">INDIRECT(ADDRESS(Q22+2,24))/(O22*INDIRECT(ADDRESS(Q22+2,27))*INDIRECT(ADDRESS(Q22+2,28))*INDIRECT(ADDRESS(Q22+2,29))*INDIRECT(ADDRESS(Q22+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
@@ -2163,28 +2055,17 @@
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P23" ca="1">INDIRECT(ADDRESS(Q23+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R23" ca="1">INDIRECT(ADDRESS(Q23+2,23))/(O23*INDIRECT(ADDRESS(Q23+2,27))*INDIRECT(ADDRESS(Q23+2,28))*INDIRECT(ADDRESS(Q23+2,29))*INDIRECT(ADDRESS(Q23+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S23" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S23" ca="1">INDIRECT(ADDRESS(Q23+2,24))/(O23*INDIRECT(ADDRESS(Q23+2,27))*INDIRECT(ADDRESS(Q23+2,28))*INDIRECT(ADDRESS(Q23+2,29))*INDIRECT(ADDRESS(Q23+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2214,69 +2095,34 @@
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P24" ca="1">INDIRECT(ADDRESS(Q24+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R24" ca="1">INDIRECT(ADDRESS(Q24+2,23))/(O24*INDIRECT(ADDRESS(Q24+2,27))*INDIRECT(ADDRESS(Q24+2,28))*INDIRECT(ADDRESS(Q24+2,29))*INDIRECT(ADDRESS(Q24+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S24" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S24" ca="1">INDIRECT(ADDRESS(Q24+2,24))/(O24*INDIRECT(ADDRESS(Q24+2,27))*INDIRECT(ADDRESS(Q24+2,28))*INDIRECT(ADDRESS(Q24+2,29))*INDIRECT(ADDRESS(Q24+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P25" ca="1">INDIRECT(ADDRESS(Q25+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R25" ca="1">INDIRECT(ADDRESS(Q25+2,23))/(O25*INDIRECT(ADDRESS(Q25+2,27))*INDIRECT(ADDRESS(Q25+2,28))*INDIRECT(ADDRESS(Q25+2,29))*INDIRECT(ADDRESS(Q25+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S25" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S25" ca="1">INDIRECT(ADDRESS(Q25+2,24))/(O25*INDIRECT(ADDRESS(Q25+2,27))*INDIRECT(ADDRESS(Q25+2,28))*INDIRECT(ADDRESS(Q25+2,29))*INDIRECT(ADDRESS(Q25+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P26" ca="1">INDIRECT(ADDRESS(Q26+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R26" ca="1">INDIRECT(ADDRESS(Q26+2,23))/(O26*INDIRECT(ADDRESS(Q26+2,27))*INDIRECT(ADDRESS(Q26+2,28))*INDIRECT(ADDRESS(Q26+2,29))*INDIRECT(ADDRESS(Q26+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S26" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S26" ca="1">INDIRECT(ADDRESS(Q26+2,24))/(O26*INDIRECT(ADDRESS(Q26+2,27))*INDIRECT(ADDRESS(Q26+2,28))*INDIRECT(ADDRESS(Q26+2,29))*INDIRECT(ADDRESS(Q26+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
@@ -2309,31 +2155,17 @@
       <c r="J27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="47"/>
-      <c r="P27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
@@ -2365,32 +2197,17 @@
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L28" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P28" ca="1">INDIRECT(ADDRESS(Q28+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R28" ca="1">INDIRECT(ADDRESS(Q28+2,23))/(O28*INDIRECT(ADDRESS(Q28+2,27))*INDIRECT(ADDRESS(Q28+2,28))*INDIRECT(ADDRESS(Q28+2,29))*INDIRECT(ADDRESS(Q28+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S28" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S28" ca="1">INDIRECT(ADDRESS(Q28+2,24))/(O28*INDIRECT(ADDRESS(Q28+2,27))*INDIRECT(ADDRESS(Q28+2,28))*INDIRECT(ADDRESS(Q28+2,29))*INDIRECT(ADDRESS(Q28+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
@@ -2420,28 +2237,17 @@
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P29" ca="1">INDIRECT(ADDRESS(Q29+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R29" ca="1">INDIRECT(ADDRESS(Q29+2,23))/(O29*INDIRECT(ADDRESS(Q29+2,27))*INDIRECT(ADDRESS(Q29+2,28))*INDIRECT(ADDRESS(Q29+2,29))*INDIRECT(ADDRESS(Q29+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S29" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S29" ca="1">INDIRECT(ADDRESS(Q29+2,24))/(O29*INDIRECT(ADDRESS(Q29+2,27))*INDIRECT(ADDRESS(Q29+2,28))*INDIRECT(ADDRESS(Q29+2,29))*INDIRECT(ADDRESS(Q29+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
@@ -2471,28 +2277,17 @@
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P30" ca="1">INDIRECT(ADDRESS(Q30+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R30" ca="1">INDIRECT(ADDRESS(Q30+2,23))/(O30*INDIRECT(ADDRESS(Q30+2,27))*INDIRECT(ADDRESS(Q30+2,28))*INDIRECT(ADDRESS(Q30+2,29))*INDIRECT(ADDRESS(Q30+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S30" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S30" ca="1">INDIRECT(ADDRESS(Q30+2,24))/(O30*INDIRECT(ADDRESS(Q30+2,27))*INDIRECT(ADDRESS(Q30+2,28))*INDIRECT(ADDRESS(Q30+2,29))*INDIRECT(ADDRESS(Q30+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
@@ -2522,30 +2317,17 @@
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P31" ca="1">INDIRECT(ADDRESS(Q31+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R31" ca="1">INDIRECT(ADDRESS(Q31+2,23))/(O31*INDIRECT(ADDRESS(Q31+2,27))*INDIRECT(ADDRESS(Q31+2,28))*INDIRECT(ADDRESS(Q31+2,29))*INDIRECT(ADDRESS(Q31+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S31" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S31" ca="1">INDIRECT(ADDRESS(Q31+2,24))/(O31*INDIRECT(ADDRESS(Q31+2,27))*INDIRECT(ADDRESS(Q31+2,28))*INDIRECT(ADDRESS(Q31+2,29))*INDIRECT(ADDRESS(Q31+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
@@ -2575,28 +2357,17 @@
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P32" ca="1">INDIRECT(ADDRESS(Q32+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R32" ca="1">INDIRECT(ADDRESS(Q32+2,23))/(O32*INDIRECT(ADDRESS(Q32+2,27))*INDIRECT(ADDRESS(Q32+2,28))*INDIRECT(ADDRESS(Q32+2,29))*INDIRECT(ADDRESS(Q32+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S32" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S32" ca="1">INDIRECT(ADDRESS(Q32+2,24))/(O32*INDIRECT(ADDRESS(Q32+2,27))*INDIRECT(ADDRESS(Q32+2,28))*INDIRECT(ADDRESS(Q32+2,29))*INDIRECT(ADDRESS(Q32+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
@@ -2626,28 +2397,17 @@
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P33" ca="1">INDIRECT(ADDRESS(Q33+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R33" ca="1">INDIRECT(ADDRESS(Q33+2,23))/(O33*INDIRECT(ADDRESS(Q33+2,27))*INDIRECT(ADDRESS(Q33+2,28))*INDIRECT(ADDRESS(Q33+2,29))*INDIRECT(ADDRESS(Q33+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S33" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S33" ca="1">INDIRECT(ADDRESS(Q33+2,24))/(O33*INDIRECT(ADDRESS(Q33+2,27))*INDIRECT(ADDRESS(Q33+2,28))*INDIRECT(ADDRESS(Q33+2,29))*INDIRECT(ADDRESS(Q33+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
@@ -2677,32 +2437,17 @@
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L34" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P34" ca="1">INDIRECT(ADDRESS(Q34+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R34" ca="1">INDIRECT(ADDRESS(Q34+2,23))/(O34*INDIRECT(ADDRESS(Q34+2,27))*INDIRECT(ADDRESS(Q34+2,28))*INDIRECT(ADDRESS(Q34+2,29))*INDIRECT(ADDRESS(Q34+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S34" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S34" ca="1">INDIRECT(ADDRESS(Q34+2,24))/(O34*INDIRECT(ADDRESS(Q34+2,27))*INDIRECT(ADDRESS(Q34+2,28))*INDIRECT(ADDRESS(Q34+2,29))*INDIRECT(ADDRESS(Q34+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
@@ -2732,28 +2477,17 @@
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P35" ca="1">INDIRECT(ADDRESS(Q35+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R35" ca="1">INDIRECT(ADDRESS(Q35+2,23))/(O35*INDIRECT(ADDRESS(Q35+2,27))*INDIRECT(ADDRESS(Q35+2,28))*INDIRECT(ADDRESS(Q35+2,29))*INDIRECT(ADDRESS(Q35+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S35" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S35" ca="1">INDIRECT(ADDRESS(Q35+2,24))/(O35*INDIRECT(ADDRESS(Q35+2,27))*INDIRECT(ADDRESS(Q35+2,28))*INDIRECT(ADDRESS(Q35+2,29))*INDIRECT(ADDRESS(Q35+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
@@ -2783,28 +2517,17 @@
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P36" ca="1">INDIRECT(ADDRESS(Q36+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R36" ca="1">INDIRECT(ADDRESS(Q36+2,23))/(O36*INDIRECT(ADDRESS(Q36+2,27))*INDIRECT(ADDRESS(Q36+2,28))*INDIRECT(ADDRESS(Q36+2,29))*INDIRECT(ADDRESS(Q36+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S36" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S36" ca="1">INDIRECT(ADDRESS(Q36+2,24))/(O36*INDIRECT(ADDRESS(Q36+2,27))*INDIRECT(ADDRESS(Q36+2,28))*INDIRECT(ADDRESS(Q36+2,29))*INDIRECT(ADDRESS(Q36+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -2834,69 +2557,34 @@
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P37" ca="1">INDIRECT(ADDRESS(Q37+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R37" ca="1">INDIRECT(ADDRESS(Q37+2,23))/(O37*INDIRECT(ADDRESS(Q37+2,27))*INDIRECT(ADDRESS(Q37+2,28))*INDIRECT(ADDRESS(Q37+2,29))*INDIRECT(ADDRESS(Q37+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S37" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S37" ca="1">INDIRECT(ADDRESS(Q37+2,24))/(O37*INDIRECT(ADDRESS(Q37+2,27))*INDIRECT(ADDRESS(Q37+2,28))*INDIRECT(ADDRESS(Q37+2,29))*INDIRECT(ADDRESS(Q37+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P38" ca="1">INDIRECT(ADDRESS(Q38+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R38" ca="1">INDIRECT(ADDRESS(Q38+2,23))/(O38*INDIRECT(ADDRESS(Q38+2,27))*INDIRECT(ADDRESS(Q38+2,28))*INDIRECT(ADDRESS(Q38+2,29))*INDIRECT(ADDRESS(Q38+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S38" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S38" ca="1">INDIRECT(ADDRESS(Q38+2,24))/(O38*INDIRECT(ADDRESS(Q38+2,27))*INDIRECT(ADDRESS(Q38+2,28))*INDIRECT(ADDRESS(Q38+2,29))*INDIRECT(ADDRESS(Q38+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="14" t="str" cm="1">
-        <f t="array" aca="1" ref="P39" ca="1">INDIRECT(ADDRESS(Q39+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="R39" ca="1">INDIRECT(ADDRESS(Q39+2,23))/(O39*INDIRECT(ADDRESS(Q39+2,27))*INDIRECT(ADDRESS(Q39+2,28))*INDIRECT(ADDRESS(Q39+2,29))*INDIRECT(ADDRESS(Q39+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S39" s="14" t="e" cm="1">
-        <f t="array" aca="1" ref="S39" ca="1">INDIRECT(ADDRESS(Q39+2,24))/(O39*INDIRECT(ADDRESS(Q39+2,27))*INDIRECT(ADDRESS(Q39+2,28))*INDIRECT(ADDRESS(Q39+2,29))*INDIRECT(ADDRESS(Q39+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
@@ -2935,10 +2623,10 @@
       <c r="M40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="48" t="s">
+      <c r="N40" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="49"/>
+      <c r="O40" s="55"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2641,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -2985,11 +2673,11 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="39" t="s">
-        <v>39</v>
+      <c r="M41" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>22</v>
@@ -3010,7 +2698,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3040,8 +2728,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="42"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3061,7 +2749,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3091,8 +2779,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="42"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3112,7 +2800,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3142,19 +2830,21 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N44" s="19" t="s">
+      <c r="L44" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="19"/>
+      <c r="O44" s="39"/>
       <c r="P44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">INDIRECT(ADDRESS(Q44+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q44" s="19"/>
+      <c r="Q44" s="39"/>
       <c r="R44" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R44" ca="1">INDIRECT(ADDRESS(Q44+2,23))/(O44*INDIRECT(ADDRESS(Q44+2,27))*INDIRECT(ADDRESS(Q44+2,28))*INDIRECT(ADDRESS(Q44+2,29))*INDIRECT(ADDRESS(Q44+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3165,7 +2855,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3195,17 +2885,17 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="19" t="s">
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="19"/>
+      <c r="O45" s="39"/>
       <c r="P45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT(ADDRESS(Q45+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q45" s="19"/>
+      <c r="Q45" s="39"/>
       <c r="R45" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDIRECT(ADDRESS(Q45+2,23))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3216,7 +2906,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3246,17 +2936,17 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="19" t="s">
+      <c r="L46" s="60"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="19"/>
+      <c r="O46" s="39"/>
       <c r="P46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT(ADDRESS(Q46+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q46" s="19"/>
+      <c r="Q46" s="39"/>
       <c r="R46" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R46" ca="1">INDIRECT(ADDRESS(Q46+2,23))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3267,7 +2957,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3297,21 +2987,19 @@
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L47" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M47" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N47" s="19" t="s">
+      <c r="L47" s="60"/>
+      <c r="M47" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="19"/>
+      <c r="O47" s="39"/>
       <c r="P47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">INDIRECT(ADDRESS(Q47+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q47" s="19"/>
+      <c r="Q47" s="39"/>
       <c r="R47" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R47" ca="1">INDIRECT(ADDRESS(Q47+2,23))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3322,7 +3010,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3352,17 +3040,17 @@
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="19" t="s">
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="19"/>
+      <c r="O48" s="39"/>
       <c r="P48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">INDIRECT(ADDRESS(Q48+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q48" s="19"/>
+      <c r="Q48" s="39"/>
       <c r="R48" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R48" ca="1">INDIRECT(ADDRESS(Q48+2,23))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3373,7 +3061,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3403,17 +3091,17 @@
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="19" t="s">
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="19"/>
+      <c r="O49" s="39"/>
       <c r="P49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">INDIRECT(ADDRESS(Q49+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q49" s="19"/>
+      <c r="Q49" s="39"/>
       <c r="R49" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R49" ca="1">INDIRECT(ADDRESS(Q49+2,23))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3424,7 +3112,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3454,69 +3142,6 @@
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P50" ca="1">INDIRECT(ADDRESS(Q50+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R50" ca="1">INDIRECT(ADDRESS(Q50+2,23))/(O50*INDIRECT(ADDRESS(Q50+2,27))*INDIRECT(ADDRESS(Q50+2,28))*INDIRECT(ADDRESS(Q50+2,29))*INDIRECT(ADDRESS(Q50+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S50" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S50" ca="1">INDIRECT(ADDRESS(Q50+2,24))/(O50*INDIRECT(ADDRESS(Q50+2,27))*INDIRECT(ADDRESS(Q50+2,28))*INDIRECT(ADDRESS(Q50+2,29))*INDIRECT(ADDRESS(Q50+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P51" ca="1">INDIRECT(ADDRESS(Q51+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R51" ca="1">INDIRECT(ADDRESS(Q51+2,23))/(O51*INDIRECT(ADDRESS(Q51+2,27))*INDIRECT(ADDRESS(Q51+2,28))*INDIRECT(ADDRESS(Q51+2,29))*INDIRECT(ADDRESS(Q51+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S51" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S51" ca="1">INDIRECT(ADDRESS(Q51+2,24))/(O51*INDIRECT(ADDRESS(Q51+2,27))*INDIRECT(ADDRESS(Q51+2,28))*INDIRECT(ADDRESS(Q51+2,29))*INDIRECT(ADDRESS(Q51+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P52" ca="1">INDIRECT(ADDRESS(Q52+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R52" ca="1">INDIRECT(ADDRESS(Q52+2,23))/(O52*INDIRECT(ADDRESS(Q52+2,27))*INDIRECT(ADDRESS(Q52+2,28))*INDIRECT(ADDRESS(Q52+2,29))*INDIRECT(ADDRESS(Q52+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S52" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S52" ca="1">INDIRECT(ADDRESS(Q52+2,24))/(O52*INDIRECT(ADDRESS(Q52+2,27))*INDIRECT(ADDRESS(Q52+2,28))*INDIRECT(ADDRESS(Q52+2,29))*INDIRECT(ADDRESS(Q52+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
@@ -3549,31 +3174,17 @@
       <c r="J53" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="O53" s="49"/>
-      <c r="P53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R53" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S53" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3605,32 +3216,17 @@
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L54" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" s="19"/>
-      <c r="P54" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P54" ca="1">INDIRECT(ADDRESS(Q54+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R54" ca="1">INDIRECT(ADDRESS(Q54+2,23))/(O54*INDIRECT(ADDRESS(Q54+2,27))*INDIRECT(ADDRESS(Q54+2,28))*INDIRECT(ADDRESS(Q54+2,29))*INDIRECT(ADDRESS(Q54+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S54" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S54" ca="1">INDIRECT(ADDRESS(Q54+2,24))/(O54*INDIRECT(ADDRESS(Q54+2,27))*INDIRECT(ADDRESS(Q54+2,28))*INDIRECT(ADDRESS(Q54+2,29))*INDIRECT(ADDRESS(Q54+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3660,28 +3256,17 @@
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P55" ca="1">INDIRECT(ADDRESS(Q55+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R55" ca="1">INDIRECT(ADDRESS(Q55+2,23))/(O55*INDIRECT(ADDRESS(Q55+2,27))*INDIRECT(ADDRESS(Q55+2,28))*INDIRECT(ADDRESS(Q55+2,29))*INDIRECT(ADDRESS(Q55+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S55" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S55" ca="1">INDIRECT(ADDRESS(Q55+2,24))/(O55*INDIRECT(ADDRESS(Q55+2,27))*INDIRECT(ADDRESS(Q55+2,28))*INDIRECT(ADDRESS(Q55+2,29))*INDIRECT(ADDRESS(Q55+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3711,28 +3296,17 @@
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="19"/>
-      <c r="P56" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P56" ca="1">INDIRECT(ADDRESS(Q56+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R56" ca="1">INDIRECT(ADDRESS(Q56+2,23))/(O56*INDIRECT(ADDRESS(Q56+2,27))*INDIRECT(ADDRESS(Q56+2,28))*INDIRECT(ADDRESS(Q56+2,29))*INDIRECT(ADDRESS(Q56+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S56" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S56" ca="1">INDIRECT(ADDRESS(Q56+2,24))/(O56*INDIRECT(ADDRESS(Q56+2,27))*INDIRECT(ADDRESS(Q56+2,28))*INDIRECT(ADDRESS(Q56+2,29))*INDIRECT(ADDRESS(Q56+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3762,30 +3336,17 @@
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P57" ca="1">INDIRECT(ADDRESS(Q57+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R57" ca="1">INDIRECT(ADDRESS(Q57+2,23))/(O57*INDIRECT(ADDRESS(Q57+2,27))*INDIRECT(ADDRESS(Q57+2,28))*INDIRECT(ADDRESS(Q57+2,29))*INDIRECT(ADDRESS(Q57+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S57" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S57" ca="1">INDIRECT(ADDRESS(Q57+2,24))/(O57*INDIRECT(ADDRESS(Q57+2,27))*INDIRECT(ADDRESS(Q57+2,28))*INDIRECT(ADDRESS(Q57+2,29))*INDIRECT(ADDRESS(Q57+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3815,28 +3376,17 @@
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O58" s="19"/>
-      <c r="P58" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P58" ca="1">INDIRECT(ADDRESS(Q58+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R58" ca="1">INDIRECT(ADDRESS(Q58+2,23))/(O58*INDIRECT(ADDRESS(Q58+2,27))*INDIRECT(ADDRESS(Q58+2,28))*INDIRECT(ADDRESS(Q58+2,29))*INDIRECT(ADDRESS(Q58+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S58" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S58" ca="1">INDIRECT(ADDRESS(Q58+2,24))/(O58*INDIRECT(ADDRESS(Q58+2,27))*INDIRECT(ADDRESS(Q58+2,28))*INDIRECT(ADDRESS(Q58+2,29))*INDIRECT(ADDRESS(Q58+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3866,28 +3416,17 @@
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P59" ca="1">INDIRECT(ADDRESS(Q59+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R59" ca="1">INDIRECT(ADDRESS(Q59+2,23))/(O59*INDIRECT(ADDRESS(Q59+2,27))*INDIRECT(ADDRESS(Q59+2,28))*INDIRECT(ADDRESS(Q59+2,29))*INDIRECT(ADDRESS(Q59+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S59" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S59" ca="1">INDIRECT(ADDRESS(Q59+2,24))/(O59*INDIRECT(ADDRESS(Q59+2,27))*INDIRECT(ADDRESS(Q59+2,28))*INDIRECT(ADDRESS(Q59+2,29))*INDIRECT(ADDRESS(Q59+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3917,32 +3456,17 @@
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L60" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="19"/>
-      <c r="P60" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P60" ca="1">INDIRECT(ADDRESS(Q60+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R60" ca="1">INDIRECT(ADDRESS(Q60+2,23))/(O60*INDIRECT(ADDRESS(Q60+2,27))*INDIRECT(ADDRESS(Q60+2,28))*INDIRECT(ADDRESS(Q60+2,29))*INDIRECT(ADDRESS(Q60+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S60" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S60" ca="1">INDIRECT(ADDRESS(Q60+2,24))/(O60*INDIRECT(ADDRESS(Q60+2,27))*INDIRECT(ADDRESS(Q60+2,28))*INDIRECT(ADDRESS(Q60+2,29))*INDIRECT(ADDRESS(Q60+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3972,28 +3496,17 @@
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P61" ca="1">INDIRECT(ADDRESS(Q61+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R61" ca="1">INDIRECT(ADDRESS(Q61+2,23))/(O61*INDIRECT(ADDRESS(Q61+2,27))*INDIRECT(ADDRESS(Q61+2,28))*INDIRECT(ADDRESS(Q61+2,29))*INDIRECT(ADDRESS(Q61+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S61" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S61" ca="1">INDIRECT(ADDRESS(Q61+2,24))/(O61*INDIRECT(ADDRESS(Q61+2,27))*INDIRECT(ADDRESS(Q61+2,28))*INDIRECT(ADDRESS(Q61+2,29))*INDIRECT(ADDRESS(Q61+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -4023,28 +3536,17 @@
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" s="19"/>
-      <c r="P62" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P62" ca="1">INDIRECT(ADDRESS(Q62+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R62" ca="1">INDIRECT(ADDRESS(Q62+2,23))/(O62*INDIRECT(ADDRESS(Q62+2,27))*INDIRECT(ADDRESS(Q62+2,28))*INDIRECT(ADDRESS(Q62+2,29))*INDIRECT(ADDRESS(Q62+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S62" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S62" ca="1">INDIRECT(ADDRESS(Q62+2,24))/(O62*INDIRECT(ADDRESS(Q62+2,27))*INDIRECT(ADDRESS(Q62+2,28))*INDIRECT(ADDRESS(Q62+2,29))*INDIRECT(ADDRESS(Q62+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -4074,69 +3576,34 @@
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N63" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" s="19"/>
-      <c r="P63" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P63" ca="1">INDIRECT(ADDRESS(Q63+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R63" ca="1">INDIRECT(ADDRESS(Q63+2,23))/(O63*INDIRECT(ADDRESS(Q63+2,27))*INDIRECT(ADDRESS(Q63+2,28))*INDIRECT(ADDRESS(Q63+2,29))*INDIRECT(ADDRESS(Q63+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S63" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S63" ca="1">INDIRECT(ADDRESS(Q63+2,24))/(O63*INDIRECT(ADDRESS(Q63+2,27))*INDIRECT(ADDRESS(Q63+2,28))*INDIRECT(ADDRESS(Q63+2,29))*INDIRECT(ADDRESS(Q63+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O64" s="19"/>
-      <c r="P64" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P64" ca="1">INDIRECT(ADDRESS(Q64+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R64" ca="1">INDIRECT(ADDRESS(Q64+2,23))/(O64*INDIRECT(ADDRESS(Q64+2,27))*INDIRECT(ADDRESS(Q64+2,28))*INDIRECT(ADDRESS(Q64+2,29))*INDIRECT(ADDRESS(Q64+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S64" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S64" ca="1">INDIRECT(ADDRESS(Q64+2,24))/(O64*INDIRECT(ADDRESS(Q64+2,27))*INDIRECT(ADDRESS(Q64+2,28))*INDIRECT(ADDRESS(Q64+2,29))*INDIRECT(ADDRESS(Q64+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O65" s="19"/>
-      <c r="P65" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P65" ca="1">INDIRECT(ADDRESS(Q65+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R65" ca="1">INDIRECT(ADDRESS(Q65+2,23))/(O65*INDIRECT(ADDRESS(Q65+2,27))*INDIRECT(ADDRESS(Q65+2,28))*INDIRECT(ADDRESS(Q65+2,29))*INDIRECT(ADDRESS(Q65+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S65" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S65" ca="1">INDIRECT(ADDRESS(Q65+2,24))/(O65*INDIRECT(ADDRESS(Q65+2,27))*INDIRECT(ADDRESS(Q65+2,28))*INDIRECT(ADDRESS(Q65+2,29))*INDIRECT(ADDRESS(Q65+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
@@ -4169,31 +3636,17 @@
       <c r="J66" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N66" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" s="49"/>
-      <c r="P66" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q66" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R66" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S66" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4225,32 +3678,17 @@
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L67" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M67" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="19"/>
-      <c r="P67" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P67" ca="1">INDIRECT(ADDRESS(Q67+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R67" ca="1">INDIRECT(ADDRESS(Q67+2,23))/(O67*INDIRECT(ADDRESS(Q67+2,27))*INDIRECT(ADDRESS(Q67+2,28))*INDIRECT(ADDRESS(Q67+2,29))*INDIRECT(ADDRESS(Q67+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S67" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S67" ca="1">INDIRECT(ADDRESS(Q67+2,24))/(O67*INDIRECT(ADDRESS(Q67+2,27))*INDIRECT(ADDRESS(Q67+2,28))*INDIRECT(ADDRESS(Q67+2,29))*INDIRECT(ADDRESS(Q67+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4280,28 +3718,17 @@
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O68" s="19"/>
-      <c r="P68" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P68" ca="1">INDIRECT(ADDRESS(Q68+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R68" ca="1">INDIRECT(ADDRESS(Q68+2,23))/(O68*INDIRECT(ADDRESS(Q68+2,27))*INDIRECT(ADDRESS(Q68+2,28))*INDIRECT(ADDRESS(Q68+2,29))*INDIRECT(ADDRESS(Q68+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S68" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S68" ca="1">INDIRECT(ADDRESS(Q68+2,24))/(O68*INDIRECT(ADDRESS(Q68+2,27))*INDIRECT(ADDRESS(Q68+2,28))*INDIRECT(ADDRESS(Q68+2,29))*INDIRECT(ADDRESS(Q68+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4331,28 +3758,17 @@
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P69" ca="1">INDIRECT(ADDRESS(Q69+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R69" ca="1">INDIRECT(ADDRESS(Q69+2,23))/(O69*INDIRECT(ADDRESS(Q69+2,27))*INDIRECT(ADDRESS(Q69+2,28))*INDIRECT(ADDRESS(Q69+2,29))*INDIRECT(ADDRESS(Q69+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S69" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S69" ca="1">INDIRECT(ADDRESS(Q69+2,24))/(O69*INDIRECT(ADDRESS(Q69+2,27))*INDIRECT(ADDRESS(Q69+2,28))*INDIRECT(ADDRESS(Q69+2,29))*INDIRECT(ADDRESS(Q69+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4382,30 +3798,17 @@
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="19"/>
-      <c r="P70" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P70" ca="1">INDIRECT(ADDRESS(Q70+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R70" ca="1">INDIRECT(ADDRESS(Q70+2,23))/(O70*INDIRECT(ADDRESS(Q70+2,27))*INDIRECT(ADDRESS(Q70+2,28))*INDIRECT(ADDRESS(Q70+2,29))*INDIRECT(ADDRESS(Q70+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S70" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S70" ca="1">INDIRECT(ADDRESS(Q70+2,24))/(O70*INDIRECT(ADDRESS(Q70+2,27))*INDIRECT(ADDRESS(Q70+2,28))*INDIRECT(ADDRESS(Q70+2,29))*INDIRECT(ADDRESS(Q70+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4435,28 +3838,17 @@
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P71" ca="1">INDIRECT(ADDRESS(Q71+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R71" ca="1">INDIRECT(ADDRESS(Q71+2,23))/(O71*INDIRECT(ADDRESS(Q71+2,27))*INDIRECT(ADDRESS(Q71+2,28))*INDIRECT(ADDRESS(Q71+2,29))*INDIRECT(ADDRESS(Q71+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S71" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S71" ca="1">INDIRECT(ADDRESS(Q71+2,24))/(O71*INDIRECT(ADDRESS(Q71+2,27))*INDIRECT(ADDRESS(Q71+2,28))*INDIRECT(ADDRESS(Q71+2,29))*INDIRECT(ADDRESS(Q71+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4486,28 +3878,17 @@
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P72" ca="1">INDIRECT(ADDRESS(Q72+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R72" ca="1">INDIRECT(ADDRESS(Q72+2,23))/(O72*INDIRECT(ADDRESS(Q72+2,27))*INDIRECT(ADDRESS(Q72+2,28))*INDIRECT(ADDRESS(Q72+2,29))*INDIRECT(ADDRESS(Q72+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S72" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S72" ca="1">INDIRECT(ADDRESS(Q72+2,24))/(O72*INDIRECT(ADDRESS(Q72+2,27))*INDIRECT(ADDRESS(Q72+2,28))*INDIRECT(ADDRESS(Q72+2,29))*INDIRECT(ADDRESS(Q72+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4537,32 +3918,17 @@
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L73" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N73" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O73" s="19"/>
-      <c r="P73" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P73" ca="1">INDIRECT(ADDRESS(Q73+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R73" ca="1">INDIRECT(ADDRESS(Q73+2,23))/(O73*INDIRECT(ADDRESS(Q73+2,27))*INDIRECT(ADDRESS(Q73+2,28))*INDIRECT(ADDRESS(Q73+2,29))*INDIRECT(ADDRESS(Q73+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S73" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S73" ca="1">INDIRECT(ADDRESS(Q73+2,24))/(O73*INDIRECT(ADDRESS(Q73+2,27))*INDIRECT(ADDRESS(Q73+2,28))*INDIRECT(ADDRESS(Q73+2,29))*INDIRECT(ADDRESS(Q73+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4592,28 +3958,17 @@
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O74" s="19"/>
-      <c r="P74" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P74" ca="1">INDIRECT(ADDRESS(Q74+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R74" ca="1">INDIRECT(ADDRESS(Q74+2,23))/(O74*INDIRECT(ADDRESS(Q74+2,27))*INDIRECT(ADDRESS(Q74+2,28))*INDIRECT(ADDRESS(Q74+2,29))*INDIRECT(ADDRESS(Q74+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S74" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S74" ca="1">INDIRECT(ADDRESS(Q74+2,24))/(O74*INDIRECT(ADDRESS(Q74+2,27))*INDIRECT(ADDRESS(Q74+2,28))*INDIRECT(ADDRESS(Q74+2,29))*INDIRECT(ADDRESS(Q74+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4643,28 +3998,17 @@
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O75" s="19"/>
-      <c r="P75" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P75" ca="1">INDIRECT(ADDRESS(Q75+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R75" ca="1">INDIRECT(ADDRESS(Q75+2,23))/(O75*INDIRECT(ADDRESS(Q75+2,27))*INDIRECT(ADDRESS(Q75+2,28))*INDIRECT(ADDRESS(Q75+2,29))*INDIRECT(ADDRESS(Q75+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S75" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S75" ca="1">INDIRECT(ADDRESS(Q75+2,24))/(O75*INDIRECT(ADDRESS(Q75+2,27))*INDIRECT(ADDRESS(Q75+2,28))*INDIRECT(ADDRESS(Q75+2,29))*INDIRECT(ADDRESS(Q75+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4694,69 +4038,34 @@
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N76" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O76" s="19"/>
-      <c r="P76" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P76" ca="1">INDIRECT(ADDRESS(Q76+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R76" ca="1">INDIRECT(ADDRESS(Q76+2,23))/(O76*INDIRECT(ADDRESS(Q76+2,27))*INDIRECT(ADDRESS(Q76+2,28))*INDIRECT(ADDRESS(Q76+2,29))*INDIRECT(ADDRESS(Q76+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S76" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S76" ca="1">INDIRECT(ADDRESS(Q76+2,24))/(O76*INDIRECT(ADDRESS(Q76+2,27))*INDIRECT(ADDRESS(Q76+2,28))*INDIRECT(ADDRESS(Q76+2,29))*INDIRECT(ADDRESS(Q76+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O77" s="19"/>
-      <c r="P77" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P77" ca="1">INDIRECT(ADDRESS(Q77+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R77" ca="1">INDIRECT(ADDRESS(Q77+2,23))/(O77*INDIRECT(ADDRESS(Q77+2,27))*INDIRECT(ADDRESS(Q77+2,28))*INDIRECT(ADDRESS(Q77+2,29))*INDIRECT(ADDRESS(Q77+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S77" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S77" ca="1">INDIRECT(ADDRESS(Q77+2,24))/(O77*INDIRECT(ADDRESS(Q77+2,27))*INDIRECT(ADDRESS(Q77+2,28))*INDIRECT(ADDRESS(Q77+2,29))*INDIRECT(ADDRESS(Q77+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" s="19"/>
-      <c r="P78" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P78" ca="1">INDIRECT(ADDRESS(Q78+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R78" ca="1">INDIRECT(ADDRESS(Q78+2,23))/(O78*INDIRECT(ADDRESS(Q78+2,27))*INDIRECT(ADDRESS(Q78+2,28))*INDIRECT(ADDRESS(Q78+2,29))*INDIRECT(ADDRESS(Q78+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S78" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S78" ca="1">INDIRECT(ADDRESS(Q78+2,24))/(O78*INDIRECT(ADDRESS(Q78+2,27))*INDIRECT(ADDRESS(Q78+2,28))*INDIRECT(ADDRESS(Q78+2,29))*INDIRECT(ADDRESS(Q78+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
@@ -4845,11 +4154,11 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L80" s="38" t="s">
+      <c r="L80" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="38" t="s">
-        <v>39</v>
+      <c r="M80" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="N80" s="23" t="s">
         <v>22</v>
@@ -4900,8 +4209,8 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="46"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4951,8 +4260,8 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="46"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -5002,19 +4311,21 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N83" s="23" t="s">
+      <c r="L83" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O83" s="23"/>
+      <c r="O83" s="38"/>
       <c r="P83" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">INDIRECT(ADDRESS(Q83+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q83" s="23"/>
+      <c r="Q83" s="38"/>
       <c r="R83" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R83" ca="1">INDIRECT(ADDRESS(Q83+2,23))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5055,17 +4366,17 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="23" t="s">
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="23"/>
+      <c r="O84" s="38"/>
       <c r="P84" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P84" ca="1">INDIRECT(ADDRESS(Q84+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q84" s="23"/>
+      <c r="Q84" s="38"/>
       <c r="R84" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R84" ca="1">INDIRECT(ADDRESS(Q84+2,23))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5106,17 +4417,17 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="23" t="s">
+      <c r="L85" s="44"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O85" s="23"/>
+      <c r="O85" s="38"/>
       <c r="P85" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P85" ca="1">INDIRECT(ADDRESS(Q85+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q85" s="23"/>
+      <c r="Q85" s="38"/>
       <c r="R85" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R85" ca="1">INDIRECT(ADDRESS(Q85+2,23))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5157,21 +4468,19 @@
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L86" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M86" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N86" s="23" t="s">
+      <c r="L86" s="44"/>
+      <c r="M86" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O86" s="23"/>
+      <c r="O86" s="38"/>
       <c r="P86" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P86" ca="1">INDIRECT(ADDRESS(Q86+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q86" s="23"/>
+      <c r="Q86" s="38"/>
       <c r="R86" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R86" ca="1">INDIRECT(ADDRESS(Q86+2,23))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5212,17 +4521,17 @@
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="23" t="s">
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="23"/>
+      <c r="O87" s="38"/>
       <c r="P87" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P87" ca="1">INDIRECT(ADDRESS(Q87+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q87" s="23"/>
+      <c r="Q87" s="38"/>
       <c r="R87" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R87" ca="1">INDIRECT(ADDRESS(Q87+2,23))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5263,17 +4572,17 @@
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="23" t="s">
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O88" s="23"/>
+      <c r="O88" s="38"/>
       <c r="P88" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P88" ca="1">INDIRECT(ADDRESS(Q88+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q88" s="23"/>
+      <c r="Q88" s="38"/>
       <c r="R88" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R88" ca="1">INDIRECT(ADDRESS(Q88+2,23))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -5314,69 +4623,6 @@
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N89" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O89" s="23"/>
-      <c r="P89" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P89" ca="1">INDIRECT(ADDRESS(Q89+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R89" ca="1">INDIRECT(ADDRESS(Q89+2,23))/(O89*INDIRECT(ADDRESS(Q89+2,27))*INDIRECT(ADDRESS(Q89+2,28))*INDIRECT(ADDRESS(Q89+2,29))*INDIRECT(ADDRESS(Q89+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S89" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S89" ca="1">INDIRECT(ADDRESS(Q89+2,24))/(O89*INDIRECT(ADDRESS(Q89+2,27))*INDIRECT(ADDRESS(Q89+2,28))*INDIRECT(ADDRESS(Q89+2,29))*INDIRECT(ADDRESS(Q89+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O90" s="23"/>
-      <c r="P90" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P90" ca="1">INDIRECT(ADDRESS(Q90+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R90" ca="1">INDIRECT(ADDRESS(Q90+2,23))/(O90*INDIRECT(ADDRESS(Q90+2,27))*INDIRECT(ADDRESS(Q90+2,28))*INDIRECT(ADDRESS(Q90+2,29))*INDIRECT(ADDRESS(Q90+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S90" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S90" ca="1">INDIRECT(ADDRESS(Q90+2,24))/(O90*INDIRECT(ADDRESS(Q90+2,27))*INDIRECT(ADDRESS(Q90+2,28))*INDIRECT(ADDRESS(Q90+2,29))*INDIRECT(ADDRESS(Q90+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="23"/>
-      <c r="P91" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P91" ca="1">INDIRECT(ADDRESS(Q91+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R91" ca="1">INDIRECT(ADDRESS(Q91+2,23))/(O91*INDIRECT(ADDRESS(Q91+2,27))*INDIRECT(ADDRESS(Q91+2,28))*INDIRECT(ADDRESS(Q91+2,29))*INDIRECT(ADDRESS(Q91+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S91" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S91" ca="1">INDIRECT(ADDRESS(Q91+2,24))/(O91*INDIRECT(ADDRESS(Q91+2,27))*INDIRECT(ADDRESS(Q91+2,28))*INDIRECT(ADDRESS(Q91+2,29))*INDIRECT(ADDRESS(Q91+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
@@ -5409,31 +4655,17 @@
       <c r="J92" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L92" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M92" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N92" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O92" s="51"/>
-      <c r="P92" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q92" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R92" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S92" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="46" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5465,32 +4697,17 @@
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L93" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M93" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N93" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" s="23"/>
-      <c r="P93" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P93" ca="1">INDIRECT(ADDRESS(Q93+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q93" s="23"/>
-      <c r="R93" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R93" ca="1">INDIRECT(ADDRESS(Q93+2,23))/(O93*INDIRECT(ADDRESS(Q93+2,27))*INDIRECT(ADDRESS(Q93+2,28))*INDIRECT(ADDRESS(Q93+2,29))*INDIRECT(ADDRESS(Q93+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S93" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S93" ca="1">INDIRECT(ADDRESS(Q93+2,24))/(O93*INDIRECT(ADDRESS(Q93+2,27))*INDIRECT(ADDRESS(Q93+2,28))*INDIRECT(ADDRESS(Q93+2,29))*INDIRECT(ADDRESS(Q93+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5520,28 +4737,17 @@
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O94" s="23"/>
-      <c r="P94" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P94" ca="1">INDIRECT(ADDRESS(Q94+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q94" s="23"/>
-      <c r="R94" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R94" ca="1">INDIRECT(ADDRESS(Q94+2,23))/(O94*INDIRECT(ADDRESS(Q94+2,27))*INDIRECT(ADDRESS(Q94+2,28))*INDIRECT(ADDRESS(Q94+2,29))*INDIRECT(ADDRESS(Q94+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S94" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S94" ca="1">INDIRECT(ADDRESS(Q94+2,24))/(O94*INDIRECT(ADDRESS(Q94+2,27))*INDIRECT(ADDRESS(Q94+2,28))*INDIRECT(ADDRESS(Q94+2,29))*INDIRECT(ADDRESS(Q94+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5571,28 +4777,17 @@
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P95" ca="1">INDIRECT(ADDRESS(Q95+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R95" ca="1">INDIRECT(ADDRESS(Q95+2,23))/(O95*INDIRECT(ADDRESS(Q95+2,27))*INDIRECT(ADDRESS(Q95+2,28))*INDIRECT(ADDRESS(Q95+2,29))*INDIRECT(ADDRESS(Q95+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S95" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S95" ca="1">INDIRECT(ADDRESS(Q95+2,24))/(O95*INDIRECT(ADDRESS(Q95+2,27))*INDIRECT(ADDRESS(Q95+2,28))*INDIRECT(ADDRESS(Q95+2,29))*INDIRECT(ADDRESS(Q95+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
@@ -5622,30 +4817,17 @@
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N96" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="23"/>
-      <c r="P96" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P96" ca="1">INDIRECT(ADDRESS(Q96+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R96" ca="1">INDIRECT(ADDRESS(Q96+2,23))/(O96*INDIRECT(ADDRESS(Q96+2,27))*INDIRECT(ADDRESS(Q96+2,28))*INDIRECT(ADDRESS(Q96+2,29))*INDIRECT(ADDRESS(Q96+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S96" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S96" ca="1">INDIRECT(ADDRESS(Q96+2,24))/(O96*INDIRECT(ADDRESS(Q96+2,27))*INDIRECT(ADDRESS(Q96+2,28))*INDIRECT(ADDRESS(Q96+2,29))*INDIRECT(ADDRESS(Q96+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="46"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
@@ -5675,28 +4857,17 @@
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O97" s="23"/>
-      <c r="P97" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P97" ca="1">INDIRECT(ADDRESS(Q97+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q97" s="23"/>
-      <c r="R97" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R97" ca="1">INDIRECT(ADDRESS(Q97+2,23))/(O97*INDIRECT(ADDRESS(Q97+2,27))*INDIRECT(ADDRESS(Q97+2,28))*INDIRECT(ADDRESS(Q97+2,29))*INDIRECT(ADDRESS(Q97+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S97" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S97" ca="1">INDIRECT(ADDRESS(Q97+2,24))/(O97*INDIRECT(ADDRESS(Q97+2,27))*INDIRECT(ADDRESS(Q97+2,28))*INDIRECT(ADDRESS(Q97+2,29))*INDIRECT(ADDRESS(Q97+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
@@ -5726,28 +4897,17 @@
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L98" s="38"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O98" s="23"/>
-      <c r="P98" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P98" ca="1">INDIRECT(ADDRESS(Q98+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q98" s="23"/>
-      <c r="R98" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R98" ca="1">INDIRECT(ADDRESS(Q98+2,23))/(O98*INDIRECT(ADDRESS(Q98+2,27))*INDIRECT(ADDRESS(Q98+2,28))*INDIRECT(ADDRESS(Q98+2,29))*INDIRECT(ADDRESS(Q98+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S98" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S98" ca="1">INDIRECT(ADDRESS(Q98+2,24))/(O98*INDIRECT(ADDRESS(Q98+2,27))*INDIRECT(ADDRESS(Q98+2,28))*INDIRECT(ADDRESS(Q98+2,29))*INDIRECT(ADDRESS(Q98+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
@@ -5777,32 +4937,17 @@
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L99" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M99" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N99" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O99" s="23"/>
-      <c r="P99" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P99" ca="1">INDIRECT(ADDRESS(Q99+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R99" ca="1">INDIRECT(ADDRESS(Q99+2,23))/(O99*INDIRECT(ADDRESS(Q99+2,27))*INDIRECT(ADDRESS(Q99+2,28))*INDIRECT(ADDRESS(Q99+2,29))*INDIRECT(ADDRESS(Q99+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S99" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S99" ca="1">INDIRECT(ADDRESS(Q99+2,24))/(O99*INDIRECT(ADDRESS(Q99+2,27))*INDIRECT(ADDRESS(Q99+2,28))*INDIRECT(ADDRESS(Q99+2,29))*INDIRECT(ADDRESS(Q99+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
@@ -5832,28 +4977,17 @@
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O100" s="23"/>
-      <c r="P100" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P100" ca="1">INDIRECT(ADDRESS(Q100+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R100" ca="1">INDIRECT(ADDRESS(Q100+2,23))/(O100*INDIRECT(ADDRESS(Q100+2,27))*INDIRECT(ADDRESS(Q100+2,28))*INDIRECT(ADDRESS(Q100+2,29))*INDIRECT(ADDRESS(Q100+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S100" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S100" ca="1">INDIRECT(ADDRESS(Q100+2,24))/(O100*INDIRECT(ADDRESS(Q100+2,27))*INDIRECT(ADDRESS(Q100+2,28))*INDIRECT(ADDRESS(Q100+2,29))*INDIRECT(ADDRESS(Q100+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
@@ -5883,28 +5017,17 @@
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L101" s="38"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O101" s="23"/>
-      <c r="P101" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P101" ca="1">INDIRECT(ADDRESS(Q101+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R101" ca="1">INDIRECT(ADDRESS(Q101+2,23))/(O101*INDIRECT(ADDRESS(Q101+2,27))*INDIRECT(ADDRESS(Q101+2,28))*INDIRECT(ADDRESS(Q101+2,29))*INDIRECT(ADDRESS(Q101+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S101" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S101" ca="1">INDIRECT(ADDRESS(Q101+2,24))/(O101*INDIRECT(ADDRESS(Q101+2,27))*INDIRECT(ADDRESS(Q101+2,28))*INDIRECT(ADDRESS(Q101+2,29))*INDIRECT(ADDRESS(Q101+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="38"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
@@ -5934,69 +5057,34 @@
         <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N102" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O102" s="23"/>
-      <c r="P102" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P102" ca="1">INDIRECT(ADDRESS(Q102+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R102" ca="1">INDIRECT(ADDRESS(Q102+2,23))/(O102*INDIRECT(ADDRESS(Q102+2,27))*INDIRECT(ADDRESS(Q102+2,28))*INDIRECT(ADDRESS(Q102+2,29))*INDIRECT(ADDRESS(Q102+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S102" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S102" ca="1">INDIRECT(ADDRESS(Q102+2,24))/(O102*INDIRECT(ADDRESS(Q102+2,27))*INDIRECT(ADDRESS(Q102+2,28))*INDIRECT(ADDRESS(Q102+2,29))*INDIRECT(ADDRESS(Q102+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P103" ca="1">INDIRECT(ADDRESS(Q103+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R103" ca="1">INDIRECT(ADDRESS(Q103+2,23))/(O103*INDIRECT(ADDRESS(Q103+2,27))*INDIRECT(ADDRESS(Q103+2,28))*INDIRECT(ADDRESS(Q103+2,29))*INDIRECT(ADDRESS(Q103+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S103" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S103" ca="1">INDIRECT(ADDRESS(Q103+2,24))/(O103*INDIRECT(ADDRESS(Q103+2,27))*INDIRECT(ADDRESS(Q103+2,28))*INDIRECT(ADDRESS(Q103+2,29))*INDIRECT(ADDRESS(Q103+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L104" s="38"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O104" s="23"/>
-      <c r="P104" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P104" ca="1">INDIRECT(ADDRESS(Q104+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R104" ca="1">INDIRECT(ADDRESS(Q104+2,23))/(O104*INDIRECT(ADDRESS(Q104+2,27))*INDIRECT(ADDRESS(Q104+2,28))*INDIRECT(ADDRESS(Q104+2,29))*INDIRECT(ADDRESS(Q104+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S104" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S104" ca="1">INDIRECT(ADDRESS(Q104+2,24))/(O104*INDIRECT(ADDRESS(Q104+2,27))*INDIRECT(ADDRESS(Q104+2,28))*INDIRECT(ADDRESS(Q104+2,29))*INDIRECT(ADDRESS(Q104+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="s">
@@ -6029,31 +5117,17 @@
       <c r="J105" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L105" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M105" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N105" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O105" s="51"/>
-      <c r="P105" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q105" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R105" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S105" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -6085,32 +5159,17 @@
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L106" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M106" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N106" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O106" s="23"/>
-      <c r="P106" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P106" ca="1">INDIRECT(ADDRESS(Q106+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q106" s="23"/>
-      <c r="R106" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R106" ca="1">INDIRECT(ADDRESS(Q106+2,23))/(O106*INDIRECT(ADDRESS(Q106+2,27))*INDIRECT(ADDRESS(Q106+2,28))*INDIRECT(ADDRESS(Q106+2,29))*INDIRECT(ADDRESS(Q106+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S106" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S106" ca="1">INDIRECT(ADDRESS(Q106+2,24))/(O106*INDIRECT(ADDRESS(Q106+2,27))*INDIRECT(ADDRESS(Q106+2,28))*INDIRECT(ADDRESS(Q106+2,29))*INDIRECT(ADDRESS(Q106+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
+      <c r="A107" s="46"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
@@ -6140,28 +5199,17 @@
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O107" s="23"/>
-      <c r="P107" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P107" ca="1">INDIRECT(ADDRESS(Q107+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q107" s="23"/>
-      <c r="R107" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R107" ca="1">INDIRECT(ADDRESS(Q107+2,23))/(O107*INDIRECT(ADDRESS(Q107+2,27))*INDIRECT(ADDRESS(Q107+2,28))*INDIRECT(ADDRESS(Q107+2,29))*INDIRECT(ADDRESS(Q107+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S107" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S107" ca="1">INDIRECT(ADDRESS(Q107+2,24))/(O107*INDIRECT(ADDRESS(Q107+2,27))*INDIRECT(ADDRESS(Q107+2,28))*INDIRECT(ADDRESS(Q107+2,29))*INDIRECT(ADDRESS(Q107+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
@@ -6191,28 +5239,17 @@
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L108" s="38"/>
-      <c r="M108" s="38"/>
-      <c r="N108" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O108" s="23"/>
-      <c r="P108" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P108" ca="1">INDIRECT(ADDRESS(Q108+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R108" ca="1">INDIRECT(ADDRESS(Q108+2,23))/(O108*INDIRECT(ADDRESS(Q108+2,27))*INDIRECT(ADDRESS(Q108+2,28))*INDIRECT(ADDRESS(Q108+2,29))*INDIRECT(ADDRESS(Q108+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S108" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S108" ca="1">INDIRECT(ADDRESS(Q108+2,24))/(O108*INDIRECT(ADDRESS(Q108+2,27))*INDIRECT(ADDRESS(Q108+2,28))*INDIRECT(ADDRESS(Q108+2,29))*INDIRECT(ADDRESS(Q108+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="38"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
@@ -6242,30 +5279,17 @@
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L109" s="38"/>
-      <c r="M109" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N109" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O109" s="23"/>
-      <c r="P109" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P109" ca="1">INDIRECT(ADDRESS(Q109+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q109" s="23"/>
-      <c r="R109" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R109" ca="1">INDIRECT(ADDRESS(Q109+2,23))/(O109*INDIRECT(ADDRESS(Q109+2,27))*INDIRECT(ADDRESS(Q109+2,28))*INDIRECT(ADDRESS(Q109+2,29))*INDIRECT(ADDRESS(Q109+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S109" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S109" ca="1">INDIRECT(ADDRESS(Q109+2,24))/(O109*INDIRECT(ADDRESS(Q109+2,27))*INDIRECT(ADDRESS(Q109+2,28))*INDIRECT(ADDRESS(Q109+2,29))*INDIRECT(ADDRESS(Q109+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
@@ -6295,28 +5319,17 @@
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O110" s="23"/>
-      <c r="P110" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P110" ca="1">INDIRECT(ADDRESS(Q110+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R110" ca="1">INDIRECT(ADDRESS(Q110+2,23))/(O110*INDIRECT(ADDRESS(Q110+2,27))*INDIRECT(ADDRESS(Q110+2,28))*INDIRECT(ADDRESS(Q110+2,29))*INDIRECT(ADDRESS(Q110+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S110" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S110" ca="1">INDIRECT(ADDRESS(Q110+2,24))/(O110*INDIRECT(ADDRESS(Q110+2,27))*INDIRECT(ADDRESS(Q110+2,28))*INDIRECT(ADDRESS(Q110+2,29))*INDIRECT(ADDRESS(Q110+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
+      <c r="A111" s="46"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
@@ -6346,28 +5359,17 @@
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L111" s="38"/>
-      <c r="M111" s="38"/>
-      <c r="N111" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O111" s="23"/>
-      <c r="P111" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P111" ca="1">INDIRECT(ADDRESS(Q111+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R111" ca="1">INDIRECT(ADDRESS(Q111+2,23))/(O111*INDIRECT(ADDRESS(Q111+2,27))*INDIRECT(ADDRESS(Q111+2,28))*INDIRECT(ADDRESS(Q111+2,29))*INDIRECT(ADDRESS(Q111+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S111" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S111" ca="1">INDIRECT(ADDRESS(Q111+2,24))/(O111*INDIRECT(ADDRESS(Q111+2,27))*INDIRECT(ADDRESS(Q111+2,28))*INDIRECT(ADDRESS(Q111+2,29))*INDIRECT(ADDRESS(Q111+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="38"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
@@ -6397,32 +5399,17 @@
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L112" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M112" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N112" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O112" s="23"/>
-      <c r="P112" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P112" ca="1">INDIRECT(ADDRESS(Q112+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q112" s="23"/>
-      <c r="R112" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R112" ca="1">INDIRECT(ADDRESS(Q112+2,23))/(O112*INDIRECT(ADDRESS(Q112+2,27))*INDIRECT(ADDRESS(Q112+2,28))*INDIRECT(ADDRESS(Q112+2,29))*INDIRECT(ADDRESS(Q112+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S112" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S112" ca="1">INDIRECT(ADDRESS(Q112+2,24))/(O112*INDIRECT(ADDRESS(Q112+2,27))*INDIRECT(ADDRESS(Q112+2,28))*INDIRECT(ADDRESS(Q112+2,29))*INDIRECT(ADDRESS(Q112+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
@@ -6452,28 +5439,17 @@
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O113" s="23"/>
-      <c r="P113" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P113" ca="1">INDIRECT(ADDRESS(Q113+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q113" s="23"/>
-      <c r="R113" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R113" ca="1">INDIRECT(ADDRESS(Q113+2,23))/(O113*INDIRECT(ADDRESS(Q113+2,27))*INDIRECT(ADDRESS(Q113+2,28))*INDIRECT(ADDRESS(Q113+2,29))*INDIRECT(ADDRESS(Q113+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S113" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S113" ca="1">INDIRECT(ADDRESS(Q113+2,24))/(O113*INDIRECT(ADDRESS(Q113+2,27))*INDIRECT(ADDRESS(Q113+2,28))*INDIRECT(ADDRESS(Q113+2,29))*INDIRECT(ADDRESS(Q113+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="38"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
@@ -6503,28 +5479,17 @@
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L114" s="38"/>
-      <c r="M114" s="38"/>
-      <c r="N114" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O114" s="23"/>
-      <c r="P114" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P114" ca="1">INDIRECT(ADDRESS(Q114+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R114" ca="1">INDIRECT(ADDRESS(Q114+2,23))/(O114*INDIRECT(ADDRESS(Q114+2,27))*INDIRECT(ADDRESS(Q114+2,28))*INDIRECT(ADDRESS(Q114+2,29))*INDIRECT(ADDRESS(Q114+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S114" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S114" ca="1">INDIRECT(ADDRESS(Q114+2,24))/(O114*INDIRECT(ADDRESS(Q114+2,27))*INDIRECT(ADDRESS(Q114+2,28))*INDIRECT(ADDRESS(Q114+2,29))*INDIRECT(ADDRESS(Q114+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="38"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
@@ -6554,69 +5519,34 @@
         <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N115" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O115" s="23"/>
-      <c r="P115" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P115" ca="1">INDIRECT(ADDRESS(Q115+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q115" s="23"/>
-      <c r="R115" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R115" ca="1">INDIRECT(ADDRESS(Q115+2,23))/(O115*INDIRECT(ADDRESS(Q115+2,27))*INDIRECT(ADDRESS(Q115+2,28))*INDIRECT(ADDRESS(Q115+2,29))*INDIRECT(ADDRESS(Q115+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S115" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S115" ca="1">INDIRECT(ADDRESS(Q115+2,24))/(O115*INDIRECT(ADDRESS(Q115+2,27))*INDIRECT(ADDRESS(Q115+2,28))*INDIRECT(ADDRESS(Q115+2,29))*INDIRECT(ADDRESS(Q115+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O116" s="23"/>
-      <c r="P116" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P116" ca="1">INDIRECT(ADDRESS(Q116+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q116" s="23"/>
-      <c r="R116" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R116" ca="1">INDIRECT(ADDRESS(Q116+2,23))/(O116*INDIRECT(ADDRESS(Q116+2,27))*INDIRECT(ADDRESS(Q116+2,28))*INDIRECT(ADDRESS(Q116+2,29))*INDIRECT(ADDRESS(Q116+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S116" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S116" ca="1">INDIRECT(ADDRESS(Q116+2,24))/(O116*INDIRECT(ADDRESS(Q116+2,27))*INDIRECT(ADDRESS(Q116+2,28))*INDIRECT(ADDRESS(Q116+2,29))*INDIRECT(ADDRESS(Q116+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O117" s="23"/>
-      <c r="P117" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P117" ca="1">INDIRECT(ADDRESS(Q117+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q117" s="23"/>
-      <c r="R117" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R117" ca="1">INDIRECT(ADDRESS(Q117+2,23))/(O117*INDIRECT(ADDRESS(Q117+2,27))*INDIRECT(ADDRESS(Q117+2,28))*INDIRECT(ADDRESS(Q117+2,29))*INDIRECT(ADDRESS(Q117+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S117" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S117" ca="1">INDIRECT(ADDRESS(Q117+2,24))/(O117*INDIRECT(ADDRESS(Q117+2,27))*INDIRECT(ADDRESS(Q117+2,28))*INDIRECT(ADDRESS(Q117+2,29))*INDIRECT(ADDRESS(Q117+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T125" s="9"/>
@@ -6631,19 +5561,19 @@
       <c r="A127" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="D127" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E127" s="52" t="s">
+      <c r="F127" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="52" t="s">
+      <c r="G127" s="41" t="s">
         <v>55</v>
       </c>
       <c r="L127" s="16"/>
@@ -6651,1209 +5581,1824 @@
       <c r="U127" s="9"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="27">
-        <f>B128*1.1*1</f>
-        <v>0</v>
+      <c r="B128" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C128" s="62">
+        <v>108.87430000000001</v>
+      </c>
+      <c r="D128" s="62">
+        <v>80.588999999999999</v>
+      </c>
+      <c r="E128" s="62">
+        <v>-377.04860000000002</v>
       </c>
       <c r="F128" s="27">
-        <f>(C128^2 + D128^2)*1.1</f>
-        <v>0</v>
+        <f>C128*1.1*1</f>
+        <v>119.76173000000001</v>
+      </c>
+      <c r="G128" s="27">
+        <f>(D128^2 + E128^2)*1.1</f>
+        <v>163526.25705125605</v>
       </c>
       <c r="L128" s="16"/>
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="E129" s="27">
-        <f t="shared" ref="E129:E182" si="0">B129*1.1*1</f>
-        <v>0</v>
+      <c r="A129" s="47"/>
+      <c r="B129" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C129" s="62">
+        <v>9.1621360000000003</v>
+      </c>
+      <c r="D129" s="62">
+        <v>4.0983510000000001</v>
+      </c>
+      <c r="E129" s="62">
+        <v>-399.84219999999999</v>
       </c>
       <c r="F129" s="27">
-        <f t="shared" ref="F129:F192" si="1">(C129^2 + D129^2)*1.1</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="16"/>
+        <f t="shared" ref="F129:F192" si="0">C129*1.1*1</f>
+        <v>10.078349600000001</v>
+      </c>
+      <c r="G129" s="27">
+        <f t="shared" ref="G129:G156" si="1">(D129^2 + E129^2)*1.1</f>
+        <v>175879.63951993512</v>
+      </c>
+      <c r="I129"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="62"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="E130" s="27">
+      <c r="A130" s="47"/>
+      <c r="B130" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C130" s="62">
+        <v>-108.26</v>
+      </c>
+      <c r="D130" s="62">
+        <v>-104.9881</v>
+      </c>
+      <c r="E130" s="62">
+        <v>-357.2242</v>
+      </c>
+      <c r="F130" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F130" s="27">
+        <v>-119.08600000000001</v>
+      </c>
+      <c r="G130" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L130" s="16"/>
+        <v>152494.79322797499</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130" s="62"/>
+      <c r="K130" s="62"/>
+      <c r="L130" s="62"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="E131" s="27">
+      <c r="A131" s="47"/>
+      <c r="B131" s="38">
+        <v>40360</v>
+      </c>
+      <c r="F131" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F131" s="27">
+      <c r="G131" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L131" s="16"/>
+      <c r="I131"/>
+      <c r="J131" s="62"/>
+      <c r="K131" s="62"/>
+      <c r="L131" s="62"/>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
-      <c r="E132" s="27">
+      <c r="A132" s="47"/>
+      <c r="B132" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C132" s="62">
+        <v>-81.548439999999999</v>
+      </c>
+      <c r="D132" s="62">
+        <v>45.2622</v>
+      </c>
+      <c r="E132" s="62">
+        <v>-187.11330000000001</v>
+      </c>
+      <c r="F132" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F132" s="27">
+        <v>-89.703284000000011</v>
+      </c>
+      <c r="G132" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="16"/>
+        <v>40766.059164303006</v>
+      </c>
+      <c r="I132"/>
+      <c r="J132" s="62"/>
+      <c r="K132" s="62"/>
+      <c r="L132" s="62"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="E133" s="27">
+      <c r="A133" s="47"/>
+      <c r="B133" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C133" s="62">
+        <v>81.42022</v>
+      </c>
+      <c r="D133" s="62">
+        <v>45.224200000000003</v>
+      </c>
+      <c r="E133" s="62">
+        <v>-186.93960000000001</v>
+      </c>
+      <c r="F133" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F133" s="27">
+        <v>89.562242000000012</v>
+      </c>
+      <c r="G133" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L133" s="16"/>
+        <v>40690.806545180007</v>
+      </c>
+      <c r="I133"/>
+      <c r="J133" s="62"/>
+      <c r="K133" s="62"/>
+      <c r="L133" s="62"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
-      <c r="E134" s="27">
+      <c r="A134" s="47"/>
+      <c r="B134" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C134" s="62">
+        <v>-288.57069999999999</v>
+      </c>
+      <c r="D134" s="62">
+        <v>24.531610000000001</v>
+      </c>
+      <c r="E134" s="62">
+        <v>-71.379090000000005</v>
+      </c>
+      <c r="F134" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="27">
+        <v>-317.42777000000001</v>
+      </c>
+      <c r="G134" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>6266.4518162622207</v>
+      </c>
+      <c r="I134"/>
+      <c r="J134" s="62"/>
+      <c r="K134" s="62"/>
+      <c r="L134" s="62"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="40"/>
-      <c r="E135" s="27">
+      <c r="A135" s="47"/>
+      <c r="B135" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C135" s="62">
+        <v>108.3323</v>
+      </c>
+      <c r="D135" s="62">
+        <v>-105.2955</v>
+      </c>
+      <c r="E135" s="62">
+        <v>-357.17989999999998</v>
+      </c>
+      <c r="F135" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F135" s="27">
+        <v>119.16553000000002</v>
+      </c>
+      <c r="G135" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>152531.085612686</v>
+      </c>
+      <c r="I135"/>
+      <c r="J135" s="62"/>
+      <c r="K135" s="62"/>
+      <c r="L135" s="62"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="40"/>
-      <c r="E136" s="27">
+      <c r="A136" s="47"/>
+      <c r="B136" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C136" s="62">
+        <v>-9.0496949999999998</v>
+      </c>
+      <c r="D136" s="62">
+        <v>3.9700730000000002</v>
+      </c>
+      <c r="E136" s="62">
+        <v>-399.87430000000001</v>
+      </c>
+      <c r="F136" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F136" s="27">
+        <v>-9.9546644999999998</v>
+      </c>
+      <c r="G136" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>175906.7390081269</v>
+      </c>
+      <c r="I136"/>
+      <c r="J136" s="62"/>
+      <c r="K136" s="62"/>
+      <c r="L136" s="62"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="40"/>
-      <c r="E137" s="27">
+      <c r="A137" s="47"/>
+      <c r="B137" s="38">
+        <v>40770</v>
+      </c>
+      <c r="F137" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F137" s="27">
+      <c r="G137" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I137"/>
+      <c r="J137" s="62"/>
+      <c r="K137" s="62"/>
+      <c r="L137" s="62"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C138" s="62">
+        <v>229.86689999999999</v>
+      </c>
+      <c r="D138" s="62">
+        <v>-138.2756</v>
+      </c>
+      <c r="E138" s="62">
+        <v>61.233829999999998</v>
+      </c>
+      <c r="F138" s="27">
+        <f t="shared" si="0"/>
+        <v>252.85359</v>
+      </c>
+      <c r="G138" s="27">
+        <f t="shared" si="1"/>
+        <v>25156.695841011788</v>
+      </c>
+      <c r="I138"/>
+      <c r="J138" s="62"/>
+      <c r="K138" s="62"/>
+      <c r="L138" s="62"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="49"/>
+      <c r="B139" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C139" s="62">
+        <v>106.7925</v>
+      </c>
+      <c r="D139" s="62">
+        <v>-138.14330000000001</v>
+      </c>
+      <c r="E139" s="62">
+        <v>-2.2907169999999999</v>
+      </c>
+      <c r="F139" s="27">
+        <f t="shared" si="0"/>
+        <v>117.47175000000001</v>
+      </c>
+      <c r="G139" s="27">
+        <f t="shared" si="1"/>
+        <v>20997.7005911905</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139" s="62"/>
+      <c r="K139" s="62"/>
+      <c r="L139" s="62"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="49"/>
+      <c r="B140" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C140" s="62">
+        <v>218.7602</v>
+      </c>
+      <c r="D140" s="62">
+        <v>-217.17760000000001</v>
+      </c>
+      <c r="E140" s="62">
+        <v>-63.488199999999999</v>
+      </c>
+      <c r="F140" s="27">
+        <f t="shared" si="0"/>
+        <v>240.63622000000001</v>
+      </c>
+      <c r="G140" s="27">
+        <f t="shared" si="1"/>
+        <v>56316.547629100016</v>
+      </c>
+      <c r="I140"/>
+      <c r="J140" s="62"/>
+      <c r="K140" s="62"/>
+      <c r="L140" s="62"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="49"/>
+      <c r="B141" s="38">
+        <v>40360</v>
+      </c>
+      <c r="F141" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I141"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
+      <c r="L141" s="62"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A142" s="49"/>
+      <c r="B142" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C142" s="62">
+        <v>-62.126640000000002</v>
+      </c>
+      <c r="D142" s="62">
+        <v>-371.15879999999999</v>
+      </c>
+      <c r="E142" s="62">
+        <v>32.464109999999998</v>
+      </c>
+      <c r="F142" s="27">
+        <f t="shared" si="0"/>
+        <v>-68.339304000000013</v>
+      </c>
+      <c r="G142" s="27">
+        <f t="shared" si="1"/>
+        <v>152694.05058108529</v>
+      </c>
+      <c r="I142"/>
+      <c r="J142" s="62"/>
+      <c r="K142" s="62"/>
+      <c r="L142" s="62"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A143" s="49"/>
+      <c r="B143" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C143" s="62">
+        <v>61.996380000000002</v>
+      </c>
+      <c r="D143" s="62">
+        <v>-371.24099999999999</v>
+      </c>
+      <c r="E143" s="62">
+        <v>32.468940000000003</v>
+      </c>
+      <c r="F143" s="27">
+        <f t="shared" si="0"/>
+        <v>68.196018000000009</v>
+      </c>
+      <c r="G143" s="27">
+        <f t="shared" si="1"/>
+        <v>152761.52336029595</v>
+      </c>
+      <c r="I143"/>
+      <c r="J143" s="62"/>
+      <c r="K143" s="62"/>
+      <c r="L143" s="62"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="49"/>
+      <c r="B144" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C144" s="62">
+        <v>11.124359999999999</v>
+      </c>
+      <c r="D144" s="62">
+        <v>527.91380000000004</v>
+      </c>
+      <c r="E144" s="62">
+        <v>-27.837730000000001</v>
+      </c>
+      <c r="F144" s="27">
+        <f t="shared" si="0"/>
+        <v>12.236796</v>
+      </c>
+      <c r="G144" s="27">
+        <f t="shared" si="1"/>
+        <v>307414.71138619224</v>
+      </c>
+      <c r="I144"/>
+      <c r="J144" s="62"/>
+      <c r="K144" s="62"/>
+      <c r="L144" s="62"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="49"/>
+      <c r="B145" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C145" s="62">
+        <v>-218.73050000000001</v>
+      </c>
+      <c r="D145" s="62">
+        <v>-217.07069999999999</v>
+      </c>
+      <c r="E145" s="62">
+        <v>-63.818910000000002</v>
+      </c>
+      <c r="F145" s="27">
+        <f t="shared" si="0"/>
+        <v>-240.60355000000001</v>
+      </c>
+      <c r="G145" s="27">
+        <f t="shared" si="1"/>
+        <v>56311.796279285911</v>
+      </c>
+      <c r="I145"/>
+      <c r="J145" s="62"/>
+      <c r="K145" s="62"/>
+      <c r="L145" s="62"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="49"/>
+      <c r="B146" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C146" s="62">
+        <v>-106.5462</v>
+      </c>
+      <c r="D146" s="62">
+        <v>-137.99109999999999</v>
+      </c>
+      <c r="E146" s="62">
+        <v>-2.2971940000000002</v>
+      </c>
+      <c r="F146" s="27">
+        <f t="shared" si="0"/>
+        <v>-117.20082000000001</v>
+      </c>
+      <c r="G146" s="27">
+        <f t="shared" si="1"/>
+        <v>20951.502857431999</v>
+      </c>
+      <c r="I146"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="62"/>
+      <c r="L146" s="62"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="49"/>
+      <c r="B147" s="38">
+        <v>40770</v>
+      </c>
+      <c r="F147" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G147" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I147"/>
+      <c r="J147" s="62"/>
+      <c r="K147" s="62"/>
+      <c r="L147" s="62"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C148" s="62">
+        <v>547.0942</v>
+      </c>
+      <c r="D148" s="62">
+        <v>315.8075</v>
+      </c>
+      <c r="E148" s="62">
+        <v>98.632729999999995</v>
+      </c>
+      <c r="F148" s="27">
+        <f t="shared" si="0"/>
+        <v>601.80362000000002</v>
+      </c>
+      <c r="G148" s="27">
+        <f t="shared" si="1"/>
+        <v>120409.0717318532</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148" s="62"/>
+      <c r="K148" s="62"/>
+      <c r="L148" s="62"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="49"/>
+      <c r="B149" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C149" s="62">
+        <v>397.2509</v>
+      </c>
+      <c r="D149" s="62">
+        <v>250.9991</v>
+      </c>
+      <c r="E149" s="62">
+        <v>57.344790000000003</v>
+      </c>
+      <c r="F149" s="27">
+        <f t="shared" si="0"/>
+        <v>436.97599000000002</v>
+      </c>
+      <c r="G149" s="27">
+        <f t="shared" si="1"/>
+        <v>72917.870455049517</v>
+      </c>
+      <c r="I149"/>
+      <c r="J149" s="62"/>
+      <c r="K149" s="62"/>
+      <c r="L149" s="62"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="49"/>
+      <c r="B150" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C150" s="62">
+        <v>640.61950000000002</v>
+      </c>
+      <c r="D150" s="62">
+        <v>353.39819999999997</v>
+      </c>
+      <c r="E150" s="62">
+        <v>-74.685460000000006</v>
+      </c>
+      <c r="F150" s="27">
+        <f t="shared" si="0"/>
+        <v>704.68145000000004</v>
+      </c>
+      <c r="G150" s="27">
+        <f t="shared" si="1"/>
+        <v>143515.02626851675</v>
+      </c>
+      <c r="I150"/>
+      <c r="J150" s="62"/>
+      <c r="K150" s="62"/>
+      <c r="L150" s="62"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="49"/>
+      <c r="B151" s="38">
+        <v>40360</v>
+      </c>
+      <c r="F151" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I151"/>
+      <c r="J151" s="62"/>
+      <c r="K151" s="62"/>
+      <c r="L151" s="62"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="49"/>
+      <c r="B152" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C152" s="62">
+        <v>414.81529999999998</v>
+      </c>
+      <c r="D152" s="62">
+        <v>-127.63460000000001</v>
+      </c>
+      <c r="E152" s="62">
+        <v>-183.77680000000001</v>
+      </c>
+      <c r="F152" s="27">
+        <f t="shared" si="0"/>
+        <v>456.29683</v>
+      </c>
+      <c r="G152" s="27">
+        <f t="shared" si="1"/>
+        <v>55070.953668940012</v>
+      </c>
+      <c r="I152"/>
+      <c r="J152" s="62"/>
+      <c r="K152" s="62"/>
+      <c r="L152" s="62"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="49"/>
+      <c r="B153" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C153" s="62">
+        <v>414.5104</v>
+      </c>
+      <c r="D153" s="62">
+        <v>127.66970000000001</v>
+      </c>
+      <c r="E153" s="62">
+        <v>183.85599999999999</v>
+      </c>
+      <c r="F153" s="27">
+        <f t="shared" si="0"/>
+        <v>455.96144000000004</v>
+      </c>
+      <c r="G153" s="27">
+        <f t="shared" si="1"/>
+        <v>55112.83913749901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="49"/>
+      <c r="B154" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C154" s="62">
+        <v>1016.927</v>
+      </c>
+      <c r="D154" s="62">
+        <v>53.045699999999997</v>
+      </c>
+      <c r="E154" s="62">
+        <v>-466.57429999999999</v>
+      </c>
+      <c r="F154" s="27">
+        <f t="shared" si="0"/>
+        <v>1118.6197000000002</v>
+      </c>
+      <c r="G154" s="27">
+        <f t="shared" si="1"/>
+        <v>242555.96607987801</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="49"/>
+      <c r="B155" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C155" s="62">
+        <v>640.90300000000002</v>
+      </c>
+      <c r="D155" s="62">
+        <v>-353.44619999999998</v>
+      </c>
+      <c r="E155" s="62">
+        <v>74.939840000000004</v>
+      </c>
+      <c r="F155" s="27">
+        <f t="shared" si="0"/>
+        <v>704.99330000000009</v>
+      </c>
+      <c r="G155" s="27">
+        <f t="shared" si="1"/>
+        <v>143594.21550503216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="49"/>
+      <c r="B156" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C156" s="62">
+        <v>397.58100000000002</v>
+      </c>
+      <c r="D156" s="62">
+        <v>-251.0264</v>
+      </c>
+      <c r="E156" s="62">
+        <v>-57.33549</v>
+      </c>
+      <c r="F156" s="27">
+        <f t="shared" si="0"/>
+        <v>437.33910000000003</v>
+      </c>
+      <c r="G156" s="27">
+        <f t="shared" si="1"/>
+        <v>72931.773101550119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="49"/>
+      <c r="B157" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="27">
+        <f t="shared" ref="G129:G190" si="2">(D157^2 + E157^2)*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E138" s="27">
+      <c r="C158" s="9"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F138" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E139" s="27">
+      <c r="G158" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F139" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="42"/>
-      <c r="E140" s="27">
+      <c r="G159" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="42"/>
+      <c r="B160" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F140" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="42"/>
-      <c r="E141" s="27">
+      <c r="G160" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="42"/>
+      <c r="B161" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F141" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="42"/>
-      <c r="E142" s="27">
+      <c r="G161" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="42"/>
+      <c r="B162" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F142" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="42"/>
-      <c r="E143" s="27">
+      <c r="G162" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="42"/>
+      <c r="B163" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F143" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="42"/>
-      <c r="E144" s="27">
+      <c r="G163" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="42"/>
+      <c r="B164" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F144" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="42"/>
-      <c r="E145" s="27">
+      <c r="G164" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="42"/>
+      <c r="B165" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F145" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="42"/>
-      <c r="E146" s="27">
+      <c r="G165" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="42"/>
+      <c r="B166" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F146" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="42"/>
-      <c r="E147" s="27">
+      <c r="G166" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="42"/>
+      <c r="B167" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F147" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="42"/>
-      <c r="E148" s="27">
+      <c r="G167" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="42"/>
+      <c r="B168" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F148" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="12" t="s">
+      <c r="G168" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E149" s="27">
+      <c r="C169" s="9"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F149" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="27">
+      <c r="G169" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F150" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="42"/>
-      <c r="E151" s="27">
+      <c r="G170" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="42"/>
+      <c r="B171" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F151" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="42"/>
-      <c r="E152" s="27">
+      <c r="G171" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="42"/>
+      <c r="B172" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F152" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="42"/>
-      <c r="E153" s="27">
+      <c r="G172" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="42"/>
+      <c r="B173" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F153" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="42"/>
-      <c r="E154" s="27">
+      <c r="G173" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="42"/>
+      <c r="B174" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F154" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="42"/>
-      <c r="E155" s="27">
+      <c r="G174" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="42"/>
+      <c r="B175" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F155" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="42"/>
-      <c r="E156" s="27">
+      <c r="G175" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="42"/>
+      <c r="B176" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F156" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="42"/>
-      <c r="E157" s="27">
+      <c r="G176" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="42"/>
+      <c r="B177" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F157" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="42"/>
-      <c r="E158" s="27">
+      <c r="G177" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="42"/>
+      <c r="B178" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F158" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="42"/>
-      <c r="E159" s="27">
+      <c r="G178" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="42"/>
+      <c r="B179" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C179" s="9"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F159" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
+      <c r="G179" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="27">
+      <c r="C180" s="9"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F160" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E161" s="27">
+      <c r="G180" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F161" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
-      <c r="E162" s="27">
+      <c r="G181" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="42"/>
+      <c r="B182" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C182" s="9"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F162" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="39"/>
-      <c r="E163" s="27">
+      <c r="G182" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="42"/>
+      <c r="B183" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F163" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
-      <c r="E164" s="27">
+      <c r="G183" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="42"/>
+      <c r="B184" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C184" s="9"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F164" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
-      <c r="E165" s="27">
+      <c r="G184" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="42"/>
+      <c r="B185" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F165" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="39"/>
-      <c r="E166" s="27">
+      <c r="G185" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="42"/>
+      <c r="B186" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C186" s="9"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F166" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="39"/>
-      <c r="E167" s="27">
+      <c r="G186" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="42"/>
+      <c r="B187" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C187" s="9"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F167" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="39"/>
-      <c r="E168" s="27">
+      <c r="G187" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="42"/>
+      <c r="B188" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C188" s="9"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F168" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="39"/>
-      <c r="E169" s="27">
+      <c r="G188" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="42"/>
+      <c r="B189" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C189" s="9"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F169" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="39"/>
-      <c r="E170" s="27">
+      <c r="G189" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="42"/>
+      <c r="B190" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C190" s="9"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F170" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
+      <c r="G190" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="27">
+      <c r="C191" s="9"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F171" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E172" s="27">
+      <c r="G191" s="27">
+        <f t="shared" ref="G191:G223" si="3">(D191^2 + E191^2)*1.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F172" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="39"/>
-      <c r="E173" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F173" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
-      <c r="E174" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F174" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
-      <c r="E175" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F175" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
-      <c r="E176" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F176" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
-      <c r="E177" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F177" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="E178" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F178" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
-      <c r="E179" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
-      <c r="E180" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
-      <c r="E181" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F181" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="17" t="s">
+      <c r="G192" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="44"/>
+      <c r="B193" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C193" s="9"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="27">
+        <f t="shared" ref="F193:F223" si="4">C193*1.1*1</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="44"/>
+      <c r="B194" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C194" s="9"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G194" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="44"/>
+      <c r="B195" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C195" s="9"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G195" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="44"/>
+      <c r="B196" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G196" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="44"/>
+      <c r="B197" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G197" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="44"/>
+      <c r="B198" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C198" s="9"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G198" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="44"/>
+      <c r="B199" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G199" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="44"/>
+      <c r="B200" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G200" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="45"/>
+      <c r="B201" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G201" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E182" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F182" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E183" s="27">
-        <f t="shared" ref="E183:E225" si="2">B183*1.1*1</f>
-        <v>0</v>
-      </c>
-      <c r="F183" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
-      <c r="E184" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F184" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
-      <c r="E185" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F185" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
-      <c r="E186" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F186" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
-      <c r="E187" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F187" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
-      <c r="E188" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F188" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
-      <c r="E189" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
-      <c r="E190" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F190" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
-      <c r="E191" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F191" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
-      <c r="E192" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F192" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="21" t="s">
+      <c r="C202" s="9"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G202" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G203" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="46"/>
+      <c r="B204" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C204" s="9"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="46"/>
+      <c r="B205" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C205" s="9"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G205" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="46"/>
+      <c r="B206" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C206" s="9"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="46"/>
+      <c r="B207" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G207" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="46"/>
+      <c r="B208" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C208" s="9"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G208" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="46"/>
+      <c r="B209" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G209" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="46"/>
+      <c r="B210" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C210" s="9"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="46"/>
+      <c r="B211" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C211" s="9"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G211" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="46"/>
+      <c r="B212" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E193" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="27">
-        <f t="shared" ref="F193:F225" si="3">(C193^2 + D193^2)*1.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E194" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="27">
+      <c r="C213" s="9"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="44"/>
-      <c r="E195" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F195" s="27">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="38">
+        <v>40230</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="44"/>
-      <c r="E196" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F196" s="27">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="46"/>
+      <c r="B215" s="38">
+        <v>40240</v>
+      </c>
+      <c r="C215" s="9"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G215" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="44"/>
-      <c r="E197" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F197" s="27">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="46"/>
+      <c r="B216" s="38">
+        <v>40250</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="44"/>
-      <c r="E198" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F198" s="27">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="46"/>
+      <c r="B217" s="38">
+        <v>40360</v>
+      </c>
+      <c r="C217" s="9"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G217" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="44"/>
-      <c r="E199" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F199" s="27">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="46"/>
+      <c r="B218" s="38">
+        <v>40390</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G218" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="44"/>
-      <c r="E200" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F200" s="27">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="46"/>
+      <c r="B219" s="38">
+        <v>40710</v>
+      </c>
+      <c r="C219" s="9"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="44"/>
-      <c r="E201" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F201" s="27">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="46"/>
+      <c r="B220" s="38">
+        <v>40740</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="44"/>
-      <c r="E202" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F202" s="27">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="46"/>
+      <c r="B221" s="38">
+        <v>40750</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G221" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="45"/>
-      <c r="E203" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F203" s="27">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="46"/>
+      <c r="B222" s="38">
+        <v>40760</v>
+      </c>
+      <c r="C222" s="9"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E204" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F204" s="27">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="46"/>
+      <c r="B223" s="38">
+        <v>40770</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E205" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F205" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="38"/>
-      <c r="E206" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F206" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="38"/>
-      <c r="E207" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="38"/>
-      <c r="E208" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F208" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="38"/>
-      <c r="E209" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="38"/>
-      <c r="E210" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F210" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="38"/>
-      <c r="E211" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F211" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="38"/>
-      <c r="E212" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F212" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="38"/>
-      <c r="E213" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F213" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="38"/>
-      <c r="E214" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F214" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E215" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F215" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="38"/>
-      <c r="E217" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F217" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="38"/>
-      <c r="E218" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F218" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="38"/>
-      <c r="E219" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F219" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="38"/>
-      <c r="E220" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F220" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="38"/>
-      <c r="E221" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F221" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="38"/>
-      <c r="E222" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F222" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="38"/>
-      <c r="E223" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F223" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="38"/>
-      <c r="E224" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F224" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="38"/>
-      <c r="E225" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F225" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A183:A192"/>
-    <mergeCell ref="A194:A203"/>
-    <mergeCell ref="A205:A214"/>
-    <mergeCell ref="A216:A225"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="A161:A170"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="L112:L117"/>
-    <mergeCell ref="M112:M114"/>
-    <mergeCell ref="M115:M117"/>
-    <mergeCell ref="L93:L98"/>
-    <mergeCell ref="M93:M95"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="L106:L111"/>
-    <mergeCell ref="M106:M108"/>
-    <mergeCell ref="M109:M111"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="M70:M72"/>
-    <mergeCell ref="M96:M98"/>
-    <mergeCell ref="L99:L104"/>
-    <mergeCell ref="M99:M101"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="L86:L91"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="M89:M91"/>
-    <mergeCell ref="L73:L78"/>
-    <mergeCell ref="M73:M75"/>
-    <mergeCell ref="M76:M78"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="L47:L52"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="L54:L59"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="L41:L46"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="L67:L72"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="L34:L39"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L15:L20"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M2:M4"/>
+  <mergeCells count="36">
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="L83:L88"/>
     <mergeCell ref="A106:A115"/>
     <mergeCell ref="A67:A76"/>
     <mergeCell ref="A54:A63"/>
@@ -7863,6 +7408,31 @@
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="A80:A89"/>
     <mergeCell ref="A93:A102"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A181:A190"/>
+    <mergeCell ref="A192:A201"/>
+    <mergeCell ref="A203:A212"/>
+    <mergeCell ref="A214:A223"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A148:A157"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="A170:A179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE54CAF-D2F2-47BE-9463-523A2D2A63A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F70B8A-5CD3-420B-95C9-3E266E6E666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,7 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,8 +501,6 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,6 +511,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +548,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,10 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,22 +584,99 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,7 +696,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -859,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="O147" sqref="O147"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,12 +963,12 @@
     <col min="2" max="2" width="8.88671875" style="9"/>
     <col min="3" max="3" width="11" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="27" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="27"/>
-    <col min="8" max="8" width="10.6640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11" style="27" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="27" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="26" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="26"/>
+    <col min="8" max="8" width="10.6640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="42" customWidth="1"/>
     <col min="12" max="12" width="15" style="10" customWidth="1"/>
     <col min="13" max="13" width="12.109375" style="10" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="10" customWidth="1"/>
@@ -902,22 +996,22 @@
       <c r="D1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="12" t="s">
@@ -926,10 +1020,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="53"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -944,48 +1038,52 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
         <v>40230</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="25" cm="1">
+      <c r="C2" s="34">
+        <v>119.76173000000001</v>
+      </c>
+      <c r="D2" s="34">
+        <v>163526.25705125605</v>
+      </c>
+      <c r="E2" s="41" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F2" s="25" cm="1">
+        <v>0.58256597358123541</v>
+      </c>
+      <c r="F2" s="41" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G2" s="25" t="e" cm="1">
+        <v>0.83229303832241541</v>
+      </c>
+      <c r="G2" s="41" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" s="25" t="e" cm="1">
+        <v>81.094249404624762</v>
+      </c>
+      <c r="H2" s="41" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C2)*INDIRECT(ADDRESS(5,38))/(D2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="25" cm="1">
+        <v>-0.98853291256232267</v>
+      </c>
+      <c r="I2" s="41" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">1/((D2*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J2" s="25" cm="1">
+        <v>-0.87768163153387824</v>
+      </c>
+      <c r="J2" s="41" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L2" s="56" t="s">
+        <v>-0.89542760593648674</v>
+      </c>
+      <c r="L2" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="51" t="s">
         <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="34">
         <v>6090000</v>
       </c>
       <c r="P2" s="14" t="str" cm="1">
@@ -1059,42 +1157,46 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="25" cm="1">
+      <c r="C3" s="13">
+        <v>10.078349600000001</v>
+      </c>
+      <c r="D3" s="13">
+        <v>175879.63951993512</v>
+      </c>
+      <c r="E3" s="41" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F3" s="25" cm="1">
+        <v>0.58286617110843242</v>
+      </c>
+      <c r="F3" s="41" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G3" s="25" t="e" cm="1">
+        <v>0.83277963061549909</v>
+      </c>
+      <c r="G3" s="41" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="25" t="e" cm="1">
+        <v>974.5316814718683</v>
+      </c>
+      <c r="H3" s="41" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C3)*INDIRECT(ADDRESS(5,38))/(D3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="25" cm="1">
+        <v>-0.9892526302453194</v>
+      </c>
+      <c r="I3" s="41" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">1/((D3*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J3" s="25" cm="1">
+        <v>-0.88622681027653805</v>
+      </c>
+      <c r="J3" s="41" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="47"/>
+        <v>-0.90275098885523397</v>
+      </c>
+      <c r="L3" s="64"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="34">
         <v>6800000</v>
       </c>
       <c r="P3" s="14" t="str" cm="1">
@@ -1150,42 +1252,46 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="25" cm="1">
+      <c r="C4" s="13">
+        <v>-119.086</v>
+      </c>
+      <c r="D4" s="13">
+        <v>152494.79322797499</v>
+      </c>
+      <c r="E4" s="41" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F4" s="25" cm="1">
+        <v>0.58321983306318148</v>
+      </c>
+      <c r="F4" s="41" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G4" s="25" t="e" cm="1">
+        <v>0.83335297850423329</v>
+      </c>
+      <c r="G4" s="41" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="25" t="e" cm="1">
+        <v>-83.560077017863833</v>
+      </c>
+      <c r="H4" s="41" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C4)*INDIRECT(ADDRESS(5,38))/(D4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="25" cm="1">
+        <v>-0.98748813418545167</v>
+      </c>
+      <c r="I4" s="41" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">1/((D4*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J4" s="25" cm="1">
+        <v>-0.86889145188293004</v>
+      </c>
+      <c r="J4" s="41" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="47"/>
+        <v>-0.88788997095129907</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="34">
         <v>18200000</v>
       </c>
       <c r="P4" s="14" t="str" cm="1">
@@ -1241,53 +1347,57 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="25" cm="1">
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F5" s="25" cm="1">
+      <c r="F5" s="41" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G5" s="25" t="e" cm="1">
+      <c r="G5" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="25" t="e" cm="1">
+      <c r="H5" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C5)*INDIRECT(ADDRESS(5,38))/(D5*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="25" cm="1">
+      <c r="I5" s="41" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">1/((D5*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J5" s="25" cm="1">
+      <c r="J5" s="41" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="34">
         <v>11200000</v>
       </c>
       <c r="P5" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDIRECT(ADDRESS(Q5+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="37">
         <v>2</v>
       </c>
       <c r="R5" s="14" cm="1">
@@ -1310,11 +1420,11 @@
       <c r="X5" s="5">
         <v>1100000000</v>
       </c>
-      <c r="Y5" s="4">
-        <v>548</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>655</v>
+      <c r="Y5" s="5">
+        <v>548000000</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>655000000</v>
       </c>
       <c r="AA5" s="4">
         <v>1</v>
@@ -1354,49 +1464,53 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="25" cm="1">
+      <c r="C6" s="13">
+        <v>-89.703284000000011</v>
+      </c>
+      <c r="D6" s="13">
+        <v>40766.059164303006</v>
+      </c>
+      <c r="E6" s="41" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F6" s="25" cm="1">
+        <v>0.58313936703408431</v>
+      </c>
+      <c r="F6" s="41" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G6" s="25" t="e" cm="1">
+        <v>0.83322251999009667</v>
+      </c>
+      <c r="G6" s="41" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="25" t="e" cm="1">
+        <v>-110.60300329416403</v>
+      </c>
+      <c r="H6" s="41" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C6)*INDIRECT(ADDRESS(5,38))/(D6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="25" cm="1">
+        <v>-0.95329555015540102</v>
+      </c>
+      <c r="I6" s="41" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">1/((D6*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J6" s="25" cm="1">
+        <v>-0.53005078329038957</v>
+      </c>
+      <c r="J6" s="41" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="40" t="s">
+        <v>-0.59045912696254055</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="34">
         <v>11500000</v>
       </c>
       <c r="P6" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDIRECT(ADDRESS(Q6+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="37">
         <v>2</v>
       </c>
       <c r="R6" s="14" cm="1">
@@ -1409,49 +1523,53 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="25" cm="1">
+      <c r="C7" s="13">
+        <v>89.562242000000012</v>
+      </c>
+      <c r="D7" s="13">
+        <v>40690.806545180007</v>
+      </c>
+      <c r="E7" s="41" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F7" s="25" cm="1">
+        <v>0.5826486165992677</v>
+      </c>
+      <c r="F7" s="41" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G7" s="25" t="e" cm="1">
+        <v>0.83242698761031564</v>
+      </c>
+      <c r="G7" s="41" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="25" t="e" cm="1">
+        <v>108.77560534660725</v>
+      </c>
+      <c r="H7" s="41" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C7)*INDIRECT(ADDRESS(5,38))/(D7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="25" cm="1">
+        <v>-0.95381462497259872</v>
+      </c>
+      <c r="I7" s="41" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">1/((D7*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J7" s="25" cm="1">
+        <v>-0.52927135567385664</v>
+      </c>
+      <c r="J7" s="41" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="40" t="s">
+        <v>-0.58974855289360728</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="34">
         <v>30500000</v>
       </c>
       <c r="P7" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDIRECT(ADDRESS(Q7+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="37">
         <v>2</v>
       </c>
       <c r="R7" s="14" cm="1">
@@ -1464,200 +1582,216 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="25" cm="1">
+      <c r="C8" s="13">
+        <v>-317.42777000000001</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6266.4518162622207</v>
+      </c>
+      <c r="E8" s="41" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F8" s="25" cm="1">
+        <v>0.5837632159047903</v>
+      </c>
+      <c r="F8" s="41" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G8" s="25" t="e" cm="1">
+        <v>0.83423409686995131</v>
+      </c>
+      <c r="G8" s="41" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="25" t="e" cm="1">
+        <v>-31.973185905408759</v>
+      </c>
+      <c r="H8" s="41" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C8)*INDIRECT(ADDRESS(5,38))/(D8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="25" cm="1">
+        <v>-0.69117256892182444</v>
+      </c>
+      <c r="I8" s="41" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">1/((D8*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J8" s="25" cm="1">
+        <v>0.41956414067931247</v>
+      </c>
+      <c r="J8" s="41" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="56" t="s">
+        <v>0.52307734265045136</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="35">
-        <v>-718000</v>
+      <c r="O8" s="34">
+        <v>718000</v>
       </c>
       <c r="P8" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDIRECT(ADDRESS(Q8+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="37">
         <v>2</v>
       </c>
       <c r="R8" s="14" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDIRECT(ADDRESS(Q8+2,23))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,30))) -1</f>
-        <v>-131.79993051907687</v>
+        <v>129.79993051907687</v>
       </c>
       <c r="S8" s="14" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(Q8+2,24))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,31))) -1</f>
-        <v>-123.7775347805735</v>
+        <v>121.7775347805735</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="25" cm="1">
+      <c r="C9" s="13">
+        <v>119.16553000000002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>152531.085612686</v>
+      </c>
+      <c r="E9" s="41" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F9" s="25" cm="1">
+        <v>0.58256760504085703</v>
+      </c>
+      <c r="F9" s="41" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G9" s="25" t="e" cm="1">
+        <v>0.83229568256734199</v>
+      </c>
+      <c r="G9" s="41" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="25" t="e" cm="1">
+        <v>81.504977167049319</v>
+      </c>
+      <c r="H9" s="41" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C9)*INDIRECT(ADDRESS(5,38))/(D9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="25" cm="1">
+        <v>-0.98770577279152871</v>
+      </c>
+      <c r="I9" s="41" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">1/((D9*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J9" s="25" cm="1">
+        <v>-0.86892280362079799</v>
+      </c>
+      <c r="J9" s="41" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="40" t="s">
+        <v>-0.88791678786750927</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="35">
-        <v>-596000</v>
+      <c r="O9" s="34">
+        <v>596000</v>
       </c>
       <c r="P9" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDIRECT(ADDRESS(Q9+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="37">
         <v>2</v>
       </c>
       <c r="R9" s="14" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDIRECT(ADDRESS(Q9+2,23))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,30))) -1</f>
-        <v>-158.5744129407671</v>
+        <v>156.5744129407671</v>
       </c>
       <c r="S9" s="14" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDIRECT(ADDRESS(Q9+2,24))/(O9*INDIRECT(ADDRESS(Q9+2,27))*INDIRECT(ADDRESS(Q9+2,28))*INDIRECT(ADDRESS(Q9+2,29))*INDIRECT(ADDRESS(Q9+2,31))) -1</f>
-        <v>-148.90984894706673</v>
+        <v>146.90984894706673</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="25" cm="1">
+      <c r="C10" s="13">
+        <v>-9.9546644999999998</v>
+      </c>
+      <c r="D10" s="13">
+        <v>175906.7390081269</v>
+      </c>
+      <c r="E10" s="41" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F10" s="25" cm="1">
+        <v>0.58292101269379049</v>
+      </c>
+      <c r="F10" s="41" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G10" s="25" t="e" cm="1">
+        <v>0.8328685317041824</v>
+      </c>
+      <c r="G10" s="41" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="25" t="e" cm="1">
+        <v>-988.65250518983657</v>
+      </c>
+      <c r="H10" s="41" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C10)*INDIRECT(ADDRESS(5,38))/(D10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="25" cm="1">
+        <v>-0.98923863498679032</v>
+      </c>
+      <c r="I10" s="41" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">1/((D10*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J10" s="25" cm="1">
+        <v>-0.88624422682993509</v>
+      </c>
+      <c r="J10" s="41" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="40" t="s">
+        <v>-0.90276591520375382</v>
+      </c>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="35">
-        <v>-1710000</v>
+      <c r="O10" s="34">
+        <v>1710000</v>
       </c>
       <c r="P10" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDIRECT(ADDRESS(Q10+2,22))</f>
         <v>CFRP</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="37">
         <v>2</v>
       </c>
       <c r="R10" s="14" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDIRECT(ADDRESS(Q10+2,23))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,30))) -1</f>
-        <v>-55.920672580524688</v>
+        <v>53.920672580524688</v>
       </c>
       <c r="S10" s="14" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDIRECT(ADDRESS(Q10+2,24))/(O10*INDIRECT(ADDRESS(Q10+2,27))*INDIRECT(ADDRESS(Q10+2,28))*INDIRECT(ADDRESS(Q10+2,29))*INDIRECT(ADDRESS(Q10+2,31))) -1</f>
-        <v>-52.552204662252507</v>
+        <v>50.552204662252507</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="25" cm="1">
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F11" s="25" cm="1">
+      <c r="F11" s="41" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G11" s="25" t="e" cm="1">
+      <c r="G11" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="25" t="e" cm="1">
+      <c r="H11" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C11)*INDIRECT(ADDRESS(5,38))/(D11*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="25" cm="1">
+      <c r="I11" s="41" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">1/((D11*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J11" s="25" cm="1">
+      <c r="J11" s="41" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -1675,22 +1809,22 @@
       <c r="D14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="L14"/>
@@ -1703,37 +1837,41 @@
       <c r="S14"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
         <v>40230</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="25" cm="1">
+      <c r="C15" s="34">
+        <v>252.85359</v>
+      </c>
+      <c r="D15" s="34">
+        <v>25156.695841011788</v>
+      </c>
+      <c r="E15" s="41" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F15" s="25" cm="1">
+        <v>0.582201861179098</v>
+      </c>
+      <c r="F15" s="41" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G15" s="25" t="e" cm="1">
+        <v>0.83170294501651987</v>
+      </c>
+      <c r="G15" s="41" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="25" t="e" cm="1">
+        <v>37.883170817346638</v>
+      </c>
+      <c r="H15" s="41" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C15)*INDIRECT(ADDRESS(5,38))/(D15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="25" cm="1">
+        <v>-0.92618747408206514</v>
+      </c>
+      <c r="I15" s="41" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">1/((D15*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J15" s="25" cm="1">
+        <v>-0.28785536115397825</v>
+      </c>
+      <c r="J15" s="41" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.36180097839427594</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -1745,35 +1883,39 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="25" cm="1">
+      <c r="C16" s="13">
+        <v>117.47175000000001</v>
+      </c>
+      <c r="D16" s="13">
+        <v>20997.7005911905</v>
+      </c>
+      <c r="E16" s="41" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F16" s="25" cm="1">
+        <v>0.58257223996977237</v>
+      </c>
+      <c r="F16" s="41" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G16" s="25" t="e" cm="1">
+        <v>0.83230319480148762</v>
+      </c>
+      <c r="G16" s="41" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="25" t="e" cm="1">
+        <v>82.694584712914633</v>
+      </c>
+      <c r="H16" s="41" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C16)*INDIRECT(ADDRESS(5,38))/(D16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="25" cm="1">
+        <v>-0.91068142968808163</v>
+      </c>
+      <c r="I16" s="41" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">1/((D16*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J16" s="25" cm="1">
+        <v>-0.18205748351306061</v>
+      </c>
+      <c r="J16" s="41" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.25479131945236122</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -1785,35 +1927,39 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="25" cm="1">
+      <c r="C17" s="13">
+        <v>240.63622000000001</v>
+      </c>
+      <c r="D17" s="13">
+        <v>56316.547629100016</v>
+      </c>
+      <c r="E17" s="41" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F17" s="25" cm="1">
+        <v>0.58223527844725198</v>
+      </c>
+      <c r="F17" s="41" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G17" s="25" t="e" cm="1">
+        <v>0.83175709768616146</v>
+      </c>
+      <c r="G17" s="41" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="25" t="e" cm="1">
+        <v>39.85731288394296</v>
+      </c>
+      <c r="H17" s="41" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C17)*INDIRECT(ADDRESS(5,38))/(D17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="25" cm="1">
+        <v>-0.96699800755329612</v>
+      </c>
+      <c r="I17" s="41" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">1/((D17*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J17" s="25" cm="1">
+        <v>-0.65245873069509641</v>
+      </c>
+      <c r="J17" s="41" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.69996528222295218</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -1825,33 +1971,37 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="25" cm="1">
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="41" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F18" s="25" cm="1">
+      <c r="F18" s="41" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G18" s="25" t="e" cm="1">
+      <c r="G18" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="25" t="e" cm="1">
+      <c r="H18" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C18)*INDIRECT(ADDRESS(5,38))/(D18*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="25" cm="1">
+      <c r="I18" s="41" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">1/((D18*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J18" s="25" cm="1">
+      <c r="J18" s="41" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -1865,35 +2015,39 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="25" cm="1">
+      <c r="C19" s="13">
+        <v>-68.339304000000013</v>
+      </c>
+      <c r="D19" s="13">
+        <v>152694.05058108529</v>
+      </c>
+      <c r="E19" s="41" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F19" s="25" cm="1">
+        <v>0.58308086584772578</v>
+      </c>
+      <c r="F19" s="41" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G19" s="25" t="e" cm="1">
+        <v>0.8331276761173918</v>
+      </c>
+      <c r="G19" s="41" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="25" t="e" cm="1">
+        <v>-144.86668807381079</v>
+      </c>
+      <c r="H19" s="41" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C19)*INDIRECT(ADDRESS(5,38))/(D19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="25" cm="1">
+        <v>-0.98755013481458331</v>
+      </c>
+      <c r="I19" s="41" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">1/((D19*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J19" s="25" cm="1">
+        <v>-0.86906144896001081</v>
+      </c>
+      <c r="J19" s="41" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.8880357737196074</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -1905,35 +2059,39 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="25" cm="1">
+      <c r="C20" s="13">
+        <v>68.196018000000009</v>
+      </c>
+      <c r="D20" s="13">
+        <v>152761.52336029595</v>
+      </c>
+      <c r="E20" s="41" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F20" s="25" cm="1">
+        <v>0.58270709198434933</v>
+      </c>
+      <c r="F20" s="41" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G20" s="25" t="e" cm="1">
+        <v>0.83252176894438201</v>
+      </c>
+      <c r="G20" s="41" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="25" t="e" cm="1">
+        <v>143.16896499366473</v>
+      </c>
+      <c r="H20" s="41" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C20)*INDIRECT(ADDRESS(5,38))/(D20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="25" cm="1">
+        <v>-0.98767846478161703</v>
+      </c>
+      <c r="I20" s="41" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">1/((D20*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J20" s="25" cm="1">
+        <v>-0.86911909871859672</v>
+      </c>
+      <c r="J20" s="41" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.88808518044251505</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -1945,35 +2103,39 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="25" cm="1">
+      <c r="C21" s="13">
+        <v>12.236796</v>
+      </c>
+      <c r="D21" s="13">
+        <v>307414.71138619224</v>
+      </c>
+      <c r="E21" s="41" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F21" s="25" cm="1">
+        <v>0.58286026245789579</v>
+      </c>
+      <c r="F21" s="41" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G21" s="25" t="e" cm="1">
+        <v>0.83277005252985492</v>
+      </c>
+      <c r="G21" s="41" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="25" t="e" cm="1">
+        <v>802.45781132163461</v>
+      </c>
+      <c r="H21" s="41" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C21)*INDIRECT(ADDRESS(5,38))/(D21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="25" cm="1">
+        <v>-0.9938521260823423</v>
+      </c>
+      <c r="I21" s="41" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">1/((D21*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J21" s="25" cm="1">
+        <v>-0.93479411061350803</v>
+      </c>
+      <c r="J21" s="41" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.94430864893967048</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -1985,35 +2147,39 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="25" cm="1">
+      <c r="C22" s="13">
+        <v>-240.60355000000001</v>
+      </c>
+      <c r="D22" s="13">
+        <v>56311.796279285911</v>
+      </c>
+      <c r="E22" s="41" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F22" s="25" cm="1">
+        <v>0.58355270180198038</v>
+      </c>
+      <c r="F22" s="41" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G22" s="25" t="e" cm="1">
+        <v>0.83389271058902437</v>
+      </c>
+      <c r="G22" s="41" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="25" t="e" cm="1">
+        <v>-41.862860634223104</v>
+      </c>
+      <c r="H22" s="41" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C22)*INDIRECT(ADDRESS(5,38))/(D22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="25" cm="1">
+        <v>-0.96582076046660037</v>
+      </c>
+      <c r="I22" s="41" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">1/((D22*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J22" s="25" cm="1">
+        <v>-0.65241687335365195</v>
+      </c>
+      <c r="J22" s="41" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.69993127451020021</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -2025,35 +2191,39 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="25" cm="1">
+      <c r="C23" s="13">
+        <v>-117.20082000000001</v>
+      </c>
+      <c r="D23" s="13">
+        <v>20951.502857431999</v>
+      </c>
+      <c r="E23" s="41" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F23" s="25" cm="1">
+        <v>0.58321467015842754</v>
+      </c>
+      <c r="F23" s="41" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G23" s="25" t="e" cm="1">
+        <v>0.83334460779539588</v>
+      </c>
+      <c r="G23" s="41" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="25" t="e" cm="1">
+        <v>-84.888059245228249</v>
+      </c>
+      <c r="H23" s="41" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C23)*INDIRECT(ADDRESS(5,38))/(D23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="25" cm="1">
+        <v>-0.90894518041627215</v>
+      </c>
+      <c r="I23" s="41" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">1/((D23*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J23" s="25" cm="1">
+        <v>-0.18064779191989266</v>
+      </c>
+      <c r="J23" s="41" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.25335029698434197</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2065,33 +2235,37 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="25" cm="1">
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F24" s="25" cm="1">
+      <c r="F24" s="41" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G24" s="25" t="e" cm="1">
+      <c r="G24" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="25" t="e" cm="1">
+      <c r="H24" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C24)*INDIRECT(ADDRESS(5,38))/(D24*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="25" cm="1">
+      <c r="I24" s="41" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">1/((D24*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J24" s="25" cm="1">
+      <c r="J24" s="41" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -2137,22 +2311,22 @@
       <c r="D27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="32" t="s">
         <v>7</v>
       </c>
       <c r="L27"/>
@@ -2165,37 +2339,41 @@
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
         <v>40230</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="25" cm="1">
+      <c r="C28" s="34">
+        <v>601.80362000000002</v>
+      </c>
+      <c r="D28" s="34">
+        <v>120409.0717318532</v>
+      </c>
+      <c r="E28" s="41" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F28" s="25" cm="1">
+        <v>0.58124799954172834</v>
+      </c>
+      <c r="F28" s="41" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G28" s="25" t="e" cm="1">
+        <v>0.83015759809568168</v>
+      </c>
+      <c r="G28" s="41" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="25" t="e" cm="1">
+        <v>15.337138902137767</v>
+      </c>
+      <c r="H28" s="41" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C28)*INDIRECT(ADDRESS(5,38))/(D28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="25" cm="1">
+        <v>-0.98497684988652812</v>
+      </c>
+      <c r="I28" s="41" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">1/((D28*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J28" s="25" cm="1">
+        <v>-0.83429967147468154</v>
+      </c>
+      <c r="J28" s="41" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.85817725744951934</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -2207,35 +2385,39 @@
       <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="25" cm="1">
+      <c r="C29" s="13">
+        <v>436.97599000000002</v>
+      </c>
+      <c r="D29" s="13">
+        <v>72917.870455049517</v>
+      </c>
+      <c r="E29" s="41" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F29" s="25" cm="1">
+        <v>0.58169841568257841</v>
+      </c>
+      <c r="F29" s="41" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G29" s="25" t="e" cm="1">
+        <v>0.83088722243885171</v>
+      </c>
+      <c r="G29" s="41" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="25" t="e" cm="1">
+        <v>21.499518410037428</v>
+      </c>
+      <c r="H29" s="41" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C29)*INDIRECT(ADDRESS(5,38))/(D29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="25" cm="1">
+        <v>-0.97488166379593644</v>
+      </c>
+      <c r="I29" s="41" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">1/((D29*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J29" s="25" cm="1">
+        <v>-0.72893512866403043</v>
+      </c>
+      <c r="J29" s="41" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.7670118518813972</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -2247,35 +2429,39 @@
       <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="25" cm="1">
+      <c r="C30" s="13">
+        <v>704.68145000000004</v>
+      </c>
+      <c r="D30" s="13">
+        <v>143515.02626851675</v>
+      </c>
+      <c r="E30" s="41" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F30" s="25" cm="1">
+        <v>0.58096700049172689</v>
+      </c>
+      <c r="F30" s="41" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G30" s="25" t="e" cm="1">
+        <v>0.82970249479759062</v>
+      </c>
+      <c r="G30" s="41" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="25" t="e" cm="1">
+        <v>12.952047881705033</v>
+      </c>
+      <c r="H30" s="41" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C30)*INDIRECT(ADDRESS(5,38))/(D30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="25" cm="1">
+        <v>-0.98749409554449852</v>
+      </c>
+      <c r="I30" s="41" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">1/((D30*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J30" s="25" cm="1">
+        <v>-0.86075110358890772</v>
+      </c>
+      <c r="J30" s="41" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.88090495877832109</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -2287,33 +2473,37 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="25" cm="1">
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="41" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F31" s="25" cm="1">
+      <c r="F31" s="41" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G31" s="25" t="e" cm="1">
+      <c r="G31" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="25" t="e" cm="1">
+      <c r="H31" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C31)*INDIRECT(ADDRESS(5,38))/(D31*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="25" cm="1">
+      <c r="I31" s="41" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">1/((D31*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J31" s="25" cm="1">
+      <c r="J31" s="41" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -2327,35 +2517,39 @@
       <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="25" cm="1">
+      <c r="C32" s="13">
+        <v>456.29683</v>
+      </c>
+      <c r="D32" s="13">
+        <v>55070.953668940012</v>
+      </c>
+      <c r="E32" s="41" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F32" s="25" cm="1">
+        <v>0.58164560532293663</v>
+      </c>
+      <c r="F32" s="41" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G32" s="25" t="e" cm="1">
+        <v>0.83080166690308976</v>
+      </c>
+      <c r="G32" s="41" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="25" t="e" cm="1">
+        <v>20.546828041188306</v>
+      </c>
+      <c r="H32" s="41" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C32)*INDIRECT(ADDRESS(5,38))/(D32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="25" cm="1">
+        <v>-0.9667897461712962</v>
+      </c>
+      <c r="I32" s="41" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">1/((D32*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J32" s="25" cm="1">
+        <v>-0.64499628255880959</v>
+      </c>
+      <c r="J32" s="41" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.69337170493628242</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -2367,35 +2561,39 @@
       <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="25" cm="1">
+      <c r="C33" s="13">
+        <v>455.96144000000004</v>
+      </c>
+      <c r="D33" s="13">
+        <v>55112.83913749901</v>
+      </c>
+      <c r="E33" s="41" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F33" s="25" cm="1">
+        <v>0.58164652202663114</v>
+      </c>
+      <c r="F33" s="41" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G33" s="25" t="e" cm="1">
+        <v>0.83080315199139587</v>
+      </c>
+      <c r="G33" s="41" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="25" t="e" cm="1">
+        <v>20.562677167940631</v>
+      </c>
+      <c r="H33" s="41" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C33)*INDIRECT(ADDRESS(5,38))/(D33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="25" cm="1">
+        <v>-0.96681414946633693</v>
+      </c>
+      <c r="I33" s="41" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">1/((D33*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J33" s="25" cm="1">
+        <v>-0.64525249565264386</v>
+      </c>
+      <c r="J33" s="41" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.69359820431919328</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -2407,35 +2605,39 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="25" cm="1">
+      <c r="C34" s="13">
+        <v>1118.6197000000002</v>
+      </c>
+      <c r="D34" s="13">
+        <v>242555.96607987801</v>
+      </c>
+      <c r="E34" s="41" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F34" s="25" cm="1">
+        <v>0.57983738402875939</v>
+      </c>
+      <c r="F34" s="41" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G34" s="25" t="e" cm="1">
+        <v>0.82787363073759312</v>
+      </c>
+      <c r="G34" s="41" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="25" t="e" cm="1">
+        <v>7.7891794966147394</v>
+      </c>
+      <c r="H34" s="41" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C34)*INDIRECT(ADDRESS(5,38))/(D34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="25" cm="1">
+        <v>-0.99283506280149225</v>
+      </c>
+      <c r="I34" s="41" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">1/((D34*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J34" s="25" cm="1">
+        <v>-0.91740116236045921</v>
+      </c>
+      <c r="J34" s="41" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.92943697594621311</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -2447,35 +2649,39 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="25" cm="1">
+      <c r="C35" s="13">
+        <v>704.99330000000009</v>
+      </c>
+      <c r="D35" s="13">
+        <v>143594.21550503216</v>
+      </c>
+      <c r="E35" s="41" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F35" s="25" cm="1">
+        <v>0.5809661488608735</v>
+      </c>
+      <c r="F35" s="41" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G35" s="25" t="e" cm="1">
+        <v>0.82970111560282667</v>
+      </c>
+      <c r="G35" s="41" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="25" t="e" cm="1">
+        <v>12.945876268255784</v>
+      </c>
+      <c r="H35" s="41" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C35)*INDIRECT(ADDRESS(5,38))/(D35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="25" cm="1">
+        <v>-0.98750129075164617</v>
+      </c>
+      <c r="I35" s="41" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">1/((D35*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J35" s="25" cm="1">
+        <v>-0.86082730179886324</v>
+      </c>
+      <c r="J35" s="41" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.88097035957734149</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -2487,35 +2693,39 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="25" cm="1">
+      <c r="C36" s="13">
+        <v>437.33910000000003</v>
+      </c>
+      <c r="D36" s="13">
+        <v>72931.773101550119</v>
+      </c>
+      <c r="E36" s="41" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F36" s="25" cm="1">
+        <v>0.58169742314819928</v>
+      </c>
+      <c r="F36" s="41" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G36" s="25" t="e" cm="1">
+        <v>0.83088561446036513</v>
+      </c>
+      <c r="G36" s="41" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="25" t="e" cm="1">
+        <v>21.480837710941767</v>
+      </c>
+      <c r="H36" s="41" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C36)*INDIRECT(ADDRESS(5,38))/(D36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="25" cm="1">
+        <v>-0.97488713621242284</v>
+      </c>
+      <c r="I36" s="41" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">1/((D36*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J36" s="25" cm="1">
+        <v>-0.72898528833535625</v>
+      </c>
+      <c r="J36" s="41" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.76705554963276978</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -2527,33 +2737,37 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="25" cm="1">
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="41" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F37" s="25" cm="1">
+      <c r="F37" s="41" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G37" s="25" t="e" cm="1">
+      <c r="G37" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="25" t="e" cm="1">
+      <c r="H37" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C37)*INDIRECT(ADDRESS(5,38))/(D37*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="25" cm="1">
+      <c r="I37" s="41" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">1/((D37*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J37" s="25" cm="1">
+      <c r="J37" s="41" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -2599,22 +2813,22 @@
       <c r="D40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="33" t="s">
         <v>7</v>
       </c>
       <c r="L40" s="17" t="s">
@@ -2641,99 +2855,111 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
         <v>40230</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="37" cm="1">
+      <c r="C41" s="19">
+        <v>267.64320000000004</v>
+      </c>
+      <c r="D41" s="19">
+        <v>435149.92496672447</v>
+      </c>
+      <c r="E41" s="43" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F41" s="37" cm="1">
+        <v>0.58216141014178802</v>
+      </c>
+      <c r="F41" s="43" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G41" s="37" t="e" cm="1">
+        <v>0.83163739535017145</v>
+      </c>
+      <c r="G41" s="43" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="37" t="e" cm="1">
+        <v>35.734538115481101</v>
+      </c>
+      <c r="H41" s="43" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C41)*INDIRECT(ADDRESS(5,38))/(D41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="37" cm="1">
+        <v>-0.99573745359385768</v>
+      </c>
+      <c r="I41" s="43" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">1/((D41*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J41" s="37" cm="1">
+        <v>-0.95391526829885598</v>
+      </c>
+      <c r="J41" s="43" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L41" s="59" t="s">
+        <v>-0.96064736465470835</v>
+      </c>
+      <c r="L41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="42" t="s">
+      <c r="M41" s="46" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="19"/>
+      <c r="O41" s="40">
+        <v>11800000</v>
+      </c>
       <c r="P41" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">INDIRECT(ADDRESS(Q41+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>2</v>
+      </c>
+      <c r="R41" s="20" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">INDIRECT(ADDRESS(Q41+2,23))/(O41*INDIRECT(ADDRESS(Q41+2,27))*INDIRECT(ADDRESS(Q41+2,28))*INDIRECT(ADDRESS(Q41+2,29))*INDIRECT(ADDRESS(Q41+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S41" s="20" t="e" cm="1">
+        <v>6.9588432298895917</v>
+      </c>
+      <c r="S41" s="20" cm="1">
         <f t="array" aca="1" ref="S41" ca="1">INDIRECT(ADDRESS(Q41+2,24))/(O41*INDIRECT(ADDRESS(Q41+2,27))*INDIRECT(ADDRESS(Q41+2,28))*INDIRECT(ADDRESS(Q41+2,29))*INDIRECT(ADDRESS(Q41+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>6.4707008451230319</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="37" cm="1">
+      <c r="C42" s="19">
+        <v>71.935776000000004</v>
+      </c>
+      <c r="D42" s="19">
+        <v>539081.65573651565</v>
+      </c>
+      <c r="E42" s="43" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F42" s="37" cm="1">
+        <v>0.58269685664960935</v>
+      </c>
+      <c r="F42" s="43" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G42" s="37" t="e" cm="1">
+        <v>0.83250517853620565</v>
+      </c>
+      <c r="G42" s="43" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="37" t="e" cm="1">
+        <v>135.67398724869989</v>
+      </c>
+      <c r="H42" s="43" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C42)*INDIRECT(ADDRESS(5,38))/(D42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="37" cm="1">
+        <v>-0.99650935527025608</v>
+      </c>
+      <c r="I42" s="43" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">1/((D42*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J42" s="37" cm="1">
+        <v>-0.96279462350802814</v>
+      </c>
+      <c r="J42" s="43" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="42"/>
+        <v>-0.96823175895535873</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="46"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="19"/>
+      <c r="O42" s="40"/>
       <c r="P42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT(ADDRESS(Q42+2,22))</f>
         <v>Material</v>
@@ -2749,38 +2975,42 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="37" cm="1">
+      <c r="C43" s="19">
+        <v>115.20564</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1058036.6165903711</v>
+      </c>
+      <c r="E43" s="43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F43" s="37" cm="1">
+        <v>0.58257844108838408</v>
+      </c>
+      <c r="F43" s="43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G43" s="37" t="e" cm="1">
+        <v>0.83231324552359753</v>
+      </c>
+      <c r="G43" s="43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" s="37" t="e" cm="1">
+        <v>84.34086813587713</v>
+      </c>
+      <c r="H43" s="43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C43)*INDIRECT(ADDRESS(5,38))/(D43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="37" cm="1">
+        <v>-0.99822709725212744</v>
+      </c>
+      <c r="I43" s="43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J43" s="37" cm="1">
+        <v>-0.98103955970351164</v>
+      </c>
+      <c r="J43" s="43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L43" s="61"/>
-      <c r="M43" s="42"/>
+        <v>-0.98381191987101102</v>
+      </c>
+      <c r="L43" s="62"/>
+      <c r="M43" s="46"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -2800,102 +3030,114 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="37" cm="1">
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="43" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F44" s="37" cm="1">
+      <c r="F44" s="43" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G44" s="37" t="e" cm="1">
+      <c r="G44" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="37" t="e" cm="1">
+      <c r="H44" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C44)*INDIRECT(ADDRESS(5,38))/(D44*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="37" cm="1">
+      <c r="I44" s="43" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">1/((D44*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J44" s="37" cm="1">
+      <c r="J44" s="43" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="59" t="s">
+      <c r="M44" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="N44" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="39"/>
+      <c r="O44" s="40">
+        <v>30900000</v>
+      </c>
       <c r="P44" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">INDIRECT(ADDRESS(Q44+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q44" s="36">
+        <v>2</v>
+      </c>
+      <c r="R44" s="20" cm="1">
         <f t="array" aca="1" ref="R44" ca="1">INDIRECT(ADDRESS(Q44+2,23))/(O44*INDIRECT(ADDRESS(Q44+2,27))*INDIRECT(ADDRESS(Q44+2,28))*INDIRECT(ADDRESS(Q44+2,29))*INDIRECT(ADDRESS(Q44+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S44" s="20" t="e" cm="1">
+        <v>2.0392993563979678</v>
+      </c>
+      <c r="S44" s="20" cm="1">
         <f t="array" aca="1" ref="S44" ca="1">INDIRECT(ADDRESS(Q44+2,24))/(O44*INDIRECT(ADDRESS(Q44+2,27))*INDIRECT(ADDRESS(Q44+2,28))*INDIRECT(ADDRESS(Q44+2,29))*INDIRECT(ADDRESS(Q44+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>1.8528889958722261</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="37" cm="1">
+      <c r="C45" s="19">
+        <v>122.30097000000001</v>
+      </c>
+      <c r="D45" s="19">
+        <v>171793.48566737503</v>
+      </c>
+      <c r="E45" s="43" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F45" s="37" cm="1">
+        <v>0.58255902516615721</v>
+      </c>
+      <c r="F45" s="43" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G45" s="37" t="e" cm="1">
+        <v>0.83228177646141388</v>
+      </c>
+      <c r="G45" s="43" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="37" t="e" cm="1">
+        <v>79.389790299695349</v>
+      </c>
+      <c r="H45" s="43" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C45)*INDIRECT(ADDRESS(5,38))/(D45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="37" cm="1">
+        <v>-0.98908677522576638</v>
+      </c>
+      <c r="I45" s="43" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">1/((D45*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J45" s="37" cm="1">
+        <v>-0.88353528811956017</v>
+      </c>
+      <c r="J45" s="43" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="39" t="s">
+        <v>-0.90044472096336314</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="39"/>
+      <c r="O45" s="36"/>
       <c r="P45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT(ADDRESS(Q45+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q45" s="39"/>
+      <c r="Q45" s="36"/>
       <c r="R45" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDIRECT(ADDRESS(Q45+2,23))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -2906,47 +3148,51 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="37" cm="1">
+      <c r="C46" s="19">
+        <v>122.22760000000001</v>
+      </c>
+      <c r="D46" s="19">
+        <v>171835.24764553402</v>
+      </c>
+      <c r="E46" s="43" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F46" s="37" cm="1">
+        <v>0.58255922593608855</v>
+      </c>
+      <c r="F46" s="43" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G46" s="37" t="e" cm="1">
+        <v>0.83228210186500307</v>
+      </c>
+      <c r="G46" s="43" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="37" t="e" cm="1">
+        <v>79.438046167554063</v>
+      </c>
+      <c r="H46" s="43" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C46)*INDIRECT(ADDRESS(5,38))/(D46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="37" cm="1">
+        <v>-0.98908936884218956</v>
+      </c>
+      <c r="I46" s="43" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">1/((D46*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J46" s="37" cm="1">
+        <v>-0.88356343979914675</v>
+      </c>
+      <c r="J46" s="43" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L46" s="60"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="39" t="s">
+        <v>-0.90046884492425372</v>
+      </c>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="39"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT(ADDRESS(Q46+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q46" s="39"/>
+      <c r="Q46" s="36"/>
       <c r="R46" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R46" ca="1">INDIRECT(ADDRESS(Q46+2,23))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -2957,49 +3203,53 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="37" cm="1">
+      <c r="C47" s="19">
+        <v>276.31900999999999</v>
+      </c>
+      <c r="D47" s="19">
+        <v>978884.37643502001</v>
+      </c>
+      <c r="E47" s="43" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F47" s="37" cm="1">
+        <v>0.58213768191105664</v>
+      </c>
+      <c r="F47" s="43" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G47" s="37" t="e" cm="1">
+        <v>0.83159894510290244</v>
+      </c>
+      <c r="G47" s="43" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="37" t="e" cm="1">
+        <v>34.58115430331533</v>
+      </c>
+      <c r="H47" s="43" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C47)*INDIRECT(ADDRESS(5,38))/(D47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="37" cm="1">
+        <v>-0.99810636016954679</v>
+      </c>
+      <c r="I47" s="43" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">1/((D47*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J47" s="37" cm="1">
+        <v>-0.9795066737170437</v>
+      </c>
+      <c r="J47" s="43" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="59" t="s">
+        <v>-0.98250307302451168</v>
+      </c>
+      <c r="L47" s="61"/>
+      <c r="M47" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="39" t="s">
+      <c r="N47" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="39"/>
+      <c r="O47" s="36"/>
       <c r="P47" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">INDIRECT(ADDRESS(Q47+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q47" s="39"/>
+      <c r="Q47" s="36"/>
       <c r="R47" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R47" ca="1">INDIRECT(ADDRESS(Q47+2,23))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3010,47 +3260,51 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="37" cm="1">
+      <c r="C48" s="19">
+        <v>115.14536000000001</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1058866.7969968112</v>
+      </c>
+      <c r="E48" s="43" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F48" s="37" cm="1">
+        <v>0.58257860604283618</v>
+      </c>
+      <c r="F48" s="43" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G48" s="37" t="e" cm="1">
+        <v>0.83231351288084854</v>
+      </c>
+      <c r="G48" s="43" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="37" t="e" cm="1">
+        <v>84.385545120961297</v>
+      </c>
+      <c r="H48" s="43" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C48)*INDIRECT(ADDRESS(5,38))/(D48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="37" cm="1">
+        <v>-0.99822847943252413</v>
+      </c>
+      <c r="I48" s="43" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">1/((D48*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J48" s="37" cm="1">
+        <v>-0.98105442307354396</v>
+      </c>
+      <c r="J48" s="43" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="39" t="s">
+        <v>-0.98382461077704109</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="39"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">INDIRECT(ADDRESS(Q48+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q48" s="39"/>
+      <c r="Q48" s="36"/>
       <c r="R48" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R48" ca="1">INDIRECT(ADDRESS(Q48+2,23))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3061,47 +3315,51 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="37" cm="1">
+      <c r="C49" s="19">
+        <v>71.786825000000007</v>
+      </c>
+      <c r="D49" s="19">
+        <v>539344.80043975252</v>
+      </c>
+      <c r="E49" s="43" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F49" s="37" cm="1">
+        <v>0.58269726431071422</v>
+      </c>
+      <c r="F49" s="43" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G49" s="37" t="e" cm="1">
+        <v>0.83250583931062128</v>
+      </c>
+      <c r="G49" s="43" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="37" t="e" cm="1">
+        <v>135.95757308878518</v>
+      </c>
+      <c r="H49" s="43" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C49)*INDIRECT(ADDRESS(5,38))/(D49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="37" cm="1">
+        <v>-0.99651102039161754</v>
+      </c>
+      <c r="I49" s="43" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">1/((D49*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J49" s="37" cm="1">
+        <v>-0.96281276587004916</v>
+      </c>
+      <c r="J49" s="43" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="39" t="s">
+        <v>-0.96824725392623501</v>
+      </c>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O49" s="39"/>
+      <c r="O49" s="36"/>
       <c r="P49" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">INDIRECT(ADDRESS(Q49+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q49" s="39"/>
+      <c r="Q49" s="36"/>
       <c r="R49" s="20" t="e" cm="1">
         <f t="array" aca="1" ref="R49" ca="1">INDIRECT(ADDRESS(Q49+2,23))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -3112,33 +3370,37 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="37" cm="1">
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0</v>
+      </c>
+      <c r="E50" s="43" cm="1">
         <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F50" s="37" cm="1">
+      <c r="F50" s="43" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G50" s="37" t="e" cm="1">
+      <c r="G50" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="37" t="e" cm="1">
+      <c r="H50" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C50)*INDIRECT(ADDRESS(5,38))/(D50*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="37" cm="1">
+      <c r="I50" s="43" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">1/((D50*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J50" s="37" cm="1">
+      <c r="J50" s="43" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3156,22 +3418,22 @@
       <c r="D53" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="30" t="s">
+      <c r="J53" s="29" t="s">
         <v>7</v>
       </c>
       <c r="L53"/>
@@ -3184,37 +3446,41 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
         <v>40230</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="37" cm="1">
+      <c r="C54" s="19">
+        <v>156.21771000000001</v>
+      </c>
+      <c r="D54" s="19">
+        <v>10154.80035955132</v>
+      </c>
+      <c r="E54" s="43" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F54" s="37" cm="1">
+        <v>0.5824662207313871</v>
+      </c>
+      <c r="F54" s="43" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G54" s="37" t="e" cm="1">
+        <v>0.83213136456317915</v>
+      </c>
+      <c r="G54" s="43" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="37" t="e" cm="1">
+        <v>61.936201866928741</v>
+      </c>
+      <c r="H54" s="43" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C54)*INDIRECT(ADDRESS(5,38))/(D54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="37" cm="1">
+        <v>-0.81583490285435212</v>
+      </c>
+      <c r="I54" s="43" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">1/((D54*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J54" s="37" cm="1">
+        <v>0.23510354055786409</v>
+      </c>
+      <c r="J54" s="43" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.24091614337415623</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3226,35 +3492,39 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="37" cm="1">
+      <c r="C55" s="19">
+        <v>100.01789600000001</v>
+      </c>
+      <c r="D55" s="19">
+        <v>6463.9342945162707</v>
+      </c>
+      <c r="E55" s="43" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F55" s="37" cm="1">
+        <v>0.58262000299156957</v>
+      </c>
+      <c r="F55" s="43" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G55" s="37" t="e" cm="1">
+        <v>0.83238060952789406</v>
+      </c>
+      <c r="G55" s="43" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="37" t="e" cm="1">
+        <v>97.299901567108861</v>
+      </c>
+      <c r="H55" s="43" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C55)*INDIRECT(ADDRESS(5,38))/(D55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="37" cm="1">
+        <v>-0.70948292954383563</v>
+      </c>
+      <c r="I55" s="43" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">1/((D55*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J55" s="37" cm="1">
+        <v>0.40990552185422446</v>
+      </c>
+      <c r="J55" s="43" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.50713014730781381</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3266,35 +3536,39 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="37" cm="1">
+      <c r="C56" s="19">
+        <v>184.64072000000002</v>
+      </c>
+      <c r="D56" s="19">
+        <v>12072.158826823041</v>
+      </c>
+      <c r="E56" s="43" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F56" s="37" cm="1">
+        <v>0.58238845685793494</v>
+      </c>
+      <c r="F56" s="43" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G56" s="37" t="e" cm="1">
+        <v>0.83200533494233797</v>
+      </c>
+      <c r="G56" s="43" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="37" t="e" cm="1">
+        <v>52.248001479572494</v>
+      </c>
+      <c r="H56" s="43" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C56)*INDIRECT(ADDRESS(5,38))/(D56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="37" cm="1">
+        <v>-0.84540845694435252</v>
+      </c>
+      <c r="I56" s="43" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">1/((D56*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J56" s="37" cm="1">
+        <v>0.14598412974027908</v>
+      </c>
+      <c r="J56" s="43" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.12174959985393397</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -3306,33 +3580,37 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="37" cm="1">
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0</v>
+      </c>
+      <c r="E57" s="43" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F57" s="37" cm="1">
+      <c r="F57" s="43" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G57" s="37" t="e" cm="1">
+      <c r="G57" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="37" t="e" cm="1">
+      <c r="H57" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C57)*INDIRECT(ADDRESS(5,38))/(D57*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="37" cm="1">
+      <c r="I57" s="43" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">1/((D57*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J57" s="37" cm="1">
+      <c r="J57" s="43" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3346,35 +3624,39 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="37" cm="1">
+      <c r="C58" s="19">
+        <v>106.32288700000001</v>
+      </c>
+      <c r="D58" s="19">
+        <v>5042.7952322291503</v>
+      </c>
+      <c r="E58" s="43" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F58" s="37" cm="1">
+        <v>0.58260274885227981</v>
+      </c>
+      <c r="F58" s="43" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G58" s="37" t="e" cm="1">
+        <v>0.8323526436513764</v>
+      </c>
+      <c r="G58" s="43" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="37" t="e" cm="1">
+        <v>91.47067690843771</v>
+      </c>
+      <c r="H58" s="43" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C58)*INDIRECT(ADDRESS(5,38))/(D58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="37" cm="1">
+        <v>-0.62778247330731474</v>
+      </c>
+      <c r="I58" s="43" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">1/((D58*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J58" s="37" cm="1">
+        <v>0.47052352600571479</v>
+      </c>
+      <c r="J58" s="43" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.61265410225930106</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -3386,35 +3668,39 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="37" cm="1">
+      <c r="C59" s="19">
+        <v>106.18517800000001</v>
+      </c>
+      <c r="D59" s="19">
+        <v>5050.8717720764607</v>
+      </c>
+      <c r="E59" s="43" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F59" s="37" cm="1">
+        <v>0.58260312570054662</v>
+      </c>
+      <c r="F59" s="43" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G59" s="37" t="e" cm="1">
+        <v>0.83235325445246966</v>
+      </c>
+      <c r="G59" s="43" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H59" s="37" t="e" cm="1">
+        <v>91.590599902270085</v>
+      </c>
+      <c r="H59" s="43" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C59)*INDIRECT(ADDRESS(5,38))/(D59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="37" cm="1">
+        <v>-0.62837391666003906</v>
+      </c>
+      <c r="I59" s="43" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">1/((D59*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J59" s="37" cm="1">
+        <v>0.47020190139446982</v>
+      </c>
+      <c r="J59" s="43" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.61207213785893022</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -3426,35 +3712,39 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="37" cm="1">
+      <c r="C60" s="19">
+        <v>300.55322000000007</v>
+      </c>
+      <c r="D60" s="19">
+        <v>19762.225512919998</v>
+      </c>
+      <c r="E60" s="43" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F60" s="37" cm="1">
+        <v>0.58207140542340285</v>
+      </c>
+      <c r="F60" s="43" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G60" s="37" t="e" cm="1">
+        <v>0.83149155026934696</v>
+      </c>
+      <c r="G60" s="43" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="37" t="e" cm="1">
+        <v>31.712174342199127</v>
+      </c>
+      <c r="H60" s="43" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C60)*INDIRECT(ADDRESS(5,38))/(D60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="37" cm="1">
+        <v>-0.90637066809322542</v>
+      </c>
+      <c r="I60" s="43" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">1/((D60*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J60" s="37" cm="1">
+        <v>-0.1455924333922084</v>
+      </c>
+      <c r="J60" s="43" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.21657773570966021</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -3466,35 +3756,39 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="37" cm="1">
+      <c r="C61" s="19">
+        <v>184.98876000000004</v>
+      </c>
+      <c r="D61" s="19">
+        <v>12070.213076078191</v>
+      </c>
+      <c r="E61" s="43" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F61" s="37" cm="1">
+        <v>0.58238750468600675</v>
+      </c>
+      <c r="F61" s="43" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G61" s="37" t="e" cm="1">
+        <v>0.8320037918160117</v>
+      </c>
+      <c r="G61" s="43" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="37" t="e" cm="1">
+        <v>52.147820071605061</v>
+      </c>
+      <c r="H61" s="43" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C61)*INDIRECT(ADDRESS(5,38))/(D61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="37" cm="1">
+        <v>-0.84538749907323185</v>
+      </c>
+      <c r="I61" s="43" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">1/((D61*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J61" s="37" cm="1">
+        <v>0.14607160191608104</v>
+      </c>
+      <c r="J61" s="43" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.12186226790664989</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -3506,35 +3800,39 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="37" cm="1">
+      <c r="C62" s="19">
+        <v>100.21433400000001</v>
+      </c>
+      <c r="D62" s="19">
+        <v>6457.2113554137213</v>
+      </c>
+      <c r="E62" s="43" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="F62" s="37" cm="1">
+        <v>0.58261946541674758</v>
+      </c>
+      <c r="F62" s="43" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G62" s="37" t="e" cm="1">
+        <v>0.83237973821149014</v>
+      </c>
+      <c r="G62" s="43" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="37" t="e" cm="1">
+        <v>97.107216196730207</v>
+      </c>
+      <c r="H62" s="43" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C62)*INDIRECT(ADDRESS(5,38))/(D62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="37" cm="1">
+        <v>-0.70918463787066643</v>
+      </c>
+      <c r="I62" s="43" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">1/((D62*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
-      </c>
-      <c r="J62" s="37" cm="1">
+        <v>0.41020767917809708</v>
+      </c>
+      <c r="J62" s="43" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.50763674099794343</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -3546,33 +3844,37 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="37" cm="1">
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
+      <c r="E63" s="43" cm="1">
         <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F63" s="37" cm="1">
+      <c r="F63" s="43" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G63" s="37" t="e" cm="1">
+      <c r="G63" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="37" t="e" cm="1">
+      <c r="H63" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C63)*INDIRECT(ADDRESS(5,38))/(D63*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="37" cm="1">
+      <c r="I63" s="43" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">1/((D63*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J63" s="37" cm="1">
+      <c r="J63" s="43" cm="1">
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3618,22 +3920,22 @@
       <c r="D66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="30" t="s">
+      <c r="G66" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="30" t="s">
+      <c r="H66" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J66" s="30" t="s">
+      <c r="J66" s="29" t="s">
         <v>7</v>
       </c>
       <c r="L66"/>
@@ -3646,7 +3948,7 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -3654,27 +3956,27 @@
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="37" cm="1">
+      <c r="E67" s="43" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F67" s="37" cm="1">
+      <c r="F67" s="43" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G67" s="37" t="e" cm="1">
+      <c r="G67" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H67" s="37" t="e" cm="1">
+      <c r="H67" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C67)*INDIRECT(ADDRESS(5,38))/(D67*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I67" s="37" cm="1">
+      <c r="I67" s="43" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">1/((D67*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J67" s="37" cm="1">
+      <c r="J67" s="43" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3688,33 +3990,33 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="37" cm="1">
+      <c r="E68" s="43" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F68" s="37" cm="1">
+      <c r="F68" s="43" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G68" s="37" t="e" cm="1">
+      <c r="G68" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H68" s="37" t="e" cm="1">
+      <c r="H68" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C68)*INDIRECT(ADDRESS(5,38))/(D68*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I68" s="37" cm="1">
+      <c r="I68" s="43" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">1/((D68*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J68" s="37" cm="1">
+      <c r="J68" s="43" cm="1">
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3728,33 +4030,33 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="37" cm="1">
+      <c r="E69" s="43" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F69" s="37" cm="1">
+      <c r="F69" s="43" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G69" s="37" t="e" cm="1">
+      <c r="G69" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H69" s="37" t="e" cm="1">
+      <c r="H69" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C69)*INDIRECT(ADDRESS(5,38))/(D69*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I69" s="37" cm="1">
+      <c r="I69" s="43" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">1/((D69*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J69" s="37" cm="1">
+      <c r="J69" s="43" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3768,33 +4070,33 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="37" cm="1">
+      <c r="E70" s="43" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F70" s="37" cm="1">
+      <c r="F70" s="43" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G70" s="37" t="e" cm="1">
+      <c r="G70" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H70" s="37" t="e" cm="1">
+      <c r="H70" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C70)*INDIRECT(ADDRESS(5,38))/(D70*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I70" s="37" cm="1">
+      <c r="I70" s="43" cm="1">
         <f t="array" aca="1" ref="I70" ca="1">1/((D70*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J70" s="37" cm="1">
+      <c r="J70" s="43" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3808,33 +4110,33 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="37" cm="1">
+      <c r="E71" s="43" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F71" s="37" cm="1">
+      <c r="F71" s="43" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G71" s="37" t="e" cm="1">
+      <c r="G71" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H71" s="37" t="e" cm="1">
+      <c r="H71" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C71)*INDIRECT(ADDRESS(5,38))/(D71*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I71" s="37" cm="1">
+      <c r="I71" s="43" cm="1">
         <f t="array" aca="1" ref="I71" ca="1">1/((D71*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J71" s="37" cm="1">
+      <c r="J71" s="43" cm="1">
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3848,33 +4150,33 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="37" cm="1">
+      <c r="E72" s="43" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F72" s="37" cm="1">
+      <c r="F72" s="43" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G72" s="37" t="e" cm="1">
+      <c r="G72" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H72" s="37" t="e" cm="1">
+      <c r="H72" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C72)*INDIRECT(ADDRESS(5,38))/(D72*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I72" s="37" cm="1">
+      <c r="I72" s="43" cm="1">
         <f t="array" aca="1" ref="I72" ca="1">1/((D72*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J72" s="37" cm="1">
+      <c r="J72" s="43" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3888,33 +4190,33 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="37" cm="1">
+      <c r="E73" s="43" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F73" s="37" cm="1">
+      <c r="F73" s="43" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G73" s="37" t="e" cm="1">
+      <c r="G73" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H73" s="37" t="e" cm="1">
+      <c r="H73" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C73)*INDIRECT(ADDRESS(5,38))/(D73*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I73" s="37" cm="1">
+      <c r="I73" s="43" cm="1">
         <f t="array" aca="1" ref="I73" ca="1">1/((D73*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J73" s="37" cm="1">
+      <c r="J73" s="43" cm="1">
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3928,33 +4230,33 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="37" cm="1">
+      <c r="E74" s="43" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F74" s="37" cm="1">
+      <c r="F74" s="43" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G74" s="37" t="e" cm="1">
+      <c r="G74" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H74" s="37" t="e" cm="1">
+      <c r="H74" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C74)*INDIRECT(ADDRESS(5,38))/(D74*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I74" s="37" cm="1">
+      <c r="I74" s="43" cm="1">
         <f t="array" aca="1" ref="I74" ca="1">1/((D74*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J74" s="37" cm="1">
+      <c r="J74" s="43" cm="1">
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -3968,33 +4270,33 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="37" cm="1">
+      <c r="E75" s="43" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F75" s="37" cm="1">
+      <c r="F75" s="43" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G75" s="37" t="e" cm="1">
+      <c r="G75" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="37" t="e" cm="1">
+      <c r="H75" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C75)*INDIRECT(ADDRESS(5,38))/(D75*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" s="37" cm="1">
+      <c r="I75" s="43" cm="1">
         <f t="array" aca="1" ref="I75" ca="1">1/((D75*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J75" s="37" cm="1">
+      <c r="J75" s="43" cm="1">
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4008,33 +4310,33 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="37" cm="1">
+      <c r="E76" s="43" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F76" s="37" cm="1">
+      <c r="F76" s="43" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G76" s="37" t="e" cm="1">
+      <c r="G76" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="37" t="e" cm="1">
+      <c r="H76" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C76)*INDIRECT(ADDRESS(5,38))/(D76*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" s="37" cm="1">
+      <c r="I76" s="43" cm="1">
         <f t="array" aca="1" ref="I76" ca="1">1/((D76*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J76" s="37" cm="1">
+      <c r="J76" s="43" cm="1">
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4080,22 +4382,22 @@
       <c r="D79" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="31" t="s">
+      <c r="F79" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="31" t="s">
+      <c r="I79" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L79" s="21" t="s">
@@ -4104,10 +4406,10 @@
       <c r="M79" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="50" t="s">
+      <c r="N79" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="51"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4122,7 +4424,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4130,34 +4432,34 @@
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
-      <c r="E80" s="36" cm="1">
+      <c r="E80" s="44" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F80" s="36" cm="1">
+      <c r="F80" s="44" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G80" s="36" t="e" cm="1">
+      <c r="G80" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H80" s="36" t="e" cm="1">
+      <c r="H80" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C80)*INDIRECT(ADDRESS(5,38))/(D80*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I80" s="36" cm="1">
+      <c r="I80" s="44" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J80" s="36" cm="1">
+      <c r="J80" s="44" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L80" s="43" t="s">
+      <c r="L80" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="46" t="s">
+      <c r="M80" s="50" t="s">
         <v>57</v>
       </c>
       <c r="N80" s="23" t="s">
@@ -4179,38 +4481,38 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="44"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
-      <c r="E81" s="36" cm="1">
+      <c r="E81" s="44" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F81" s="36" cm="1">
+      <c r="F81" s="44" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G81" s="36" t="e" cm="1">
+      <c r="G81" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="36" t="e" cm="1">
+      <c r="H81" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C81)*INDIRECT(ADDRESS(5,38))/(D81*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="36" cm="1">
+      <c r="I81" s="44" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J81" s="36" cm="1">
+      <c r="J81" s="44" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L81" s="44"/>
-      <c r="M81" s="46"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="50"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4230,38 +4532,38 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="44"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
-      <c r="E82" s="36" cm="1">
+      <c r="E82" s="44" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F82" s="36" cm="1">
+      <c r="F82" s="44" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G82" s="36" t="e" cm="1">
+      <c r="G82" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H82" s="36" t="e" cm="1">
+      <c r="H82" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C82)*INDIRECT(ADDRESS(5,38))/(D82*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I82" s="36" cm="1">
+      <c r="I82" s="44" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J82" s="36" cm="1">
+      <c r="J82" s="44" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L82" s="45"/>
-      <c r="M82" s="46"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="50"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4281,51 +4583,51 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
-      <c r="E83" s="36" cm="1">
+      <c r="E83" s="44" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F83" s="36" cm="1">
+      <c r="F83" s="44" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G83" s="36" t="e" cm="1">
+      <c r="G83" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H83" s="36" t="e" cm="1">
+      <c r="H83" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C83)*INDIRECT(ADDRESS(5,38))/(D83*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I83" s="36" cm="1">
+      <c r="I83" s="44" cm="1">
         <f t="array" aca="1" ref="I83" ca="1">1/((D83*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J83" s="36" cm="1">
+      <c r="J83" s="44" cm="1">
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="43" t="s">
+      <c r="L83" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="43" t="s">
+      <c r="M83" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N83" s="38" t="s">
+      <c r="N83" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O83" s="38"/>
+      <c r="O83" s="35"/>
       <c r="P83" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">INDIRECT(ADDRESS(Q83+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q83" s="38"/>
+      <c r="Q83" s="35"/>
       <c r="R83" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R83" ca="1">INDIRECT(ADDRESS(Q83+2,23))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4336,47 +4638,47 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
-      <c r="E84" s="36" cm="1">
+      <c r="E84" s="44" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F84" s="36" cm="1">
+      <c r="F84" s="44" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G84" s="36" t="e" cm="1">
+      <c r="G84" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H84" s="36" t="e" cm="1">
+      <c r="H84" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C84)*INDIRECT(ADDRESS(5,38))/(D84*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I84" s="36" cm="1">
+      <c r="I84" s="44" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J84" s="36" cm="1">
+      <c r="J84" s="44" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="38" t="s">
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="38"/>
+      <c r="O84" s="35"/>
       <c r="P84" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P84" ca="1">INDIRECT(ADDRESS(Q84+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q84" s="38"/>
+      <c r="Q84" s="35"/>
       <c r="R84" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R84" ca="1">INDIRECT(ADDRESS(Q84+2,23))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4387,47 +4689,47 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
-      <c r="E85" s="36" cm="1">
+      <c r="E85" s="44" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F85" s="36" cm="1">
+      <c r="F85" s="44" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G85" s="36" t="e" cm="1">
+      <c r="G85" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H85" s="36" t="e" cm="1">
+      <c r="H85" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C85)*INDIRECT(ADDRESS(5,38))/(D85*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I85" s="36" cm="1">
+      <c r="I85" s="44" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J85" s="36" cm="1">
+      <c r="J85" s="44" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L85" s="44"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="38" t="s">
+      <c r="L85" s="48"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O85" s="38"/>
+      <c r="O85" s="35"/>
       <c r="P85" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P85" ca="1">INDIRECT(ADDRESS(Q85+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q85" s="38"/>
+      <c r="Q85" s="35"/>
       <c r="R85" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R85" ca="1">INDIRECT(ADDRESS(Q85+2,23))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4438,49 +4740,49 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
-      <c r="E86" s="36" cm="1">
+      <c r="E86" s="44" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F86" s="36" cm="1">
+      <c r="F86" s="44" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G86" s="36" t="e" cm="1">
+      <c r="G86" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H86" s="36" t="e" cm="1">
+      <c r="H86" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C86)*INDIRECT(ADDRESS(5,38))/(D86*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I86" s="36" cm="1">
+      <c r="I86" s="44" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J86" s="36" cm="1">
+      <c r="J86" s="44" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L86" s="44"/>
-      <c r="M86" s="43" t="s">
+      <c r="L86" s="48"/>
+      <c r="M86" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="N86" s="38" t="s">
+      <c r="N86" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O86" s="38"/>
+      <c r="O86" s="35"/>
       <c r="P86" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P86" ca="1">INDIRECT(ADDRESS(Q86+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q86" s="38"/>
+      <c r="Q86" s="35"/>
       <c r="R86" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R86" ca="1">INDIRECT(ADDRESS(Q86+2,23))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4491,47 +4793,47 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
-      <c r="E87" s="36" cm="1">
+      <c r="E87" s="44" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F87" s="36" cm="1">
+      <c r="F87" s="44" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G87" s="36" t="e" cm="1">
+      <c r="G87" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H87" s="36" t="e" cm="1">
+      <c r="H87" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C87)*INDIRECT(ADDRESS(5,38))/(D87*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I87" s="36" cm="1">
+      <c r="I87" s="44" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J87" s="36" cm="1">
+      <c r="J87" s="44" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="38" t="s">
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="38"/>
+      <c r="O87" s="35"/>
       <c r="P87" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P87" ca="1">INDIRECT(ADDRESS(Q87+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q87" s="38"/>
+      <c r="Q87" s="35"/>
       <c r="R87" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R87" ca="1">INDIRECT(ADDRESS(Q87+2,23))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4542,47 +4844,47 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
-      <c r="E88" s="36" cm="1">
+      <c r="E88" s="44" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F88" s="36" cm="1">
+      <c r="F88" s="44" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G88" s="36" t="e" cm="1">
+      <c r="G88" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H88" s="36" t="e" cm="1">
+      <c r="H88" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C88)*INDIRECT(ADDRESS(5,38))/(D88*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I88" s="36" cm="1">
+      <c r="I88" s="44" cm="1">
         <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J88" s="36" cm="1">
+      <c r="J88" s="44" cm="1">
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="38" t="s">
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O88" s="38"/>
+      <c r="O88" s="35"/>
       <c r="P88" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P88" ca="1">INDIRECT(ADDRESS(Q88+2,22))</f>
         <v>Material</v>
       </c>
-      <c r="Q88" s="38"/>
+      <c r="Q88" s="35"/>
       <c r="R88" s="24" t="e" cm="1">
         <f t="array" aca="1" ref="R88" ca="1">INDIRECT(ADDRESS(Q88+2,23))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,30))) -1</f>
         <v>#VALUE!</v>
@@ -4593,33 +4895,33 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
-      <c r="E89" s="36" cm="1">
+      <c r="E89" s="44" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F89" s="36" cm="1">
+      <c r="F89" s="44" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G89" s="36" t="e" cm="1">
+      <c r="G89" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H89" s="36" t="e" cm="1">
+      <c r="H89" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C89)*INDIRECT(ADDRESS(5,38))/(D89*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I89" s="36" cm="1">
+      <c r="I89" s="44" cm="1">
         <f t="array" aca="1" ref="I89" ca="1">1/((D89*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J89" s="36" cm="1">
+      <c r="J89" s="44" cm="1">
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4637,22 +4939,22 @@
       <c r="D92" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="F92" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="G92" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="H92" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="31" t="s">
+      <c r="I92" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J92" s="31" t="s">
+      <c r="J92" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L92"/>
@@ -4665,7 +4967,7 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -4673,27 +4975,27 @@
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
-      <c r="E93" s="36" cm="1">
+      <c r="E93" s="44" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F93" s="36" cm="1">
+      <c r="F93" s="44" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G93" s="36" t="e" cm="1">
+      <c r="G93" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H93" s="36" t="e" cm="1">
+      <c r="H93" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C93)*INDIRECT(ADDRESS(5,38))/(D93*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I93" s="36" cm="1">
+      <c r="I93" s="44" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J93" s="36" cm="1">
+      <c r="J93" s="44" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4707,33 +5009,33 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="46"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
-      <c r="E94" s="36" cm="1">
+      <c r="E94" s="44" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F94" s="36" cm="1">
+      <c r="F94" s="44" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G94" s="36" t="e" cm="1">
+      <c r="G94" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H94" s="36" t="e" cm="1">
+      <c r="H94" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C94)*INDIRECT(ADDRESS(5,38))/(D94*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I94" s="36" cm="1">
+      <c r="I94" s="44" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J94" s="36" cm="1">
+      <c r="J94" s="44" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4747,33 +5049,33 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="46"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
-      <c r="E95" s="36" cm="1">
+      <c r="E95" s="44" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F95" s="36" cm="1">
+      <c r="F95" s="44" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G95" s="36" t="e" cm="1">
+      <c r="G95" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="36" t="e" cm="1">
+      <c r="H95" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C95)*INDIRECT(ADDRESS(5,38))/(D95*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I95" s="36" cm="1">
+      <c r="I95" s="44" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J95" s="36" cm="1">
+      <c r="J95" s="44" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4787,33 +5089,33 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="36" cm="1">
+      <c r="E96" s="44" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F96" s="36" cm="1">
+      <c r="F96" s="44" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G96" s="36" t="e" cm="1">
+      <c r="G96" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H96" s="36" t="e" cm="1">
+      <c r="H96" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C96)*INDIRECT(ADDRESS(5,38))/(D96*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I96" s="36" cm="1">
+      <c r="I96" s="44" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">1/((D96*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J96" s="36" cm="1">
+      <c r="J96" s="44" cm="1">
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4827,33 +5129,33 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="46"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
-      <c r="E97" s="36" cm="1">
+      <c r="E97" s="44" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F97" s="36" cm="1">
+      <c r="F97" s="44" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G97" s="36" t="e" cm="1">
+      <c r="G97" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H97" s="36" t="e" cm="1">
+      <c r="H97" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C97)*INDIRECT(ADDRESS(5,38))/(D97*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I97" s="36" cm="1">
+      <c r="I97" s="44" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J97" s="36" cm="1">
+      <c r="J97" s="44" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4867,33 +5169,33 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="46"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
-      <c r="E98" s="36" cm="1">
+      <c r="E98" s="44" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F98" s="36" cm="1">
+      <c r="F98" s="44" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G98" s="36" t="e" cm="1">
+      <c r="G98" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="36" t="e" cm="1">
+      <c r="H98" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C98)*INDIRECT(ADDRESS(5,38))/(D98*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I98" s="36" cm="1">
+      <c r="I98" s="44" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J98" s="36" cm="1">
+      <c r="J98" s="44" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4907,33 +5209,33 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="46"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
-      <c r="E99" s="36" cm="1">
+      <c r="E99" s="44" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F99" s="36" cm="1">
+      <c r="F99" s="44" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G99" s="36" t="e" cm="1">
+      <c r="G99" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H99" s="36" t="e" cm="1">
+      <c r="H99" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C99)*INDIRECT(ADDRESS(5,38))/(D99*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I99" s="36" cm="1">
+      <c r="I99" s="44" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J99" s="36" cm="1">
+      <c r="J99" s="44" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4947,33 +5249,33 @@
       <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
-      <c r="E100" s="36" cm="1">
+      <c r="E100" s="44" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F100" s="36" cm="1">
+      <c r="F100" s="44" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G100" s="36" t="e" cm="1">
+      <c r="G100" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H100" s="36" t="e" cm="1">
+      <c r="H100" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C100)*INDIRECT(ADDRESS(5,38))/(D100*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I100" s="36" cm="1">
+      <c r="I100" s="44" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J100" s="36" cm="1">
+      <c r="J100" s="44" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -4987,33 +5289,33 @@
       <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="46"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
-      <c r="E101" s="36" cm="1">
+      <c r="E101" s="44" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F101" s="36" cm="1">
+      <c r="F101" s="44" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G101" s="36" t="e" cm="1">
+      <c r="G101" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H101" s="36" t="e" cm="1">
+      <c r="H101" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C101)*INDIRECT(ADDRESS(5,38))/(D101*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I101" s="36" cm="1">
+      <c r="I101" s="44" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J101" s="36" cm="1">
+      <c r="J101" s="44" cm="1">
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5027,33 +5329,33 @@
       <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="46"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="36" cm="1">
+      <c r="E102" s="44" cm="1">
         <f t="array" aca="1" ref="E102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F102" s="36" cm="1">
+      <c r="F102" s="44" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G102" s="36" t="e" cm="1">
+      <c r="G102" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H102" s="36" t="e" cm="1">
+      <c r="H102" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H102" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C102)*INDIRECT(ADDRESS(5,38))/(D102*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I102" s="36" cm="1">
+      <c r="I102" s="44" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">1/((D102*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J102" s="36" cm="1">
+      <c r="J102" s="44" cm="1">
         <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5099,22 +5401,22 @@
       <c r="D105" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="31" t="s">
+      <c r="G105" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="31" t="s">
+      <c r="H105" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I105" s="31" t="s">
+      <c r="I105" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J105" s="31" t="s">
+      <c r="J105" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L105"/>
@@ -5127,7 +5429,7 @@
       <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="50" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -5135,27 +5437,27 @@
       </c>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
-      <c r="E106" s="36" cm="1">
+      <c r="E106" s="44" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F106" s="36" cm="1">
+      <c r="F106" s="44" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G106" s="36" t="e" cm="1">
+      <c r="G106" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H106" s="36" t="e" cm="1">
+      <c r="H106" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C106)*INDIRECT(ADDRESS(5,38))/(D106*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I106" s="36" cm="1">
+      <c r="I106" s="44" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J106" s="36" cm="1">
+      <c r="J106" s="44" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5169,33 +5471,33 @@
       <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="46"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
-      <c r="E107" s="36" cm="1">
+      <c r="E107" s="44" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F107" s="36" cm="1">
+      <c r="F107" s="44" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G107" s="36" t="e" cm="1">
+      <c r="G107" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H107" s="36" t="e" cm="1">
+      <c r="H107" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C107)*INDIRECT(ADDRESS(5,38))/(D107*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I107" s="36" cm="1">
+      <c r="I107" s="44" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J107" s="36" cm="1">
+      <c r="J107" s="44" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5209,33 +5511,33 @@
       <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="46"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
-      <c r="E108" s="36" cm="1">
+      <c r="E108" s="44" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F108" s="36" cm="1">
+      <c r="F108" s="44" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G108" s="36" t="e" cm="1">
+      <c r="G108" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H108" s="36" t="e" cm="1">
+      <c r="H108" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C108)*INDIRECT(ADDRESS(5,38))/(D108*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I108" s="36" cm="1">
+      <c r="I108" s="44" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J108" s="36" cm="1">
+      <c r="J108" s="44" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5249,33 +5551,33 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="46"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
-      <c r="E109" s="36" cm="1">
+      <c r="E109" s="44" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F109" s="36" cm="1">
+      <c r="F109" s="44" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G109" s="36" t="e" cm="1">
+      <c r="G109" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H109" s="36" t="e" cm="1">
+      <c r="H109" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H109" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C109)*INDIRECT(ADDRESS(5,38))/(D109*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I109" s="36" cm="1">
+      <c r="I109" s="44" cm="1">
         <f t="array" aca="1" ref="I109" ca="1">1/((D109*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J109" s="36" cm="1">
+      <c r="J109" s="44" cm="1">
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5289,33 +5591,33 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="46"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
-      <c r="E110" s="36" cm="1">
+      <c r="E110" s="44" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F110" s="36" cm="1">
+      <c r="F110" s="44" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G110" s="36" t="e" cm="1">
+      <c r="G110" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="36" t="e" cm="1">
+      <c r="H110" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C110)*INDIRECT(ADDRESS(5,38))/(D110*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I110" s="36" cm="1">
+      <c r="I110" s="44" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J110" s="36" cm="1">
+      <c r="J110" s="44" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5329,33 +5631,33 @@
       <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="46"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
-      <c r="E111" s="36" cm="1">
+      <c r="E111" s="44" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F111" s="36" cm="1">
+      <c r="F111" s="44" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G111" s="36" t="e" cm="1">
+      <c r="G111" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H111" s="36" t="e" cm="1">
+      <c r="H111" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C111)*INDIRECT(ADDRESS(5,38))/(D111*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I111" s="36" cm="1">
+      <c r="I111" s="44" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J111" s="36" cm="1">
+      <c r="J111" s="44" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5369,33 +5671,33 @@
       <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="46"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
-      <c r="E112" s="36" cm="1">
+      <c r="E112" s="44" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F112" s="36" cm="1">
+      <c r="F112" s="44" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G112" s="36" t="e" cm="1">
+      <c r="G112" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H112" s="36" t="e" cm="1">
+      <c r="H112" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C112)*INDIRECT(ADDRESS(5,38))/(D112*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I112" s="36" cm="1">
+      <c r="I112" s="44" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J112" s="36" cm="1">
+      <c r="J112" s="44" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5409,33 +5711,33 @@
       <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="46"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
-      <c r="E113" s="36" cm="1">
+      <c r="E113" s="44" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F113" s="36" cm="1">
+      <c r="F113" s="44" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G113" s="36" t="e" cm="1">
+      <c r="G113" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H113" s="36" t="e" cm="1">
+      <c r="H113" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C113)*INDIRECT(ADDRESS(5,38))/(D113*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I113" s="36" cm="1">
+      <c r="I113" s="44" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J113" s="36" cm="1">
+      <c r="J113" s="44" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5449,33 +5751,33 @@
       <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="46"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
-      <c r="E114" s="36" cm="1">
+      <c r="E114" s="44" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F114" s="36" cm="1">
+      <c r="F114" s="44" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G114" s="36" t="e" cm="1">
+      <c r="G114" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H114" s="36" t="e" cm="1">
+      <c r="H114" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C114)*INDIRECT(ADDRESS(5,38))/(D114*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I114" s="36" cm="1">
+      <c r="I114" s="44" cm="1">
         <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J114" s="36" cm="1">
+      <c r="J114" s="44" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5489,33 +5791,33 @@
       <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="46"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
-      <c r="E115" s="36" cm="1">
+      <c r="E115" s="44" cm="1">
         <f t="array" aca="1" ref="E115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="F115" s="36" cm="1">
+      <c r="F115" s="44" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="G115" s="36" t="e" cm="1">
+      <c r="G115" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H115" s="36" t="e" cm="1">
+      <c r="H115" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="H115" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C115)*INDIRECT(ADDRESS(5,38))/(D115*INDIRECT(ADDRESS(5,37)))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I115" s="36" cm="1">
+      <c r="I115" s="44" cm="1">
         <f t="array" aca="1" ref="I115" ca="1">1/((D115*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.58289376072382715</v>
       </c>
-      <c r="J115" s="36" cm="1">
+      <c r="J115" s="44" cm="1">
         <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
@@ -5567,13 +5869,13 @@
       <c r="D127" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="F127" s="41" t="s">
+      <c r="F127" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G127" s="41" t="s">
+      <c r="G127" s="38" t="s">
         <v>55</v>
       </c>
       <c r="L127" s="16"/>
@@ -5581,26 +5883,26 @@
       <c r="U127" s="9"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="38">
+      <c r="B128" s="35">
         <v>40230</v>
       </c>
-      <c r="C128" s="62">
+      <c r="C128" s="39">
         <v>108.87430000000001</v>
       </c>
-      <c r="D128" s="62">
+      <c r="D128" s="39">
         <v>80.588999999999999</v>
       </c>
-      <c r="E128" s="62">
+      <c r="E128" s="42">
         <v>-377.04860000000002</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F128" s="26">
         <f>C128*1.1*1</f>
         <v>119.76173000000001</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="26">
         <f>(D128^2 + E128^2)*1.1</f>
         <v>163526.25705125605</v>
       </c>
@@ -5609,727 +5911,703 @@
       <c r="U128" s="9"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="47"/>
-      <c r="B129" s="38">
+      <c r="A129" s="51"/>
+      <c r="B129" s="35">
         <v>40240</v>
       </c>
-      <c r="C129" s="62">
+      <c r="C129" s="39">
         <v>9.1621360000000003</v>
       </c>
-      <c r="D129" s="62">
+      <c r="D129" s="39">
         <v>4.0983510000000001</v>
       </c>
-      <c r="E129" s="62">
+      <c r="E129" s="42">
         <v>-399.84219999999999</v>
       </c>
-      <c r="F129" s="27">
+      <c r="F129" s="26">
         <f t="shared" ref="F129:F192" si="0">C129*1.1*1</f>
         <v>10.078349600000001</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G129" s="26">
         <f t="shared" ref="G129:G156" si="1">(D129^2 + E129^2)*1.1</f>
         <v>175879.63951993512</v>
       </c>
-      <c r="I129"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="62"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="42"/>
+      <c r="L129" s="39"/>
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="47"/>
-      <c r="B130" s="38">
+      <c r="A130" s="51"/>
+      <c r="B130" s="35">
         <v>40250</v>
       </c>
-      <c r="C130" s="62">
+      <c r="C130" s="39">
         <v>-108.26</v>
       </c>
-      <c r="D130" s="62">
+      <c r="D130" s="39">
         <v>-104.9881</v>
       </c>
-      <c r="E130" s="62">
+      <c r="E130" s="42">
         <v>-357.2242</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="26">
         <f t="shared" si="0"/>
         <v>-119.08600000000001</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="26">
         <f t="shared" si="1"/>
         <v>152494.79322797499</v>
       </c>
-      <c r="I130"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-      <c r="L130" s="62"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="42"/>
+      <c r="L130" s="39"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="47"/>
-      <c r="B131" s="38">
+      <c r="A131" s="51"/>
+      <c r="B131" s="35">
         <v>40360</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F131" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G131" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I131"/>
-      <c r="J131" s="62"/>
-      <c r="K131" s="62"/>
-      <c r="L131" s="62"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="42"/>
+      <c r="L131" s="39"/>
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="47"/>
-      <c r="B132" s="38">
+      <c r="A132" s="51"/>
+      <c r="B132" s="35">
         <v>40390</v>
       </c>
-      <c r="C132" s="62">
+      <c r="C132" s="39">
         <v>-81.548439999999999</v>
       </c>
-      <c r="D132" s="62">
+      <c r="D132" s="39">
         <v>45.2622</v>
       </c>
-      <c r="E132" s="62">
+      <c r="E132" s="42">
         <v>-187.11330000000001</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F132" s="26">
         <f t="shared" si="0"/>
         <v>-89.703284000000011</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G132" s="26">
         <f t="shared" si="1"/>
         <v>40766.059164303006</v>
       </c>
-      <c r="I132"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="62"/>
-      <c r="L132" s="62"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="42"/>
+      <c r="L132" s="39"/>
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="47"/>
-      <c r="B133" s="38">
+      <c r="A133" s="51"/>
+      <c r="B133" s="35">
         <v>40710</v>
       </c>
-      <c r="C133" s="62">
+      <c r="C133" s="39">
         <v>81.42022</v>
       </c>
-      <c r="D133" s="62">
+      <c r="D133" s="39">
         <v>45.224200000000003</v>
       </c>
-      <c r="E133" s="62">
+      <c r="E133" s="42">
         <v>-186.93960000000001</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F133" s="26">
         <f t="shared" si="0"/>
         <v>89.562242000000012</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G133" s="26">
         <f t="shared" si="1"/>
         <v>40690.806545180007</v>
       </c>
-      <c r="I133"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="62"/>
-      <c r="L133" s="62"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="42"/>
+      <c r="L133" s="39"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="47"/>
-      <c r="B134" s="38">
+      <c r="A134" s="51"/>
+      <c r="B134" s="35">
         <v>40740</v>
       </c>
-      <c r="C134" s="62">
+      <c r="C134" s="39">
         <v>-288.57069999999999</v>
       </c>
-      <c r="D134" s="62">
+      <c r="D134" s="39">
         <v>24.531610000000001</v>
       </c>
-      <c r="E134" s="62">
+      <c r="E134" s="42">
         <v>-71.379090000000005</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F134" s="26">
         <f t="shared" si="0"/>
         <v>-317.42777000000001</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G134" s="26">
         <f t="shared" si="1"/>
         <v>6266.4518162622207</v>
       </c>
-      <c r="I134"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="62"/>
-      <c r="L134" s="62"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="L134" s="39"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="47"/>
-      <c r="B135" s="38">
+      <c r="A135" s="51"/>
+      <c r="B135" s="35">
         <v>40750</v>
       </c>
-      <c r="C135" s="62">
+      <c r="C135" s="39">
         <v>108.3323</v>
       </c>
-      <c r="D135" s="62">
+      <c r="D135" s="39">
         <v>-105.2955</v>
       </c>
-      <c r="E135" s="62">
+      <c r="E135" s="42">
         <v>-357.17989999999998</v>
       </c>
-      <c r="F135" s="27">
+      <c r="F135" s="26">
         <f t="shared" si="0"/>
         <v>119.16553000000002</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G135" s="26">
         <f t="shared" si="1"/>
         <v>152531.085612686</v>
       </c>
-      <c r="I135"/>
-      <c r="J135" s="62"/>
-      <c r="K135" s="62"/>
-      <c r="L135" s="62"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
+      <c r="L135" s="39"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="47"/>
-      <c r="B136" s="38">
+      <c r="A136" s="51"/>
+      <c r="B136" s="35">
         <v>40760</v>
       </c>
-      <c r="C136" s="62">
+      <c r="C136" s="39">
         <v>-9.0496949999999998</v>
       </c>
-      <c r="D136" s="62">
+      <c r="D136" s="39">
         <v>3.9700730000000002</v>
       </c>
-      <c r="E136" s="62">
+      <c r="E136" s="42">
         <v>-399.87430000000001</v>
       </c>
-      <c r="F136" s="27">
+      <c r="F136" s="26">
         <f t="shared" si="0"/>
         <v>-9.9546644999999998</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G136" s="26">
         <f t="shared" si="1"/>
         <v>175906.7390081269</v>
       </c>
-      <c r="I136"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="62"/>
-      <c r="L136" s="62"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="42"/>
+      <c r="L136" s="39"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="47"/>
-      <c r="B137" s="38">
+      <c r="A137" s="51"/>
+      <c r="B137" s="35">
         <v>40770</v>
       </c>
-      <c r="F137" s="27">
+      <c r="F137" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G137" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I137"/>
-      <c r="J137" s="62"/>
-      <c r="K137" s="62"/>
-      <c r="L137" s="62"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="L137" s="39"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="48" t="s">
+      <c r="A138" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B138" s="38">
+      <c r="B138" s="35">
         <v>40230</v>
       </c>
-      <c r="C138" s="62">
+      <c r="C138" s="39">
         <v>229.86689999999999</v>
       </c>
-      <c r="D138" s="62">
+      <c r="D138" s="39">
         <v>-138.2756</v>
       </c>
-      <c r="E138" s="62">
+      <c r="E138" s="42">
         <v>61.233829999999998</v>
       </c>
-      <c r="F138" s="27">
+      <c r="F138" s="26">
         <f t="shared" si="0"/>
         <v>252.85359</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G138" s="26">
         <f t="shared" si="1"/>
         <v>25156.695841011788</v>
       </c>
-      <c r="I138"/>
-      <c r="J138" s="62"/>
-      <c r="K138" s="62"/>
-      <c r="L138" s="62"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="L138" s="39"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="49"/>
-      <c r="B139" s="38">
+      <c r="A139" s="53"/>
+      <c r="B139" s="35">
         <v>40240</v>
       </c>
-      <c r="C139" s="62">
+      <c r="C139" s="39">
         <v>106.7925</v>
       </c>
-      <c r="D139" s="62">
+      <c r="D139" s="39">
         <v>-138.14330000000001</v>
       </c>
-      <c r="E139" s="62">
+      <c r="E139" s="42">
         <v>-2.2907169999999999</v>
       </c>
-      <c r="F139" s="27">
+      <c r="F139" s="26">
         <f t="shared" si="0"/>
         <v>117.47175000000001</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G139" s="26">
         <f t="shared" si="1"/>
         <v>20997.7005911905</v>
       </c>
-      <c r="I139"/>
-      <c r="J139" s="62"/>
-      <c r="K139" s="62"/>
-      <c r="L139" s="62"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="L139" s="39"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="49"/>
-      <c r="B140" s="38">
+      <c r="A140" s="53"/>
+      <c r="B140" s="35">
         <v>40250</v>
       </c>
-      <c r="C140" s="62">
+      <c r="C140" s="39">
         <v>218.7602</v>
       </c>
-      <c r="D140" s="62">
+      <c r="D140" s="39">
         <v>-217.17760000000001</v>
       </c>
-      <c r="E140" s="62">
+      <c r="E140" s="42">
         <v>-63.488199999999999</v>
       </c>
-      <c r="F140" s="27">
+      <c r="F140" s="26">
         <f t="shared" si="0"/>
         <v>240.63622000000001</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G140" s="26">
         <f t="shared" si="1"/>
         <v>56316.547629100016</v>
       </c>
-      <c r="I140"/>
-      <c r="J140" s="62"/>
-      <c r="K140" s="62"/>
-      <c r="L140" s="62"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="L140" s="39"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="49"/>
-      <c r="B141" s="38">
+      <c r="A141" s="53"/>
+      <c r="B141" s="35">
         <v>40360</v>
       </c>
-      <c r="F141" s="27">
+      <c r="F141" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G141" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I141"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
-      <c r="L141" s="62"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="L141" s="39"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="49"/>
-      <c r="B142" s="38">
+      <c r="A142" s="53"/>
+      <c r="B142" s="35">
         <v>40390</v>
       </c>
-      <c r="C142" s="62">
+      <c r="C142" s="39">
         <v>-62.126640000000002</v>
       </c>
-      <c r="D142" s="62">
+      <c r="D142" s="39">
         <v>-371.15879999999999</v>
       </c>
-      <c r="E142" s="62">
+      <c r="E142" s="42">
         <v>32.464109999999998</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F142" s="26">
         <f t="shared" si="0"/>
         <v>-68.339304000000013</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G142" s="26">
         <f t="shared" si="1"/>
         <v>152694.05058108529</v>
       </c>
-      <c r="I142"/>
-      <c r="J142" s="62"/>
-      <c r="K142" s="62"/>
-      <c r="L142" s="62"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+      <c r="L142" s="39"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="49"/>
-      <c r="B143" s="38">
+      <c r="A143" s="53"/>
+      <c r="B143" s="35">
         <v>40710</v>
       </c>
-      <c r="C143" s="62">
+      <c r="C143" s="39">
         <v>61.996380000000002</v>
       </c>
-      <c r="D143" s="62">
+      <c r="D143" s="39">
         <v>-371.24099999999999</v>
       </c>
-      <c r="E143" s="62">
+      <c r="E143" s="42">
         <v>32.468940000000003</v>
       </c>
-      <c r="F143" s="27">
+      <c r="F143" s="26">
         <f t="shared" si="0"/>
         <v>68.196018000000009</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G143" s="26">
         <f t="shared" si="1"/>
         <v>152761.52336029595</v>
       </c>
-      <c r="I143"/>
-      <c r="J143" s="62"/>
-      <c r="K143" s="62"/>
-      <c r="L143" s="62"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+      <c r="L143" s="39"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="49"/>
-      <c r="B144" s="38">
+      <c r="A144" s="53"/>
+      <c r="B144" s="35">
         <v>40740</v>
       </c>
-      <c r="C144" s="62">
+      <c r="C144" s="39">
         <v>11.124359999999999</v>
       </c>
-      <c r="D144" s="62">
+      <c r="D144" s="39">
         <v>527.91380000000004</v>
       </c>
-      <c r="E144" s="62">
+      <c r="E144" s="42">
         <v>-27.837730000000001</v>
       </c>
-      <c r="F144" s="27">
+      <c r="F144" s="26">
         <f t="shared" si="0"/>
         <v>12.236796</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G144" s="26">
         <f t="shared" si="1"/>
         <v>307414.71138619224</v>
       </c>
-      <c r="I144"/>
-      <c r="J144" s="62"/>
-      <c r="K144" s="62"/>
-      <c r="L144" s="62"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+      <c r="L144" s="39"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="49"/>
-      <c r="B145" s="38">
+      <c r="A145" s="53"/>
+      <c r="B145" s="35">
         <v>40750</v>
       </c>
-      <c r="C145" s="62">
+      <c r="C145" s="39">
         <v>-218.73050000000001</v>
       </c>
-      <c r="D145" s="62">
+      <c r="D145" s="39">
         <v>-217.07069999999999</v>
       </c>
-      <c r="E145" s="62">
+      <c r="E145" s="42">
         <v>-63.818910000000002</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F145" s="26">
         <f t="shared" si="0"/>
         <v>-240.60355000000001</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G145" s="26">
         <f t="shared" si="1"/>
         <v>56311.796279285911</v>
       </c>
-      <c r="I145"/>
-      <c r="J145" s="62"/>
-      <c r="K145" s="62"/>
-      <c r="L145" s="62"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="L145" s="39"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="49"/>
-      <c r="B146" s="38">
+      <c r="A146" s="53"/>
+      <c r="B146" s="35">
         <v>40760</v>
       </c>
-      <c r="C146" s="62">
+      <c r="C146" s="39">
         <v>-106.5462</v>
       </c>
-      <c r="D146" s="62">
+      <c r="D146" s="39">
         <v>-137.99109999999999</v>
       </c>
-      <c r="E146" s="62">
+      <c r="E146" s="42">
         <v>-2.2971940000000002</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F146" s="26">
         <f t="shared" si="0"/>
         <v>-117.20082000000001</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G146" s="26">
         <f t="shared" si="1"/>
         <v>20951.502857431999</v>
       </c>
-      <c r="I146"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="62"/>
-      <c r="L146" s="62"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="42"/>
+      <c r="L146" s="39"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="49"/>
-      <c r="B147" s="38">
+      <c r="A147" s="53"/>
+      <c r="B147" s="35">
         <v>40770</v>
       </c>
-      <c r="F147" s="27">
+      <c r="F147" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G147" s="27">
+      <c r="G147" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I147"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="62"/>
-      <c r="L147" s="62"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
+      <c r="L147" s="39"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="38">
+      <c r="B148" s="35">
         <v>40230</v>
       </c>
-      <c r="C148" s="62">
+      <c r="C148" s="39">
         <v>547.0942</v>
       </c>
-      <c r="D148" s="62">
+      <c r="D148" s="39">
         <v>315.8075</v>
       </c>
-      <c r="E148" s="62">
+      <c r="E148" s="42">
         <v>98.632729999999995</v>
       </c>
-      <c r="F148" s="27">
+      <c r="F148" s="26">
         <f t="shared" si="0"/>
         <v>601.80362000000002</v>
       </c>
-      <c r="G148" s="27">
+      <c r="G148" s="26">
         <f t="shared" si="1"/>
         <v>120409.0717318532</v>
       </c>
-      <c r="I148"/>
-      <c r="J148" s="62"/>
-      <c r="K148" s="62"/>
-      <c r="L148" s="62"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
+      <c r="L148" s="39"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="49"/>
-      <c r="B149" s="38">
+      <c r="A149" s="53"/>
+      <c r="B149" s="35">
         <v>40240</v>
       </c>
-      <c r="C149" s="62">
+      <c r="C149" s="39">
         <v>397.2509</v>
       </c>
-      <c r="D149" s="62">
+      <c r="D149" s="39">
         <v>250.9991</v>
       </c>
-      <c r="E149" s="62">
+      <c r="E149" s="42">
         <v>57.344790000000003</v>
       </c>
-      <c r="F149" s="27">
+      <c r="F149" s="26">
         <f t="shared" si="0"/>
         <v>436.97599000000002</v>
       </c>
-      <c r="G149" s="27">
+      <c r="G149" s="26">
         <f t="shared" si="1"/>
         <v>72917.870455049517</v>
       </c>
-      <c r="I149"/>
-      <c r="J149" s="62"/>
-      <c r="K149" s="62"/>
-      <c r="L149" s="62"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="42"/>
+      <c r="L149" s="39"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="49"/>
-      <c r="B150" s="38">
+      <c r="A150" s="53"/>
+      <c r="B150" s="35">
         <v>40250</v>
       </c>
-      <c r="C150" s="62">
+      <c r="C150" s="39">
         <v>640.61950000000002</v>
       </c>
-      <c r="D150" s="62">
+      <c r="D150" s="39">
         <v>353.39819999999997</v>
       </c>
-      <c r="E150" s="62">
+      <c r="E150" s="42">
         <v>-74.685460000000006</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F150" s="26">
         <f t="shared" si="0"/>
         <v>704.68145000000004</v>
       </c>
-      <c r="G150" s="27">
+      <c r="G150" s="26">
         <f t="shared" si="1"/>
         <v>143515.02626851675</v>
       </c>
-      <c r="I150"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="62"/>
-      <c r="L150" s="62"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
+      <c r="L150" s="39"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="49"/>
-      <c r="B151" s="38">
+      <c r="A151" s="53"/>
+      <c r="B151" s="35">
         <v>40360</v>
       </c>
-      <c r="F151" s="27">
+      <c r="F151" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G151" s="27">
+      <c r="G151" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I151"/>
-      <c r="J151" s="62"/>
-      <c r="K151" s="62"/>
-      <c r="L151" s="62"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
+      <c r="L151" s="39"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="49"/>
-      <c r="B152" s="38">
+      <c r="A152" s="53"/>
+      <c r="B152" s="35">
         <v>40390</v>
       </c>
-      <c r="C152" s="62">
+      <c r="C152" s="39">
         <v>414.81529999999998</v>
       </c>
-      <c r="D152" s="62">
+      <c r="D152" s="39">
         <v>-127.63460000000001</v>
       </c>
-      <c r="E152" s="62">
+      <c r="E152" s="42">
         <v>-183.77680000000001</v>
       </c>
-      <c r="F152" s="27">
+      <c r="F152" s="26">
         <f t="shared" si="0"/>
         <v>456.29683</v>
       </c>
-      <c r="G152" s="27">
+      <c r="G152" s="26">
         <f t="shared" si="1"/>
         <v>55070.953668940012</v>
       </c>
-      <c r="I152"/>
-      <c r="J152" s="62"/>
-      <c r="K152" s="62"/>
-      <c r="L152" s="62"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
+      <c r="L152" s="39"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="49"/>
-      <c r="B153" s="38">
+      <c r="A153" s="53"/>
+      <c r="B153" s="35">
         <v>40710</v>
       </c>
-      <c r="C153" s="62">
+      <c r="C153" s="39">
         <v>414.5104</v>
       </c>
-      <c r="D153" s="62">
+      <c r="D153" s="39">
         <v>127.66970000000001</v>
       </c>
-      <c r="E153" s="62">
+      <c r="E153" s="42">
         <v>183.85599999999999</v>
       </c>
-      <c r="F153" s="27">
+      <c r="F153" s="26">
         <f t="shared" si="0"/>
         <v>455.96144000000004</v>
       </c>
-      <c r="G153" s="27">
+      <c r="G153" s="26">
         <f t="shared" si="1"/>
         <v>55112.83913749901</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="49"/>
-      <c r="B154" s="38">
+      <c r="A154" s="53"/>
+      <c r="B154" s="35">
         <v>40740</v>
       </c>
-      <c r="C154" s="62">
+      <c r="C154" s="39">
         <v>1016.927</v>
       </c>
-      <c r="D154" s="62">
+      <c r="D154" s="39">
         <v>53.045699999999997</v>
       </c>
-      <c r="E154" s="62">
+      <c r="E154" s="42">
         <v>-466.57429999999999</v>
       </c>
-      <c r="F154" s="27">
+      <c r="F154" s="26">
         <f t="shared" si="0"/>
         <v>1118.6197000000002</v>
       </c>
-      <c r="G154" s="27">
+      <c r="G154" s="26">
         <f t="shared" si="1"/>
         <v>242555.96607987801</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="49"/>
-      <c r="B155" s="38">
+      <c r="A155" s="53"/>
+      <c r="B155" s="35">
         <v>40750</v>
       </c>
-      <c r="C155" s="62">
+      <c r="C155" s="39">
         <v>640.90300000000002</v>
       </c>
-      <c r="D155" s="62">
+      <c r="D155" s="39">
         <v>-353.44619999999998</v>
       </c>
-      <c r="E155" s="62">
+      <c r="E155" s="42">
         <v>74.939840000000004</v>
       </c>
-      <c r="F155" s="27">
+      <c r="F155" s="26">
         <f t="shared" si="0"/>
         <v>704.99330000000009</v>
       </c>
-      <c r="G155" s="27">
+      <c r="G155" s="26">
         <f t="shared" si="1"/>
         <v>143594.21550503216</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="49"/>
-      <c r="B156" s="38">
+      <c r="A156" s="53"/>
+      <c r="B156" s="35">
         <v>40760</v>
       </c>
-      <c r="C156" s="62">
+      <c r="C156" s="39">
         <v>397.58100000000002</v>
       </c>
-      <c r="D156" s="62">
+      <c r="D156" s="39">
         <v>-251.0264</v>
       </c>
-      <c r="E156" s="62">
+      <c r="E156" s="42">
         <v>-57.33549</v>
       </c>
-      <c r="F156" s="27">
+      <c r="F156" s="26">
         <f t="shared" si="0"/>
         <v>437.33910000000003</v>
       </c>
-      <c r="G156" s="27">
+      <c r="G156" s="26">
         <f t="shared" si="1"/>
         <v>72931.773101550119</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="49"/>
-      <c r="B157" s="38">
+      <c r="A157" s="53"/>
+      <c r="B157" s="35">
         <v>40770</v>
       </c>
       <c r="C157" s="9"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="27">
+      <c r="E157" s="45"/>
+      <c r="F157" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G157" s="27">
-        <f t="shared" ref="G129:G190" si="2">(D157^2 + E157^2)*1.1</f>
+      <c r="G157" s="26">
+        <f t="shared" ref="G157:G190" si="2">(D157^2 + E157^2)*1.1</f>
         <v>0</v>
       </c>
     </row>
@@ -6338,174 +6616,228 @@
         <v>1</v>
       </c>
       <c r="C158" s="9"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="27">
+      <c r="E158" s="45"/>
+      <c r="F158" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G158" s="27">
+      <c r="G158" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="42" t="s">
+      <c r="A159" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="35">
         <v>40230</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="27">
+      <c r="C159" s="39">
+        <v>243.31200000000001</v>
+      </c>
+      <c r="D159" s="39">
+        <v>73.841480000000004</v>
+      </c>
+      <c r="E159" s="39">
+        <v>624.6105</v>
+      </c>
+      <c r="F159" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="27">
+        <v>267.64320000000004</v>
+      </c>
+      <c r="G159" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>435149.92496672447</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="42"/>
-      <c r="B160" s="38">
+      <c r="A160" s="46"/>
+      <c r="B160" s="35">
         <v>40240</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="27">
+      <c r="C160" s="39">
+        <v>65.396159999999995</v>
+      </c>
+      <c r="D160" s="39">
+        <v>38.271459999999998</v>
+      </c>
+      <c r="E160" s="39">
+        <v>699.00609999999995</v>
+      </c>
+      <c r="F160" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G160" s="27">
+        <v>71.935776000000004</v>
+      </c>
+      <c r="G160" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>539081.65573651565</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="42"/>
-      <c r="B161" s="38">
+      <c r="A161" s="46"/>
+      <c r="B161" s="35">
         <v>40250</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="27">
+      <c r="C161" s="39">
+        <v>104.7324</v>
+      </c>
+      <c r="D161" s="39">
+        <v>522.67309999999998</v>
+      </c>
+      <c r="E161" s="39">
+        <v>829.85799999999995</v>
+      </c>
+      <c r="F161" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="27">
+        <v>115.20564</v>
+      </c>
+      <c r="G161" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1058036.6165903711</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="42"/>
-      <c r="B162" s="38">
+      <c r="A162" s="46"/>
+      <c r="B162" s="35">
         <v>40360</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="27">
+      <c r="F162" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G162" s="27">
+      <c r="G162" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="42"/>
-      <c r="B163" s="38">
+      <c r="A163" s="46"/>
+      <c r="B163" s="35">
         <v>40390</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="27">
+      <c r="C163" s="39">
+        <v>111.1827</v>
+      </c>
+      <c r="D163" s="39">
+        <v>359.96510000000001</v>
+      </c>
+      <c r="E163" s="39">
+        <v>163.09819999999999</v>
+      </c>
+      <c r="F163" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G163" s="27">
+        <v>122.30097000000001</v>
+      </c>
+      <c r="G163" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>171793.48566737503</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="42"/>
-      <c r="B164" s="38">
+      <c r="A164" s="46"/>
+      <c r="B164" s="35">
         <v>40710</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="27">
+      <c r="C164" s="39">
+        <v>111.116</v>
+      </c>
+      <c r="D164" s="39">
+        <v>360.13130000000001</v>
+      </c>
+      <c r="E164" s="39">
+        <v>162.8475</v>
+      </c>
+      <c r="F164" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="27">
+        <v>122.22760000000001</v>
+      </c>
+      <c r="G164" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>171835.24764553402</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="42"/>
-      <c r="B165" s="38">
+      <c r="A165" s="46"/>
+      <c r="B165" s="35">
         <v>40740</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="27">
+      <c r="C165" s="39">
+        <v>251.19909999999999</v>
+      </c>
+      <c r="D165" s="39">
+        <v>933.57539999999995</v>
+      </c>
+      <c r="E165" s="39">
+        <v>135.39519999999999</v>
+      </c>
+      <c r="F165" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="27">
+        <v>276.31900999999999</v>
+      </c>
+      <c r="G165" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>978884.37643502001</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="42"/>
-      <c r="B166" s="38">
+      <c r="A166" s="46"/>
+      <c r="B166" s="35">
         <v>40750</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="27">
+      <c r="C166" s="39">
+        <v>104.6776</v>
+      </c>
+      <c r="D166" s="39">
+        <v>523.07399999999996</v>
+      </c>
+      <c r="E166" s="39">
+        <v>830.06010000000003</v>
+      </c>
+      <c r="F166" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G166" s="27">
+        <v>115.14536000000001</v>
+      </c>
+      <c r="G166" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1058866.7969968112</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="42"/>
-      <c r="B167" s="38">
+      <c r="A167" s="46"/>
+      <c r="B167" s="35">
         <v>40760</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="27">
+      <c r="C167" s="39">
+        <v>65.260750000000002</v>
+      </c>
+      <c r="D167" s="39">
+        <v>38.357140000000001</v>
+      </c>
+      <c r="E167" s="39">
+        <v>699.17250000000001</v>
+      </c>
+      <c r="F167" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G167" s="27">
+        <v>71.786825000000007</v>
+      </c>
+      <c r="G167" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>539344.80043975252</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="42"/>
-      <c r="B168" s="38">
+      <c r="A168" s="46"/>
+      <c r="B168" s="35">
         <v>40770</v>
       </c>
       <c r="C168" s="9"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="27">
+      <c r="E168" s="45"/>
+      <c r="F168" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G168" s="27">
+      <c r="G168" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6515,174 +6847,231 @@
         <v>1</v>
       </c>
       <c r="C169" s="9"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="27">
+      <c r="E169" s="45"/>
+      <c r="F169" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G169" s="27">
+      <c r="G169" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B170" s="38">
+      <c r="B170" s="35">
         <v>40230</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="27">
+      <c r="C170" s="39">
+        <v>284.74040000000002</v>
+      </c>
+      <c r="D170" s="39">
+        <v>68.377350000000007</v>
+      </c>
+      <c r="E170" s="39">
+        <v>470.7543</v>
+      </c>
+      <c r="F170" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G170" s="27">
+        <v>313.21444000000002</v>
+      </c>
+      <c r="G170" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>248913.58025766379</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="42"/>
-      <c r="B171" s="38">
+      <c r="A171" s="46"/>
+      <c r="B171" s="35">
         <v>40240</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="27">
+      <c r="C171" s="39">
+        <v>110.8985</v>
+      </c>
+      <c r="D171" s="39">
+        <v>67.606210000000004</v>
+      </c>
+      <c r="E171" s="39">
+        <v>525.52009999999996</v>
+      </c>
+      <c r="F171" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G171" s="27">
+        <v>121.98835000000001</v>
+      </c>
+      <c r="G171" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>308816.1726480315</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="42"/>
-      <c r="B172" s="38">
+      <c r="A172" s="46"/>
+      <c r="B172" s="35">
         <v>40250</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="27">
+      <c r="C172" s="39">
+        <v>208.62350000000001</v>
+      </c>
+      <c r="D172" s="39">
+        <v>436.50650000000002</v>
+      </c>
+      <c r="E172" s="39">
+        <v>645.93619999999999</v>
+      </c>
+      <c r="F172" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G172" s="27">
+        <v>229.48585000000003</v>
+      </c>
+      <c r="G172" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>668548.64891395904</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="42"/>
-      <c r="B173" s="38">
+      <c r="A173" s="46"/>
+      <c r="B173" s="35">
         <v>40360</v>
       </c>
-      <c r="C173" s="9"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="27">
+      <c r="C173" s="39"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G173" s="27">
+      <c r="G173" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="42"/>
-      <c r="B174" s="38">
+      <c r="A174" s="46"/>
+      <c r="B174" s="35">
         <v>40390</v>
       </c>
-      <c r="C174" s="9"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="27">
+      <c r="C174" s="39">
+        <v>97.599289999999996</v>
+      </c>
+      <c r="D174" s="39">
+        <v>399.82209999999998</v>
+      </c>
+      <c r="E174" s="39">
+        <v>115.681</v>
+      </c>
+      <c r="F174" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G174" s="27">
+        <v>107.35921900000001</v>
+      </c>
+      <c r="G174" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>190563.78595035098</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="42"/>
-      <c r="B175" s="38">
+      <c r="A175" s="46"/>
+      <c r="B175" s="35">
         <v>40710</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="27">
+      <c r="C175" s="39">
+        <v>97.486090000000004</v>
+      </c>
+      <c r="D175" s="39">
+        <v>399.96420000000001</v>
+      </c>
+      <c r="E175" s="39">
+        <v>115.5157</v>
+      </c>
+      <c r="F175" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G175" s="27">
+        <v>107.23469900000002</v>
+      </c>
+      <c r="G175" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>190646.76205094301</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="42"/>
-      <c r="B176" s="38">
+      <c r="A176" s="46"/>
+      <c r="B176" s="35">
         <v>40740</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="27">
+      <c r="C176" s="39">
+        <v>126.5316</v>
+      </c>
+      <c r="D176" s="39">
+        <v>853.15239999999994</v>
+      </c>
+      <c r="E176" s="39">
+        <v>110.0558</v>
+      </c>
+      <c r="F176" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G176" s="27">
+        <v>139.18476000000001</v>
+      </c>
+      <c r="G176" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>813979.42641333991</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="42"/>
-      <c r="B177" s="38">
+      <c r="A177" s="46"/>
+      <c r="B177" s="35">
         <v>40750</v>
       </c>
-      <c r="C177" s="9"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="27">
+      <c r="C177" s="39">
+        <v>208.6199</v>
+      </c>
+      <c r="D177" s="39">
+        <v>436.74799999999999</v>
+      </c>
+      <c r="E177" s="39">
+        <v>646.12379999999996</v>
+      </c>
+      <c r="F177" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G177" s="27">
+        <v>229.48189000000002</v>
+      </c>
+      <c r="G177" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>669047.25847348385</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="42"/>
-      <c r="B178" s="38">
+      <c r="A178" s="46"/>
+      <c r="B178" s="35">
         <v>40760</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="27">
+      <c r="C178" s="39">
+        <v>110.6888</v>
+      </c>
+      <c r="D178" s="39">
+        <v>67.478269999999995</v>
+      </c>
+      <c r="E178" s="39">
+        <v>525.65589999999997</v>
+      </c>
+      <c r="F178" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G178" s="27">
+        <v>121.75768000000001</v>
+      </c>
+      <c r="G178" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>308954.18633970327</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="42"/>
-      <c r="B179" s="38">
+      <c r="A179" s="46"/>
+      <c r="B179" s="35">
         <v>40770</v>
       </c>
       <c r="C179" s="9"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="27">
+      <c r="E179" s="45"/>
+      <c r="F179" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G179" s="27">
+      <c r="G179" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6692,174 +7081,230 @@
         <v>1</v>
       </c>
       <c r="C180" s="9"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="27">
+      <c r="E180" s="45"/>
+      <c r="F180" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G180" s="27">
+      <c r="G180" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B181" s="38">
+      <c r="B181" s="35">
         <v>40230</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="27">
+      <c r="C181" s="39">
+        <v>142.01609999999999</v>
+      </c>
+      <c r="D181" s="39">
+        <v>91.314940000000007</v>
+      </c>
+      <c r="E181" s="39">
+        <v>29.886759999999999</v>
+      </c>
+      <c r="F181" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G181" s="27">
+        <v>156.21771000000001</v>
+      </c>
+      <c r="G181" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10154.80035955132</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="42"/>
-      <c r="B182" s="38">
+      <c r="A182" s="46"/>
+      <c r="B182" s="35">
         <v>40240</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="27">
+      <c r="C182" s="39">
+        <v>90.925359999999998</v>
+      </c>
+      <c r="D182" s="39">
+        <v>75.170410000000004</v>
+      </c>
+      <c r="E182" s="39">
+        <v>15.023759999999999</v>
+      </c>
+      <c r="F182" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G182" s="27">
+        <v>100.01789600000001</v>
+      </c>
+      <c r="G182" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6463.9342945162707</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="42"/>
-      <c r="B183" s="38">
+      <c r="A183" s="46"/>
+      <c r="B183" s="35">
         <v>40250</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="27">
+      <c r="C183" s="39">
+        <v>167.8552</v>
+      </c>
+      <c r="D183" s="39">
+        <v>102.0668</v>
+      </c>
+      <c r="E183" s="39">
+        <v>23.602080000000001</v>
+      </c>
+      <c r="F183" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G183" s="27">
+        <v>184.64072000000002</v>
+      </c>
+      <c r="G183" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12072.158826823041</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="42"/>
-      <c r="B184" s="38">
+      <c r="A184" s="46"/>
+      <c r="B184" s="35">
         <v>40360</v>
       </c>
       <c r="C184" s="9"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="27">
+      <c r="E184" s="45"/>
+      <c r="F184" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G184" s="27">
+      <c r="G184" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="42"/>
-      <c r="B185" s="38">
+      <c r="A185" s="46"/>
+      <c r="B185" s="35">
         <v>40390</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="27">
+      <c r="C185" s="39">
+        <v>96.657169999999994</v>
+      </c>
+      <c r="D185" s="39">
+        <v>37.90099</v>
+      </c>
+      <c r="E185" s="39">
+        <v>56.105919999999998</v>
+      </c>
+      <c r="F185" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G185" s="27">
+        <v>106.32288700000001</v>
+      </c>
+      <c r="G185" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5042.7952322291503</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="42"/>
-      <c r="B186" s="38">
+      <c r="A186" s="46"/>
+      <c r="B186" s="35">
         <v>40710</v>
       </c>
-      <c r="C186" s="9"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="27">
+      <c r="C186" s="39">
+        <v>96.531980000000004</v>
+      </c>
+      <c r="D186" s="39">
+        <v>38.113190000000003</v>
+      </c>
+      <c r="E186" s="39">
+        <v>56.027549999999998</v>
+      </c>
+      <c r="F186" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G186" s="27">
+        <v>106.18517800000001</v>
+      </c>
+      <c r="G186" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5050.8717720764607</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="42"/>
-      <c r="B187" s="38">
+      <c r="A187" s="46"/>
+      <c r="B187" s="35">
         <v>40740</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="27">
+      <c r="C187" s="39">
+        <v>273.23020000000002</v>
+      </c>
+      <c r="D187" s="39">
+        <v>14.6538</v>
+      </c>
+      <c r="E187" s="39">
+        <v>133.23259999999999</v>
+      </c>
+      <c r="F187" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G187" s="27">
+        <v>300.55322000000007</v>
+      </c>
+      <c r="G187" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19762.225512919998</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="42"/>
-      <c r="B188" s="38">
+      <c r="A188" s="46"/>
+      <c r="B188" s="35">
         <v>40750</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="27">
+      <c r="C188" s="39">
+        <v>168.17160000000001</v>
+      </c>
+      <c r="D188" s="39">
+        <v>102.04859999999999</v>
+      </c>
+      <c r="E188" s="39">
+        <v>23.643270000000001</v>
+      </c>
+      <c r="F188" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G188" s="27">
+        <v>184.98876000000004</v>
+      </c>
+      <c r="G188" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12070.213076078191</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="42"/>
-      <c r="B189" s="38">
+      <c r="A189" s="46"/>
+      <c r="B189" s="35">
         <v>40760</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="27">
+      <c r="C189" s="39">
+        <v>91.103939999999994</v>
+      </c>
+      <c r="D189" s="39">
+        <v>75.116060000000004</v>
+      </c>
+      <c r="E189" s="39">
+        <v>15.092040000000001</v>
+      </c>
+      <c r="F189" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G189" s="27">
+        <v>100.21433400000001</v>
+      </c>
+      <c r="G189" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6457.2113554137213</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="42"/>
-      <c r="B190" s="38">
+      <c r="A190" s="46"/>
+      <c r="B190" s="35">
         <v>40770</v>
       </c>
       <c r="C190" s="9"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="27">
+      <c r="E190" s="45"/>
+      <c r="F190" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G190" s="27">
+      <c r="G190" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6869,174 +7314,174 @@
         <v>1</v>
       </c>
       <c r="C191" s="9"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="27">
+      <c r="E191" s="45"/>
+      <c r="F191" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G191" s="27">
+      <c r="G191" s="26">
         <f t="shared" ref="G191:G223" si="3">(D191^2 + E191^2)*1.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B192" s="38">
+      <c r="B192" s="35">
         <v>40230</v>
       </c>
       <c r="C192" s="9"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="27">
+      <c r="E192" s="45"/>
+      <c r="F192" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G192" s="27">
+      <c r="G192" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="44"/>
-      <c r="B193" s="38">
+      <c r="A193" s="48"/>
+      <c r="B193" s="35">
         <v>40240</v>
       </c>
       <c r="C193" s="9"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="27">
+      <c r="E193" s="45"/>
+      <c r="F193" s="26">
         <f t="shared" ref="F193:F223" si="4">C193*1.1*1</f>
         <v>0</v>
       </c>
-      <c r="G193" s="27">
+      <c r="G193" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="44"/>
-      <c r="B194" s="38">
+      <c r="A194" s="48"/>
+      <c r="B194" s="35">
         <v>40250</v>
       </c>
       <c r="C194" s="9"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="27">
+      <c r="E194" s="45"/>
+      <c r="F194" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G194" s="27">
+      <c r="G194" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="44"/>
-      <c r="B195" s="38">
+      <c r="A195" s="48"/>
+      <c r="B195" s="35">
         <v>40360</v>
       </c>
       <c r="C195" s="9"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="27">
+      <c r="E195" s="45"/>
+      <c r="F195" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G195" s="27">
+      <c r="G195" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="44"/>
-      <c r="B196" s="38">
+      <c r="A196" s="48"/>
+      <c r="B196" s="35">
         <v>40390</v>
       </c>
       <c r="C196" s="9"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="27">
+      <c r="E196" s="45"/>
+      <c r="F196" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G196" s="27">
+      <c r="G196" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="44"/>
-      <c r="B197" s="38">
+      <c r="A197" s="48"/>
+      <c r="B197" s="35">
         <v>40710</v>
       </c>
       <c r="C197" s="9"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="27">
+      <c r="E197" s="45"/>
+      <c r="F197" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G197" s="27">
+      <c r="G197" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="44"/>
-      <c r="B198" s="38">
+      <c r="A198" s="48"/>
+      <c r="B198" s="35">
         <v>40740</v>
       </c>
       <c r="C198" s="9"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="27">
+      <c r="E198" s="45"/>
+      <c r="F198" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G198" s="27">
+      <c r="G198" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="44"/>
-      <c r="B199" s="38">
+      <c r="A199" s="48"/>
+      <c r="B199" s="35">
         <v>40750</v>
       </c>
       <c r="C199" s="9"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="27">
+      <c r="E199" s="45"/>
+      <c r="F199" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G199" s="27">
+      <c r="G199" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="44"/>
-      <c r="B200" s="38">
+      <c r="A200" s="48"/>
+      <c r="B200" s="35">
         <v>40760</v>
       </c>
       <c r="C200" s="9"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="27">
+      <c r="E200" s="45"/>
+      <c r="F200" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G200" s="27">
+      <c r="G200" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="45"/>
-      <c r="B201" s="38">
+      <c r="A201" s="49"/>
+      <c r="B201" s="35">
         <v>40770</v>
       </c>
       <c r="C201" s="9"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="27">
+      <c r="E201" s="45"/>
+      <c r="F201" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G201" s="27">
+      <c r="G201" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7046,174 +7491,174 @@
         <v>1</v>
       </c>
       <c r="C202" s="9"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="27">
+      <c r="E202" s="45"/>
+      <c r="F202" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G202" s="27">
+      <c r="G202" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="46" t="s">
+      <c r="A203" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B203" s="38">
+      <c r="B203" s="35">
         <v>40230</v>
       </c>
       <c r="C203" s="9"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="27">
+      <c r="E203" s="45"/>
+      <c r="F203" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G203" s="27">
+      <c r="G203" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="46"/>
-      <c r="B204" s="38">
+      <c r="A204" s="50"/>
+      <c r="B204" s="35">
         <v>40240</v>
       </c>
       <c r="C204" s="9"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="27">
+      <c r="E204" s="45"/>
+      <c r="F204" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G204" s="27">
+      <c r="G204" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="46"/>
-      <c r="B205" s="38">
+      <c r="A205" s="50"/>
+      <c r="B205" s="35">
         <v>40250</v>
       </c>
       <c r="C205" s="9"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="27">
+      <c r="E205" s="45"/>
+      <c r="F205" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G205" s="27">
+      <c r="G205" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="46"/>
-      <c r="B206" s="38">
+      <c r="A206" s="50"/>
+      <c r="B206" s="35">
         <v>40360</v>
       </c>
       <c r="C206" s="9"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="27">
+      <c r="E206" s="45"/>
+      <c r="F206" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G206" s="27">
+      <c r="G206" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="46"/>
-      <c r="B207" s="38">
+      <c r="A207" s="50"/>
+      <c r="B207" s="35">
         <v>40390</v>
       </c>
       <c r="C207" s="9"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="27">
+      <c r="E207" s="45"/>
+      <c r="F207" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G207" s="27">
+      <c r="G207" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="46"/>
-      <c r="B208" s="38">
+      <c r="A208" s="50"/>
+      <c r="B208" s="35">
         <v>40710</v>
       </c>
       <c r="C208" s="9"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="27">
+      <c r="E208" s="45"/>
+      <c r="F208" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G208" s="27">
+      <c r="G208" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="46"/>
-      <c r="B209" s="38">
+      <c r="A209" s="50"/>
+      <c r="B209" s="35">
         <v>40740</v>
       </c>
       <c r="C209" s="9"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="27">
+      <c r="E209" s="45"/>
+      <c r="F209" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G209" s="27">
+      <c r="G209" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="46"/>
-      <c r="B210" s="38">
+      <c r="A210" s="50"/>
+      <c r="B210" s="35">
         <v>40750</v>
       </c>
       <c r="C210" s="9"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="27">
+      <c r="E210" s="45"/>
+      <c r="F210" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G210" s="27">
+      <c r="G210" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="46"/>
-      <c r="B211" s="38">
+      <c r="A211" s="50"/>
+      <c r="B211" s="35">
         <v>40760</v>
       </c>
       <c r="C211" s="9"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="27">
+      <c r="E211" s="45"/>
+      <c r="F211" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G211" s="27">
+      <c r="G211" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="46"/>
-      <c r="B212" s="38">
+      <c r="A212" s="50"/>
+      <c r="B212" s="35">
         <v>40770</v>
       </c>
       <c r="C212" s="9"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="27">
+      <c r="E212" s="45"/>
+      <c r="F212" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G212" s="27">
+      <c r="G212" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7223,174 +7668,174 @@
         <v>1</v>
       </c>
       <c r="C213" s="9"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="27">
+      <c r="E213" s="45"/>
+      <c r="F213" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G213" s="27">
+      <c r="G213" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="46" t="s">
+      <c r="A214" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B214" s="38">
+      <c r="B214" s="35">
         <v>40230</v>
       </c>
       <c r="C214" s="9"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="27">
+      <c r="E214" s="45"/>
+      <c r="F214" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G214" s="27">
+      <c r="G214" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="46"/>
-      <c r="B215" s="38">
+      <c r="A215" s="50"/>
+      <c r="B215" s="35">
         <v>40240</v>
       </c>
       <c r="C215" s="9"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="27">
+      <c r="E215" s="45"/>
+      <c r="F215" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G215" s="27">
+      <c r="G215" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="46"/>
-      <c r="B216" s="38">
+      <c r="A216" s="50"/>
+      <c r="B216" s="35">
         <v>40250</v>
       </c>
       <c r="C216" s="9"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="27">
+      <c r="E216" s="45"/>
+      <c r="F216" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G216" s="27">
+      <c r="G216" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="46"/>
-      <c r="B217" s="38">
+      <c r="A217" s="50"/>
+      <c r="B217" s="35">
         <v>40360</v>
       </c>
       <c r="C217" s="9"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="27">
+      <c r="E217" s="45"/>
+      <c r="F217" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G217" s="27">
+      <c r="G217" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="46"/>
-      <c r="B218" s="38">
+      <c r="A218" s="50"/>
+      <c r="B218" s="35">
         <v>40390</v>
       </c>
       <c r="C218" s="9"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="27">
+      <c r="E218" s="45"/>
+      <c r="F218" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G218" s="27">
+      <c r="G218" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="46"/>
-      <c r="B219" s="38">
+      <c r="A219" s="50"/>
+      <c r="B219" s="35">
         <v>40710</v>
       </c>
       <c r="C219" s="9"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="27">
+      <c r="E219" s="45"/>
+      <c r="F219" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G219" s="27">
+      <c r="G219" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="46"/>
-      <c r="B220" s="38">
+      <c r="A220" s="50"/>
+      <c r="B220" s="35">
         <v>40740</v>
       </c>
       <c r="C220" s="9"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="27">
+      <c r="E220" s="45"/>
+      <c r="F220" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G220" s="27">
+      <c r="G220" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="46"/>
-      <c r="B221" s="38">
+      <c r="A221" s="50"/>
+      <c r="B221" s="35">
         <v>40750</v>
       </c>
       <c r="C221" s="9"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="27">
+      <c r="E221" s="45"/>
+      <c r="F221" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G221" s="27">
+      <c r="G221" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="46"/>
-      <c r="B222" s="38">
+      <c r="A222" s="50"/>
+      <c r="B222" s="35">
         <v>40760</v>
       </c>
       <c r="C222" s="9"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="27">
+      <c r="E222" s="45"/>
+      <c r="F222" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G222" s="27">
+      <c r="G222" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="46"/>
-      <c r="B223" s="38">
+      <c r="A223" s="50"/>
+      <c r="B223" s="35">
         <v>40770</v>
       </c>
       <c r="C223" s="9"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="27">
+      <c r="E223" s="45"/>
+      <c r="F223" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G223" s="27">
+      <c r="G223" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7402,23 +7847,23 @@
     <mergeCell ref="A106:A115"/>
     <mergeCell ref="A67:A76"/>
     <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A15:A24"/>
     <mergeCell ref="A28:A37"/>
     <mergeCell ref="A41:A50"/>
     <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A93:A102"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L10"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="L41:L43"/>
     <mergeCell ref="L44:L49"/>
     <mergeCell ref="M44:M46"/>
     <mergeCell ref="M47:M49"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L10"/>
     <mergeCell ref="M80:M82"/>
     <mergeCell ref="M83:M85"/>
     <mergeCell ref="M86:M88"/>
@@ -7434,6 +7879,16 @@
     <mergeCell ref="A159:A168"/>
     <mergeCell ref="A170:A179"/>
   </mergeCells>
+  <conditionalFormatting sqref="E1:J158 E163:E168 E159:E161 F159:J168 E169:J1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F70B8A-5CD3-420B-95C9-3E266E6E666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A64A8E-C01A-419C-B8E6-5F7D4CB3E1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="61">
   <si>
     <t>Elemento</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>Tensor de tensiones</t>
+  </si>
+  <si>
+    <t>Random Z 1.251885E+02</t>
+  </si>
+  <si>
+    <t>Random Y 7.093872E+01</t>
+  </si>
+  <si>
+    <t>Random X 7.093872E+01</t>
   </si>
 </sst>
 </file>
@@ -524,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,18 +555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,11 +581,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -696,7 +726,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8C8C8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -953,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1050,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="59"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1104,7 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.89542760593648674</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="59" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="51" t="s">
@@ -1191,7 +1221,7 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.90275098885523397</v>
       </c>
-      <c r="L3" s="64"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="51"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
@@ -1286,7 +1316,7 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.88788997095129907</v>
       </c>
-      <c r="L4" s="65"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="51"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
@@ -1381,10 +1411,10 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="59" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1498,8 +1528,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.59045912696254055</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1557,8 +1587,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.58974855289360728</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1646,8 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52307734265045136</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="63" t="s">
+      <c r="L8" s="60"/>
+      <c r="M8" s="59" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1677,8 +1707,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.88791678786750927</v>
       </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1736,8 +1766,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.90276591520375382</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -2837,10 +2867,10 @@
       <c r="M40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="54" t="s">
+      <c r="N40" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="55"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2855,7 +2885,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -2891,10 +2921,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.96064736465470835</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="46" t="s">
+      <c r="M41" s="50" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="19" t="s">
@@ -2920,7 +2950,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -2954,8 +2984,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.96823175895535873</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="46"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="50"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +3005,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3009,8 +3039,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.98381191987101102</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="46"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3030,7 +3060,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3064,10 +3094,10 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="60" t="s">
+      <c r="L44" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="60" t="s">
+      <c r="M44" s="56" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="36" t="s">
@@ -3093,7 +3123,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3127,8 +3157,8 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.90044472096336314</v>
       </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
@@ -3148,7 +3178,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3182,8 +3212,8 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.90046884492425372</v>
       </c>
-      <c r="L46" s="61"/>
-      <c r="M46" s="62"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
@@ -3203,7 +3233,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3237,8 +3267,8 @@
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.98250307302451168</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="60" t="s">
+      <c r="L47" s="57"/>
+      <c r="M47" s="56" t="s">
         <v>40</v>
       </c>
       <c r="N47" s="36" t="s">
@@ -3260,7 +3290,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3294,8 +3324,8 @@
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.98382461077704109</v>
       </c>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
       <c r="N48" s="36" t="s">
         <v>23</v>
       </c>
@@ -3315,7 +3345,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3349,8 +3379,8 @@
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>-0.96824725392623501</v>
       </c>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
       <c r="N49" s="36" t="s">
         <v>24</v>
       </c>
@@ -3370,7 +3400,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3446,7 +3476,7 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3492,7 +3522,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3536,7 +3566,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3580,7 +3610,7 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3624,7 +3654,7 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3668,7 +3698,7 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3712,7 +3742,7 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3756,7 +3786,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3800,7 +3830,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
+      <c r="A62" s="50"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -3844,7 +3874,7 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -3948,7 +3978,7 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -3990,7 +4020,7 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
+      <c r="A68" s="50"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4030,7 +4060,7 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4070,7 +4100,7 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="50"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4110,7 +4140,7 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4150,7 +4180,7 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4190,7 +4220,7 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4230,7 +4260,7 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4270,7 +4300,7 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4310,7 +4340,7 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4406,10 +4436,10 @@
       <c r="M79" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="56" t="s">
+      <c r="N79" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="57"/>
+      <c r="O79" s="65"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4424,42 +4454,46 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
         <v>40230</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="23">
+        <v>757.39114000000006</v>
+      </c>
+      <c r="D80" s="23">
+        <v>3676.1329074071541</v>
+      </c>
       <c r="E80" s="44" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58082306867924505</v>
       </c>
       <c r="F80" s="44" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G80" s="44" t="e" cm="1">
+        <v>0.82946940926799151</v>
+      </c>
+      <c r="G80" s="44" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="44" t="e" cm="1">
+        <v>11.981072542978692</v>
+      </c>
+      <c r="H80" s="44" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C80)*INDIRECT(ADDRESS(5,38))/(D80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.5137440799694859</v>
       </c>
       <c r="I80" s="44" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.51840503368384461</v>
       </c>
       <c r="J80" s="44" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L80" s="47" t="s">
+        <v>0.70290257973980275</v>
+      </c>
+      <c r="L80" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="50" t="s">
+      <c r="M80" s="49" t="s">
         <v>57</v>
       </c>
       <c r="N80" s="23" t="s">
@@ -4481,38 +4515,42 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
+      <c r="C81" s="23">
+        <v>54.757109000000007</v>
+      </c>
+      <c r="D81" s="23">
+        <v>35561238.825024046</v>
+      </c>
       <c r="E81" s="44" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58274387399495531</v>
       </c>
       <c r="F81" s="44" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G81" s="44" t="e" cm="1">
+        <v>0.83258138944874971</v>
+      </c>
+      <c r="G81" s="44" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="44" t="e" cm="1">
+        <v>178.55201637378866</v>
+      </c>
+      <c r="H81" s="44" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C81)*INDIRECT(ADDRESS(5,38))/(D81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99994701806116948</v>
       </c>
       <c r="I81" s="44" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.9994358385875074</v>
       </c>
       <c r="J81" s="44" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L81" s="48"/>
-      <c r="M81" s="50"/>
+        <v>-0.99951834497406922</v>
+      </c>
+      <c r="L81" s="47"/>
+      <c r="M81" s="49"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4532,38 +4570,42 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="C82" s="23">
+        <v>140.27937000000003</v>
+      </c>
+      <c r="D82" s="23">
+        <v>81743956.96048671</v>
+      </c>
       <c r="E82" s="44" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58250983054338001</v>
       </c>
       <c r="F82" s="44" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G82" s="44" t="e" cm="1">
+        <v>0.83220204386943908</v>
+      </c>
+      <c r="G82" s="44" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H82" s="44" t="e" cm="1">
+        <v>69.086922487243356</v>
+      </c>
+      <c r="H82" s="44" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C82)*INDIRECT(ADDRESS(5,38))/(D82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99997709494074394</v>
       </c>
       <c r="I82" s="44" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99975457170774806</v>
       </c>
       <c r="J82" s="44" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
+        <v>-0.99979046463463628</v>
+      </c>
+      <c r="L82" s="48"/>
+      <c r="M82" s="49"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4583,12 +4625,16 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="C83" s="23">
+        <v>0</v>
+      </c>
+      <c r="D83" s="23">
+        <v>0</v>
+      </c>
       <c r="E83" s="44" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -4613,10 +4659,10 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="47" t="s">
+      <c r="L83" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="47" t="s">
+      <c r="M83" s="46" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="35" t="s">
@@ -4638,38 +4684,42 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="48"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="C84" s="23">
+        <v>158.00565000000003</v>
+      </c>
+      <c r="D84" s="23">
+        <v>2593641.473362511</v>
+      </c>
       <c r="E84" s="44" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58246132879549384</v>
       </c>
       <c r="F84" s="44" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G84" s="44" t="e" cm="1">
+        <v>0.83212343620068219</v>
+      </c>
+      <c r="G84" s="44" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H84" s="44" t="e" cm="1">
+        <v>61.224036493311033</v>
+      </c>
+      <c r="H84" s="44" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C84)*INDIRECT(ADDRESS(5,38))/(D84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99927903910394866</v>
       </c>
       <c r="I84" s="44" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99226491381549253</v>
       </c>
       <c r="J84" s="44" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
+        <v>-0.99339610393086397</v>
+      </c>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
@@ -4689,38 +4739,42 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="C85" s="23">
+        <v>157.80270000000002</v>
+      </c>
+      <c r="D85" s="23">
+        <v>2597627.4440807798</v>
+      </c>
       <c r="E85" s="44" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58246188408016142</v>
       </c>
       <c r="F85" s="44" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G85" s="44" t="e" cm="1">
+        <v>0.83212433614978365</v>
+      </c>
+      <c r="G85" s="44" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" s="44" t="e" cm="1">
+        <v>61.304062805955361</v>
+      </c>
+      <c r="H85" s="44" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C85)*INDIRECT(ADDRESS(5,38))/(D85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99928013465669951</v>
       </c>
       <c r="I85" s="44" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99227678275843045</v>
       </c>
       <c r="J85" s="44" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L85" s="48"/>
-      <c r="M85" s="49"/>
+        <v>-0.99340623725275223</v>
+      </c>
+      <c r="L85" s="47"/>
+      <c r="M85" s="48"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
@@ -4740,38 +4794,42 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="23">
+        <v>807.62264000000005</v>
+      </c>
+      <c r="D86" s="23">
+        <v>113127625.20374614</v>
+      </c>
       <c r="E86" s="44" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58068592832669852</v>
       </c>
       <c r="F86" s="44" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G86" s="44" t="e" cm="1">
+        <v>0.8292473377051075</v>
+      </c>
+      <c r="G86" s="44" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H86" s="44" t="e" cm="1">
+        <v>11.173692074493271</v>
+      </c>
+      <c r="H86" s="44" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C86)*INDIRECT(ADDRESS(5,38))/(D86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99998425991757045</v>
       </c>
       <c r="I86" s="44" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99982265799500691</v>
       </c>
       <c r="J86" s="44" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L86" s="48"/>
-      <c r="M86" s="47" t="s">
+        <v>-0.99984859356933831</v>
+      </c>
+      <c r="L86" s="47"/>
+      <c r="M86" s="46" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="35" t="s">
@@ -4793,38 +4851,42 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
+      <c r="C87" s="23">
+        <v>140.12273000000002</v>
+      </c>
+      <c r="D87" s="23">
+        <v>81846254.329409897</v>
+      </c>
       <c r="E87" s="44" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58251025914705212</v>
       </c>
       <c r="F87" s="44" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G87" s="44" t="e" cm="1">
+        <v>0.83220273852382776</v>
+      </c>
+      <c r="G87" s="44" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H87" s="44" t="e" cm="1">
+        <v>69.16527105737471</v>
+      </c>
+      <c r="H87" s="44" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C87)*INDIRECT(ADDRESS(5,38))/(D87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99997712330612853</v>
       </c>
       <c r="I87" s="44" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99975487846177313</v>
       </c>
       <c r="J87" s="44" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
+        <v>-0.999790726527089</v>
+      </c>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
       <c r="N87" s="35" t="s">
         <v>23</v>
       </c>
@@ -4844,38 +4906,42 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="48"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
+      <c r="C88" s="23">
+        <v>54.532445000000003</v>
+      </c>
+      <c r="D88" s="23">
+        <v>35594548.06547533</v>
+      </c>
       <c r="E88" s="44" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.5827444889101161</v>
       </c>
       <c r="F88" s="44" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G88" s="44" t="e" cm="1">
+        <v>0.83258238618323666</v>
+      </c>
+      <c r="G88" s="44" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" s="44" t="e" cm="1">
+        <v>179.29173883088009</v>
+      </c>
+      <c r="H88" s="44" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C88)*INDIRECT(ADDRESS(5,38))/(D88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99994706677404777</v>
       </c>
       <c r="I88" s="44" cm="1">
         <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99943636652750889</v>
       </c>
       <c r="J88" s="44" cm="1">
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
+        <v>-0.99951879570494895</v>
+      </c>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
       <c r="N88" s="35" t="s">
         <v>24</v>
       </c>
@@ -4895,12 +4961,16 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="49"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
+      <c r="C89" s="23">
+        <v>0</v>
+      </c>
+      <c r="D89" s="23">
+        <v>0</v>
+      </c>
       <c r="E89" s="44" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -4967,37 +5037,41 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
         <v>40230</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
+      <c r="C93" s="23">
+        <v>1037.3479600000001</v>
+      </c>
+      <c r="D93" s="23">
+        <v>7287005.205844745</v>
+      </c>
       <c r="E93" s="44" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58005904310685996</v>
       </c>
       <c r="F93" s="44" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G93" s="44" t="e" cm="1">
+        <v>0.82823241744885623</v>
+      </c>
+      <c r="G93" s="44" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H93" s="44" t="e" cm="1">
+        <v>8.4777738144386312</v>
+      </c>
+      <c r="H93" s="44" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C93)*INDIRECT(ADDRESS(5,38))/(D93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.9997599744649821</v>
       </c>
       <c r="I93" s="44" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99724684572361033</v>
       </c>
       <c r="J93" s="44" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99764948214528015</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5009,35 +5083,39 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="23">
+        <v>156.80258000000001</v>
+      </c>
+      <c r="D94" s="23">
+        <v>11354125.97145948</v>
+      </c>
       <c r="E94" s="44" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58246462048054126</v>
       </c>
       <c r="F94" s="44" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G94" s="44" t="e" cm="1">
+        <v>0.83212877103382366</v>
+      </c>
+      <c r="G94" s="44" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H94" s="44" t="e" cm="1">
+        <v>61.701451288297243</v>
+      </c>
+      <c r="H94" s="44" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C94)*INDIRECT(ADDRESS(5,38))/(D94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99983529516745162</v>
       </c>
       <c r="I94" s="44" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99823304166750026</v>
       </c>
       <c r="J94" s="44" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99849145198521749</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5049,35 +5127,39 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
+      <c r="C95" s="23">
+        <v>557.23129000000006</v>
+      </c>
+      <c r="D95" s="23">
+        <v>31369173.5474656</v>
+      </c>
       <c r="E95" s="44" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58136977478967555</v>
       </c>
       <c r="F95" s="44" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G95" s="44" t="e" cm="1">
+        <v>0.83035484415602356</v>
+      </c>
+      <c r="G95" s="44" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H95" s="44" t="e" cm="1">
+        <v>16.643929025861652</v>
+      </c>
+      <c r="H95" s="44" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C95)*INDIRECT(ADDRESS(5,38))/(D95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99994213908541318</v>
       </c>
       <c r="I95" s="44" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99936044606566032</v>
       </c>
       <c r="J95" s="44" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99945397830733584</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -5089,12 +5171,16 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="50"/>
+      <c r="A96" s="49"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
+      <c r="C96" s="23">
+        <v>0</v>
+      </c>
+      <c r="D96" s="23">
+        <v>0</v>
+      </c>
       <c r="E96" s="44" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -5129,35 +5215,39 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
+      <c r="C97" s="23">
+        <v>121.82885000000002</v>
+      </c>
+      <c r="D97" s="23">
+        <v>3863404.40287086</v>
+      </c>
       <c r="E97" s="44" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58256031707791078</v>
       </c>
       <c r="F97" s="44" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G97" s="44" t="e" cm="1">
+        <v>0.83228387036479146</v>
+      </c>
+      <c r="G97" s="44" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H97" s="44" t="e" cm="1">
+        <v>79.701322648529725</v>
+      </c>
+      <c r="H97" s="44" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C97)*INDIRECT(ADDRESS(5,38))/(D97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99951470630275696</v>
       </c>
       <c r="I97" s="44" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99480712607268296</v>
       </c>
       <c r="J97" s="44" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99556655268922112</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5169,35 +5259,39 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
+      <c r="C98" s="23">
+        <v>121.56012000000001</v>
+      </c>
+      <c r="D98" s="23">
+        <v>3868697.7260159361</v>
+      </c>
       <c r="E98" s="44" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58256105243309642</v>
       </c>
       <c r="F98" s="44" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G98" s="44" t="e" cm="1">
+        <v>0.83228506221360909</v>
+      </c>
+      <c r="G98" s="44" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H98" s="44" t="e" cm="1">
+        <v>79.879727099227381</v>
+      </c>
+      <c r="H98" s="44" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C98)*INDIRECT(ADDRESS(5,38))/(D98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99951536075688052</v>
       </c>
       <c r="I98" s="44" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.994814231115838</v>
       </c>
       <c r="J98" s="44" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99557261869224012</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5209,35 +5303,39 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
+      <c r="C99" s="23">
+        <v>204.85366000000002</v>
+      </c>
+      <c r="D99" s="23">
+        <v>79030995.547444686</v>
+      </c>
       <c r="E99" s="44" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58233315995794888</v>
       </c>
       <c r="F99" s="44" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G99" s="44" t="e" cm="1">
+        <v>0.8319157198970637</v>
+      </c>
+      <c r="G99" s="44" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H99" s="44" t="e" cm="1">
+        <v>46.994013539954963</v>
+      </c>
+      <c r="H99" s="44" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C99)*INDIRECT(ADDRESS(5,38))/(D99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99997642094962014</v>
       </c>
       <c r="I99" s="44" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99974614669089201</v>
       </c>
       <c r="J99" s="44" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99978327174342818</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5249,35 +5347,39 @@
       <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="50"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="C100" s="23">
+        <v>557.19191000000001</v>
+      </c>
+      <c r="D100" s="23">
+        <v>31411483.249437507</v>
+      </c>
       <c r="E100" s="44" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58136988238734655</v>
       </c>
       <c r="F100" s="44" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G100" s="44" t="e" cm="1">
+        <v>0.83035501844324955</v>
+      </c>
+      <c r="G100" s="44" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="44" t="e" cm="1">
+        <v>16.645176025167583</v>
+      </c>
+      <c r="H100" s="44" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C100)*INDIRECT(ADDRESS(5,38))/(D100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99994221684888895</v>
       </c>
       <c r="I100" s="44" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.9993613075127854</v>
       </c>
       <c r="J100" s="44" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99945471377126949</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -5289,35 +5391,39 @@
       <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="50"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
+      <c r="C101" s="23">
+        <v>156.18735000000001</v>
+      </c>
+      <c r="D101" s="23">
+        <v>11365824.678142671</v>
+      </c>
       <c r="E101" s="44" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58246630379885067</v>
       </c>
       <c r="F101" s="44" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G101" s="44" t="e" cm="1">
+        <v>0.83213149919082019</v>
+      </c>
+      <c r="G101" s="44" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H101" s="44" t="e" cm="1">
+        <v>61.948435527904991</v>
+      </c>
+      <c r="H101" s="44" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C101)*INDIRECT(ADDRESS(5,38))/(D101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99983545725717204</v>
       </c>
       <c r="I101" s="44" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99823486037420039</v>
       </c>
       <c r="J101" s="44" cm="1">
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99849300471449842</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -5329,12 +5435,16 @@
       <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="50"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
+      <c r="C102" s="23">
+        <v>0</v>
+      </c>
+      <c r="D102" s="23">
+        <v>0</v>
+      </c>
       <c r="E102" s="44" cm="1">
         <f t="array" aca="1" ref="E102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -5429,37 +5539,41 @@
       <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
         <v>40230</v>
       </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
+      <c r="C106" s="23">
+        <v>47245.813999999998</v>
+      </c>
+      <c r="D106" s="23">
+        <v>1031090117.050784</v>
+      </c>
       <c r="E106" s="44" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.46332539962994468</v>
       </c>
       <c r="F106" s="44" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G106" s="44" t="e" cm="1">
+        <v>0.64468247975944304</v>
+      </c>
+      <c r="G106" s="44" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="44" t="e" cm="1">
+        <v>-0.79190221314105558</v>
+      </c>
+      <c r="H106" s="44" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C106)*INDIRECT(ADDRESS(5,38))/(D106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-1.0000044625548015</v>
       </c>
       <c r="I106" s="44" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.9999805426512518</v>
       </c>
       <c r="J106" s="44" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99998338821242116</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5471,35 +5585,39 @@
       <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="50"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="C107" s="23">
+        <v>6705.1105000000007</v>
+      </c>
+      <c r="D107" s="23">
+        <v>626960040.28357399</v>
+      </c>
       <c r="E107" s="44" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.56474852890444538</v>
       </c>
       <c r="F107" s="44" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G107" s="44" t="e" cm="1">
+        <v>0.80354423777450745</v>
+      </c>
+      <c r="G107" s="44" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H107" s="44" t="e" cm="1">
+        <v>0.46630683144585494</v>
+      </c>
+      <c r="H107" s="44" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C107)*INDIRECT(ADDRESS(5,38))/(D107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99999845260502773</v>
       </c>
       <c r="I107" s="44" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99996800070386183</v>
       </c>
       <c r="J107" s="44" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99997268047579191</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5511,35 +5629,39 @@
       <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="50"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
+      <c r="C108" s="23">
+        <v>71772.107000000004</v>
+      </c>
+      <c r="D108" s="23">
+        <v>1646397897.6721141</v>
+      </c>
       <c r="E108" s="44" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.40810884404929082</v>
       </c>
       <c r="F108" s="44" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G108" s="44" t="e" cm="1">
+        <v>0.56147393336645468</v>
+      </c>
+      <c r="G108" s="44" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H108" s="44" t="e" cm="1">
+        <v>-0.86301434160558599</v>
+      </c>
+      <c r="H108" s="44" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C108)*INDIRECT(ADDRESS(5,38))/(D108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-1.0000048420309411</v>
       </c>
       <c r="I108" s="44" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99998781444022278</v>
       </c>
       <c r="J108" s="44" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99998959653069053</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5551,12 +5673,16 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
+      <c r="C109" s="23">
+        <v>0</v>
+      </c>
+      <c r="D109" s="23">
+        <v>0</v>
+      </c>
       <c r="E109" s="44" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -5591,35 +5717,39 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="50"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
+      <c r="C110" s="23">
+        <v>9223.4142000000011</v>
+      </c>
+      <c r="D110" s="23">
+        <v>260581404.17472795</v>
+      </c>
       <c r="E110" s="44" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.55804055021006782</v>
       </c>
       <c r="F110" s="44" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G110" s="44" t="e" cm="1">
+        <v>0.79278744201981843</v>
+      </c>
+      <c r="G110" s="44" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="44" t="e" cm="1">
+        <v>6.595552563922924E-2</v>
+      </c>
+      <c r="H110" s="44" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C110)*INDIRECT(ADDRESS(5,38))/(D110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99999760509413094</v>
       </c>
       <c r="I110" s="44" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99992300954844016</v>
       </c>
       <c r="J110" s="44" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99993426910088712</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5631,35 +5761,39 @@
       <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="50"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
+      <c r="C111" s="23">
+        <v>8815.0568000000003</v>
+      </c>
+      <c r="D111" s="23">
+        <v>262170185.73285758</v>
+      </c>
       <c r="E111" s="44" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.55912437782218571</v>
       </c>
       <c r="F111" s="44" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G111" s="44" t="e" cm="1">
+        <v>0.79452299340709365</v>
+      </c>
+      <c r="G111" s="44" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H111" s="44" t="e" cm="1">
+        <v>0.11533590251503911</v>
+      </c>
+      <c r="H111" s="44" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C111)*INDIRECT(ADDRESS(5,38))/(D111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99999740554820737</v>
       </c>
       <c r="I111" s="44" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99992347611945365</v>
       </c>
       <c r="J111" s="44" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99993466743771509</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5671,35 +5805,39 @@
       <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="50"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
+      <c r="C112" s="23">
+        <v>217563.06000000003</v>
+      </c>
+      <c r="D112" s="23">
+        <v>4291188796.0038123</v>
+      </c>
       <c r="E112" s="44" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.15013489900632693</v>
       </c>
       <c r="F112" s="44" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G112" s="44" t="e" cm="1">
+        <v>0.2004547201692275</v>
+      </c>
+      <c r="G112" s="44" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H112" s="44" t="e" cm="1">
+        <v>-0.95480965687948438</v>
+      </c>
+      <c r="H112" s="44" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C112)*INDIRECT(ADDRESS(5,38))/(D112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-1.0000065268048766</v>
       </c>
       <c r="I112" s="44" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99999532477340114</v>
       </c>
       <c r="J112" s="44" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99999600850700954</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -5711,35 +5849,39 @@
       <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="50"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
+      <c r="C113" s="23">
+        <v>67977.899000000005</v>
+      </c>
+      <c r="D113" s="23">
+        <v>1538722208.1181324</v>
+      </c>
       <c r="E113" s="44" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.41637676695530668</v>
       </c>
       <c r="F113" s="44" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G113" s="44" t="e" cm="1">
+        <v>0.57379142474431521</v>
+      </c>
+      <c r="G113" s="44" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H113" s="44" t="e" cm="1">
+        <v>-0.85536844362092845</v>
+      </c>
+      <c r="H113" s="44" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C113)*INDIRECT(ADDRESS(5,38))/(D113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-1.000004841989631</v>
       </c>
       <c r="I113" s="44" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99998696172714396</v>
       </c>
       <c r="J113" s="44" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99998886852356506</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5751,35 +5893,39 @@
       <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="50"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
+      <c r="C114" s="23">
+        <v>6460.9974000000002</v>
+      </c>
+      <c r="D114" s="23">
+        <v>615179576.38995016</v>
+      </c>
       <c r="E114" s="44" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.56540184256753823</v>
       </c>
       <c r="F114" s="44" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G114" s="44" t="e" cm="1">
+        <v>0.80459382024606541</v>
+      </c>
+      <c r="G114" s="44" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H114" s="44" t="e" cm="1">
+        <v>0.52170767500221116</v>
+      </c>
+      <c r="H114" s="44" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C114)*INDIRECT(ADDRESS(5,38))/(D114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.99999836843912371</v>
       </c>
       <c r="I114" s="44" cm="1">
         <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>-0.99996738792904438</v>
       </c>
       <c r="J114" s="44" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>-0.99997215731689526</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -5791,12 +5937,16 @@
       <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="50"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
+      <c r="C115" s="23">
+        <v>0</v>
+      </c>
+      <c r="D115" s="23">
+        <v>0</v>
+      </c>
       <c r="E115" s="44" cm="1">
         <f t="array" aca="1" ref="E115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))-1</f>
         <v>0.58289376072382715</v>
@@ -6627,7 +6777,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="35">
@@ -6652,7 +6802,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="46"/>
+      <c r="A160" s="50"/>
       <c r="B160" s="35">
         <v>40240</v>
       </c>
@@ -6675,7 +6825,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="46"/>
+      <c r="A161" s="50"/>
       <c r="B161" s="35">
         <v>40250</v>
       </c>
@@ -6698,7 +6848,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="46"/>
+      <c r="A162" s="50"/>
       <c r="B162" s="35">
         <v>40360</v>
       </c>
@@ -6712,7 +6862,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="46"/>
+      <c r="A163" s="50"/>
       <c r="B163" s="35">
         <v>40390</v>
       </c>
@@ -6735,7 +6885,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="46"/>
+      <c r="A164" s="50"/>
       <c r="B164" s="35">
         <v>40710</v>
       </c>
@@ -6758,7 +6908,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="46"/>
+      <c r="A165" s="50"/>
       <c r="B165" s="35">
         <v>40740</v>
       </c>
@@ -6781,7 +6931,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="46"/>
+      <c r="A166" s="50"/>
       <c r="B166" s="35">
         <v>40750</v>
       </c>
@@ -6804,7 +6954,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="46"/>
+      <c r="A167" s="50"/>
       <c r="B167" s="35">
         <v>40760</v>
       </c>
@@ -6827,7 +6977,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="46"/>
+      <c r="A168" s="50"/>
       <c r="B168" s="35">
         <v>40770</v>
       </c>
@@ -6858,7 +7008,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="35">
@@ -6883,7 +7033,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="46"/>
+      <c r="A171" s="50"/>
       <c r="B171" s="35">
         <v>40240</v>
       </c>
@@ -6906,7 +7056,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="46"/>
+      <c r="A172" s="50"/>
       <c r="B172" s="35">
         <v>40250</v>
       </c>
@@ -6929,7 +7079,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="46"/>
+      <c r="A173" s="50"/>
       <c r="B173" s="35">
         <v>40360</v>
       </c>
@@ -6946,7 +7096,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="46"/>
+      <c r="A174" s="50"/>
       <c r="B174" s="35">
         <v>40390</v>
       </c>
@@ -6969,7 +7119,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="46"/>
+      <c r="A175" s="50"/>
       <c r="B175" s="35">
         <v>40710</v>
       </c>
@@ -6992,7 +7142,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="46"/>
+      <c r="A176" s="50"/>
       <c r="B176" s="35">
         <v>40740</v>
       </c>
@@ -7015,7 +7165,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="46"/>
+      <c r="A177" s="50"/>
       <c r="B177" s="35">
         <v>40750</v>
       </c>
@@ -7038,7 +7188,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="46"/>
+      <c r="A178" s="50"/>
       <c r="B178" s="35">
         <v>40760</v>
       </c>
@@ -7061,7 +7211,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="46"/>
+      <c r="A179" s="50"/>
       <c r="B179" s="35">
         <v>40770</v>
       </c>
@@ -7092,7 +7242,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="46" t="s">
+      <c r="A181" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="35">
@@ -7117,7 +7267,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="46"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="35">
         <v>40240</v>
       </c>
@@ -7140,7 +7290,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="46"/>
+      <c r="A183" s="50"/>
       <c r="B183" s="35">
         <v>40250</v>
       </c>
@@ -7163,7 +7313,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="46"/>
+      <c r="A184" s="50"/>
       <c r="B184" s="35">
         <v>40360</v>
       </c>
@@ -7179,7 +7329,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="46"/>
+      <c r="A185" s="50"/>
       <c r="B185" s="35">
         <v>40390</v>
       </c>
@@ -7202,7 +7352,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="46"/>
+      <c r="A186" s="50"/>
       <c r="B186" s="35">
         <v>40710</v>
       </c>
@@ -7225,7 +7375,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="46"/>
+      <c r="A187" s="50"/>
       <c r="B187" s="35">
         <v>40740</v>
       </c>
@@ -7248,7 +7398,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="46"/>
+      <c r="A188" s="50"/>
       <c r="B188" s="35">
         <v>40750</v>
       </c>
@@ -7271,7 +7421,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="46"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="35">
         <v>40760</v>
       </c>
@@ -7294,7 +7444,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="46"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="35">
         <v>40770</v>
       </c>
@@ -7325,62 +7475,81 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="47" t="s">
-        <v>33</v>
+      <c r="A192" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="B192" s="35">
         <v>40230</v>
       </c>
-      <c r="C192" s="9"/>
-      <c r="E192" s="45"/>
+      <c r="C192" s="39">
+        <v>688.53740000000005</v>
+      </c>
+      <c r="D192" s="39">
+        <v>57.630740000000003</v>
+      </c>
+      <c r="E192" s="39">
+        <v>4.5427759999999999</v>
+      </c>
       <c r="F192" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>757.39114000000006</v>
       </c>
       <c r="G192" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3676.1329074071541</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="48"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="35">
         <v>40240</v>
       </c>
-      <c r="C193" s="9"/>
-      <c r="E193" s="45"/>
+      <c r="C193" s="39">
+        <v>49.77919</v>
+      </c>
+      <c r="D193" s="39">
+        <v>16.450189999999999</v>
+      </c>
+      <c r="E193" s="39">
+        <v>5685.7830000000004</v>
+      </c>
       <c r="F193" s="26">
         <f t="shared" ref="F193:F223" si="4">C193*1.1*1</f>
-        <v>0</v>
+        <v>54.757109000000007</v>
       </c>
       <c r="G193" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35561238.825024046</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="48"/>
+      <c r="A194" s="47"/>
       <c r="B194" s="35">
         <v>40250</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="E194" s="45"/>
+      <c r="C194" s="39">
+        <v>127.52670000000001</v>
+      </c>
+      <c r="D194" s="39">
+        <v>3186.0210000000002</v>
+      </c>
+      <c r="E194" s="39">
+        <v>8010.116</v>
+      </c>
       <c r="F194" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>140.27937000000003</v>
       </c>
       <c r="G194" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81743956.96048671</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="48"/>
+      <c r="A195" s="47"/>
       <c r="B195" s="35">
         <v>40360</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="E195" s="45"/>
       <c r="F195" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7391,87 +7560,122 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="48"/>
+      <c r="A196" s="47"/>
       <c r="B196" s="35">
         <v>40390</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="E196" s="45"/>
+      <c r="C196" s="39">
+        <v>143.64150000000001</v>
+      </c>
+      <c r="D196" s="39">
+        <v>1504.145</v>
+      </c>
+      <c r="E196" s="39">
+        <v>308.87490000000003</v>
+      </c>
       <c r="F196" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>158.00565000000003</v>
       </c>
       <c r="G196" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2593641.473362511</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="48"/>
+      <c r="A197" s="47"/>
       <c r="B197" s="35">
         <v>40710</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="E197" s="45"/>
+      <c r="C197" s="39">
+        <v>143.45699999999999</v>
+      </c>
+      <c r="D197" s="39">
+        <v>1505.5440000000001</v>
+      </c>
+      <c r="E197" s="39">
+        <v>307.92329999999998</v>
+      </c>
       <c r="F197" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>157.80270000000002</v>
       </c>
       <c r="G197" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2597627.4440807798</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="48"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="35">
         <v>40740</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="E198" s="45"/>
+      <c r="C198" s="39">
+        <v>734.20240000000001</v>
+      </c>
+      <c r="D198" s="39">
+        <v>10138.93</v>
+      </c>
+      <c r="E198" s="39">
+        <v>213.05889999999999</v>
+      </c>
       <c r="F198" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>807.62264000000005</v>
       </c>
       <c r="G198" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>113127625.20374614</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="48"/>
+      <c r="A199" s="47"/>
       <c r="B199" s="35">
         <v>40750</v>
       </c>
-      <c r="C199" s="9"/>
-      <c r="E199" s="45"/>
+      <c r="C199" s="39">
+        <v>127.3843</v>
+      </c>
+      <c r="D199" s="39">
+        <v>3190.915</v>
+      </c>
+      <c r="E199" s="39">
+        <v>8013.9719999999998</v>
+      </c>
       <c r="F199" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>140.12273000000002</v>
       </c>
       <c r="G199" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81846254.329409897</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="48"/>
+      <c r="A200" s="47"/>
       <c r="B200" s="35">
         <v>40760</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="E200" s="45"/>
+      <c r="C200" s="39">
+        <v>49.574950000000001</v>
+      </c>
+      <c r="D200" s="39">
+        <v>16.539090000000002</v>
+      </c>
+      <c r="E200" s="39">
+        <v>5688.4449999999997</v>
+      </c>
       <c r="F200" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54.532445000000003</v>
       </c>
       <c r="G200" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>35594548.06547533</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="49"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="35">
         <v>40770</v>
       </c>
@@ -7502,57 +7706,78 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="50" t="s">
-        <v>34</v>
+      <c r="A203" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="B203" s="35">
         <v>40230</v>
       </c>
-      <c r="C203" s="9"/>
-      <c r="E203" s="45"/>
+      <c r="C203" s="39">
+        <v>943.04359999999997</v>
+      </c>
+      <c r="D203" s="39">
+        <v>54.833159999999999</v>
+      </c>
+      <c r="E203" s="39">
+        <v>2573.2359999999999</v>
+      </c>
       <c r="F203" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1037.3479600000001</v>
       </c>
       <c r="G203" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7287005.205844745</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="50"/>
+      <c r="A204" s="49"/>
       <c r="B204" s="35">
         <v>40240</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="E204" s="45"/>
+      <c r="C204" s="39">
+        <v>142.5478</v>
+      </c>
+      <c r="D204" s="39">
+        <v>50.66272</v>
+      </c>
+      <c r="E204" s="39">
+        <v>3212.377</v>
+      </c>
       <c r="F204" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156.80258000000001</v>
       </c>
       <c r="G204" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11354125.97145948</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="50"/>
+      <c r="A205" s="49"/>
       <c r="B205" s="35">
         <v>40250</v>
       </c>
-      <c r="C205" s="9"/>
-      <c r="E205" s="45"/>
+      <c r="C205" s="39">
+        <v>506.57389999999998</v>
+      </c>
+      <c r="D205" s="39">
+        <v>2215.2199999999998</v>
+      </c>
+      <c r="E205" s="39">
+        <v>4859.0360000000001</v>
+      </c>
       <c r="F205" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>557.23129000000006</v>
       </c>
       <c r="G205" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31369173.5474656</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="50"/>
+      <c r="A206" s="49"/>
       <c r="B206" s="35">
         <v>40360</v>
       </c>
@@ -7568,87 +7793,122 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="50"/>
+      <c r="A207" s="49"/>
       <c r="B207" s="35">
         <v>40390</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="E207" s="45"/>
+      <c r="C207" s="39">
+        <v>110.7535</v>
+      </c>
+      <c r="D207" s="39">
+        <v>1867.88</v>
+      </c>
+      <c r="E207" s="39">
+        <v>152.34870000000001</v>
+      </c>
       <c r="F207" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>121.82885000000002</v>
       </c>
       <c r="G207" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3863404.40287086</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="50"/>
+      <c r="A208" s="49"/>
       <c r="B208" s="35">
         <v>40710</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="E208" s="45"/>
+      <c r="C208" s="39">
+        <v>110.50920000000001</v>
+      </c>
+      <c r="D208" s="39">
+        <v>1869.204</v>
+      </c>
+      <c r="E208" s="39">
+        <v>151.9024</v>
+      </c>
       <c r="F208" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>121.56012000000001</v>
       </c>
       <c r="G208" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3868697.7260159361</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="50"/>
+      <c r="A209" s="49"/>
       <c r="B209" s="35">
         <v>40740</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="E209" s="45"/>
+      <c r="C209" s="39">
+        <v>186.23060000000001</v>
+      </c>
+      <c r="D209" s="39">
+        <v>8475.0159999999996</v>
+      </c>
+      <c r="E209" s="39">
+        <v>143.05029999999999</v>
+      </c>
       <c r="F209" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>204.85366000000002</v>
       </c>
       <c r="G209" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79030995.547444686</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="50"/>
+      <c r="A210" s="49"/>
       <c r="B210" s="35">
         <v>40750</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="E210" s="45"/>
+      <c r="C210" s="39">
+        <v>506.53809999999999</v>
+      </c>
+      <c r="D210" s="39">
+        <v>2217.6579999999999</v>
+      </c>
+      <c r="E210" s="39">
+        <v>4861.8810000000003</v>
+      </c>
       <c r="F210" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>557.19191000000001</v>
       </c>
       <c r="G210" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31411483.249437507</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="50"/>
+      <c r="A211" s="49"/>
       <c r="B211" s="35">
         <v>40760</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="E211" s="45"/>
+      <c r="C211" s="39">
+        <v>141.98849999999999</v>
+      </c>
+      <c r="D211" s="39">
+        <v>50.466900000000003</v>
+      </c>
+      <c r="E211" s="39">
+        <v>3214.0349999999999</v>
+      </c>
       <c r="F211" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156.18735000000001</v>
       </c>
       <c r="G211" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11365824.678142671</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
+      <c r="A212" s="49"/>
       <c r="B212" s="35">
         <v>40770</v>
       </c>
@@ -7679,57 +7939,78 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="50" t="s">
-        <v>35</v>
+      <c r="A214" s="49" t="s">
+        <v>58</v>
       </c>
       <c r="B214" s="35">
         <v>40230</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="E214" s="45"/>
+      <c r="C214" s="39">
+        <v>42950.74</v>
+      </c>
+      <c r="D214" s="39">
+        <v>30326.57</v>
+      </c>
+      <c r="E214" s="39">
+        <v>4201.643</v>
+      </c>
       <c r="F214" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>47245.813999999998</v>
       </c>
       <c r="G214" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1031090117.050784</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="50"/>
+      <c r="A215" s="49"/>
       <c r="B215" s="35">
         <v>40240</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="E215" s="45"/>
+      <c r="C215" s="39">
+        <v>6095.5550000000003</v>
+      </c>
+      <c r="D215" s="39">
+        <v>23865.65</v>
+      </c>
+      <c r="E215" s="39">
+        <v>628.03110000000004</v>
+      </c>
       <c r="F215" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6705.1105000000007</v>
       </c>
       <c r="G215" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>626960040.28357399</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="50"/>
+      <c r="A216" s="49"/>
       <c r="B216" s="35">
         <v>40250</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="E216" s="45"/>
+      <c r="C216" s="39">
+        <v>65247.37</v>
+      </c>
+      <c r="D216" s="39">
+        <v>38590.81</v>
+      </c>
+      <c r="E216" s="39">
+        <v>2733.998</v>
+      </c>
       <c r="F216" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>71772.107000000004</v>
       </c>
       <c r="G216" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1646397897.6721141</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="50"/>
+      <c r="A217" s="49"/>
       <c r="B217" s="35">
         <v>40360</v>
       </c>
@@ -7745,87 +8026,122 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="50"/>
+      <c r="A218" s="49"/>
       <c r="B218" s="35">
         <v>40390</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="E218" s="45"/>
+      <c r="C218" s="39">
+        <v>8384.9220000000005</v>
+      </c>
+      <c r="D218" s="39">
+        <v>6226.7330000000002</v>
+      </c>
+      <c r="E218" s="39">
+        <v>14075.51</v>
+      </c>
       <c r="F218" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9223.4142000000011</v>
       </c>
       <c r="G218" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>260581404.17472795</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="50"/>
+      <c r="A219" s="49"/>
       <c r="B219" s="35">
         <v>40710</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="E219" s="45"/>
+      <c r="C219" s="39">
+        <v>8013.6880000000001</v>
+      </c>
+      <c r="D219" s="39">
+        <v>5733.8959999999997</v>
+      </c>
+      <c r="E219" s="39">
+        <v>14333.84</v>
+      </c>
       <c r="F219" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8815.0568000000003</v>
       </c>
       <c r="G219" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>262170185.73285758</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="50"/>
+      <c r="A220" s="49"/>
       <c r="B220" s="35">
         <v>40740</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="E220" s="45"/>
+      <c r="C220" s="39">
+        <v>197784.6</v>
+      </c>
+      <c r="D220" s="39">
+        <v>712.327</v>
+      </c>
+      <c r="E220" s="39">
+        <v>62454.57</v>
+      </c>
       <c r="F220" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>217563.06000000003</v>
       </c>
       <c r="G220" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4291188796.0038123</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="50"/>
+      <c r="A221" s="49"/>
       <c r="B221" s="35">
         <v>40750</v>
       </c>
-      <c r="C221" s="9"/>
-      <c r="E221" s="45"/>
+      <c r="C221" s="39">
+        <v>61798.09</v>
+      </c>
+      <c r="D221" s="39">
+        <v>37282.39</v>
+      </c>
+      <c r="E221" s="39">
+        <v>2976.8719999999998</v>
+      </c>
       <c r="F221" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67977.899000000005</v>
       </c>
       <c r="G221" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1538722208.1181324</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="50"/>
+      <c r="A222" s="49"/>
       <c r="B222" s="35">
         <v>40760</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="E222" s="45"/>
+      <c r="C222" s="39">
+        <v>5873.634</v>
+      </c>
+      <c r="D222" s="39">
+        <v>23645.040000000001</v>
+      </c>
+      <c r="E222" s="39">
+        <v>407.73</v>
+      </c>
       <c r="F222" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6460.9974000000002</v>
       </c>
       <c r="G222" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>615179576.38995016</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="50"/>
+      <c r="A223" s="49"/>
       <c r="B223" s="35">
         <v>40770</v>
       </c>
@@ -7842,17 +8158,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A93:A102"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A181:A190"/>
+    <mergeCell ref="A192:A201"/>
+    <mergeCell ref="A203:A212"/>
+    <mergeCell ref="A214:A223"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A148:A157"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="L41:L43"/>
     <mergeCell ref="L44:L49"/>
@@ -7864,28 +8183,25 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="L5:L10"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="A181:A190"/>
-    <mergeCell ref="A192:A201"/>
-    <mergeCell ref="A203:A212"/>
-    <mergeCell ref="A214:A223"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="A148:A157"/>
-    <mergeCell ref="A159:A168"/>
-    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:J158 E163:E168 E159:E161 F159:J168 E169:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="E1:J158 E163:E168 E159:E161 F159:J168 E169:J194 E202:J1048576 E196:E201 F195:J201">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A64A8E-C01A-419C-B8E6-5F7D4CB3E1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C1593-7ADF-427F-8E22-13B95AE20688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
   <si>
     <t>Elemento</t>
   </si>
@@ -240,6 +240,15 @@
   <si>
     <t>Random X 7.093872E+01</t>
   </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -418,11 +427,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,9 +568,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,6 +575,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,37 +613,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -983,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="M112" sqref="M112"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,10 +1059,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="55"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1082,11 +1091,11 @@
       </c>
       <c r="E2" s="41" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58256597358123541</v>
+        <v>2.3951032932278129</v>
       </c>
       <c r="F2" s="41" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83229303832241541</v>
+        <v>2.9308466328828873</v>
       </c>
       <c r="G2" s="41" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1098,13 +1107,13 @@
       </c>
       <c r="I2" s="41" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">1/((D2*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.87768163153387824</v>
+        <v>-0.73758850971512679</v>
       </c>
       <c r="J2" s="41" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.89542760593648674</v>
-      </c>
-      <c r="L2" s="59" t="s">
+        <v>-0.77565922344309379</v>
+      </c>
+      <c r="L2" s="63" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="51" t="s">
@@ -1199,11 +1208,11 @@
       </c>
       <c r="E3" s="41" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58286617110843242</v>
+        <v>2.3957473116322396</v>
       </c>
       <c r="F3" s="41" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83277963061549909</v>
+        <v>2.9318905268653728</v>
       </c>
       <c r="G3" s="41" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1215,13 +1224,13 @@
       </c>
       <c r="I3" s="41" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">1/((D3*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.88622681027653805</v>
+        <v>-0.75592061401582344</v>
       </c>
       <c r="J3" s="41" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.90275098885523397</v>
-      </c>
-      <c r="L3" s="60"/>
+        <v>-0.79137019024010036</v>
+      </c>
+      <c r="L3" s="64"/>
       <c r="M3" s="51"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
@@ -1294,11 +1303,11 @@
       </c>
       <c r="E4" s="41" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58321983306318148</v>
+        <v>2.3965060281011272</v>
       </c>
       <c r="F4" s="41" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83335297850423329</v>
+        <v>2.933120538970841</v>
       </c>
       <c r="G4" s="41" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1310,13 +1319,13 @@
       </c>
       <c r="I4" s="41" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">1/((D4*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86889145188293004</v>
+        <v>-0.71873080117141019</v>
       </c>
       <c r="J4" s="41" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88788997095129907</v>
-      </c>
-      <c r="L4" s="61"/>
+        <v>-0.75948861836970838</v>
+      </c>
+      <c r="L4" s="65"/>
       <c r="M4" s="51"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
@@ -1389,11 +1398,11 @@
       </c>
       <c r="E5" s="41" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F5" s="41" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G5" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1405,16 +1414,16 @@
       </c>
       <c r="I5" s="41" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">1/((D5*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J5" s="41" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L5" s="59" t="s">
+        <v>2.9319864737553543</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="63" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1471,8 +1480,8 @@
       <c r="AE5" s="4">
         <v>1</v>
       </c>
-      <c r="AF5" s="2">
-        <v>3.6609999999999997E-5</v>
+      <c r="AF5" s="39">
+        <v>7.8540000000000004E-5</v>
       </c>
       <c r="AG5" s="6">
         <v>3.7999999999999999E-2</v>
@@ -1506,11 +1515,11 @@
       </c>
       <c r="E6" s="41" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58313936703408431</v>
+        <v>2.3963334030826817</v>
       </c>
       <c r="F6" s="41" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83322251999009667</v>
+        <v>2.9328406642999778</v>
       </c>
       <c r="G6" s="41" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1522,14 +1531,14 @@
       </c>
       <c r="I6" s="41" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">1/((D6*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.53005078329038957</v>
+        <v>8.18933297931701E-3</v>
       </c>
       <c r="J6" s="41" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.59045912696254055</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+        <v>-0.12140562227910223</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1550,6 +1559,12 @@
       <c r="S6" s="14" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT(ADDRESS(Q6+2,24))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,31))) -1</f>
         <v>6.6655886932566757</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF6" s="39">
+        <v>7.8540000000000004E-5</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -1565,11 +1580,11 @@
       </c>
       <c r="E7" s="41" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.5826486165992677</v>
+        <v>2.3952805885743369</v>
       </c>
       <c r="F7" s="41" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83242698761031564</v>
+        <v>2.9311339963647689</v>
       </c>
       <c r="G7" s="41" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1581,14 +1596,14 @@
       </c>
       <c r="I7" s="41" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">1/((D7*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.52927135567385664</v>
+        <v>9.8614511165064922E-3</v>
       </c>
       <c r="J7" s="41" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.58974855289360728</v>
-      </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+        <v>-0.11988121672395258</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1609,6 +1624,12 @@
       <c r="S7" s="14" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(Q7+2,24))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,31))) -1</f>
         <v>1.8903039335230094</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7" s="39">
+        <v>6.3616999999999998E-5</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -1624,11 +1645,11 @@
       </c>
       <c r="E8" s="41" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.5837632159047903</v>
+        <v>2.3976717557269116</v>
       </c>
       <c r="F8" s="41" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83423409686995131</v>
+        <v>2.9350108158471997</v>
       </c>
       <c r="G8" s="41" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="I8" s="41" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">1/((D8*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.41956414067931247</v>
+        <v>2.0454129366007434</v>
       </c>
       <c r="J8" s="41" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.52307734265045136</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="59" t="s">
+        <v>2.2674814119575646</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="63" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1670,6 +1691,12 @@
       <c r="S8" s="14" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(Q8+2,24))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,31))) -1</f>
         <v>121.7775347805735</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>3.6609999999999997E-5</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -1685,11 +1712,11 @@
       </c>
       <c r="E9" s="41" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58256760504085703</v>
+        <v>2.3951067932234062</v>
       </c>
       <c r="F9" s="41" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83229568256734199</v>
+        <v>2.9308523056224809</v>
       </c>
       <c r="G9" s="41" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1701,14 +1728,14 @@
       </c>
       <c r="I9" s="41" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">1/((D9*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86892280362079799</v>
+        <v>-0.71879806054022044</v>
       </c>
       <c r="J9" s="41" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88791678786750927</v>
-      </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
+        <v>-0.7595461491153831</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1744,11 +1771,11 @@
       </c>
       <c r="E10" s="41" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58292101269379049</v>
+        <v>2.3958649641346708</v>
       </c>
       <c r="F10" s="41" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8328685317041824</v>
+        <v>2.9320812477477869</v>
       </c>
       <c r="G10" s="41" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="I10" s="41" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">1/((D10*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.88624422682993509</v>
+        <v>-0.75595797801756626</v>
       </c>
       <c r="J10" s="41" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.90276591520375382</v>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+        <v>-0.79140221196675287</v>
+      </c>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -1803,11 +1830,11 @@
       </c>
       <c r="E11" s="41" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F11" s="41" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G11" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1819,11 +1846,11 @@
       </c>
       <c r="I11" s="41" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">1/((D11*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J11" s="41" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -1881,11 +1908,11 @@
       </c>
       <c r="E15" s="41" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.582201861179098</v>
+        <v>2.3943221572522906</v>
       </c>
       <c r="F15" s="41" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83170294501651987</v>
+        <v>2.9295806965746372</v>
       </c>
       <c r="G15" s="41" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1897,11 +1924,11 @@
       </c>
       <c r="I15" s="41" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">1/((D15*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.28785536115397825</v>
+        <v>0.52777492310752683</v>
       </c>
       <c r="J15" s="41" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.36180097839427594</v>
+        <v>0.36913824520386695</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="E16" s="41" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58257223996977237</v>
+        <v>2.3951167366081925</v>
       </c>
       <c r="F16" s="41" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83230319480148762</v>
+        <v>2.9308684217347403</v>
       </c>
       <c r="G16" s="41" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1941,11 +1968,11 @@
       </c>
       <c r="I16" s="41" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">1/((D16*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.18205748351306061</v>
+        <v>0.75474474856280316</v>
       </c>
       <c r="J16" s="41" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.25479131945236122</v>
+        <v>0.598707723851722</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -1969,11 +1996,11 @@
       </c>
       <c r="E17" s="41" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58223527844725198</v>
+        <v>2.3943938478352136</v>
       </c>
       <c r="F17" s="41" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83175709768616146</v>
+        <v>2.9296968711355129</v>
       </c>
       <c r="G17" s="41" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1985,11 +2012,11 @@
       </c>
       <c r="I17" s="41" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">1/((D17*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.65245873069509641</v>
+        <v>-0.25441433238986266</v>
       </c>
       <c r="J17" s="41" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.69996528222295218</v>
+        <v>-0.3563308731436946</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -2013,11 +2040,11 @@
       </c>
       <c r="E18" s="41" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F18" s="41" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G18" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2029,11 +2056,11 @@
       </c>
       <c r="I18" s="41" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">1/((D18*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J18" s="41" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2057,11 +2084,11 @@
       </c>
       <c r="E19" s="41" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58308086584772578</v>
+        <v>2.3962078995815457</v>
       </c>
       <c r="F19" s="41" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8331276761173918</v>
+        <v>2.932637194270963</v>
       </c>
       <c r="G19" s="41" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2073,11 +2100,11 @@
       </c>
       <c r="I19" s="41" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">1/((D19*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86906144896001081</v>
+        <v>-0.71909549853371346</v>
       </c>
       <c r="J19" s="41" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.8880357737196074</v>
+        <v>-0.7598014113066911</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -2101,11 +2128,11 @@
       </c>
       <c r="E20" s="41" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58270709198434933</v>
+        <v>2.3954060367235943</v>
       </c>
       <c r="F20" s="41" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83252176894438201</v>
+        <v>2.9313373322286744</v>
       </c>
       <c r="G20" s="41" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2117,11 +2144,11 @@
       </c>
       <c r="I20" s="41" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">1/((D20*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86911909871859672</v>
+        <v>-0.71921917545366254</v>
       </c>
       <c r="J20" s="41" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88808518044251505</v>
+        <v>-0.75990740431453507</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2145,11 +2172,11 @@
       </c>
       <c r="E21" s="41" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58286026245789579</v>
+        <v>2.3957346357127323</v>
       </c>
       <c r="F21" s="41" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83277005252985492</v>
+        <v>2.9318699788498992</v>
       </c>
       <c r="G21" s="41" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2161,11 +2188,11 @@
       </c>
       <c r="I21" s="41" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">1/((D21*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.93479411061350803</v>
+        <v>-0.86011279561827148</v>
       </c>
       <c r="J21" s="41" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.94430864893967048</v>
+        <v>-0.88052448204648237</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2189,11 +2216,11 @@
       </c>
       <c r="E22" s="41" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58355270180198038</v>
+        <v>2.3972201365618013</v>
       </c>
       <c r="F22" s="41" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83389271058902437</v>
+        <v>2.9342784345714823</v>
       </c>
       <c r="G22" s="41" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2205,11 +2232,11 @@
       </c>
       <c r="I22" s="41" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">1/((D22*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.65241687335365195</v>
+        <v>-0.25432453518699316</v>
       </c>
       <c r="J22" s="41" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.69993127451020021</v>
+        <v>-0.35625791587083078</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -2233,11 +2260,11 @@
       </c>
       <c r="E23" s="41" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58321467015842754</v>
+        <v>2.3964949520415981</v>
       </c>
       <c r="F23" s="41" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83334460779539588</v>
+        <v>2.9331025811595297</v>
       </c>
       <c r="G23" s="41" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2249,11 +2276,11 @@
       </c>
       <c r="I23" s="41" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">1/((D23*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.18064779191989266</v>
+        <v>0.75776898177032592</v>
       </c>
       <c r="J23" s="41" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.25335029698434197</v>
+        <v>0.60179917167030283</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2265,7 +2292,7 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2277,11 +2304,11 @@
       </c>
       <c r="E24" s="41" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F24" s="41" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G24" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2293,11 +2320,11 @@
       </c>
       <c r="I24" s="41" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">1/((D24*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J24" s="41" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2383,11 +2410,11 @@
       </c>
       <c r="E28" s="41" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58124799954172834</v>
+        <v>2.392275823108641</v>
       </c>
       <c r="F28" s="41" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83015759809568168</v>
+        <v>2.9262654398916919</v>
       </c>
       <c r="G28" s="41" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2399,11 +2426,11 @@
       </c>
       <c r="I28" s="41" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">1/((D28*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.83429967147468154</v>
+        <v>-0.64452051891891515</v>
       </c>
       <c r="J28" s="41" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.85817725744951934</v>
+        <v>-0.6957454739165595</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -2427,11 +2454,11 @@
       </c>
       <c r="E29" s="41" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58169841568257841</v>
+        <v>2.3932421078314587</v>
       </c>
       <c r="F29" s="41" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83088722243885171</v>
+        <v>2.927830714295204</v>
       </c>
       <c r="G29" s="41" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2443,11 +2470,11 @@
       </c>
       <c r="I29" s="41" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">1/((D29*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.72893512866403043</v>
+        <v>-0.41848033338631374</v>
       </c>
       <c r="J29" s="41" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.7670118518813972</v>
+        <v>-0.50016691742051167</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -2471,11 +2498,11 @@
       </c>
       <c r="E30" s="41" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58096700049172689</v>
+        <v>2.3916729914946799</v>
       </c>
       <c r="F30" s="41" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.82970249479759062</v>
+        <v>2.9252890997378524</v>
       </c>
       <c r="G30" s="41" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2487,11 +2514,11 @@
       </c>
       <c r="I30" s="41" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">1/((D30*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86075110358890772</v>
+        <v>-0.70126718590201631</v>
       </c>
       <c r="J30" s="41" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88090495877832109</v>
+        <v>-0.74450356357414194</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -2515,11 +2542,11 @@
       </c>
       <c r="E31" s="41" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F31" s="41" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G31" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2531,11 +2558,11 @@
       </c>
       <c r="I31" s="41" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">1/((D31*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J31" s="41" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -2559,11 +2586,11 @@
       </c>
       <c r="E32" s="41" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58164560532293663</v>
+        <v>2.3931288129490151</v>
       </c>
       <c r="F32" s="41" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83080166690308976</v>
+        <v>2.9276471706792861</v>
       </c>
       <c r="G32" s="41" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2575,11 +2602,11 @@
       </c>
       <c r="I32" s="41" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">1/((D32*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.64499628255880959</v>
+        <v>-0.23840502682788589</v>
       </c>
       <c r="J32" s="41" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.69337170493628242</v>
+        <v>-0.34218556967210101</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -2603,11 +2630,11 @@
       </c>
       <c r="E33" s="41" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58164652202663114</v>
+        <v>2.3931307795676484</v>
       </c>
       <c r="F33" s="41" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83080315199139587</v>
+        <v>2.9276503566622298</v>
       </c>
       <c r="G33" s="41" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2619,11 +2646,11 @@
       </c>
       <c r="I33" s="41" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">1/((D33*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.64525249565264386</v>
+        <v>-0.23895468474620707</v>
       </c>
       <c r="J33" s="41" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.69359820431919328</v>
+        <v>-0.34267148230618516</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -2647,11 +2674,11 @@
       </c>
       <c r="E34" s="41" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.57983738402875939</v>
+        <v>2.3892496078016596</v>
       </c>
       <c r="F34" s="41" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.82787363073759312</v>
+        <v>2.9213656093452762</v>
       </c>
       <c r="G34" s="41" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2663,11 +2690,11 @@
       </c>
       <c r="I34" s="41" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">1/((D34*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.91740116236045921</v>
+        <v>-0.82279943435647263</v>
       </c>
       <c r="J34" s="41" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.92943697594621311</v>
+        <v>-0.8486200516475163</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -2691,11 +2718,11 @@
       </c>
       <c r="E35" s="41" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.5809661488608735</v>
+        <v>2.3916711644778204</v>
       </c>
       <c r="F35" s="41" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.82970111560282667</v>
+        <v>2.9252861409299644</v>
       </c>
       <c r="G35" s="41" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2707,11 +2734,11 @@
       </c>
       <c r="I35" s="41" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">1/((D35*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86082730179886324</v>
+        <v>-0.7014306551019589</v>
       </c>
       <c r="J35" s="41" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88097035957734149</v>
+        <v>-0.74464386892118017</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="E36" s="41" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58169742314819928</v>
+        <v>2.3932399785320833</v>
       </c>
       <c r="F36" s="41" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83088561446036513</v>
+        <v>2.9278272646740526</v>
       </c>
       <c r="G36" s="41" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2751,11 +2778,11 @@
       </c>
       <c r="I36" s="41" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">1/((D36*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.72898528833535625</v>
+        <v>-0.41858794170606073</v>
       </c>
       <c r="J36" s="41" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.76705554963276978</v>
+        <v>-0.50026066288330329</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -2767,7 +2794,7 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -2779,11 +2806,11 @@
       </c>
       <c r="E37" s="41" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F37" s="41" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G37" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2795,11 +2822,11 @@
       </c>
       <c r="I37" s="41" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">1/((D37*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J37" s="41" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -2867,10 +2894,10 @@
       <c r="M40" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="62" t="s">
+      <c r="N40" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="63"/>
+      <c r="O40" s="55"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2912,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -2899,11 +2926,11 @@
       </c>
       <c r="E41" s="43" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58216141014178802</v>
+        <v>2.3942353770154612</v>
       </c>
       <c r="F41" s="43" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83163739535017145</v>
+        <v>2.9294400718602147</v>
       </c>
       <c r="G41" s="43" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2915,16 +2942,16 @@
       </c>
       <c r="I41" s="43" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">1/((D41*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.95391526829885598</v>
+        <v>-0.90113371134094922</v>
       </c>
       <c r="J41" s="43" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.96064736465470835</v>
-      </c>
-      <c r="L41" s="56" t="s">
+        <v>-0.9155761819169842</v>
+      </c>
+      <c r="L41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="46" t="s">
         <v>57</v>
       </c>
       <c r="N41" s="19" t="s">
@@ -2950,7 +2977,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -2962,11 +2989,11 @@
       </c>
       <c r="E42" s="43" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58269685664960935</v>
+        <v>2.3953840787014564</v>
       </c>
       <c r="F42" s="43" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83250517853620565</v>
+        <v>2.9313017405690682</v>
       </c>
       <c r="G42" s="43" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="I42" s="43" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">1/((D42*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.96279462350802814</v>
+        <v>-0.9201827295908368</v>
       </c>
       <c r="J42" s="43" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.96823175895535873</v>
-      </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="50"/>
+        <v>-0.93184710047402008</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="46"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3005,7 +3032,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3017,11 +3044,11 @@
       </c>
       <c r="E43" s="43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58257844108838408</v>
+        <v>2.3951300399639903</v>
       </c>
       <c r="F43" s="43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83231324552359753</v>
+        <v>2.9308899837045437</v>
       </c>
       <c r="G43" s="43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3033,14 +3060,14 @@
       </c>
       <c r="I43" s="43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98103955970351164</v>
+        <v>-0.959323873780765</v>
       </c>
       <c r="J43" s="43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.98381191987101102</v>
-      </c>
-      <c r="L43" s="58"/>
-      <c r="M43" s="50"/>
+        <v>-0.9652714609852282</v>
+      </c>
+      <c r="L43" s="62"/>
+      <c r="M43" s="46"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3060,7 +3087,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3072,11 +3099,11 @@
       </c>
       <c r="E44" s="43" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F44" s="43" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G44" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3088,16 +3115,16 @@
       </c>
       <c r="I44" s="43" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">1/((D44*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J44" s="43" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L44" s="56" t="s">
+        <v>2.9319864737553543</v>
+      </c>
+      <c r="L44" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="56" t="s">
+      <c r="M44" s="60" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="36" t="s">
@@ -3123,7 +3150,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3135,11 +3162,11 @@
       </c>
       <c r="E45" s="43" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58255902516615721</v>
+        <v>2.3950883866853312</v>
       </c>
       <c r="F45" s="43" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83228177646141388</v>
+        <v>2.9308224726380621</v>
       </c>
       <c r="G45" s="43" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3151,14 +3178,14 @@
       </c>
       <c r="I45" s="43" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">1/((D45*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.88353528811956017</v>
+        <v>-0.75014644984731649</v>
       </c>
       <c r="J45" s="43" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.90044472096336314</v>
-      </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+        <v>-0.78642251801318053</v>
+      </c>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
@@ -3178,7 +3205,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3190,11 +3217,11 @@
       </c>
       <c r="E46" s="43" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58255922593608855</v>
+        <v>2.3950888174001745</v>
       </c>
       <c r="F46" s="43" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83228210186500307</v>
+        <v>2.9308231707314216</v>
       </c>
       <c r="G46" s="43" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3206,14 +3233,14 @@
       </c>
       <c r="I46" s="43" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">1/((D46*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.88356343979914675</v>
+        <v>-0.75020684408153471</v>
       </c>
       <c r="J46" s="43" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.90046884492425372</v>
-      </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="58"/>
+        <v>-0.78647427152010074</v>
+      </c>
+      <c r="L46" s="61"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3260,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3245,11 +3272,11 @@
       </c>
       <c r="E47" s="43" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58213768191105664</v>
+        <v>2.3941844724745804</v>
       </c>
       <c r="F47" s="43" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83159894510290244</v>
+        <v>2.9293575839492476</v>
       </c>
       <c r="G47" s="43" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3261,14 +3288,14 @@
       </c>
       <c r="I47" s="43" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">1/((D47*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9795066737170437</v>
+        <v>-0.95603534973331361</v>
       </c>
       <c r="J47" s="43" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.98250307302451168</v>
-      </c>
-      <c r="L47" s="57"/>
-      <c r="M47" s="56" t="s">
+        <v>-0.96246357157457385</v>
+      </c>
+      <c r="L47" s="61"/>
+      <c r="M47" s="60" t="s">
         <v>40</v>
       </c>
       <c r="N47" s="36" t="s">
@@ -3290,7 +3317,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3302,11 +3329,11 @@
       </c>
       <c r="E48" s="43" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58257860604283618</v>
+        <v>2.3951303938433313</v>
       </c>
       <c r="F48" s="43" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83231351288084854</v>
+        <v>2.9308905572701951</v>
       </c>
       <c r="G48" s="43" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3318,14 +3345,14 @@
       </c>
       <c r="I48" s="43" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">1/((D48*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98105442307354396</v>
+        <v>-0.95935576039869264</v>
       </c>
       <c r="J48" s="43" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.98382461077704109</v>
-      </c>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
+        <v>-0.96529868698248578</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
       <c r="N48" s="36" t="s">
         <v>23</v>
       </c>
@@ -3345,7 +3372,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3357,11 +3384,11 @@
       </c>
       <c r="E49" s="43" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58269726431071422</v>
+        <v>2.3953849532631382</v>
       </c>
       <c r="F49" s="43" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83250583931062128</v>
+        <v>2.9313031581386562</v>
       </c>
       <c r="G49" s="43" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3373,14 +3400,14 @@
       </c>
       <c r="I49" s="43" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">1/((D49*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.96281276587004916</v>
+        <v>-0.92022165068106154</v>
       </c>
       <c r="J49" s="43" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.96824725392623501</v>
-      </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
+        <v>-0.93188034207502046</v>
+      </c>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="36" t="s">
         <v>24</v>
       </c>
@@ -3400,7 +3427,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3412,11 +3439,11 @@
       </c>
       <c r="E50" s="43" cm="1">
         <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F50" s="43" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G50" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="I50" s="43" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">1/((D50*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J50" s="43" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3476,7 +3503,7 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3490,11 +3517,11 @@
       </c>
       <c r="E54" s="43" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.5824662207313871</v>
+        <v>2.3948892918941036</v>
       </c>
       <c r="F54" s="43" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83213136456317915</v>
+        <v>2.930499791663264</v>
       </c>
       <c r="G54" s="43" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3506,11 +3533,11 @@
       </c>
       <c r="I54" s="43" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">1/((D54*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.23510354055786409</v>
+        <v>1.6496867543134299</v>
       </c>
       <c r="J54" s="43" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.24091614337415623</v>
+        <v>1.6621566211583239</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3522,7 +3549,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3534,11 +3561,11 @@
       </c>
       <c r="E55" s="43" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58262000299156957</v>
+        <v>2.3952192033585873</v>
       </c>
       <c r="F55" s="43" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83238060952789406</v>
+        <v>2.9310345007462657</v>
       </c>
       <c r="G55" s="43" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3550,11 +3577,11 @@
       </c>
       <c r="I55" s="43" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">1/((D55*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.40990552185422446</v>
+        <v>2.0246921520467316</v>
       </c>
       <c r="J55" s="43" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.50713014730781381</v>
+        <v>2.2332696468056739</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3566,7 +3593,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3578,11 +3605,11 @@
       </c>
       <c r="E56" s="43" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58238845685793494</v>
+        <v>2.3947224638520135</v>
       </c>
       <c r="F56" s="43" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83200533494233797</v>
+        <v>2.9302294183657804</v>
       </c>
       <c r="G56" s="43" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3594,11 +3621,11 @@
       </c>
       <c r="I56" s="43" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">1/((D56*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.14598412974027908</v>
+        <v>1.4584975020431994</v>
       </c>
       <c r="J56" s="43" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.12174959985393397</v>
+        <v>1.4065067897440042</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -3610,7 +3637,7 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="50"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3622,11 +3649,11 @@
       </c>
       <c r="E57" s="43" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F57" s="43" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G57" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3638,11 +3665,11 @@
       </c>
       <c r="I57" s="43" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">1/((D57*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J57" s="43" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -3654,7 +3681,7 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3666,11 +3693,11 @@
       </c>
       <c r="E58" s="43" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58260274885227981</v>
+        <v>2.3951821877863444</v>
       </c>
       <c r="F58" s="43" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8323526436513764</v>
+        <v>2.9309745051182494</v>
       </c>
       <c r="G58" s="43" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3682,11 +3709,11 @@
       </c>
       <c r="I58" s="43" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">1/((D58*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.47052352600571479</v>
+        <v>2.1547368951786092</v>
       </c>
       <c r="J58" s="43" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.61265410225930106</v>
+        <v>2.4596518216729173</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -3698,7 +3725,7 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3710,11 +3737,11 @@
       </c>
       <c r="E59" s="43" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58260312570054662</v>
+        <v>2.3951829962447673</v>
       </c>
       <c r="F59" s="43" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83235325445246966</v>
+        <v>2.9309758154792944</v>
       </c>
       <c r="G59" s="43" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3726,11 +3753,11 @@
       </c>
       <c r="I59" s="43" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">1/((D59*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.47020190139446982</v>
+        <v>2.1540469089189203</v>
       </c>
       <c r="J59" s="43" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.61207213785893022</v>
+        <v>2.4584033244315866</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -3742,7 +3769,7 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="50"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3754,11 +3781,11 @@
       </c>
       <c r="E60" s="43" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58207140542340285</v>
+        <v>2.3940422884991546</v>
       </c>
       <c r="F60" s="43" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83149155026934696</v>
+        <v>2.9291271881495358</v>
       </c>
       <c r="G60" s="43" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3770,11 +3797,11 @@
       </c>
       <c r="I60" s="43" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">1/((D60*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.1455924333922084</v>
+        <v>0.83297378534214594</v>
       </c>
       <c r="J60" s="43" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.21657773570966021</v>
+        <v>0.68068791689055708</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -3786,7 +3813,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3798,11 +3825,11 @@
       </c>
       <c r="E61" s="43" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58238750468600675</v>
+        <v>2.394720421142829</v>
       </c>
       <c r="F61" s="43" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8320037918160117</v>
+        <v>2.9302261078729734</v>
       </c>
       <c r="G61" s="43" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3814,11 +3841,11 @@
       </c>
       <c r="I61" s="43" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">1/((D61*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.14607160191608104</v>
+        <v>1.4586851574566788</v>
       </c>
       <c r="J61" s="43" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.12186226790664989</v>
+        <v>1.4067484982624503</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -3830,7 +3857,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="50"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="E62" s="43" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58261946541674758</v>
+        <v>2.3952180500909956</v>
       </c>
       <c r="F62" s="43" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83237973821149014</v>
+        <v>2.9310326314976902</v>
       </c>
       <c r="G62" s="43" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3858,11 +3885,11 @@
       </c>
       <c r="I62" s="43" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">1/((D62*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.41020767917809708</v>
+        <v>2.0253403748333172</v>
       </c>
       <c r="J62" s="43" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.50763674099794343</v>
+        <v>2.2343564500950146</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -3874,7 +3901,7 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -3886,11 +3913,11 @@
       </c>
       <c r="E63" s="43" cm="1">
         <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F63" s="43" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G63" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3902,11 +3929,11 @@
       </c>
       <c r="I63" s="43" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">1/((D63*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J63" s="43" cm="1">
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
@@ -3978,37 +4005,41 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
         <v>40230</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="C67" s="19">
+        <v>156.21771000000001</v>
+      </c>
+      <c r="D67" s="19">
+        <v>10154.80035955132</v>
+      </c>
       <c r="E67" s="43" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3948892918941036</v>
       </c>
       <c r="F67" s="43" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G67" s="43" t="e" cm="1">
+        <v>2.930499791663264</v>
+      </c>
+      <c r="G67" s="43" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="43" t="e" cm="1">
+        <v>61.936201866928741</v>
+      </c>
+      <c r="H67" s="43" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C67)*INDIRECT(ADDRESS(5,38))/(D67*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.81583490285435212</v>
       </c>
       <c r="I67" s="43" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">1/((D67*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>1.6496867543134299</v>
       </c>
       <c r="J67" s="43" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>1.6621566211583239</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
@@ -4020,35 +4051,39 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="50"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="C68" s="19">
+        <v>100.01789600000001</v>
+      </c>
+      <c r="D68" s="19">
+        <v>6463.9342945162707</v>
+      </c>
       <c r="E68" s="43" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3952192033585873</v>
       </c>
       <c r="F68" s="43" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G68" s="43" t="e" cm="1">
+        <v>2.9310345007462657</v>
+      </c>
+      <c r="G68" s="43" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="43" t="e" cm="1">
+        <v>97.299901567108861</v>
+      </c>
+      <c r="H68" s="43" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C68)*INDIRECT(ADDRESS(5,38))/(D68*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.70948292954383563</v>
       </c>
       <c r="I68" s="43" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">1/((D68*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.0246921520467316</v>
       </c>
       <c r="J68" s="43" cm="1">
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.2332696468056739</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
@@ -4060,35 +4095,39 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="19">
+        <v>184.64072000000002</v>
+      </c>
+      <c r="D69" s="19">
+        <v>12072.158826823041</v>
+      </c>
       <c r="E69" s="43" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3947224638520135</v>
       </c>
       <c r="F69" s="43" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G69" s="43" t="e" cm="1">
+        <v>2.9302294183657804</v>
+      </c>
+      <c r="G69" s="43" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="43" t="e" cm="1">
+        <v>52.248001479572494</v>
+      </c>
+      <c r="H69" s="43" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C69)*INDIRECT(ADDRESS(5,38))/(D69*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.84540845694435252</v>
       </c>
       <c r="I69" s="43" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">1/((D69*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>1.4584975020431994</v>
       </c>
       <c r="J69" s="43" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>1.4065067897440042</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -4100,19 +4139,23 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="19">
+        <v>0</v>
+      </c>
+      <c r="D70" s="19">
+        <v>0</v>
+      </c>
       <c r="E70" s="43" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F70" s="43" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G70" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4124,11 +4167,11 @@
       </c>
       <c r="I70" s="43" cm="1">
         <f t="array" aca="1" ref="I70" ca="1">1/((D70*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J70" s="43" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -4140,35 +4183,39 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="50"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="C71" s="19">
+        <v>106.32288700000001</v>
+      </c>
+      <c r="D71" s="19">
+        <v>5042.7952322291503</v>
+      </c>
       <c r="E71" s="43" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3951821877863444</v>
       </c>
       <c r="F71" s="43" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G71" s="43" t="e" cm="1">
+        <v>2.9309745051182494</v>
+      </c>
+      <c r="G71" s="43" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="43" t="e" cm="1">
+        <v>91.47067690843771</v>
+      </c>
+      <c r="H71" s="43" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C71)*INDIRECT(ADDRESS(5,38))/(D71*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.62778247330731474</v>
       </c>
       <c r="I71" s="43" cm="1">
         <f t="array" aca="1" ref="I71" ca="1">1/((D71*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.1547368951786092</v>
       </c>
       <c r="J71" s="43" cm="1">
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.4596518216729173</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -4180,35 +4227,39 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="19">
+        <v>106.18517800000001</v>
+      </c>
+      <c r="D72" s="19">
+        <v>5050.8717720764607</v>
+      </c>
       <c r="E72" s="43" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3951829962447673</v>
       </c>
       <c r="F72" s="43" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G72" s="43" t="e" cm="1">
+        <v>2.9309758154792944</v>
+      </c>
+      <c r="G72" s="43" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="43" t="e" cm="1">
+        <v>91.590599902270085</v>
+      </c>
+      <c r="H72" s="43" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C72)*INDIRECT(ADDRESS(5,38))/(D72*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.62837391666003906</v>
       </c>
       <c r="I72" s="43" cm="1">
         <f t="array" aca="1" ref="I72" ca="1">1/((D72*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.1540469089189203</v>
       </c>
       <c r="J72" s="43" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.4584033244315866</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -4220,35 +4271,39 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="50"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="19">
+        <v>300.55322000000007</v>
+      </c>
+      <c r="D73" s="19">
+        <v>19762.225512919998</v>
+      </c>
       <c r="E73" s="43" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3940422884991546</v>
       </c>
       <c r="F73" s="43" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G73" s="43" t="e" cm="1">
+        <v>2.9291271881495358</v>
+      </c>
+      <c r="G73" s="43" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" s="43" t="e" cm="1">
+        <v>31.712174342199127</v>
+      </c>
+      <c r="H73" s="43" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C73)*INDIRECT(ADDRESS(5,38))/(D73*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.90637066809322542</v>
       </c>
       <c r="I73" s="43" cm="1">
         <f t="array" aca="1" ref="I73" ca="1">1/((D73*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.83297378534214594</v>
       </c>
       <c r="J73" s="43" cm="1">
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.68068791689055708</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -4260,35 +4315,39 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="50"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="C74" s="19">
+        <v>184.98876000000004</v>
+      </c>
+      <c r="D74" s="19">
+        <v>12070.213076078191</v>
+      </c>
       <c r="E74" s="43" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.394720421142829</v>
       </c>
       <c r="F74" s="43" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G74" s="43" t="e" cm="1">
+        <v>2.9302261078729734</v>
+      </c>
+      <c r="G74" s="43" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H74" s="43" t="e" cm="1">
+        <v>52.147820071605061</v>
+      </c>
+      <c r="H74" s="43" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C74)*INDIRECT(ADDRESS(5,38))/(D74*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.84538749907323185</v>
       </c>
       <c r="I74" s="43" cm="1">
         <f t="array" aca="1" ref="I74" ca="1">1/((D74*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>1.4586851574566788</v>
       </c>
       <c r="J74" s="43" cm="1">
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>1.4067484982624503</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -4300,35 +4359,39 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="50"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="19">
+        <v>100.21433400000001</v>
+      </c>
+      <c r="D75" s="19">
+        <v>6457.2113554137213</v>
+      </c>
       <c r="E75" s="43" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3952180500909956</v>
       </c>
       <c r="F75" s="43" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G75" s="43" t="e" cm="1">
+        <v>2.9310326314976902</v>
+      </c>
+      <c r="G75" s="43" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="43" t="e" cm="1">
+        <v>97.107216196730207</v>
+      </c>
+      <c r="H75" s="43" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C75)*INDIRECT(ADDRESS(5,38))/(D75*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.70918463787066643</v>
       </c>
       <c r="I75" s="43" cm="1">
         <f t="array" aca="1" ref="I75" ca="1">1/((D75*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.0253403748333172</v>
       </c>
       <c r="J75" s="43" cm="1">
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.2343564500950146</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4340,19 +4403,23 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="50"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="C76" s="19">
+        <v>0</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
       <c r="E76" s="43" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F76" s="43" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G76" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4364,11 +4431,11 @@
       </c>
       <c r="I76" s="43" cm="1">
         <f t="array" aca="1" ref="I76" ca="1">1/((D76*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J76" s="43" cm="1">
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4436,10 +4503,10 @@
       <c r="M79" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="64" t="s">
+      <c r="N79" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="65"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4521,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4468,11 +4535,11 @@
       </c>
       <c r="E80" s="44" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58082306867924505</v>
+        <v>2.3913642123482086</v>
       </c>
       <c r="F80" s="44" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.82946940926799151</v>
+        <v>2.9247890577412741</v>
       </c>
       <c r="G80" s="44" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4484,16 +4551,16 @@
       </c>
       <c r="I80" s="44" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.51840503368384461</v>
+        <v>2.2574578351687844</v>
       </c>
       <c r="J80" s="44" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.70290257973980275</v>
-      </c>
-      <c r="L80" s="46" t="s">
+        <v>2.653263278141603</v>
+      </c>
+      <c r="L80" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="49" t="s">
+      <c r="M80" s="50" t="s">
         <v>57</v>
       </c>
       <c r="N80" s="23" t="s">
@@ -4515,7 +4582,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
@@ -4527,11 +4594,11 @@
       </c>
       <c r="E81" s="44" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58274387399495531</v>
+        <v>2.3954849457406118</v>
       </c>
       <c r="F81" s="44" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83258138944874971</v>
+        <v>2.9314652370200713</v>
       </c>
       <c r="G81" s="44" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4543,14 +4610,14 @@
       </c>
       <c r="I81" s="44" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9994358385875074</v>
+        <v>-0.99878969578428933</v>
       </c>
       <c r="J81" s="44" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99951834497406922</v>
-      </c>
-      <c r="L81" s="47"/>
-      <c r="M81" s="49"/>
+        <v>-0.99896669801320381</v>
+      </c>
+      <c r="L81" s="48"/>
+      <c r="M81" s="50"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4570,7 +4637,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="47"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
@@ -4582,11 +4649,11 @@
       </c>
       <c r="E82" s="44" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58250983054338001</v>
+        <v>2.3949828486991822</v>
       </c>
       <c r="F82" s="44" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83220204386943908</v>
+        <v>2.9306514210736339</v>
       </c>
       <c r="G82" s="44" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4598,14 +4665,14 @@
       </c>
       <c r="I82" s="44" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99975457170774806</v>
+        <v>-0.99947347888354365</v>
       </c>
       <c r="J82" s="44" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99979046463463628</v>
-      </c>
-      <c r="L82" s="48"/>
-      <c r="M82" s="49"/>
+        <v>-0.99955048053549123</v>
+      </c>
+      <c r="L82" s="49"/>
+      <c r="M82" s="50"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4625,7 +4692,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
@@ -4637,11 +4704,11 @@
       </c>
       <c r="E83" s="44" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F83" s="44" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G83" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4653,16 +4720,16 @@
       </c>
       <c r="I83" s="44" cm="1">
         <f t="array" aca="1" ref="I83" ca="1">1/((D83*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J83" s="44" cm="1">
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L83" s="46" t="s">
+        <v>2.9319864737553543</v>
+      </c>
+      <c r="L83" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="46" t="s">
+      <c r="M83" s="47" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="35" t="s">
@@ -4684,7 +4751,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
@@ -4696,11 +4763,11 @@
       </c>
       <c r="E84" s="44" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58246132879549384</v>
+        <v>2.3948787971482677</v>
       </c>
       <c r="F84" s="44" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83212343620068219</v>
+        <v>2.930482782824408</v>
       </c>
       <c r="G84" s="44" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4712,14 +4779,14 @@
       </c>
       <c r="I84" s="44" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99226491381549253</v>
+        <v>-0.98340579981067411</v>
       </c>
       <c r="J84" s="44" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99339610393086397</v>
-      </c>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
+        <v>-0.9858325594845686</v>
+      </c>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
@@ -4739,7 +4806,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
@@ -4751,11 +4818,11 @@
       </c>
       <c r="E85" s="44" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58246188408016142</v>
+        <v>2.3948799884090652</v>
       </c>
       <c r="F85" s="44" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83212433614978365</v>
+        <v>2.9304847134991534</v>
       </c>
       <c r="G85" s="44" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4767,14 +4834,14 @@
       </c>
       <c r="I85" s="44" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99227678275843045</v>
+        <v>-0.98343126243778012</v>
       </c>
       <c r="J85" s="44" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99340623725275223</v>
-      </c>
-      <c r="L85" s="47"/>
-      <c r="M85" s="48"/>
+        <v>-0.98585429865695595</v>
+      </c>
+      <c r="L85" s="48"/>
+      <c r="M85" s="49"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
@@ -4794,7 +4861,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
@@ -4806,11 +4873,11 @@
       </c>
       <c r="E86" s="44" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58068592832669852</v>
+        <v>2.3910700030259191</v>
       </c>
       <c r="F86" s="44" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8292473377051075</v>
+        <v>2.92431264417807</v>
       </c>
       <c r="G86" s="44" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4822,14 +4889,14 @@
       </c>
       <c r="I86" s="44" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99982265799500691</v>
+        <v>-0.99961954545009135</v>
       </c>
       <c r="J86" s="44" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99984859356933831</v>
-      </c>
-      <c r="L86" s="47"/>
-      <c r="M86" s="46" t="s">
+        <v>-0.99967518543938361</v>
+      </c>
+      <c r="L86" s="48"/>
+      <c r="M86" s="47" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="35" t="s">
@@ -4851,7 +4918,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="47"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
@@ -4863,11 +4930,11 @@
       </c>
       <c r="E87" s="44" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58251025914705212</v>
+        <v>2.3949837681892783</v>
       </c>
       <c r="F87" s="44" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83220273852382776</v>
+        <v>2.9306529113264523</v>
       </c>
       <c r="G87" s="44" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4879,14 +4946,14 @@
       </c>
       <c r="I87" s="44" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99975487846177313</v>
+        <v>-0.99947413696770449</v>
       </c>
       <c r="J87" s="44" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.999790726527089</v>
-      </c>
-      <c r="L87" s="47"/>
-      <c r="M87" s="47"/>
+        <v>-0.99955104237742609</v>
+      </c>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
       <c r="N87" s="35" t="s">
         <v>23</v>
       </c>
@@ -4906,7 +4973,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
@@ -4918,11 +4985,11 @@
       </c>
       <c r="E88" s="44" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.5827444889101161</v>
+        <v>2.3954862649276296</v>
       </c>
       <c r="F88" s="44" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83258238618323666</v>
+        <v>2.9314673753300027</v>
       </c>
       <c r="G88" s="44" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4934,14 +5001,14 @@
       </c>
       <c r="I88" s="44" cm="1">
         <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99943636652750889</v>
+        <v>-0.99879082838215094</v>
       </c>
       <c r="J88" s="44" cm="1">
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99951879570494895</v>
-      </c>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
+        <v>-0.99896766497314105</v>
+      </c>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
       <c r="N88" s="35" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +5028,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
@@ -4973,11 +5040,11 @@
       </c>
       <c r="E89" s="44" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F89" s="44" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G89" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4989,11 +5056,11 @@
       </c>
       <c r="I89" s="44" cm="1">
         <f t="array" aca="1" ref="I89" ca="1">1/((D89*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J89" s="44" cm="1">
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -5037,7 +5104,7 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5051,11 +5118,11 @@
       </c>
       <c r="E93" s="44" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58005904310685996</v>
+        <v>2.3897251364548699</v>
       </c>
       <c r="F93" s="44" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.82823241744885623</v>
+        <v>2.9221353200336839</v>
       </c>
       <c r="G93" s="44" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5067,11 +5134,11 @@
       </c>
       <c r="I93" s="44" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99724684572361033</v>
+        <v>-0.99409361549118691</v>
       </c>
       <c r="J93" s="44" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99764948214528015</v>
+        <v>-0.99495739764245572</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5083,7 +5150,7 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
+      <c r="A94" s="50"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5095,11 +5162,11 @@
       </c>
       <c r="E94" s="44" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58246462048054126</v>
+        <v>2.3948858588511803</v>
       </c>
       <c r="F94" s="44" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83212877103382366</v>
+        <v>2.9304942277245702</v>
       </c>
       <c r="G94" s="44" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5111,11 +5178,11 @@
       </c>
       <c r="I94" s="44" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99823304166750026</v>
+        <v>-0.99620931692339443</v>
       </c>
       <c r="J94" s="44" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99849145198521749</v>
+        <v>-0.99676368858014164</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5127,7 +5194,7 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
+      <c r="A95" s="50"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5139,11 +5206,11 @@
       </c>
       <c r="E95" s="44" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58136977478967555</v>
+        <v>2.3925370694340646</v>
       </c>
       <c r="F95" s="44" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83035484415602356</v>
+        <v>2.9266885949198058</v>
       </c>
       <c r="G95" s="44" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5155,11 +5222,11 @@
       </c>
       <c r="I95" s="44" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99936044606566032</v>
+        <v>-0.99862795503952351</v>
       </c>
       <c r="J95" s="44" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99945397830733584</v>
+        <v>-0.99882861120617739</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -5171,7 +5238,7 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="49"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
@@ -5183,11 +5250,11 @@
       </c>
       <c r="E96" s="44" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F96" s="44" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G96" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5199,11 +5266,11 @@
       </c>
       <c r="I96" s="44" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">1/((D96*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J96" s="44" cm="1">
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -5215,7 +5282,7 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="49"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
@@ -5227,11 +5294,11 @@
       </c>
       <c r="E97" s="44" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58256031707791078</v>
+        <v>2.3950911582436252</v>
       </c>
       <c r="F97" s="44" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83228387036479146</v>
+        <v>2.9308269647214074</v>
       </c>
       <c r="G97" s="44" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5243,11 +5310,11 @@
       </c>
       <c r="I97" s="44" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99480712607268296</v>
+        <v>-0.98885964713871954</v>
       </c>
       <c r="J97" s="44" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99556655268922112</v>
+        <v>-0.99048885682085297</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5259,7 +5326,7 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
+      <c r="A98" s="50"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
@@ -5271,11 +5338,11 @@
       </c>
       <c r="E98" s="44" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58256105243309642</v>
+        <v>2.3950927358124936</v>
       </c>
       <c r="F98" s="44" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83228506221360909</v>
+        <v>2.9308295216131346</v>
       </c>
       <c r="G98" s="44" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5287,11 +5354,11 @@
       </c>
       <c r="I98" s="44" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.994814231115838</v>
+        <v>-0.98887488969783988</v>
       </c>
       <c r="J98" s="44" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99557261869224012</v>
+        <v>-0.99050187031107717</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5303,7 +5370,7 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
@@ -5315,11 +5382,11 @@
       </c>
       <c r="E99" s="44" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58233315995794888</v>
+        <v>2.3946038345560585</v>
       </c>
       <c r="F99" s="44" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.8319157198970637</v>
+        <v>2.9300371658212345</v>
       </c>
       <c r="G99" s="44" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5331,11 +5398,11 @@
       </c>
       <c r="I99" s="44" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99974614669089201</v>
+        <v>-0.99945540456439919</v>
       </c>
       <c r="J99" s="44" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99978327174342818</v>
+        <v>-0.99953504951458205</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5347,7 +5414,7 @@
       <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="49"/>
+      <c r="A100" s="50"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
@@ -5359,11 +5426,11 @@
       </c>
       <c r="E100" s="44" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58136988238734655</v>
+        <v>2.392537300265015</v>
       </c>
       <c r="F100" s="44" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83035501844324955</v>
+        <v>2.926688968820891</v>
       </c>
       <c r="G100" s="44" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5375,11 +5442,11 @@
       </c>
       <c r="I100" s="44" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9993613075127854</v>
+        <v>-0.99862980311538274</v>
       </c>
       <c r="J100" s="44" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99945471377126949</v>
+        <v>-0.99883018900834497</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -5391,7 +5458,7 @@
       <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="49"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
@@ -5403,11 +5470,11 @@
       </c>
       <c r="E101" s="44" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58246630379885067</v>
+        <v>2.3948894701000198</v>
       </c>
       <c r="F101" s="44" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83213149919082019</v>
+        <v>2.9305000804820271</v>
       </c>
       <c r="G101" s="44" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5419,11 +5486,11 @@
       </c>
       <c r="I101" s="44" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99823486037420039</v>
+        <v>-0.99621321862304557</v>
       </c>
       <c r="J101" s="44" cm="1">
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99849300471449842</v>
+        <v>-0.99676701967431591</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -5435,7 +5502,7 @@
       <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="49"/>
+      <c r="A102" s="50"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
@@ -5447,11 +5514,11 @@
       </c>
       <c r="E102" s="44" cm="1">
         <f t="array" aca="1" ref="E102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F102" s="44" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G102" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5463,11 +5530,11 @@
       </c>
       <c r="I102" s="44" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">1/((D102*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J102" s="44" cm="1">
         <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -5539,7 +5606,7 @@
       <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="50" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -5553,11 +5620,11 @@
       </c>
       <c r="E106" s="44" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.46332539962994468</v>
+        <v>2.1392946431831699</v>
       </c>
       <c r="F106" s="44" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.64468247975944304</v>
+        <v>2.5283627959657649</v>
       </c>
       <c r="G106" s="44" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5569,11 +5636,11 @@
       </c>
       <c r="I106" s="44" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9999805426512518</v>
+        <v>-0.99995825784838355</v>
       </c>
       <c r="J106" s="44" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99998338821242116</v>
+        <v>-0.99996436247483078</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5585,7 +5652,7 @@
       <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="49"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
@@ -5597,11 +5664,11 @@
       </c>
       <c r="E107" s="44" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.56474852890444538</v>
+        <v>2.3568792532137435</v>
       </c>
       <c r="F107" s="44" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.80354423777450745</v>
+        <v>2.8691713858183507</v>
       </c>
       <c r="G107" s="44" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5613,11 +5680,11 @@
       </c>
       <c r="I107" s="44" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99996800070386183</v>
+        <v>-0.99993135141440348</v>
       </c>
       <c r="J107" s="44" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99997268047579191</v>
+        <v>-0.99994139100160329</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5629,7 +5696,7 @@
       <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="49"/>
+      <c r="A108" s="50"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
@@ -5641,11 +5708,11 @@
       </c>
       <c r="E108" s="44" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.40810884404929082</v>
+        <v>2.0208377113256297</v>
       </c>
       <c r="F108" s="44" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.56147393336645468</v>
+        <v>2.3498542126905586</v>
       </c>
       <c r="G108" s="44" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5657,11 +5724,11 @@
       </c>
       <c r="I108" s="44" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99998781444022278</v>
+        <v>-0.99997385812988515</v>
       </c>
       <c r="J108" s="44" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99998959653069053</v>
+        <v>-0.99997768127616593</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5673,7 +5740,7 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="49"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
@@ -5685,11 +5752,11 @@
       </c>
       <c r="E109" s="44" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F109" s="44" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G109" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5701,11 +5768,11 @@
       </c>
       <c r="I109" s="44" cm="1">
         <f t="array" aca="1" ref="I109" ca="1">1/((D109*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J109" s="44" cm="1">
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5717,7 +5784,7 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="49"/>
+      <c r="A110" s="50"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
@@ -5729,11 +5796,11 @@
       </c>
       <c r="E110" s="44" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.55804055021006782</v>
+        <v>2.342488522630394</v>
       </c>
       <c r="F110" s="44" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.79278744201981843</v>
+        <v>2.8460946652891708</v>
       </c>
       <c r="G110" s="44" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5745,11 +5812,11 @@
       </c>
       <c r="I110" s="44" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99992300954844016</v>
+        <v>-0.99983483119187355</v>
       </c>
       <c r="J110" s="44" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99993426910088712</v>
+        <v>-0.99985898648412119</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5761,7 +5828,7 @@
       <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="49"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
@@ -5773,11 +5840,11 @@
       </c>
       <c r="E111" s="44" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.55912437782218571</v>
+        <v>2.3448136747925283</v>
       </c>
       <c r="F111" s="44" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.79452299340709365</v>
+        <v>2.8498179705597688</v>
       </c>
       <c r="G111" s="44" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5789,11 +5856,11 @@
       </c>
       <c r="I111" s="44" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99992347611945365</v>
+        <v>-0.99983583213389482</v>
       </c>
       <c r="J111" s="44" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99993466743771509</v>
+        <v>-0.99985984104228731</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5805,7 +5872,7 @@
       <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="49"/>
+      <c r="A112" s="50"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
@@ -5817,11 +5884,11 @@
       </c>
       <c r="E112" s="44" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.15013489900632693</v>
+        <v>1.4674022116349885</v>
       </c>
       <c r="F112" s="44" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.2004547201692275</v>
+        <v>1.5753541033075971</v>
       </c>
       <c r="G112" s="44" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5833,11 +5900,11 @@
       </c>
       <c r="I112" s="44" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99999532477340114</v>
+        <v>-0.99998997016396951</v>
       </c>
       <c r="J112" s="44" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99999600850700954</v>
+        <v>-0.99999143698826909</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -5849,7 +5916,7 @@
       <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="49"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
@@ -5861,11 +5928,11 @@
       </c>
       <c r="E113" s="44" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.41637676695530668</v>
+        <v>2.0385750143859545</v>
       </c>
       <c r="F113" s="44" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.57379142474431521</v>
+        <v>2.3762791177115137</v>
       </c>
       <c r="G113" s="44" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5877,11 +5944,11 @@
       </c>
       <c r="I113" s="44" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99998696172714396</v>
+        <v>-0.99997202879131064</v>
       </c>
       <c r="J113" s="44" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99998886852356506</v>
+        <v>-0.99997611947120457</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5893,7 +5960,7 @@
       <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="49"/>
+      <c r="A114" s="50"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
@@ -5905,11 +5972,11 @@
       </c>
       <c r="E114" s="44" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.56540184256753823</v>
+        <v>2.3582808171334184</v>
       </c>
       <c r="F114" s="44" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.80459382024606541</v>
+        <v>2.8714230713500677</v>
       </c>
       <c r="G114" s="44" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5921,11 +5988,11 @@
       </c>
       <c r="I114" s="44" cm="1">
         <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99996738792904438</v>
+        <v>-0.9999300368190972</v>
       </c>
       <c r="J114" s="44" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99997215731689526</v>
+        <v>-0.99994026866071972</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -5937,7 +6004,7 @@
       <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="49"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
@@ -5949,11 +6016,11 @@
       </c>
       <c r="E115" s="44" cm="1">
         <f t="array" aca="1" ref="E115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="F115" s="44" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553538</v>
       </c>
       <c r="G115" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5965,11 +6032,11 @@
       </c>
       <c r="I115" s="44" cm="1">
         <f t="array" aca="1" ref="I115" ca="1">1/((D115*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>2.3958065000614419</v>
       </c>
       <c r="J115" s="44" cm="1">
         <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>2.9319864737553543</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -6777,7 +6844,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="50" t="s">
+      <c r="A159" s="46" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="35">
@@ -6802,7 +6869,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="50"/>
+      <c r="A160" s="46"/>
       <c r="B160" s="35">
         <v>40240</v>
       </c>
@@ -6825,7 +6892,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="50"/>
+      <c r="A161" s="46"/>
       <c r="B161" s="35">
         <v>40250</v>
       </c>
@@ -6848,7 +6915,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="50"/>
+      <c r="A162" s="46"/>
       <c r="B162" s="35">
         <v>40360</v>
       </c>
@@ -6862,7 +6929,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="50"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="35">
         <v>40390</v>
       </c>
@@ -6885,7 +6952,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="50"/>
+      <c r="A164" s="46"/>
       <c r="B164" s="35">
         <v>40710</v>
       </c>
@@ -6908,7 +6975,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="50"/>
+      <c r="A165" s="46"/>
       <c r="B165" s="35">
         <v>40740</v>
       </c>
@@ -6931,7 +6998,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="50"/>
+      <c r="A166" s="46"/>
       <c r="B166" s="35">
         <v>40750</v>
       </c>
@@ -6954,7 +7021,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="50"/>
+      <c r="A167" s="46"/>
       <c r="B167" s="35">
         <v>40760</v>
       </c>
@@ -6977,7 +7044,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="50"/>
+      <c r="A168" s="46"/>
       <c r="B168" s="35">
         <v>40770</v>
       </c>
@@ -7008,7 +7075,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="50" t="s">
+      <c r="A170" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="35">
@@ -7033,7 +7100,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="50"/>
+      <c r="A171" s="46"/>
       <c r="B171" s="35">
         <v>40240</v>
       </c>
@@ -7056,7 +7123,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="50"/>
+      <c r="A172" s="46"/>
       <c r="B172" s="35">
         <v>40250</v>
       </c>
@@ -7079,7 +7146,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="50"/>
+      <c r="A173" s="46"/>
       <c r="B173" s="35">
         <v>40360</v>
       </c>
@@ -7096,7 +7163,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="50"/>
+      <c r="A174" s="46"/>
       <c r="B174" s="35">
         <v>40390</v>
       </c>
@@ -7119,7 +7186,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="50"/>
+      <c r="A175" s="46"/>
       <c r="B175" s="35">
         <v>40710</v>
       </c>
@@ -7142,7 +7209,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="50"/>
+      <c r="A176" s="46"/>
       <c r="B176" s="35">
         <v>40740</v>
       </c>
@@ -7165,7 +7232,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="50"/>
+      <c r="A177" s="46"/>
       <c r="B177" s="35">
         <v>40750</v>
       </c>
@@ -7188,7 +7255,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="50"/>
+      <c r="A178" s="46"/>
       <c r="B178" s="35">
         <v>40760</v>
       </c>
@@ -7211,7 +7278,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="50"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="35">
         <v>40770</v>
       </c>
@@ -7242,7 +7309,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="50" t="s">
+      <c r="A181" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="35">
@@ -7267,7 +7334,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="50"/>
+      <c r="A182" s="46"/>
       <c r="B182" s="35">
         <v>40240</v>
       </c>
@@ -7290,7 +7357,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="50"/>
+      <c r="A183" s="46"/>
       <c r="B183" s="35">
         <v>40250</v>
       </c>
@@ -7313,7 +7380,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="50"/>
+      <c r="A184" s="46"/>
       <c r="B184" s="35">
         <v>40360</v>
       </c>
@@ -7329,7 +7396,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="50"/>
+      <c r="A185" s="46"/>
       <c r="B185" s="35">
         <v>40390</v>
       </c>
@@ -7352,7 +7419,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="50"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="35">
         <v>40710</v>
       </c>
@@ -7375,7 +7442,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="50"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="35">
         <v>40740</v>
       </c>
@@ -7398,7 +7465,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="50"/>
+      <c r="A188" s="46"/>
       <c r="B188" s="35">
         <v>40750</v>
       </c>
@@ -7421,7 +7488,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="50"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="35">
         <v>40760</v>
       </c>
@@ -7444,7 +7511,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="50"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="35">
         <v>40770</v>
       </c>
@@ -7475,7 +7542,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B192" s="35">
@@ -7500,7 +7567,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="47"/>
+      <c r="A193" s="48"/>
       <c r="B193" s="35">
         <v>40240</v>
       </c>
@@ -7523,7 +7590,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="47"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="35">
         <v>40250</v>
       </c>
@@ -7546,7 +7613,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="47"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="35">
         <v>40360</v>
       </c>
@@ -7560,7 +7627,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="47"/>
+      <c r="A196" s="48"/>
       <c r="B196" s="35">
         <v>40390</v>
       </c>
@@ -7583,7 +7650,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="47"/>
+      <c r="A197" s="48"/>
       <c r="B197" s="35">
         <v>40710</v>
       </c>
@@ -7606,7 +7673,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="47"/>
+      <c r="A198" s="48"/>
       <c r="B198" s="35">
         <v>40740</v>
       </c>
@@ -7629,7 +7696,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="47"/>
+      <c r="A199" s="48"/>
       <c r="B199" s="35">
         <v>40750</v>
       </c>
@@ -7652,7 +7719,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="47"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="35">
         <v>40760</v>
       </c>
@@ -7675,7 +7742,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="48"/>
+      <c r="A201" s="49"/>
       <c r="B201" s="35">
         <v>40770</v>
       </c>
@@ -7706,7 +7773,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="49" t="s">
+      <c r="A203" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B203" s="35">
@@ -7731,7 +7798,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="49"/>
+      <c r="A204" s="50"/>
       <c r="B204" s="35">
         <v>40240</v>
       </c>
@@ -7754,7 +7821,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="49"/>
+      <c r="A205" s="50"/>
       <c r="B205" s="35">
         <v>40250</v>
       </c>
@@ -7777,7 +7844,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="49"/>
+      <c r="A206" s="50"/>
       <c r="B206" s="35">
         <v>40360</v>
       </c>
@@ -7793,7 +7860,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="49"/>
+      <c r="A207" s="50"/>
       <c r="B207" s="35">
         <v>40390</v>
       </c>
@@ -7816,7 +7883,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="49"/>
+      <c r="A208" s="50"/>
       <c r="B208" s="35">
         <v>40710</v>
       </c>
@@ -7839,7 +7906,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="49"/>
+      <c r="A209" s="50"/>
       <c r="B209" s="35">
         <v>40740</v>
       </c>
@@ -7862,7 +7929,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="49"/>
+      <c r="A210" s="50"/>
       <c r="B210" s="35">
         <v>40750</v>
       </c>
@@ -7885,7 +7952,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="49"/>
+      <c r="A211" s="50"/>
       <c r="B211" s="35">
         <v>40760</v>
       </c>
@@ -7908,7 +7975,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="49"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="35">
         <v>40770</v>
       </c>
@@ -7939,7 +8006,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="49" t="s">
+      <c r="A214" s="50" t="s">
         <v>58</v>
       </c>
       <c r="B214" s="35">
@@ -7964,7 +8031,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="49"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="35">
         <v>40240</v>
       </c>
@@ -7987,7 +8054,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="49"/>
+      <c r="A216" s="50"/>
       <c r="B216" s="35">
         <v>40250</v>
       </c>
@@ -8010,7 +8077,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="49"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="35">
         <v>40360</v>
       </c>
@@ -8026,7 +8093,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="49"/>
+      <c r="A218" s="50"/>
       <c r="B218" s="35">
         <v>40390</v>
       </c>
@@ -8049,7 +8116,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="49"/>
+      <c r="A219" s="50"/>
       <c r="B219" s="35">
         <v>40710</v>
       </c>
@@ -8072,7 +8139,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="49"/>
+      <c r="A220" s="50"/>
       <c r="B220" s="35">
         <v>40740</v>
       </c>
@@ -8095,7 +8162,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="49"/>
+      <c r="A221" s="50"/>
       <c r="B221" s="35">
         <v>40750</v>
       </c>
@@ -8118,7 +8185,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="49"/>
+      <c r="A222" s="50"/>
       <c r="B222" s="35">
         <v>40760</v>
       </c>
@@ -8141,7 +8208,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="49"/>
+      <c r="A223" s="50"/>
       <c r="B223" s="35">
         <v>40770</v>
       </c>
@@ -8158,20 +8225,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A181:A190"/>
-    <mergeCell ref="A192:A201"/>
-    <mergeCell ref="A203:A212"/>
-    <mergeCell ref="A214:A223"/>
-    <mergeCell ref="A128:A137"/>
-    <mergeCell ref="A138:A147"/>
-    <mergeCell ref="A148:A157"/>
-    <mergeCell ref="A159:A168"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="L41:L43"/>
     <mergeCell ref="L44:L49"/>
@@ -8183,25 +8247,28 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="L5:L10"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A181:A190"/>
+    <mergeCell ref="A192:A201"/>
+    <mergeCell ref="A203:A212"/>
+    <mergeCell ref="A214:A223"/>
+    <mergeCell ref="A128:A137"/>
+    <mergeCell ref="A138:A147"/>
+    <mergeCell ref="A148:A157"/>
+    <mergeCell ref="A159:A168"/>
+    <mergeCell ref="A170:A179"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:J158 E163:E168 E159:E161 F159:J168 E169:J194 E202:J1048576 E196:E201 F195:J201">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C1593-7ADF-427F-8E22-13B95AE20688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCB1C4-5E28-410B-980F-7434CDC52B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,11 +616,108 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -992,18 +1089,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="69" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="26" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="26"/>
+    <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" customWidth="1"/>
     <col min="10" max="10" width="12.109375" style="26" customWidth="1"/>
@@ -1018,6 +1116,8 @@
     <col min="22" max="22" width="14.109375" customWidth="1"/>
     <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.6640625" customWidth="1"/>
     <col min="35" max="35" width="11.21875" customWidth="1"/>
   </cols>
@@ -1029,10 +1129,10 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="68" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="25" t="s">
@@ -1087,31 +1187,31 @@
         <v>119.76173000000001</v>
       </c>
       <c r="D2" s="34">
-        <v>163526.25705125605</v>
-      </c>
-      <c r="E2" s="41" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951032932278129</v>
-      </c>
-      <c r="F2" s="41" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308466328828873</v>
-      </c>
-      <c r="G2" s="41" cm="1">
-        <f t="array" aca="1" ref="G2" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C2*INDIRECT(ADDRESS(5,37)))-1</f>
+        <v>424.1213066522144</v>
+      </c>
+      <c r="E2" s="41">
+        <f>0.00003661*950000000/(21972.1+0.038*C2*1) - 1</f>
+        <v>0.58256597358123541</v>
+      </c>
+      <c r="F2" s="41">
+        <f>0.00003661*1100000000/(21972.1+0.038*C2*1.4) - 1</f>
+        <v>0.83229303832241541</v>
+      </c>
+      <c r="G2" s="41">
+        <f>13241.4/((1-0.038)*C2*1.4)-1</f>
         <v>81.094249404624762</v>
       </c>
-      <c r="H2" s="41" cm="1">
-        <f t="array" aca="1" ref="H2" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C2)*INDIRECT(ADDRESS(5,38))/(D2*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98853291256232267</v>
+      <c r="H2" s="41">
+        <f xml:space="preserve"> (13241.4-(1-0.038)*C2)*0.2/(D2*1.4)-1</f>
+        <v>3.4213055523299234</v>
       </c>
       <c r="I2" s="41" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">1/((D2*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.73758850971512679</v>
+        <v>2.3932048314367598</v>
       </c>
       <c r="J2" s="41" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.77565922344309379</v>
+        <v>2.9268071078114977</v>
       </c>
       <c r="L2" s="63" t="s">
         <v>36</v>
@@ -1200,11 +1300,11 @@
       <c r="B3" s="8">
         <v>40240</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="34">
         <v>10.078349600000001</v>
       </c>
-      <c r="D3" s="13">
-        <v>175879.63951993512</v>
+      <c r="D3" s="34">
+        <v>439.8495236690938</v>
       </c>
       <c r="E3" s="41" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -1220,15 +1320,15 @@
       </c>
       <c r="H3" s="41" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C3)*INDIRECT(ADDRESS(5,38))/(D3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.9892526302453194</v>
+        <v>3.2974776975380964</v>
       </c>
       <c r="I3" s="41" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">1/((D3*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.75592061401582344</v>
+        <v>2.3937044008924251</v>
       </c>
       <c r="J3" s="41" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.79137019024010036</v>
+        <v>2.9275428886448989</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="51"/>
@@ -1295,35 +1395,35 @@
       <c r="B4" s="8">
         <v>40250</v>
       </c>
-      <c r="C4" s="13">
-        <v>-119.086</v>
-      </c>
-      <c r="D4" s="13">
-        <v>152494.79322797499</v>
+      <c r="C4" s="34">
+        <v>119.08600000000001</v>
+      </c>
+      <c r="D4" s="34">
+        <v>409.56595628881621</v>
       </c>
       <c r="E4" s="41" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3965060281011272</v>
+        <v>2.3951072601052825</v>
       </c>
       <c r="F4" s="41" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.933120538970841</v>
+        <v>2.9308530623378752</v>
       </c>
       <c r="G4" s="41" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-83.560077017863833</v>
+        <v>81.560077017863833</v>
       </c>
       <c r="H4" s="41" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C4)*INDIRECT(ADDRESS(5,38))/(D4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98748813418545167</v>
+        <v>3.5786587575873563</v>
       </c>
       <c r="I4" s="41" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">1/((D4*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.71873080117141019</v>
+        <v>2.3933367619793322</v>
       </c>
       <c r="J4" s="41" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.75948861836970838</v>
+        <v>2.9270856330934172</v>
       </c>
       <c r="L4" s="65"/>
       <c r="M4" s="51"/>
@@ -1390,10 +1490,10 @@
       <c r="B5" s="8">
         <v>40360</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
         <v>0</v>
       </c>
       <c r="E5" s="41" cm="1">
@@ -1507,35 +1607,35 @@
       <c r="B6" s="8">
         <v>40390</v>
       </c>
-      <c r="C6" s="13">
-        <v>-89.703284000000011</v>
-      </c>
-      <c r="D6" s="13">
-        <v>40766.059164303006</v>
+      <c r="C6" s="34">
+        <v>89.703284000000011</v>
+      </c>
+      <c r="D6" s="34">
+        <v>211.76086768034671</v>
       </c>
       <c r="E6" s="41" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3963334030826817</v>
+        <v>2.395279760501027</v>
       </c>
       <c r="F6" s="41" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9328406642999778</v>
+        <v>2.9311326541807787</v>
       </c>
       <c r="G6" s="41" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-110.60300329416403</v>
+        <v>108.60300329416403</v>
       </c>
       <c r="H6" s="41" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C6)*INDIRECT(ADDRESS(5,38))/(D6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.95329555015540102</v>
+        <v>7.8746367439937348</v>
       </c>
       <c r="I6" s="41" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">1/((D6*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>8.18933297931701E-3</v>
+        <v>2.3948061140162915</v>
       </c>
       <c r="J6" s="41" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.12140562227910223</v>
+        <v>2.9301242397268701</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
@@ -1560,23 +1660,17 @@
         <f t="array" aca="1" ref="S6" ca="1">INDIRECT(ADDRESS(Q6+2,24))/(O6*INDIRECT(ADDRESS(Q6+2,27))*INDIRECT(ADDRESS(Q6+2,28))*INDIRECT(ADDRESS(Q6+2,29))*INDIRECT(ADDRESS(Q6+2,31))) -1</f>
         <v>6.6655886932566757</v>
       </c>
-      <c r="AE6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF6" s="39">
-        <v>7.8540000000000004E-5</v>
-      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="34">
         <v>89.562242000000012</v>
       </c>
-      <c r="D7" s="13">
-        <v>40690.806545180007</v>
+      <c r="D7" s="34">
+        <v>211.56532608085382</v>
       </c>
       <c r="E7" s="41" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -1592,15 +1686,15 @@
       </c>
       <c r="H7" s="41" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C7)*INDIRECT(ADDRESS(5,38))/(D7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.95381462497259872</v>
+        <v>7.8829308434896976</v>
       </c>
       <c r="I7" s="41" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">1/((D7*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>9.8614511165064922E-3</v>
+        <v>2.394807815894807</v>
       </c>
       <c r="J7" s="41" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.11988121672395258</v>
+        <v>2.9301274416605856</v>
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="65"/>
@@ -1625,11 +1719,60 @@
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(Q7+2,24))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,31))) -1</f>
         <v>1.8903039335230094</v>
       </c>
-      <c r="AE7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF7" s="39">
-        <v>6.3616999999999998E-5</v>
+      <c r="W7" s="67" cm="1">
+        <f t="array" aca="1" ref="W7" ca="1">INDIRECT(ADDRESS(5,23))</f>
+        <v>950000000</v>
+      </c>
+      <c r="X7" s="67" cm="1">
+        <f t="array" aca="1" ref="X7" ca="1">INDIRECT(ADDRESS(5,24))</f>
+        <v>1100000000</v>
+      </c>
+      <c r="Y7" s="67" cm="1">
+        <f t="array" aca="1" ref="Y7" ca="1">INDIRECT(ADDRESS(5,25))</f>
+        <v>548000000</v>
+      </c>
+      <c r="Z7" s="67" cm="1">
+        <f t="array" aca="1" ref="Z7" ca="1">INDIRECT(ADDRESS(5,26))</f>
+        <v>655000000</v>
+      </c>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67" cm="1">
+        <f t="array" aca="1" ref="AD7" ca="1">INDIRECT(ADDRESS(5,30))</f>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="67" cm="1">
+        <f t="array" aca="1" ref="AE7" ca="1">INDIRECT(ADDRESS(5,31))</f>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="67" cm="1">
+        <f t="array" aca="1" ref="AF7" ca="1">INDIRECT(ADDRESS(5,32))</f>
+        <v>7.8540000000000004E-5</v>
+      </c>
+      <c r="AG7" s="67" cm="1">
+        <f t="array" aca="1" ref="AG7" ca="1">INDIRECT(ADDRESS(5,33))</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AH7" s="67" cm="1">
+        <f t="array" aca="1" ref="AH7" ca="1">INDIRECT(ADDRESS(5,34))</f>
+        <v>21972.1</v>
+      </c>
+      <c r="AI7" s="67" cm="1">
+        <f t="array" aca="1" ref="AI7" ca="1">INDIRECT(ADDRESS(5,35))</f>
+        <v>13241.4</v>
+      </c>
+      <c r="AJ7" s="67" cm="1">
+        <f t="array" aca="1" ref="AJ7" ca="1">INDIRECT(ADDRESS(5,36))</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="67" cm="1">
+        <f t="array" aca="1" ref="AK7" ca="1">INDIRECT(ADDRESS(5,37))</f>
+        <v>1.4</v>
+      </c>
+      <c r="AL7" s="67" cm="1">
+        <f t="array" aca="1" ref="AL7" ca="1">INDIRECT(ADDRESS(5,38))</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -1637,35 +1780,35 @@
       <c r="B8" s="8">
         <v>40740</v>
       </c>
-      <c r="C8" s="13">
-        <v>-317.42777000000001</v>
-      </c>
-      <c r="D8" s="13">
-        <v>6266.4518162622207</v>
+      <c r="C8" s="34">
+        <v>317.42777000000001</v>
+      </c>
+      <c r="D8" s="34">
+        <v>83.024677041759347</v>
       </c>
       <c r="E8" s="41" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3976717557269116</v>
+        <v>2.3939432912504031</v>
       </c>
       <c r="F8" s="41" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9350108158471997</v>
+        <v>2.9289667769471182</v>
       </c>
       <c r="G8" s="41" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-31.973185905408759</v>
+        <v>29.973185905408759</v>
       </c>
       <c r="H8" s="41" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C8)*INDIRECT(ADDRESS(5,38))/(D8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.69117256892182444</v>
+        <v>21.258501837185275</v>
       </c>
       <c r="I8" s="41" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">1/((D8*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0454129366007434</v>
+        <v>2.3938705566149014</v>
       </c>
       <c r="J8" s="41" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2674814119575646</v>
+        <v>2.9288119717727086</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="63" t="s">
@@ -1691,12 +1834,6 @@
       <c r="S8" s="14" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDIRECT(ADDRESS(Q8+2,24))/(O8*INDIRECT(ADDRESS(Q8+2,27))*INDIRECT(ADDRESS(Q8+2,28))*INDIRECT(ADDRESS(Q8+2,29))*INDIRECT(ADDRESS(Q8+2,31))) -1</f>
         <v>121.7775347805735</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>3.6609999999999997E-5</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -1704,11 +1841,11 @@
       <c r="B9" s="8">
         <v>40750</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="34">
         <v>119.16553000000002</v>
       </c>
-      <c r="D9" s="13">
-        <v>152531.085612686</v>
+      <c r="D9" s="34">
+        <v>409.61468989033415</v>
       </c>
       <c r="E9" s="41" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -1724,15 +1861,15 @@
       </c>
       <c r="H9" s="41" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C9)*INDIRECT(ADDRESS(5,38))/(D9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98770577279152871</v>
+        <v>3.5780873322175113</v>
       </c>
       <c r="I9" s="41" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">1/((D9*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.71879806054022044</v>
+        <v>2.39333587479471</v>
       </c>
       <c r="J9" s="41" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.7595461491153831</v>
+        <v>2.9270839832269582</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
@@ -1763,35 +1900,35 @@
       <c r="B10" s="8">
         <v>40760</v>
       </c>
-      <c r="C10" s="13">
-        <v>-9.9546644999999998</v>
-      </c>
-      <c r="D10" s="13">
-        <v>175906.7390081269</v>
+      <c r="C10" s="34">
+        <v>9.9546644999999998</v>
+      </c>
+      <c r="D10" s="34">
+        <v>439.88340831286149</v>
       </c>
       <c r="E10" s="41" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958649641346708</v>
+        <v>2.3957480380012428</v>
       </c>
       <c r="F10" s="41" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9320812477477869</v>
+        <v>2.9318917043314388</v>
       </c>
       <c r="G10" s="41" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-988.65250518983657</v>
+        <v>986.65250518983657</v>
       </c>
       <c r="H10" s="41" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C10)*INDIRECT(ADDRESS(5,38))/(D10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98923863498679032</v>
+        <v>3.2971853004350233</v>
       </c>
       <c r="I10" s="41" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">1/((D10*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.75595797801756626</v>
+        <v>2.393704811463941</v>
       </c>
       <c r="J10" s="41" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.79140221196675287</v>
+        <v>2.9275433934366668</v>
       </c>
       <c r="L10" s="65"/>
       <c r="M10" s="65"/>
@@ -1822,10 +1959,10 @@
       <c r="B11" s="8">
         <v>40770</v>
       </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
         <v>0</v>
       </c>
       <c r="E11" s="41" cm="1">
@@ -1853,6 +1990,22 @@
         <v>2.9319864737553543</v>
       </c>
     </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AE12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="39">
+        <v>7.8540000000000004E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AE13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF13" s="39">
+        <v>6.3616999999999998E-5</v>
+      </c>
+    </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1</v>
@@ -1860,10 +2013,10 @@
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="68" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -1892,6 +2045,12 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
+      <c r="AE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>3.6609999999999997E-5</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
@@ -1904,7 +2063,7 @@
         <v>252.85359</v>
       </c>
       <c r="D15" s="34">
-        <v>25156.695841011788</v>
+        <v>166.35012902042777</v>
       </c>
       <c r="E15" s="41" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -1920,15 +2079,15 @@
       </c>
       <c r="H15" s="41" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C15)*INDIRECT(ADDRESS(5,38))/(D15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.92618747408206514</v>
+        <v>10.16247564524739</v>
       </c>
       <c r="I15" s="41" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">1/((D15*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.52777492310752683</v>
+        <v>2.3940300942810819</v>
       </c>
       <c r="J15" s="41" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.36913824520386695</v>
+        <v>2.9289590500132743</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -1944,11 +2103,11 @@
       <c r="B16" s="8">
         <v>40240</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="34">
         <v>117.47175000000001</v>
       </c>
-      <c r="D16" s="13">
-        <v>20997.7005911905</v>
+      <c r="D16" s="34">
+        <v>151.97852035833731</v>
       </c>
       <c r="E16" s="41" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -1964,15 +2123,15 @@
       </c>
       <c r="H16" s="41" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C16)*INDIRECT(ADDRESS(5,38))/(D16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.91068142968808163</v>
+        <v>11.340458324115874</v>
       </c>
       <c r="I16" s="41" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">1/((D16*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.75474474856280316</v>
+        <v>2.3948727821040188</v>
       </c>
       <c r="J16" s="41" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.598707723851722</v>
+        <v>2.9303490174335338</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -1988,11 +2147,11 @@
       <c r="B17" s="8">
         <v>40250</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="34">
         <v>240.63622000000001</v>
       </c>
-      <c r="D17" s="13">
-        <v>56316.547629100016</v>
+      <c r="D17" s="34">
+        <v>248.89395812676935</v>
       </c>
       <c r="E17" s="41" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2008,15 +2167,15 @@
       </c>
       <c r="H17" s="41" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C17)*INDIRECT(ADDRESS(5,38))/(D17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.96699800755329612</v>
+        <v>6.4672695692089857</v>
       </c>
       <c r="I17" s="41" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">1/((D17*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.25441433238986266</v>
+        <v>2.3937400898363381</v>
       </c>
       <c r="J17" s="41" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.3563308731436946</v>
+        <v>2.9283055196821004</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -2032,10 +2191,10 @@
       <c r="B18" s="8">
         <v>40360</v>
       </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
         <v>0</v>
       </c>
       <c r="E18" s="41" cm="1">
@@ -2076,35 +2235,35 @@
       <c r="B19" s="8">
         <v>40390</v>
       </c>
-      <c r="C19" s="13">
-        <v>-68.339304000000013</v>
-      </c>
-      <c r="D19" s="13">
-        <v>152694.05058108529</v>
+      <c r="C19" s="34">
+        <v>68.339304000000013</v>
+      </c>
+      <c r="D19" s="34">
+        <v>409.83344865834687</v>
       </c>
       <c r="E19" s="41" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3962078995815457</v>
+        <v>2.3954051954133475</v>
       </c>
       <c r="F19" s="41" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.932637194270963</v>
+        <v>2.9313359685492761</v>
       </c>
       <c r="G19" s="41" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-144.86668807381079</v>
+        <v>142.86668807381079</v>
       </c>
       <c r="H19" s="41" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C19)*INDIRECT(ADDRESS(5,38))/(D19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98755013481458331</v>
+        <v>3.5926871139220635</v>
       </c>
       <c r="I19" s="41" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">1/((D19*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.71909549853371346</v>
+        <v>2.3936319191649966</v>
       </c>
       <c r="J19" s="41" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.7598014113066911</v>
+        <v>2.9275622345399119</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -2120,11 +2279,11 @@
       <c r="B20" s="8">
         <v>40710</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="34">
         <v>68.196018000000009</v>
       </c>
-      <c r="D20" s="13">
-        <v>152761.52336029595</v>
+      <c r="D20" s="34">
+        <v>409.92398770543491</v>
       </c>
       <c r="E20" s="41" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2140,15 +2299,15 @@
       </c>
       <c r="H20" s="41" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C20)*INDIRECT(ADDRESS(5,38))/(D20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98767846478161703</v>
+        <v>3.5917207739749921</v>
       </c>
       <c r="I20" s="41" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">1/((D20*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.71921917545366254</v>
+        <v>2.3936319761920526</v>
       </c>
       <c r="J20" s="41" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.75990740431453507</v>
+        <v>2.927561929149856</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2164,11 +2323,11 @@
       <c r="B21" s="8">
         <v>40740</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="34">
         <v>12.236796</v>
       </c>
-      <c r="D21" s="13">
-        <v>307414.71138619224</v>
+      <c r="D21" s="34">
+        <v>581.51197969157226</v>
       </c>
       <c r="E21" s="41" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2184,15 +2343,15 @@
       </c>
       <c r="H21" s="41" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C21)*INDIRECT(ADDRESS(5,38))/(D21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.9938521260823423</v>
+        <v>2.2500566661375339</v>
       </c>
       <c r="I21" s="41" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">1/((D21*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.86011279561827148</v>
+        <v>2.3921663411933509</v>
       </c>
       <c r="J21" s="41" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.88052448204648237</v>
+        <v>2.9242804016949915</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2208,35 +2367,35 @@
       <c r="B22" s="8">
         <v>40750</v>
       </c>
-      <c r="C22" s="13">
-        <v>-240.60355000000001</v>
-      </c>
-      <c r="D22" s="13">
-        <v>56311.796279285911</v>
+      <c r="C22" s="34">
+        <v>240.60355000000001</v>
+      </c>
+      <c r="D22" s="34">
+        <v>248.88345848451743</v>
       </c>
       <c r="E22" s="41" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3972201365618013</v>
+        <v>2.3943940395443088</v>
       </c>
       <c r="F22" s="41" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9342784345714823</v>
+        <v>2.9296971818026543</v>
       </c>
       <c r="G22" s="41" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-41.862860634223104</v>
+        <v>39.862860634223104</v>
       </c>
       <c r="H22" s="41" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C22)*INDIRECT(ADDRESS(5,38))/(D22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.96582076046660037</v>
+        <v>6.4676026305181153</v>
       </c>
       <c r="I22" s="41" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">1/((D22*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.25432453518699316</v>
+        <v>2.3937403365754273</v>
       </c>
       <c r="J22" s="41" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.35625791587083078</v>
+        <v>2.928305947343484</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -2252,35 +2411,35 @@
       <c r="B23" s="8">
         <v>40760</v>
       </c>
-      <c r="C23" s="13">
-        <v>-117.20082000000001</v>
-      </c>
-      <c r="D23" s="13">
-        <v>20951.502857431999</v>
+      <c r="C23" s="34">
+        <v>117.20082000000001</v>
+      </c>
+      <c r="D23" s="34">
+        <v>151.81124182080589</v>
       </c>
       <c r="E23" s="41" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3964949520415981</v>
+        <v>2.3951183271160463</v>
       </c>
       <c r="F23" s="41" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9331025811595297</v>
+        <v>2.9308709996132487</v>
       </c>
       <c r="G23" s="41" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-84.888059245228249</v>
+        <v>82.888059245228249</v>
       </c>
       <c r="H23" s="41" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C23)*INDIRECT(ADDRESS(5,38))/(D23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.90894518041627215</v>
+        <v>11.354301352593719</v>
       </c>
       <c r="I23" s="41" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">1/((D23*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.75776898177032592</v>
+        <v>2.3948749089444261</v>
       </c>
       <c r="J23" s="41" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.60179917167030283</v>
+        <v>2.9303527368250899</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2296,10 +2455,10 @@
       <c r="B24" s="8">
         <v>40770</v>
       </c>
-      <c r="C24" s="13">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
         <v>0</v>
       </c>
       <c r="E24" s="41" cm="1">
@@ -2362,10 +2521,10 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="68" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="27" t="s">
@@ -2406,7 +2565,7 @@
         <v>601.80362000000002</v>
       </c>
       <c r="D28" s="34">
-        <v>120409.0717318532</v>
+        <v>363.93677871992895</v>
       </c>
       <c r="E28" s="41" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2422,15 +2581,15 @@
       </c>
       <c r="H28" s="41" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C28)*INDIRECT(ADDRESS(5,38))/(D28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98497684988652812</v>
+        <v>3.9704335077480675</v>
       </c>
       <c r="I28" s="41" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">1/((D28*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.64452051891891515</v>
+        <v>2.3908811110426078</v>
       </c>
       <c r="J28" s="41" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.6957454739165595</v>
+        <v>2.9233001965442451</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -2446,11 +2605,11 @@
       <c r="B29" s="8">
         <v>40240</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="34">
         <v>436.97599000000002</v>
       </c>
-      <c r="D29" s="13">
-        <v>72917.870455049517</v>
+      <c r="D29" s="34">
+        <v>283.21309556684429</v>
       </c>
       <c r="E29" s="41" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2466,15 +2625,15 @@
       </c>
       <c r="H29" s="41" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C29)*INDIRECT(ADDRESS(5,38))/(D29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.97488166379593644</v>
+        <v>5.4671288653105208</v>
       </c>
       <c r="I29" s="41" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">1/((D29*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.41848033338631374</v>
+        <v>2.3923965643504337</v>
       </c>
       <c r="J29" s="41" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.50016691742051167</v>
+        <v>2.9260320577710441</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -2490,11 +2649,11 @@
       <c r="B30" s="8">
         <v>40250</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="34">
         <v>704.68145000000004</v>
       </c>
-      <c r="D30" s="13">
-        <v>143515.02626851675</v>
+      <c r="D30" s="34">
+        <v>397.32421131283763</v>
       </c>
       <c r="E30" s="41" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2510,15 +2669,15 @@
       </c>
       <c r="H30" s="41" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C30)*INDIRECT(ADDRESS(5,38))/(D30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98749409554449852</v>
+        <v>3.5171805677598469</v>
       </c>
       <c r="I30" s="41" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">1/((D30*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.70126718590201631</v>
+        <v>2.3900117227279467</v>
       </c>
       <c r="J30" s="41" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.74450356357414194</v>
+        <v>2.9217582405589235</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -2534,10 +2693,10 @@
       <c r="B31" s="8">
         <v>40360</v>
       </c>
-      <c r="C31" s="13">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31" s="34">
+        <v>0</v>
+      </c>
+      <c r="D31" s="34">
         <v>0</v>
       </c>
       <c r="E31" s="41" cm="1">
@@ -2578,11 +2737,11 @@
       <c r="B32" s="8">
         <v>40390</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="34">
         <v>456.29683</v>
       </c>
-      <c r="D32" s="13">
-        <v>55070.953668940012</v>
+      <c r="D32" s="34">
+        <v>246.12608361535763</v>
       </c>
       <c r="E32" s="41" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2598,15 +2757,15 @@
       </c>
       <c r="H32" s="41" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C32)*INDIRECT(ADDRESS(5,38))/(D32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.9667897461712962</v>
+        <v>6.43082700975528</v>
       </c>
       <c r="I32" s="41" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">1/((D32*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.23840502682788589</v>
+        <v>2.3924902248773718</v>
       </c>
       <c r="J32" s="41" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.34218556967210101</v>
+        <v>2.9262887039562315</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -2622,11 +2781,11 @@
       <c r="B33" s="8">
         <v>40710</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="34">
         <v>455.96144000000004</v>
       </c>
-      <c r="D33" s="13">
-        <v>55112.83913749901</v>
+      <c r="D33" s="34">
+        <v>246.21966422535979</v>
       </c>
       <c r="E33" s="41" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2642,15 +2801,15 @@
       </c>
       <c r="H33" s="41" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C33)*INDIRECT(ADDRESS(5,38))/(D33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.96681414946633693</v>
+        <v>6.4281899776649922</v>
       </c>
       <c r="I33" s="41" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">1/((D33*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.23895468474620707</v>
+        <v>2.392491704829514</v>
       </c>
       <c r="J33" s="41" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.34267148230618516</v>
+        <v>2.9262908539555372</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -2666,11 +2825,11 @@
       <c r="B34" s="8">
         <v>40740</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="34">
         <v>1118.6197000000002</v>
       </c>
-      <c r="D34" s="13">
-        <v>242555.96607987801</v>
+      <c r="D34" s="34">
+        <v>516.53805541108568</v>
       </c>
       <c r="E34" s="41" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2686,15 +2845,15 @@
       </c>
       <c r="H34" s="41" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C34)*INDIRECT(ADDRESS(5,38))/(D34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99283506280149225</v>
+        <v>2.3645115705997917</v>
       </c>
       <c r="I34" s="41" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">1/((D34*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.82279943435647263</v>
+        <v>2.3864493120349635</v>
       </c>
       <c r="J34" s="41" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.8486200516475163</v>
+        <v>2.9154214563161784</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -2710,11 +2869,11 @@
       <c r="B35" s="8">
         <v>40750</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="34">
         <v>704.99330000000009</v>
       </c>
-      <c r="D35" s="13">
-        <v>143594.21550503216</v>
+      <c r="D35" s="34">
+        <v>397.43381468558431</v>
       </c>
       <c r="E35" s="41" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2730,15 +2889,15 @@
       </c>
       <c r="H35" s="41" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C35)*INDIRECT(ADDRESS(5,38))/(D35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98750129075164617</v>
+        <v>3.5158269956538657</v>
       </c>
       <c r="I35" s="41" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">1/((D35*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.7014306551019589</v>
+        <v>2.3900089824088098</v>
       </c>
       <c r="J35" s="41" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.74464386892118017</v>
+        <v>2.9217533440919765</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -2754,11 +2913,11 @@
       <c r="B36" s="8">
         <v>40760</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="34">
         <v>437.33910000000003</v>
       </c>
-      <c r="D36" s="13">
-        <v>72931.773101550119</v>
+      <c r="D36" s="34">
+        <v>283.24009322782172</v>
       </c>
       <c r="E36" s="41" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2774,15 +2933,15 @@
       </c>
       <c r="H36" s="41" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C36)*INDIRECT(ADDRESS(5,38))/(D36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.97488713621242284</v>
+        <v>5.4663362549190477</v>
       </c>
       <c r="I36" s="41" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">1/((D36*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.41858794170606073</v>
+        <v>2.3923942754902203</v>
       </c>
       <c r="J36" s="41" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.50026066288330329</v>
+        <v>2.9260282701882598</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -2798,10 +2957,10 @@
       <c r="B37" s="8">
         <v>40770</v>
       </c>
-      <c r="C37" s="13">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="34">
+        <v>0</v>
+      </c>
+      <c r="D37" s="34">
         <v>0</v>
       </c>
       <c r="E37" s="41" cm="1">
@@ -2864,10 +3023,10 @@
       <c r="B40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="70" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -2918,11 +3077,11 @@
       <c r="B41" s="19">
         <v>40230</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="40">
         <v>267.64320000000004</v>
       </c>
-      <c r="D41" s="19">
-        <v>435149.92496672447</v>
+      <c r="D41" s="40">
+        <v>691.85613928286932</v>
       </c>
       <c r="E41" s="43" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -2938,15 +3097,15 @@
       </c>
       <c r="H41" s="43" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C41)*INDIRECT(ADDRESS(5,38))/(D41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99573745359385768</v>
+        <v>1.680971727334251</v>
       </c>
       <c r="I41" s="43" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">1/((D41*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.90113371134094922</v>
+        <v>2.3891943825333324</v>
       </c>
       <c r="J41" s="43" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.9155761819169842</v>
+        <v>2.9187296436790593</v>
       </c>
       <c r="L41" s="60" t="s">
         <v>36</v>
@@ -2981,11 +3140,11 @@
       <c r="B42" s="19">
         <v>40240</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="40">
         <v>71.935776000000004</v>
       </c>
-      <c r="D42" s="19">
-        <v>539081.65573651565</v>
+      <c r="D42" s="40">
+        <v>770.05832331724548</v>
       </c>
       <c r="E42" s="43" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3001,15 +3160,15 @@
       </c>
       <c r="H42" s="43" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C42)*INDIRECT(ADDRESS(5,38))/(D42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99650935527025608</v>
+        <v>1.443636388984336</v>
       </c>
       <c r="I42" s="43" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">1/((D42*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9201827295908368</v>
+        <v>2.3891360787139004</v>
       </c>
       <c r="J42" s="43" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.93184710047402008</v>
+        <v>2.9180273660925167</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="46"/>
@@ -3036,11 +3195,11 @@
       <c r="B43" s="19">
         <v>40250</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="40">
         <v>115.20564</v>
       </c>
-      <c r="D43" s="19">
-        <v>1058036.6165903711</v>
+      <c r="D43" s="40">
+        <v>1078.8142927535805</v>
       </c>
       <c r="E43" s="43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3056,15 +3215,15 @@
       </c>
       <c r="H43" s="43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C43)*INDIRECT(ADDRESS(5,38))/(D43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99822709725212744</v>
+        <v>0.738757112788198</v>
       </c>
       <c r="I43" s="43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.959323873780765</v>
-      </c>
-      <c r="J43" s="43" cm="1">
+        <v>2.3829025134289954</v>
+      </c>
+      <c r="J43" s="74" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.9652714609852282</v>
+        <v>2.9049711315568483</v>
       </c>
       <c r="L43" s="62"/>
       <c r="M43" s="46"/>
@@ -3091,10 +3250,10 @@
       <c r="B44" s="19">
         <v>40360</v>
       </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C44" s="40">
+        <v>0</v>
+      </c>
+      <c r="D44" s="40">
         <v>0</v>
       </c>
       <c r="E44" s="43" cm="1">
@@ -3154,11 +3313,11 @@
       <c r="B45" s="19">
         <v>40390</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="40">
         <v>122.30097000000001</v>
       </c>
-      <c r="D45" s="19">
-        <v>171793.48566737503</v>
+      <c r="D45" s="40">
+        <v>434.71005766385548</v>
       </c>
       <c r="E45" s="43" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3174,15 +3333,15 @@
       </c>
       <c r="H45" s="43" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C45)*INDIRECT(ADDRESS(5,38))/(D45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98908677522576638</v>
+        <v>3.3128077917324603</v>
       </c>
       <c r="I45" s="43" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">1/((D45*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.75014644984731649</v>
+        <v>2.3930940571234447</v>
       </c>
       <c r="J45" s="43" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.78642251801318053</v>
+        <v>2.9265791341916834</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="61"/>
@@ -3209,11 +3368,11 @@
       <c r="B46" s="19">
         <v>40710</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="40">
         <v>122.22760000000001</v>
       </c>
-      <c r="D46" s="19">
-        <v>171835.24764553402</v>
+      <c r="D46" s="40">
+        <v>434.76289217237417</v>
       </c>
       <c r="E46" s="43" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3229,15 +3388,15 @@
       </c>
       <c r="H46" s="43" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C46)*INDIRECT(ADDRESS(5,38))/(D46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.98908936884218956</v>
+        <v>3.3123068705415148</v>
       </c>
       <c r="I46" s="43" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">1/((D46*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.75020684408153471</v>
+        <v>2.3930940026970249</v>
       </c>
       <c r="J46" s="43" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.78647427152010074</v>
+        <v>2.926578800165839</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="62"/>
@@ -3264,11 +3423,11 @@
       <c r="B47" s="19">
         <v>40740</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="40">
         <v>276.31900999999999</v>
       </c>
-      <c r="D47" s="19">
-        <v>978884.37643502001</v>
+      <c r="D47" s="40">
+        <v>1037.6766423498807</v>
       </c>
       <c r="E47" s="43" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3284,15 +3443,15 @@
       </c>
       <c r="H47" s="43" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C47)*INDIRECT(ADDRESS(5,38))/(D47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99810636016954679</v>
+        <v>0.78635074644062852</v>
       </c>
       <c r="I47" s="43" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">1/((D47*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.95603534973331361</v>
+        <v>2.3828765464631454</v>
       </c>
       <c r="J47" s="43" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.96246357157457385</v>
+        <v>2.9053878990448223</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="60" t="s">
@@ -3321,11 +3480,11 @@
       <c r="B48" s="19">
         <v>40750</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="40">
         <v>115.14536000000001</v>
       </c>
-      <c r="D48" s="19">
-        <v>1058866.7969968112</v>
+      <c r="D48" s="40">
+        <v>1079.2374514890096</v>
       </c>
       <c r="E48" s="43" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3341,15 +3500,15 @@
       </c>
       <c r="H48" s="43" cm="1">
         <f t="array" aca="1" ref="H48" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C48)*INDIRECT(ADDRESS(5,38))/(D48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99822847943252413</v>
+        <v>0.7380830386391064</v>
       </c>
       <c r="I48" s="43" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">1/((D48*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.95935576039869264</v>
+        <v>2.3828933210681633</v>
       </c>
       <c r="J48" s="43" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.96529868698248578</v>
+        <v>2.9049515576681308</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="61"/>
@@ -3376,11 +3535,11 @@
       <c r="B49" s="19">
         <v>40760</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="40">
         <v>71.786825000000007</v>
       </c>
-      <c r="D49" s="19">
-        <v>539344.80043975252</v>
+      <c r="D49" s="40">
+        <v>770.24624665345038</v>
       </c>
       <c r="E49" s="43" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -3396,15 +3555,15 @@
       </c>
       <c r="H49" s="43" cm="1">
         <f t="array" aca="1" ref="H49" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C49)*INDIRECT(ADDRESS(5,38))/(D49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99651102039161754</v>
+        <v>1.4430667709154994</v>
       </c>
       <c r="I49" s="43" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">1/((D49*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.92022165068106154</v>
+        <v>2.389133907002996</v>
       </c>
       <c r="J49" s="43" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.93188034207502046</v>
+        <v>2.9180223224530399</v>
       </c>
       <c r="L49" s="62"/>
       <c r="M49" s="62"/>
@@ -3431,10 +3590,10 @@
       <c r="B50" s="19">
         <v>40770</v>
       </c>
-      <c r="C50" s="19">
-        <v>0</v>
-      </c>
-      <c r="D50" s="19">
+      <c r="C50" s="40">
+        <v>0</v>
+      </c>
+      <c r="D50" s="40">
         <v>0</v>
       </c>
       <c r="E50" s="43" cm="1">
@@ -3469,10 +3628,10 @@
       <c r="B53" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="70" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="29" t="s">
@@ -3509,35 +3668,35 @@
       <c r="B54" s="19">
         <v>40230</v>
       </c>
-      <c r="C54" s="19">
-        <v>156.21771000000001</v>
-      </c>
-      <c r="D54" s="19">
-        <v>10154.80035955132</v>
+      <c r="C54" s="40">
+        <v>313.21444000000002</v>
+      </c>
+      <c r="D54" s="40">
+        <v>523.26373683203974</v>
       </c>
       <c r="E54" s="43" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948892918941036</v>
+        <v>2.3939680088843276</v>
       </c>
       <c r="F54" s="43" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.930499791663264</v>
+        <v>2.9290068280671684</v>
       </c>
       <c r="G54" s="43" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>61.936201866928741</v>
+        <v>30.389834171596082</v>
       </c>
       <c r="H54" s="43" cm="1">
         <f t="array" aca="1" ref="H54" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C54)*INDIRECT(ADDRESS(5,38))/(D54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.81583490285435212</v>
+        <v>2.5327958508654325</v>
       </c>
       <c r="I54" s="43" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">1/((D54*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.6496867543134299</v>
+        <v>2.3910824000308928</v>
       </c>
       <c r="J54" s="43" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.6621566211583239</v>
+        <v>2.9228715657538098</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3553,35 +3712,35 @@
       <c r="B55" s="19">
         <v>40240</v>
       </c>
-      <c r="C55" s="19">
-        <v>100.01789600000001</v>
-      </c>
-      <c r="D55" s="19">
-        <v>6463.9342945162707</v>
+      <c r="C55" s="40">
+        <v>121.98835000000001</v>
+      </c>
+      <c r="D55" s="40">
+        <v>582.83598886207665</v>
       </c>
       <c r="E55" s="43" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3952192033585873</v>
+        <v>2.3950902219058574</v>
       </c>
       <c r="F55" s="43" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9310345007462657</v>
+        <v>2.9308254471245347</v>
       </c>
       <c r="G55" s="43" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>97.299901567108861</v>
+        <v>79.595805515439224</v>
       </c>
       <c r="H55" s="43" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C55)*INDIRECT(ADDRESS(5,38))/(D55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.70948292954383563</v>
+        <v>2.2167949862149201</v>
       </c>
       <c r="I55" s="43" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">1/((D55*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0246921520467316</v>
+        <v>2.3915077239623144</v>
       </c>
       <c r="J55" s="43" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2332696468056739</v>
+        <v>2.9232074335128733</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3597,35 +3756,35 @@
       <c r="B56" s="19">
         <v>40250</v>
       </c>
-      <c r="C56" s="19">
-        <v>184.64072000000002</v>
-      </c>
-      <c r="D56" s="19">
-        <v>12072.158826823041</v>
+      <c r="C56" s="40">
+        <v>229.48585000000003</v>
+      </c>
+      <c r="D56" s="40">
+        <v>857.55671171378231</v>
       </c>
       <c r="E56" s="43" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3947224638520135</v>
+        <v>2.3944592799878022</v>
       </c>
       <c r="F56" s="43" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9302294183657804</v>
+        <v>2.9298029056249111</v>
       </c>
       <c r="G56" s="43" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>52.248001479572494</v>
+        <v>41.84250785723534</v>
       </c>
       <c r="H56" s="43" cm="1">
         <f t="array" aca="1" ref="H56" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C56)*INDIRECT(ADDRESS(5,38))/(D56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.84540845694435252</v>
+        <v>1.1690584814883045</v>
       </c>
       <c r="I56" s="43" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">1/((D56*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.4584975020431994</v>
+        <v>2.3867221877240166</v>
       </c>
       <c r="J56" s="43" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.4065067897440042</v>
+        <v>2.9133792251508139</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -3641,10 +3800,10 @@
       <c r="B57" s="19">
         <v>40360</v>
       </c>
-      <c r="C57" s="19">
-        <v>0</v>
-      </c>
-      <c r="D57" s="19">
+      <c r="C57" s="40">
+        <v>0</v>
+      </c>
+      <c r="D57" s="40">
         <v>0</v>
       </c>
       <c r="E57" s="43" cm="1">
@@ -3685,35 +3844,35 @@
       <c r="B58" s="19">
         <v>40390</v>
       </c>
-      <c r="C58" s="19">
-        <v>106.32288700000001</v>
-      </c>
-      <c r="D58" s="19">
-        <v>5042.7952322291503</v>
+      <c r="C58" s="40">
+        <v>107.35921900000001</v>
+      </c>
+      <c r="D58" s="40">
+        <v>457.84294746712669</v>
       </c>
       <c r="E58" s="43" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951821877863444</v>
+        <v>2.3951761037276902</v>
       </c>
       <c r="F58" s="43" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309745051182494</v>
+        <v>2.9309646439964361</v>
       </c>
       <c r="G58" s="43" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>91.47067690843771</v>
+        <v>90.578063098142806</v>
       </c>
       <c r="H58" s="43" cm="1">
         <f t="array" aca="1" ref="H58" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C58)*INDIRECT(ADDRESS(5,38))/(D58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.62778247330731474</v>
+        <v>3.0993846420807323</v>
       </c>
       <c r="I58" s="43" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">1/((D58*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.1547368951786092</v>
+        <v>2.3929639136131446</v>
       </c>
       <c r="J58" s="43" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.4596518216729173</v>
+        <v>2.9262579970864659</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -3729,35 +3888,35 @@
       <c r="B59" s="19">
         <v>40710</v>
       </c>
-      <c r="C59" s="19">
-        <v>106.18517800000001</v>
-      </c>
-      <c r="D59" s="19">
-        <v>5050.8717720764607</v>
+      <c r="C59" s="40">
+        <v>107.23469900000002</v>
+      </c>
+      <c r="D59" s="40">
+        <v>457.94261458837536</v>
       </c>
       <c r="E59" s="43" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951829962447673</v>
+        <v>2.3951768347538374</v>
       </c>
       <c r="F59" s="43" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309758154792944</v>
+        <v>2.9309658288524263</v>
       </c>
       <c r="G59" s="43" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>91.590599902270085</v>
+        <v>90.684402748678679</v>
       </c>
       <c r="H59" s="43" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C59)*INDIRECT(ADDRESS(5,38))/(D59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.62837391666003906</v>
+        <v>3.098529816065458</v>
       </c>
       <c r="I59" s="43" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">1/((D59*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.1540469089189203</v>
+        <v>2.3929636809109902</v>
       </c>
       <c r="J59" s="43" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.4584033244315866</v>
+        <v>2.9262571319821609</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -3773,35 +3932,35 @@
       <c r="B60" s="19">
         <v>40740</v>
       </c>
-      <c r="C60" s="19">
-        <v>300.55322000000007</v>
-      </c>
-      <c r="D60" s="19">
-        <v>19762.225512919998</v>
+      <c r="C60" s="40">
+        <v>139.18476000000001</v>
+      </c>
+      <c r="D60" s="40">
+        <v>946.24382114477976</v>
       </c>
       <c r="E60" s="43" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3940422884991546</v>
+        <v>2.3949892741632151</v>
       </c>
       <c r="F60" s="43" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9291271881495358</v>
+        <v>2.9306618350760685</v>
       </c>
       <c r="G60" s="43" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>31.712174342199127</v>
+        <v>69.638116786272661</v>
       </c>
       <c r="H60" s="43" cm="1">
         <f t="array" aca="1" ref="H60" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C60)*INDIRECT(ADDRESS(5,38))/(D60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.90637066809322542</v>
+        <v>0.97887750160604914</v>
       </c>
       <c r="I60" s="43" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">1/((D60*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.83297378534214594</v>
+        <v>2.38557171355317</v>
       </c>
       <c r="J60" s="43" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.68068791689055708</v>
+        <v>2.9106796366243057</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -3817,35 +3976,35 @@
       <c r="B61" s="19">
         <v>40750</v>
       </c>
-      <c r="C61" s="19">
-        <v>184.98876000000004</v>
-      </c>
-      <c r="D61" s="19">
-        <v>12070.213076078191</v>
+      <c r="C61" s="40">
+        <v>229.48189000000002</v>
+      </c>
+      <c r="D61" s="40">
+        <v>857.87643884235001</v>
       </c>
       <c r="E61" s="43" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.394720421142829</v>
+        <v>2.3944593032261627</v>
       </c>
       <c r="F61" s="43" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9302261078729734</v>
+        <v>2.9298029432835633</v>
       </c>
       <c r="G61" s="43" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>52.147820071605061</v>
+        <v>41.843247158846964</v>
       </c>
       <c r="H61" s="43" cm="1">
         <f t="array" aca="1" ref="H61" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C61)*INDIRECT(ADDRESS(5,38))/(D61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.84538749907323185</v>
+        <v>1.1682507164169453</v>
       </c>
       <c r="I61" s="43" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">1/((D61*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.4586851574566788</v>
+        <v>2.3867164601397328</v>
       </c>
       <c r="J61" s="43" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.4067484982624503</v>
+        <v>2.9133670901482591</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -3861,35 +4020,35 @@
       <c r="B62" s="19">
         <v>40760</v>
       </c>
-      <c r="C62" s="19">
-        <v>100.21433400000001</v>
-      </c>
-      <c r="D62" s="19">
-        <v>6457.2113554137213</v>
+      <c r="C62" s="40">
+        <v>121.75768000000001</v>
+      </c>
+      <c r="D62" s="40">
+        <v>582.96621254895524</v>
       </c>
       <c r="E62" s="43" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3952180500909956</v>
+        <v>2.3950915760441611</v>
       </c>
       <c r="F62" s="43" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9310326314976902</v>
+        <v>2.9308276418839765</v>
       </c>
       <c r="G62" s="43" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>97.107216196730207</v>
+        <v>79.748494318792311</v>
       </c>
       <c r="H62" s="43" cm="1">
         <f t="array" aca="1" ref="H62" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C62)*INDIRECT(ADDRESS(5,38))/(D62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.70918463787066643</v>
+        <v>2.2161307929115499</v>
       </c>
       <c r="I62" s="43" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">1/((D62*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0253403748333172</v>
+        <v>2.3915074752892034</v>
       </c>
       <c r="J62" s="43" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2343564500950146</v>
+        <v>2.9232062208434875</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -3905,10 +4064,10 @@
       <c r="B63" s="19">
         <v>40770</v>
       </c>
-      <c r="C63" s="19">
-        <v>0</v>
-      </c>
-      <c r="D63" s="19">
+      <c r="C63" s="40">
+        <v>0</v>
+      </c>
+      <c r="D63" s="40">
         <v>0</v>
       </c>
       <c r="E63" s="43" cm="1">
@@ -3971,10 +4130,10 @@
       <c r="B66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="70" t="s">
         <v>50</v>
       </c>
       <c r="E66" s="29" t="s">
@@ -4011,11 +4170,11 @@
       <c r="B67" s="19">
         <v>40230</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="40">
         <v>156.21771000000001</v>
       </c>
-      <c r="D67" s="19">
-        <v>10154.80035955132</v>
+      <c r="D67" s="40">
+        <v>105.6895472386293</v>
       </c>
       <c r="E67" s="43" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4031,15 +4190,15 @@
       </c>
       <c r="H67" s="43" cm="1">
         <f t="array" aca="1" ref="H67" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C67)*INDIRECT(ADDRESS(5,38))/(D67*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.81583490285435212</v>
+        <v>16.694841576801544</v>
       </c>
       <c r="I67" s="43" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">1/((D67*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.6496867543134299</v>
+        <v>2.3947713290102226</v>
       </c>
       <c r="J67" s="43" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.6621566211583239</v>
+        <v>2.9302486449708827</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
@@ -4055,11 +4214,11 @@
       <c r="B68" s="19">
         <v>40240</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="40">
         <v>100.01789600000001</v>
       </c>
-      <c r="D68" s="19">
-        <v>6463.9342945162707</v>
+      <c r="D68" s="40">
+        <v>84.322759228857649</v>
       </c>
       <c r="E68" s="43" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4075,15 +4234,15 @@
       </c>
       <c r="H68" s="43" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C68)*INDIRECT(ADDRESS(5,38))/(D68*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.70948292954383563</v>
+        <v>21.270182712680199</v>
       </c>
       <c r="I68" s="43" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">1/((D68*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0246921520467316</v>
+        <v>2.3951440919760607</v>
       </c>
       <c r="J68" s="43" cm="1">
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2332696468056739</v>
+        <v>2.9308745650660746</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
@@ -4099,11 +4258,11 @@
       <c r="B69" s="19">
         <v>40250</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="40">
         <v>184.64072000000002</v>
       </c>
-      <c r="D69" s="19">
-        <v>12072.158826823041</v>
+      <c r="D69" s="40">
+        <v>115.23616927642703</v>
       </c>
       <c r="E69" s="43" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4119,15 +4278,15 @@
       </c>
       <c r="H69" s="43" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C69)*INDIRECT(ADDRESS(5,38))/(D69*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.84540845694435252</v>
+        <v>15.19503384024059</v>
       </c>
       <c r="I69" s="43" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">1/((D69*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.4584975020431994</v>
+        <v>2.3945822500923559</v>
       </c>
       <c r="J69" s="43" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.4065067897440042</v>
+        <v>2.9299309189160327</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -4143,10 +4302,10 @@
       <c r="B70" s="19">
         <v>40360</v>
       </c>
-      <c r="C70" s="19">
-        <v>0</v>
-      </c>
-      <c r="D70" s="19">
+      <c r="C70" s="40">
+        <v>0</v>
+      </c>
+      <c r="D70" s="40">
         <v>0</v>
       </c>
       <c r="E70" s="43" cm="1">
@@ -4187,11 +4346,11 @@
       <c r="B71" s="19">
         <v>40390</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="40">
         <v>106.32288700000001</v>
       </c>
-      <c r="D71" s="19">
-        <v>5042.7952322291503</v>
+      <c r="D71" s="40">
+        <v>74.478686585170564</v>
       </c>
       <c r="E71" s="43" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4207,15 +4366,15 @@
       </c>
       <c r="H71" s="43" cm="1">
         <f t="array" aca="1" ref="H71" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C71)*INDIRECT(ADDRESS(5,38))/(D71*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.62778247330731474</v>
+        <v>24.202065920047151</v>
       </c>
       <c r="I71" s="43" cm="1">
         <f t="array" aca="1" ref="I71" ca="1">1/((D71*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.1547368951786092</v>
+        <v>2.3951235916311679</v>
       </c>
       <c r="J71" s="43" cm="1">
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.4596518216729173</v>
+        <v>2.9308497364024881</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -4231,11 +4390,11 @@
       <c r="B72" s="19">
         <v>40710</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="40">
         <v>106.18517800000001</v>
       </c>
-      <c r="D72" s="19">
-        <v>5050.8717720764607</v>
+      <c r="D72" s="40">
+        <v>74.538305248268884</v>
       </c>
       <c r="E72" s="43" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4251,15 +4410,15 @@
       </c>
       <c r="H72" s="43" cm="1">
         <f t="array" aca="1" ref="H72" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C72)*INDIRECT(ADDRESS(5,38))/(D72*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.62837391666003906</v>
+        <v>24.182162216556922</v>
       </c>
       <c r="I72" s="43" cm="1">
         <f t="array" aca="1" ref="I72" ca="1">1/((D72*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.1540469089189203</v>
+        <v>2.3951243062025092</v>
       </c>
       <c r="J72" s="43" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.4584033244315866</v>
+        <v>2.9308508468185437</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -4275,11 +4434,11 @@
       <c r="B73" s="19">
         <v>40740</v>
       </c>
-      <c r="C73" s="19">
+      <c r="C73" s="40">
         <v>300.55322000000007</v>
       </c>
-      <c r="D73" s="19">
-        <v>19762.225512919998</v>
+      <c r="D73" s="40">
+        <v>147.43964210554773</v>
       </c>
       <c r="E73" s="43" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4295,15 +4454,15 @@
       </c>
       <c r="H73" s="43" cm="1">
         <f t="array" aca="1" ref="H73" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C73)*INDIRECT(ADDRESS(5,38))/(D73*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.90637066809322542</v>
+        <v>11.549704715378526</v>
       </c>
       <c r="I73" s="43" cm="1">
         <f t="array" aca="1" ref="I73" ca="1">1/((D73*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.83297378534214594</v>
+        <v>2.3938129043796263</v>
       </c>
       <c r="J73" s="43" cm="1">
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.68068791689055708</v>
+        <v>2.9286389884232027</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -4319,11 +4478,11 @@
       <c r="B74" s="19">
         <v>40750</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="40">
         <v>184.98876000000004</v>
       </c>
-      <c r="D74" s="19">
-        <v>12070.213076078191</v>
+      <c r="D74" s="40">
+        <v>115.22688220934388</v>
       </c>
       <c r="E74" s="43" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4339,15 +4498,15 @@
       </c>
       <c r="H74" s="43" cm="1">
         <f t="array" aca="1" ref="H74" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C74)*INDIRECT(ADDRESS(5,38))/(D74*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.84538749907323185</v>
+        <v>15.19592402943708</v>
       </c>
       <c r="I74" s="43" cm="1">
         <f t="array" aca="1" ref="I74" ca="1">1/((D74*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.4586851574566788</v>
+        <v>2.3945802302340251</v>
       </c>
       <c r="J74" s="43" cm="1">
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.4067484982624503</v>
+        <v>2.9299276572830149</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -4363,11 +4522,11 @@
       <c r="B75" s="19">
         <v>40760</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C75" s="40">
         <v>100.21433400000001</v>
       </c>
-      <c r="D75" s="19">
-        <v>6457.2113554137213</v>
+      <c r="D75" s="40">
+        <v>84.27889706774225</v>
       </c>
       <c r="E75" s="43" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4383,15 +4542,15 @@
       </c>
       <c r="H75" s="43" cm="1">
         <f t="array" aca="1" ref="H75" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C75)*INDIRECT(ADDRESS(5,38))/(D75*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.70918463787066643</v>
+        <v>21.281452700560262</v>
       </c>
       <c r="I75" s="43" cm="1">
         <f t="array" aca="1" ref="I75" ca="1">1/((D75*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0253403748333172</v>
+        <v>2.3951430169033743</v>
       </c>
       <c r="J75" s="43" cm="1">
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2343564500950146</v>
+        <v>2.9308728623794429</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4407,10 +4566,10 @@
       <c r="B76" s="19">
         <v>40770</v>
       </c>
-      <c r="C76" s="19">
-        <v>0</v>
-      </c>
-      <c r="D76" s="19">
+      <c r="C76" s="40">
+        <v>0</v>
+      </c>
+      <c r="D76" s="40">
         <v>0</v>
       </c>
       <c r="E76" s="43" cm="1">
@@ -4473,10 +4632,10 @@
       <c r="B79" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="71" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="30" t="s">
@@ -4527,11 +4686,11 @@
       <c r="B80" s="23">
         <v>40230</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="72">
         <v>757.39114000000006</v>
       </c>
-      <c r="D80" s="23">
-        <v>3676.1329074071541</v>
+      <c r="D80" s="72">
+        <v>63.590456816631459</v>
       </c>
       <c r="E80" s="44" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4547,15 +4706,15 @@
       </c>
       <c r="H80" s="44" cm="1">
         <f t="array" aca="1" ref="H80" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C80)*INDIRECT(ADDRESS(5,38))/(D80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.5137440799694859</v>
+        <v>27.11021462230164</v>
       </c>
       <c r="I80" s="44" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.2574578351687844</v>
+        <v>2.3913216401471757</v>
       </c>
       <c r="J80" s="44" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.653263278141603</v>
+        <v>2.9246985304541879</v>
       </c>
       <c r="L80" s="47" t="s">
         <v>36</v>
@@ -4586,11 +4745,11 @@
       <c r="B81" s="23">
         <v>40240</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="72">
         <v>54.757109000000007</v>
       </c>
-      <c r="D81" s="23">
-        <v>35561238.825024046</v>
+      <c r="D81" s="72">
+        <v>6254.3874766060389</v>
       </c>
       <c r="E81" s="44" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4606,15 +4765,15 @@
       </c>
       <c r="H81" s="44" cm="1">
         <f t="array" aca="1" ref="H81" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C81)*INDIRECT(ADDRESS(5,38))/(D81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99994701806116948</v>
+        <v>-0.69875493208400363</v>
       </c>
       <c r="I81" s="44" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99878969578428933</v>
+        <v>2.0449883791642298</v>
       </c>
       <c r="J81" s="44" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99896669801320381</v>
+        <v>2.2674000652012651</v>
       </c>
       <c r="L81" s="48"/>
       <c r="M81" s="50"/>
@@ -4641,11 +4800,11 @@
       <c r="B82" s="23">
         <v>40250</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="72">
         <v>140.27937000000003</v>
       </c>
-      <c r="D82" s="23">
-        <v>81743956.96048671</v>
+      <c r="D82" s="72">
+        <v>9482.5288112684048</v>
       </c>
       <c r="E82" s="44" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4661,15 +4820,15 @@
       </c>
       <c r="H82" s="44" cm="1">
         <f t="array" aca="1" ref="H82" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C82)*INDIRECT(ADDRESS(5,38))/(D82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99997709494074394</v>
+        <v>-0.80254737789105413</v>
       </c>
       <c r="I82" s="44" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99947347888354365</v>
+        <v>1.7186192724731799</v>
       </c>
       <c r="J82" s="44" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99955048053549123</v>
+        <v>1.7595308024126353</v>
       </c>
       <c r="L82" s="49"/>
       <c r="M82" s="50"/>
@@ -4696,10 +4855,10 @@
       <c r="B83" s="23">
         <v>40360</v>
       </c>
-      <c r="C83" s="23">
-        <v>0</v>
-      </c>
-      <c r="D83" s="23">
+      <c r="C83" s="72">
+        <v>0</v>
+      </c>
+      <c r="D83" s="72">
         <v>0</v>
       </c>
       <c r="E83" s="44" cm="1">
@@ -4755,11 +4914,11 @@
       <c r="B84" s="23">
         <v>40390</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="72">
         <v>158.00565000000003</v>
       </c>
-      <c r="D84" s="23">
-        <v>2593641.473362511</v>
+      <c r="D84" s="72">
+        <v>1689.0842550621214</v>
       </c>
       <c r="E84" s="44" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4775,15 +4934,15 @@
       </c>
       <c r="H84" s="44" cm="1">
         <f t="array" aca="1" ref="H84" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C84)*INDIRECT(ADDRESS(5,38))/(D84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99927903910394866</v>
+        <v>0.10705790730531484</v>
       </c>
       <c r="I84" s="44" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98340579981067411</v>
+        <v>2.3651438358197661</v>
       </c>
       <c r="J84" s="44" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.9858325594845686</v>
+        <v>2.8678609980978429</v>
       </c>
       <c r="L84" s="48"/>
       <c r="M84" s="48"/>
@@ -4810,11 +4969,11 @@
       <c r="B85" s="23">
         <v>40710</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="72">
         <v>157.80270000000002</v>
       </c>
-      <c r="D85" s="23">
-        <v>2597627.4440807798</v>
+      <c r="D85" s="72">
+        <v>1690.3816694725656</v>
       </c>
       <c r="E85" s="44" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4830,15 +4989,15 @@
       </c>
       <c r="H85" s="44" cm="1">
         <f t="array" aca="1" ref="H85" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C85)*INDIRECT(ADDRESS(5,38))/(D85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99928013465669951</v>
+        <v>0.10622470982157628</v>
       </c>
       <c r="I85" s="44" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98343126243778012</v>
+        <v>2.3650998981334954</v>
       </c>
       <c r="J85" s="44" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.98585429865695595</v>
+        <v>2.8677688903216301</v>
       </c>
       <c r="L85" s="48"/>
       <c r="M85" s="49"/>
@@ -4865,11 +5024,11 @@
       <c r="B86" s="23">
         <v>40740</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="72">
         <v>807.62264000000005</v>
       </c>
-      <c r="D86" s="23">
-        <v>113127625.20374614</v>
+      <c r="D86" s="72">
+        <v>11155.285192415331</v>
       </c>
       <c r="E86" s="44" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4885,15 +5044,15 @@
       </c>
       <c r="H86" s="44" cm="1">
         <f t="array" aca="1" ref="H86" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C86)*INDIRECT(ADDRESS(5,38))/(D86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99998425991757045</v>
+        <v>-0.84037717413350521</v>
       </c>
       <c r="I86" s="44" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99961954545009135</v>
+        <v>1.5470944929109525</v>
       </c>
       <c r="J86" s="44" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99967518543938361</v>
+        <v>1.5229983603570387</v>
       </c>
       <c r="L86" s="48"/>
       <c r="M86" s="47" t="s">
@@ -4922,11 +5081,11 @@
       <c r="B87" s="23">
         <v>40750</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="72">
         <v>140.12273000000002</v>
       </c>
-      <c r="D87" s="23">
-        <v>81846254.329409897</v>
+      <c r="D87" s="72">
+        <v>9488.4603473035022</v>
       </c>
       <c r="E87" s="44" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4942,15 +5101,15 @@
       </c>
       <c r="H87" s="44" cm="1">
         <f t="array" aca="1" ref="H87" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C87)*INDIRECT(ADDRESS(5,38))/(D87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99997712330612853</v>
+        <v>-0.80266854302109147</v>
       </c>
       <c r="I87" s="44" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99947413696770449</v>
+        <v>1.7180096693312028</v>
       </c>
       <c r="J87" s="44" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99955104237742609</v>
+        <v>1.7586560962131887</v>
       </c>
       <c r="L87" s="48"/>
       <c r="M87" s="48"/>
@@ -4977,11 +5136,11 @@
       <c r="B88" s="23">
         <v>40760</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="72">
         <v>54.532445000000003</v>
       </c>
-      <c r="D88" s="23">
-        <v>35594548.06547533</v>
+      <c r="D88" s="72">
+        <v>6257.3159479143187</v>
       </c>
       <c r="E88" s="44" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -4997,15 +5156,15 @@
       </c>
       <c r="H88" s="44" cm="1">
         <f t="array" aca="1" ref="H88" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C88)*INDIRECT(ADDRESS(5,38))/(D88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99994706677404777</v>
+        <v>-0.69889098279530981</v>
       </c>
       <c r="I88" s="44" cm="1">
         <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99879082838215094</v>
+        <v>2.0447101519663309</v>
       </c>
       <c r="J88" s="44" cm="1">
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99896766497314105</v>
+        <v>2.2669281063652411</v>
       </c>
       <c r="L88" s="49"/>
       <c r="M88" s="49"/>
@@ -5032,10 +5191,10 @@
       <c r="B89" s="23">
         <v>40770</v>
       </c>
-      <c r="C89" s="23">
-        <v>0</v>
-      </c>
-      <c r="D89" s="23">
+      <c r="C89" s="72">
+        <v>0</v>
+      </c>
+      <c r="D89" s="72">
         <v>0</v>
       </c>
       <c r="E89" s="44" cm="1">
@@ -5070,10 +5229,10 @@
       <c r="B92" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="71" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="30" t="s">
@@ -5110,11 +5269,11 @@
       <c r="B93" s="23">
         <v>40230</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="72">
         <v>1037.3479600000001</v>
       </c>
-      <c r="D93" s="23">
-        <v>7287005.205844745</v>
+      <c r="D93" s="72">
+        <v>2831.2021698263125</v>
       </c>
       <c r="E93" s="44" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5130,15 +5289,15 @@
       </c>
       <c r="H93" s="44" cm="1">
         <f t="array" aca="1" ref="H93" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C93)*INDIRECT(ADDRESS(5,38))/(D93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.9997599744649821</v>
+        <v>-0.3822174404031593</v>
       </c>
       <c r="I93" s="44" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99409361549118691</v>
+        <v>2.3084747622670201</v>
       </c>
       <c r="J93" s="44" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99495739764245572</v>
+        <v>2.7544470651124442</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5154,11 +5313,11 @@
       <c r="B94" s="23">
         <v>40240</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="72">
         <v>156.80258000000001</v>
       </c>
-      <c r="D94" s="23">
-        <v>11354125.97145948</v>
+      <c r="D94" s="72">
+        <v>3534.0541264396938</v>
       </c>
       <c r="E94" s="44" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5174,15 +5333,15 @@
       </c>
       <c r="H94" s="44" cm="1">
         <f t="array" aca="1" ref="H94" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C94)*INDIRECT(ADDRESS(5,38))/(D94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99983529516745162</v>
+        <v>-0.47084018807973715</v>
       </c>
       <c r="I94" s="44" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99620931692339443</v>
+        <v>2.2702055607903295</v>
       </c>
       <c r="J94" s="44" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99676368858014164</v>
+        <v>2.6765716663225576</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5198,11 +5357,11 @@
       <c r="B95" s="23">
         <v>40250</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="72">
         <v>557.23129000000006</v>
       </c>
-      <c r="D95" s="23">
-        <v>31369173.5474656</v>
+      <c r="D95" s="72">
+        <v>5874.1885313813482</v>
       </c>
       <c r="E95" s="44" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5218,15 +5377,15 @@
       </c>
       <c r="H95" s="44" cm="1">
         <f t="array" aca="1" ref="H95" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C95)*INDIRECT(ADDRESS(5,38))/(D95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99994213908541318</v>
+        <v>-0.69101279919904912</v>
       </c>
       <c r="I95" s="44" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99862795503952351</v>
+        <v>2.0785465766427111</v>
       </c>
       <c r="J95" s="44" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99882861120617739</v>
+        <v>2.3257441518993338</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -5242,10 +5401,10 @@
       <c r="B96" s="23">
         <v>40360</v>
       </c>
-      <c r="C96" s="23">
-        <v>0</v>
-      </c>
-      <c r="D96" s="23">
+      <c r="C96" s="72">
+        <v>0</v>
+      </c>
+      <c r="D96" s="72">
         <v>0</v>
       </c>
       <c r="E96" s="44" cm="1">
@@ -5286,11 +5445,11 @@
       <c r="B97" s="23">
         <v>40390</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="72">
         <v>121.82885000000002</v>
       </c>
-      <c r="D97" s="23">
-        <v>3863404.40287086</v>
+      <c r="D97" s="72">
+        <v>2061.490927255792</v>
       </c>
       <c r="E97" s="44" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5306,15 +5465,15 @@
       </c>
       <c r="H97" s="44" cm="1">
         <f t="array" aca="1" ref="H97" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C97)*INDIRECT(ADDRESS(5,38))/(D97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99951470630275696</v>
+        <v>-9.0519496435480518E-2</v>
       </c>
       <c r="I97" s="44" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98885964713871954</v>
+        <v>2.3510728182187446</v>
       </c>
       <c r="J97" s="44" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99048885682085297</v>
+        <v>2.8385956551061482</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5330,11 +5489,11 @@
       <c r="B98" s="23">
         <v>40710</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="72">
         <v>121.56012000000001</v>
       </c>
-      <c r="D98" s="23">
-        <v>3868697.7260159361</v>
+      <c r="D98" s="72">
+        <v>2062.9026876267167</v>
       </c>
       <c r="E98" s="44" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5350,15 +5509,15 @@
       </c>
       <c r="H98" s="44" cm="1">
         <f t="array" aca="1" ref="H98" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C98)*INDIRECT(ADDRESS(5,38))/(D98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99951536075688052</v>
+        <v>-9.1124002581379093E-2</v>
       </c>
       <c r="I98" s="44" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.98887488969783988</v>
+        <v>2.3510151941901274</v>
       </c>
       <c r="J98" s="44" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99050187031107717</v>
+        <v>2.8384760867161241</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5374,11 +5533,11 @@
       <c r="B99" s="23">
         <v>40740</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="72">
         <v>204.85366000000002</v>
       </c>
-      <c r="D99" s="23">
-        <v>79030995.547444686</v>
+      <c r="D99" s="72">
+        <v>9323.845510420535</v>
       </c>
       <c r="E99" s="44" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5394,15 +5553,15 @@
       </c>
       <c r="H99" s="44" cm="1">
         <f t="array" aca="1" ref="H99" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C99)*INDIRECT(ADDRESS(5,38))/(D99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99997642094962014</v>
+        <v>-0.80013870634169182</v>
       </c>
       <c r="I99" s="44" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99945540456439919</v>
+        <v>1.7347519380404548</v>
       </c>
       <c r="J99" s="44" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99953504951458205</v>
+        <v>1.7828322700617165</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5418,11 +5577,11 @@
       <c r="B100" s="23">
         <v>40750</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="72">
         <v>557.19191000000001</v>
       </c>
-      <c r="D100" s="23">
-        <v>31411483.249437507</v>
+      <c r="D100" s="72">
+        <v>5878.1486519465689</v>
       </c>
       <c r="E100" s="44" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5438,15 +5597,15 @@
       </c>
       <c r="H100" s="44" cm="1">
         <f t="array" aca="1" ref="H100" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C100)*INDIRECT(ADDRESS(5,38))/(D100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99994221684888895</v>
+        <v>-0.69122004381011137</v>
       </c>
       <c r="I100" s="44" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99862980311538274</v>
+        <v>2.0781802951406605</v>
       </c>
       <c r="J100" s="44" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99883018900834497</v>
+        <v>2.3251106016295244</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -5462,11 +5621,11 @@
       <c r="B101" s="23">
         <v>40760</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="72">
         <v>156.18735000000001</v>
       </c>
-      <c r="D101" s="23">
-        <v>11365824.678142671</v>
+      <c r="D101" s="72">
+        <v>3535.8743113913051</v>
       </c>
       <c r="E101" s="44" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5482,15 +5641,15 @@
       </c>
       <c r="H101" s="44" cm="1">
         <f t="array" aca="1" ref="H101" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C101)*INDIRECT(ADDRESS(5,38))/(D101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99983545725717204</v>
+        <v>-0.47108867500808294</v>
       </c>
       <c r="I101" s="44" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99621321862304557</v>
+        <v>2.2700873211534072</v>
       </c>
       <c r="J101" s="44" cm="1">
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99676701967431591</v>
+        <v>2.6763396568056144</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -5506,10 +5665,10 @@
       <c r="B102" s="23">
         <v>40770</v>
       </c>
-      <c r="C102" s="23">
-        <v>0</v>
-      </c>
-      <c r="D102" s="23">
+      <c r="C102" s="72">
+        <v>0</v>
+      </c>
+      <c r="D102" s="72">
         <v>0</v>
       </c>
       <c r="E102" s="44" cm="1">
@@ -5572,10 +5731,10 @@
       <c r="B105" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="71" t="s">
         <v>50</v>
       </c>
       <c r="E105" s="30" t="s">
@@ -5612,11 +5771,11 @@
       <c r="B106" s="23">
         <v>40230</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="72">
         <v>47245.813999999998</v>
       </c>
-      <c r="D106" s="23">
-        <v>1031090117.050784</v>
+      <c r="D106" s="72">
+        <v>33677.872984436864</v>
       </c>
       <c r="E106" s="44" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5632,15 +5791,15 @@
       </c>
       <c r="H106" s="44" cm="1">
         <f t="array" aca="1" ref="H106" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C106)*INDIRECT(ADDRESS(5,38))/(D106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-1.0000044625548015</v>
+        <v>-1.1366266852629847</v>
       </c>
       <c r="I106" s="44" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99995825784838355</v>
+        <v>0.18366456074180637</v>
       </c>
       <c r="J106" s="44" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99996436247483078</v>
+        <v>4.2385813123847038E-2</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5656,11 +5815,11 @@
       <c r="B107" s="23">
         <v>40240</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="72">
         <v>6705.1105000000007</v>
       </c>
-      <c r="D107" s="23">
-        <v>626960040.28357399</v>
+      <c r="D107" s="72">
+        <v>26261.303172385247</v>
       </c>
       <c r="E107" s="44" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5676,15 +5835,15 @@
       </c>
       <c r="H107" s="44" cm="1">
         <f t="array" aca="1" ref="H107" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C107)*INDIRECT(ADDRESS(5,38))/(D107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99999845260502773</v>
+        <v>-0.96305762864186373</v>
       </c>
       <c r="I107" s="44" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99993135141440348</v>
+        <v>0.47275732135875437</v>
       </c>
       <c r="J107" s="44" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99994139100160329</v>
+        <v>0.31582736725315774</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5700,11 +5859,11 @@
       <c r="B108" s="23">
         <v>40250</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="72">
         <v>71772.107000000004</v>
       </c>
-      <c r="D108" s="23">
-        <v>1646397897.6721141</v>
+      <c r="D108" s="72">
+        <v>42556.288459396055</v>
       </c>
       <c r="E108" s="44" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5720,15 +5879,15 @@
       </c>
       <c r="H108" s="44" cm="1">
         <f t="array" aca="1" ref="H108" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C108)*INDIRECT(ADDRESS(5,38))/(D108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-1.0000048420309411</v>
+        <v>-1.1873262413287331</v>
       </c>
       <c r="I108" s="44" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99997385812988515</v>
+        <v>-4.0957048467318513E-2</v>
       </c>
       <c r="J108" s="44" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99997768127616593</v>
+        <v>-0.16387304789467105</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5744,10 +5903,10 @@
       <c r="B109" s="23">
         <v>40360</v>
       </c>
-      <c r="C109" s="23">
-        <v>0</v>
-      </c>
-      <c r="D109" s="23">
+      <c r="C109" s="72">
+        <v>0</v>
+      </c>
+      <c r="D109" s="72">
         <v>0</v>
       </c>
       <c r="E109" s="44" cm="1">
@@ -5788,11 +5947,11 @@
       <c r="B110" s="23">
         <v>40390</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="72">
         <v>9223.4142000000011</v>
       </c>
-      <c r="D110" s="23">
-        <v>260581404.17472795</v>
+      <c r="D110" s="72">
+        <v>16930.432498675298</v>
       </c>
       <c r="E110" s="44" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5808,15 +5967,15 @@
       </c>
       <c r="H110" s="44" cm="1">
         <f t="array" aca="1" ref="H110" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C110)*INDIRECT(ADDRESS(5,38))/(D110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99999760509413094</v>
+        <v>-0.9631392798572983</v>
       </c>
       <c r="I110" s="44" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99983483119187355</v>
+        <v>1.0234281186285399</v>
       </c>
       <c r="J110" s="44" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99985898648412119</v>
+        <v>0.89018956056078946</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5832,11 +5991,11 @@
       <c r="B111" s="23">
         <v>40710</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="72">
         <v>8815.0568000000003</v>
       </c>
-      <c r="D111" s="23">
-        <v>262170185.73285758</v>
+      <c r="D111" s="72">
+        <v>16981.967032889428</v>
       </c>
       <c r="E111" s="44" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5852,15 +6011,15 @@
       </c>
       <c r="H111" s="44" cm="1">
         <f t="array" aca="1" ref="H111" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C111)*INDIRECT(ADDRESS(5,38))/(D111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99999740554820737</v>
+        <v>-0.95994645926319844</v>
       </c>
       <c r="I111" s="44" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99983583213389482</v>
+        <v>1.0200439829107024</v>
       </c>
       <c r="J111" s="44" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99985984104228731</v>
+        <v>0.88627255557516738</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -5876,11 +6035,11 @@
       <c r="B112" s="23">
         <v>40740</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="72">
         <v>217563.06000000003</v>
       </c>
-      <c r="D112" s="23">
-        <v>4291188796.0038123</v>
+      <c r="D112" s="72">
+        <v>68704.495308561833</v>
       </c>
       <c r="E112" s="44" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5896,15 +6055,15 @@
       </c>
       <c r="H112" s="44" cm="1">
         <f t="array" aca="1" ref="H112" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C112)*INDIRECT(ADDRESS(5,38))/(D112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-1.0000065268048766</v>
+        <v>-1.4076553045650526</v>
       </c>
       <c r="I112" s="44" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99998997016396951</v>
+        <v>-0.39281427064203367</v>
       </c>
       <c r="J112" s="44" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99999143698826909</v>
+        <v>-0.47633914927617937</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -5920,11 +6079,11 @@
       <c r="B113" s="23">
         <v>40750</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="72">
         <v>67977.899000000005</v>
       </c>
-      <c r="D113" s="23">
-        <v>1538722208.1181324</v>
+      <c r="D113" s="72">
+        <v>41141.152498805204</v>
       </c>
       <c r="E113" s="44" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5940,15 +6099,15 @@
       </c>
       <c r="H113" s="44" cm="1">
         <f t="array" aca="1" ref="H113" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C113)*INDIRECT(ADDRESS(5,38))/(D113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-1.000004841989631</v>
+        <v>-1.1810954852826137</v>
       </c>
       <c r="I113" s="44" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.99997202879131064</v>
+        <v>-1.0832067462735018E-2</v>
       </c>
       <c r="J113" s="44" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99997611947120457</v>
+        <v>-0.13654497552682876</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -5964,11 +6123,11 @@
       <c r="B114" s="23">
         <v>40760</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="72">
         <v>6460.9974000000002</v>
       </c>
-      <c r="D114" s="23">
-        <v>615179576.38995016</v>
+      <c r="D114" s="72">
+        <v>26013.410657369503</v>
       </c>
       <c r="E114" s="44" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
@@ -5984,15 +6143,15 @@
       </c>
       <c r="H114" s="44" cm="1">
         <f t="array" aca="1" ref="H114" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C114)*INDIRECT(ADDRESS(5,38))/(D114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>-0.99999836843912371</v>
+        <v>-0.96141594264731634</v>
       </c>
       <c r="I114" s="44" cm="1">
         <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.9999300368190972</v>
+        <v>0.48418029547758845</v>
       </c>
       <c r="J114" s="44" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.99994026866071972</v>
+        <v>0.3269886226676415</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -6008,10 +6167,10 @@
       <c r="B115" s="23">
         <v>40770</v>
       </c>
-      <c r="C115" s="23">
-        <v>0</v>
-      </c>
-      <c r="D115" s="23">
+      <c r="C115" s="72">
+        <v>0</v>
+      </c>
+      <c r="D115" s="72">
         <v>0</v>
       </c>
       <c r="E115" s="44" cm="1">
@@ -6080,10 +6239,10 @@
       <c r="A127" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E127" s="45" t="s">
@@ -6116,12 +6275,12 @@
         <v>-377.04860000000002</v>
       </c>
       <c r="F128" s="26">
-        <f>C128*1.1*1</f>
+        <f>ABS(C128)*1.1*1</f>
         <v>119.76173000000001</v>
       </c>
       <c r="G128" s="26">
-        <f>(D128^2 + E128^2)*1.1</f>
-        <v>163526.25705125605</v>
+        <f>(D128^2 + E128^2)^0.5*1.1</f>
+        <v>424.1213066522144</v>
       </c>
       <c r="L128" s="16"/>
       <c r="T128" s="9"/>
@@ -6142,12 +6301,12 @@
         <v>-399.84219999999999</v>
       </c>
       <c r="F129" s="26">
-        <f t="shared" ref="F129:F192" si="0">C129*1.1*1</f>
+        <f t="shared" ref="F129:F157" si="0">ABS(C129)*1.1*1</f>
         <v>10.078349600000001</v>
       </c>
       <c r="G129" s="26">
-        <f t="shared" ref="G129:G156" si="1">(D129^2 + E129^2)*1.1</f>
-        <v>175879.63951993512</v>
+        <f t="shared" ref="G129:G192" si="1">(D129^2 + E129^2)^0.5*1.1</f>
+        <v>439.8495236690938</v>
       </c>
       <c r="I129" s="42"/>
       <c r="J129" s="42"/>
@@ -6171,11 +6330,11 @@
       </c>
       <c r="F130" s="26">
         <f t="shared" si="0"/>
-        <v>-119.08600000000001</v>
+        <v>119.08600000000001</v>
       </c>
       <c r="G130" s="26">
         <f t="shared" si="1"/>
-        <v>152494.79322797499</v>
+        <v>409.56595628881621</v>
       </c>
       <c r="I130" s="42"/>
       <c r="J130" s="42"/>
@@ -6218,11 +6377,11 @@
       </c>
       <c r="F132" s="26">
         <f t="shared" si="0"/>
-        <v>-89.703284000000011</v>
+        <v>89.703284000000011</v>
       </c>
       <c r="G132" s="26">
         <f t="shared" si="1"/>
-        <v>40766.059164303006</v>
+        <v>211.76086768034671</v>
       </c>
       <c r="I132" s="42"/>
       <c r="J132" s="42"/>
@@ -6250,7 +6409,7 @@
       </c>
       <c r="G133" s="26">
         <f t="shared" si="1"/>
-        <v>40690.806545180007</v>
+        <v>211.56532608085382</v>
       </c>
       <c r="I133" s="42"/>
       <c r="J133" s="42"/>
@@ -6274,11 +6433,11 @@
       </c>
       <c r="F134" s="26">
         <f t="shared" si="0"/>
-        <v>-317.42777000000001</v>
+        <v>317.42777000000001</v>
       </c>
       <c r="G134" s="26">
         <f t="shared" si="1"/>
-        <v>6266.4518162622207</v>
+        <v>83.024677041759347</v>
       </c>
       <c r="I134" s="42"/>
       <c r="J134" s="42"/>
@@ -6304,7 +6463,7 @@
       </c>
       <c r="G135" s="26">
         <f t="shared" si="1"/>
-        <v>152531.085612686</v>
+        <v>409.61468989033415</v>
       </c>
       <c r="I135" s="42"/>
       <c r="J135" s="42"/>
@@ -6326,11 +6485,11 @@
       </c>
       <c r="F136" s="26">
         <f t="shared" si="0"/>
-        <v>-9.9546644999999998</v>
+        <v>9.9546644999999998</v>
       </c>
       <c r="G136" s="26">
         <f t="shared" si="1"/>
-        <v>175906.7390081269</v>
+        <v>439.88340831286149</v>
       </c>
       <c r="I136" s="42"/>
       <c r="J136" s="42"/>
@@ -6375,7 +6534,7 @@
       </c>
       <c r="G138" s="26">
         <f t="shared" si="1"/>
-        <v>25156.695841011788</v>
+        <v>166.35012902042777</v>
       </c>
       <c r="I138" s="42"/>
       <c r="J138" s="42"/>
@@ -6401,7 +6560,7 @@
       </c>
       <c r="G139" s="26">
         <f t="shared" si="1"/>
-        <v>20997.7005911905</v>
+        <v>151.97852035833731</v>
       </c>
       <c r="I139" s="42"/>
       <c r="J139" s="42"/>
@@ -6427,7 +6586,7 @@
       </c>
       <c r="G140" s="26">
         <f t="shared" si="1"/>
-        <v>56316.547629100016</v>
+        <v>248.89395812676935</v>
       </c>
       <c r="I140" s="42"/>
       <c r="J140" s="42"/>
@@ -6466,11 +6625,11 @@
       </c>
       <c r="F142" s="26">
         <f t="shared" si="0"/>
-        <v>-68.339304000000013</v>
+        <v>68.339304000000013</v>
       </c>
       <c r="G142" s="26">
         <f t="shared" si="1"/>
-        <v>152694.05058108529</v>
+        <v>409.83344865834687</v>
       </c>
       <c r="I142" s="42"/>
       <c r="J142" s="42"/>
@@ -6496,7 +6655,7 @@
       </c>
       <c r="G143" s="26">
         <f t="shared" si="1"/>
-        <v>152761.52336029595</v>
+        <v>409.92398770543491</v>
       </c>
       <c r="I143" s="42"/>
       <c r="J143" s="42"/>
@@ -6522,7 +6681,7 @@
       </c>
       <c r="G144" s="26">
         <f t="shared" si="1"/>
-        <v>307414.71138619224</v>
+        <v>581.51197969157226</v>
       </c>
       <c r="I144" s="42"/>
       <c r="J144" s="42"/>
@@ -6544,11 +6703,11 @@
       </c>
       <c r="F145" s="26">
         <f t="shared" si="0"/>
-        <v>-240.60355000000001</v>
+        <v>240.60355000000001</v>
       </c>
       <c r="G145" s="26">
         <f t="shared" si="1"/>
-        <v>56311.796279285911</v>
+        <v>248.88345848451743</v>
       </c>
       <c r="I145" s="42"/>
       <c r="J145" s="42"/>
@@ -6570,11 +6729,11 @@
       </c>
       <c r="F146" s="26">
         <f t="shared" si="0"/>
-        <v>-117.20082000000001</v>
+        <v>117.20082000000001</v>
       </c>
       <c r="G146" s="26">
         <f t="shared" si="1"/>
-        <v>20951.502857431999</v>
+        <v>151.81124182080589</v>
       </c>
       <c r="I146" s="42"/>
       <c r="J146" s="42"/>
@@ -6619,7 +6778,7 @@
       </c>
       <c r="G148" s="26">
         <f t="shared" si="1"/>
-        <v>120409.0717318532</v>
+        <v>363.93677871992895</v>
       </c>
       <c r="I148" s="42"/>
       <c r="J148" s="42"/>
@@ -6645,7 +6804,7 @@
       </c>
       <c r="G149" s="26">
         <f t="shared" si="1"/>
-        <v>72917.870455049517</v>
+        <v>283.21309556684429</v>
       </c>
       <c r="I149" s="42"/>
       <c r="J149" s="42"/>
@@ -6671,7 +6830,7 @@
       </c>
       <c r="G150" s="26">
         <f t="shared" si="1"/>
-        <v>143515.02626851675</v>
+        <v>397.32421131283763</v>
       </c>
       <c r="I150" s="42"/>
       <c r="J150" s="42"/>
@@ -6714,7 +6873,7 @@
       </c>
       <c r="G152" s="26">
         <f t="shared" si="1"/>
-        <v>55070.953668940012</v>
+        <v>246.12608361535763</v>
       </c>
       <c r="I152" s="42"/>
       <c r="J152" s="42"/>
@@ -6740,7 +6899,7 @@
       </c>
       <c r="G153" s="26">
         <f t="shared" si="1"/>
-        <v>55112.83913749901</v>
+        <v>246.21966422535979</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -6763,7 +6922,7 @@
       </c>
       <c r="G154" s="26">
         <f t="shared" si="1"/>
-        <v>242555.96607987801</v>
+        <v>516.53805541108568</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6786,7 +6945,7 @@
       </c>
       <c r="G155" s="26">
         <f t="shared" si="1"/>
-        <v>143594.21550503216</v>
+        <v>397.43381468558431</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -6809,7 +6968,7 @@
       </c>
       <c r="G156" s="26">
         <f t="shared" si="1"/>
-        <v>72931.773101550119</v>
+        <v>283.24009322782172</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -6817,14 +6976,14 @@
       <c r="B157" s="35">
         <v>40770</v>
       </c>
-      <c r="C157" s="9"/>
+      <c r="C157" s="73"/>
       <c r="E157" s="45"/>
       <c r="F157" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G157" s="26">
-        <f t="shared" ref="G157:G190" si="2">(D157^2 + E157^2)*1.1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6832,14 +6991,14 @@
       <c r="A158" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="9"/>
+      <c r="C158" s="73"/>
       <c r="E158" s="45"/>
       <c r="F158" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F129:F192" si="2">C158*1.1*1</f>
         <v>0</v>
       </c>
       <c r="G158" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6856,16 +7015,16 @@
       <c r="D159" s="39">
         <v>73.841480000000004</v>
       </c>
-      <c r="E159" s="39">
+      <c r="E159" s="42">
         <v>624.6105</v>
       </c>
       <c r="F159" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>267.64320000000004</v>
       </c>
       <c r="G159" s="26">
-        <f t="shared" si="2"/>
-        <v>435149.92496672447</v>
+        <f t="shared" si="1"/>
+        <v>691.85613928286932</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -6879,16 +7038,16 @@
       <c r="D160" s="39">
         <v>38.271459999999998</v>
       </c>
-      <c r="E160" s="39">
+      <c r="E160" s="42">
         <v>699.00609999999995</v>
       </c>
       <c r="F160" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71.935776000000004</v>
       </c>
       <c r="G160" s="26">
-        <f t="shared" si="2"/>
-        <v>539081.65573651565</v>
+        <f t="shared" si="1"/>
+        <v>770.05832331724548</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -6902,16 +7061,16 @@
       <c r="D161" s="39">
         <v>522.67309999999998</v>
       </c>
-      <c r="E161" s="39">
+      <c r="E161" s="42">
         <v>829.85799999999995</v>
       </c>
       <c r="F161" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115.20564</v>
       </c>
       <c r="G161" s="26">
-        <f t="shared" si="2"/>
-        <v>1058036.6165903711</v>
+        <f t="shared" si="1"/>
+        <v>1078.8142927535805</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -6920,11 +7079,11 @@
         <v>40360</v>
       </c>
       <c r="F162" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G162" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6939,16 +7098,16 @@
       <c r="D163" s="39">
         <v>359.96510000000001</v>
       </c>
-      <c r="E163" s="39">
+      <c r="E163" s="42">
         <v>163.09819999999999</v>
       </c>
       <c r="F163" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122.30097000000001</v>
       </c>
       <c r="G163" s="26">
-        <f t="shared" si="2"/>
-        <v>171793.48566737503</v>
+        <f t="shared" si="1"/>
+        <v>434.71005766385548</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -6962,16 +7121,16 @@
       <c r="D164" s="39">
         <v>360.13130000000001</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E164" s="42">
         <v>162.8475</v>
       </c>
       <c r="F164" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122.22760000000001</v>
       </c>
       <c r="G164" s="26">
-        <f t="shared" si="2"/>
-        <v>171835.24764553402</v>
+        <f t="shared" si="1"/>
+        <v>434.76289217237417</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -6985,16 +7144,16 @@
       <c r="D165" s="39">
         <v>933.57539999999995</v>
       </c>
-      <c r="E165" s="39">
+      <c r="E165" s="42">
         <v>135.39519999999999</v>
       </c>
       <c r="F165" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>276.31900999999999</v>
       </c>
       <c r="G165" s="26">
-        <f t="shared" si="2"/>
-        <v>978884.37643502001</v>
+        <f t="shared" si="1"/>
+        <v>1037.6766423498807</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -7008,16 +7167,16 @@
       <c r="D166" s="39">
         <v>523.07399999999996</v>
       </c>
-      <c r="E166" s="39">
+      <c r="E166" s="42">
         <v>830.06010000000003</v>
       </c>
       <c r="F166" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115.14536000000001</v>
       </c>
       <c r="G166" s="26">
-        <f t="shared" si="2"/>
-        <v>1058866.7969968112</v>
+        <f t="shared" si="1"/>
+        <v>1079.2374514890096</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -7031,16 +7190,16 @@
       <c r="D167" s="39">
         <v>38.357140000000001</v>
       </c>
-      <c r="E167" s="39">
+      <c r="E167" s="42">
         <v>699.17250000000001</v>
       </c>
       <c r="F167" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71.786825000000007</v>
       </c>
       <c r="G167" s="26">
-        <f t="shared" si="2"/>
-        <v>539344.80043975252</v>
+        <f t="shared" si="1"/>
+        <v>770.24624665345038</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -7048,14 +7207,14 @@
       <c r="B168" s="35">
         <v>40770</v>
       </c>
-      <c r="C168" s="9"/>
+      <c r="C168" s="73"/>
       <c r="E168" s="45"/>
       <c r="F168" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G168" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7063,14 +7222,14 @@
       <c r="A169" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="73"/>
       <c r="E169" s="45"/>
       <c r="F169" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G169" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7087,16 +7246,16 @@
       <c r="D170" s="39">
         <v>68.377350000000007</v>
       </c>
-      <c r="E170" s="39">
+      <c r="E170" s="42">
         <v>470.7543</v>
       </c>
       <c r="F170" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>313.21444000000002</v>
       </c>
       <c r="G170" s="26">
-        <f t="shared" si="2"/>
-        <v>248913.58025766379</v>
+        <f t="shared" si="1"/>
+        <v>523.26373683203974</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -7110,16 +7269,16 @@
       <c r="D171" s="39">
         <v>67.606210000000004</v>
       </c>
-      <c r="E171" s="39">
+      <c r="E171" s="42">
         <v>525.52009999999996</v>
       </c>
       <c r="F171" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121.98835000000001</v>
       </c>
       <c r="G171" s="26">
-        <f t="shared" si="2"/>
-        <v>308816.1726480315</v>
+        <f t="shared" si="1"/>
+        <v>582.83598886207665</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -7133,16 +7292,16 @@
       <c r="D172" s="39">
         <v>436.50650000000002</v>
       </c>
-      <c r="E172" s="39">
+      <c r="E172" s="42">
         <v>645.93619999999999</v>
       </c>
       <c r="F172" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>229.48585000000003</v>
       </c>
       <c r="G172" s="26">
-        <f t="shared" si="2"/>
-        <v>668548.64891395904</v>
+        <f t="shared" si="1"/>
+        <v>857.55671171378231</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -7152,13 +7311,13 @@
       </c>
       <c r="C173" s="39"/>
       <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
+      <c r="E173" s="42"/>
       <c r="F173" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G173" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7173,16 +7332,16 @@
       <c r="D174" s="39">
         <v>399.82209999999998</v>
       </c>
-      <c r="E174" s="39">
+      <c r="E174" s="42">
         <v>115.681</v>
       </c>
       <c r="F174" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107.35921900000001</v>
       </c>
       <c r="G174" s="26">
-        <f t="shared" si="2"/>
-        <v>190563.78595035098</v>
+        <f t="shared" si="1"/>
+        <v>457.84294746712669</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -7196,16 +7355,16 @@
       <c r="D175" s="39">
         <v>399.96420000000001</v>
       </c>
-      <c r="E175" s="39">
+      <c r="E175" s="42">
         <v>115.5157</v>
       </c>
       <c r="F175" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107.23469900000002</v>
       </c>
       <c r="G175" s="26">
-        <f t="shared" si="2"/>
-        <v>190646.76205094301</v>
+        <f t="shared" si="1"/>
+        <v>457.94261458837536</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -7219,16 +7378,16 @@
       <c r="D176" s="39">
         <v>853.15239999999994</v>
       </c>
-      <c r="E176" s="39">
+      <c r="E176" s="42">
         <v>110.0558</v>
       </c>
       <c r="F176" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139.18476000000001</v>
       </c>
       <c r="G176" s="26">
-        <f t="shared" si="2"/>
-        <v>813979.42641333991</v>
+        <f t="shared" si="1"/>
+        <v>946.24382114477976</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -7242,16 +7401,16 @@
       <c r="D177" s="39">
         <v>436.74799999999999</v>
       </c>
-      <c r="E177" s="39">
+      <c r="E177" s="42">
         <v>646.12379999999996</v>
       </c>
       <c r="F177" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>229.48189000000002</v>
       </c>
       <c r="G177" s="26">
-        <f t="shared" si="2"/>
-        <v>669047.25847348385</v>
+        <f t="shared" si="1"/>
+        <v>857.87643884235001</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -7265,16 +7424,16 @@
       <c r="D178" s="39">
         <v>67.478269999999995</v>
       </c>
-      <c r="E178" s="39">
+      <c r="E178" s="42">
         <v>525.65589999999997</v>
       </c>
       <c r="F178" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121.75768000000001</v>
       </c>
       <c r="G178" s="26">
-        <f t="shared" si="2"/>
-        <v>308954.18633970327</v>
+        <f t="shared" si="1"/>
+        <v>582.96621254895524</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -7282,14 +7441,14 @@
       <c r="B179" s="35">
         <v>40770</v>
       </c>
-      <c r="C179" s="9"/>
+      <c r="C179" s="73"/>
       <c r="E179" s="45"/>
       <c r="F179" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G179" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7297,14 +7456,14 @@
       <c r="A180" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="9"/>
+      <c r="C180" s="73"/>
       <c r="E180" s="45"/>
       <c r="F180" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G180" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7321,16 +7480,16 @@
       <c r="D181" s="39">
         <v>91.314940000000007</v>
       </c>
-      <c r="E181" s="39">
+      <c r="E181" s="42">
         <v>29.886759999999999</v>
       </c>
       <c r="F181" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>156.21771000000001</v>
       </c>
       <c r="G181" s="26">
-        <f t="shared" si="2"/>
-        <v>10154.80035955132</v>
+        <f t="shared" si="1"/>
+        <v>105.6895472386293</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -7344,16 +7503,16 @@
       <c r="D182" s="39">
         <v>75.170410000000004</v>
       </c>
-      <c r="E182" s="39">
+      <c r="E182" s="42">
         <v>15.023759999999999</v>
       </c>
       <c r="F182" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100.01789600000001</v>
       </c>
       <c r="G182" s="26">
-        <f t="shared" si="2"/>
-        <v>6463.9342945162707</v>
+        <f t="shared" si="1"/>
+        <v>84.322759228857649</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -7367,16 +7526,16 @@
       <c r="D183" s="39">
         <v>102.0668</v>
       </c>
-      <c r="E183" s="39">
+      <c r="E183" s="42">
         <v>23.602080000000001</v>
       </c>
       <c r="F183" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>184.64072000000002</v>
       </c>
       <c r="G183" s="26">
-        <f t="shared" si="2"/>
-        <v>12072.158826823041</v>
+        <f t="shared" si="1"/>
+        <v>115.23616927642703</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -7384,14 +7543,14 @@
       <c r="B184" s="35">
         <v>40360</v>
       </c>
-      <c r="C184" s="9"/>
+      <c r="C184" s="73"/>
       <c r="E184" s="45"/>
       <c r="F184" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G184" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7406,16 +7565,16 @@
       <c r="D185" s="39">
         <v>37.90099</v>
       </c>
-      <c r="E185" s="39">
+      <c r="E185" s="42">
         <v>56.105919999999998</v>
       </c>
       <c r="F185" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106.32288700000001</v>
       </c>
       <c r="G185" s="26">
-        <f t="shared" si="2"/>
-        <v>5042.7952322291503</v>
+        <f t="shared" si="1"/>
+        <v>74.478686585170564</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -7429,16 +7588,16 @@
       <c r="D186" s="39">
         <v>38.113190000000003</v>
       </c>
-      <c r="E186" s="39">
+      <c r="E186" s="42">
         <v>56.027549999999998</v>
       </c>
       <c r="F186" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106.18517800000001</v>
       </c>
       <c r="G186" s="26">
-        <f t="shared" si="2"/>
-        <v>5050.8717720764607</v>
+        <f t="shared" si="1"/>
+        <v>74.538305248268884</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -7452,16 +7611,16 @@
       <c r="D187" s="39">
         <v>14.6538</v>
       </c>
-      <c r="E187" s="39">
+      <c r="E187" s="42">
         <v>133.23259999999999</v>
       </c>
       <c r="F187" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300.55322000000007</v>
       </c>
       <c r="G187" s="26">
-        <f t="shared" si="2"/>
-        <v>19762.225512919998</v>
+        <f t="shared" si="1"/>
+        <v>147.43964210554773</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -7475,16 +7634,16 @@
       <c r="D188" s="39">
         <v>102.04859999999999</v>
       </c>
-      <c r="E188" s="39">
+      <c r="E188" s="42">
         <v>23.643270000000001</v>
       </c>
       <c r="F188" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>184.98876000000004</v>
       </c>
       <c r="G188" s="26">
-        <f t="shared" si="2"/>
-        <v>12070.213076078191</v>
+        <f t="shared" si="1"/>
+        <v>115.22688220934388</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -7498,16 +7657,16 @@
       <c r="D189" s="39">
         <v>75.116060000000004</v>
       </c>
-      <c r="E189" s="39">
+      <c r="E189" s="42">
         <v>15.092040000000001</v>
       </c>
       <c r="F189" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100.21433400000001</v>
       </c>
       <c r="G189" s="26">
-        <f t="shared" si="2"/>
-        <v>6457.2113554137213</v>
+        <f t="shared" si="1"/>
+        <v>84.27889706774225</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -7515,14 +7674,14 @@
       <c r="B190" s="35">
         <v>40770</v>
       </c>
-      <c r="C190" s="9"/>
+      <c r="C190" s="73"/>
       <c r="E190" s="45"/>
       <c r="F190" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G190" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7530,14 +7689,14 @@
       <c r="A191" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="9"/>
+      <c r="C191" s="73"/>
       <c r="E191" s="45"/>
       <c r="F191" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G191" s="26">
-        <f t="shared" ref="G191:G223" si="3">(D191^2 + E191^2)*1.1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7554,16 +7713,16 @@
       <c r="D192" s="39">
         <v>57.630740000000003</v>
       </c>
-      <c r="E192" s="39">
+      <c r="E192" s="42">
         <v>4.5427759999999999</v>
       </c>
       <c r="F192" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>757.39114000000006</v>
       </c>
       <c r="G192" s="26">
-        <f t="shared" si="3"/>
-        <v>3676.1329074071541</v>
+        <f t="shared" si="1"/>
+        <v>63.590456816631459</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -7577,16 +7736,16 @@
       <c r="D193" s="39">
         <v>16.450189999999999</v>
       </c>
-      <c r="E193" s="39">
+      <c r="E193" s="42">
         <v>5685.7830000000004</v>
       </c>
       <c r="F193" s="26">
-        <f t="shared" ref="F193:F223" si="4">C193*1.1*1</f>
+        <f t="shared" ref="F193:F223" si="3">C193*1.1*1</f>
         <v>54.757109000000007</v>
       </c>
       <c r="G193" s="26">
-        <f t="shared" si="3"/>
-        <v>35561238.825024046</v>
+        <f t="shared" ref="G193:G223" si="4">(D193^2 + E193^2)^0.5*1.1</f>
+        <v>6254.3874766060389</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -7600,16 +7759,16 @@
       <c r="D194" s="39">
         <v>3186.0210000000002</v>
       </c>
-      <c r="E194" s="39">
+      <c r="E194" s="42">
         <v>8010.116</v>
       </c>
       <c r="F194" s="26">
+        <f t="shared" si="3"/>
+        <v>140.27937000000003</v>
+      </c>
+      <c r="G194" s="26">
         <f t="shared" si="4"/>
-        <v>140.27937000000003</v>
-      </c>
-      <c r="G194" s="26">
-        <f t="shared" si="3"/>
-        <v>81743956.96048671</v>
+        <v>9482.5288112684048</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -7618,11 +7777,11 @@
         <v>40360</v>
       </c>
       <c r="F195" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G195" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G195" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7637,16 +7796,16 @@
       <c r="D196" s="39">
         <v>1504.145</v>
       </c>
-      <c r="E196" s="39">
+      <c r="E196" s="42">
         <v>308.87490000000003</v>
       </c>
       <c r="F196" s="26">
+        <f t="shared" si="3"/>
+        <v>158.00565000000003</v>
+      </c>
+      <c r="G196" s="26">
         <f t="shared" si="4"/>
-        <v>158.00565000000003</v>
-      </c>
-      <c r="G196" s="26">
-        <f t="shared" si="3"/>
-        <v>2593641.473362511</v>
+        <v>1689.0842550621214</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -7660,16 +7819,16 @@
       <c r="D197" s="39">
         <v>1505.5440000000001</v>
       </c>
-      <c r="E197" s="39">
+      <c r="E197" s="42">
         <v>307.92329999999998</v>
       </c>
       <c r="F197" s="26">
+        <f t="shared" si="3"/>
+        <v>157.80270000000002</v>
+      </c>
+      <c r="G197" s="26">
         <f t="shared" si="4"/>
-        <v>157.80270000000002</v>
-      </c>
-      <c r="G197" s="26">
-        <f t="shared" si="3"/>
-        <v>2597627.4440807798</v>
+        <v>1690.3816694725656</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -7683,16 +7842,16 @@
       <c r="D198" s="39">
         <v>10138.93</v>
       </c>
-      <c r="E198" s="39">
+      <c r="E198" s="42">
         <v>213.05889999999999</v>
       </c>
       <c r="F198" s="26">
+        <f t="shared" si="3"/>
+        <v>807.62264000000005</v>
+      </c>
+      <c r="G198" s="26">
         <f t="shared" si="4"/>
-        <v>807.62264000000005</v>
-      </c>
-      <c r="G198" s="26">
-        <f t="shared" si="3"/>
-        <v>113127625.20374614</v>
+        <v>11155.285192415331</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -7706,16 +7865,16 @@
       <c r="D199" s="39">
         <v>3190.915</v>
       </c>
-      <c r="E199" s="39">
+      <c r="E199" s="42">
         <v>8013.9719999999998</v>
       </c>
       <c r="F199" s="26">
+        <f t="shared" si="3"/>
+        <v>140.12273000000002</v>
+      </c>
+      <c r="G199" s="26">
         <f t="shared" si="4"/>
-        <v>140.12273000000002</v>
-      </c>
-      <c r="G199" s="26">
-        <f t="shared" si="3"/>
-        <v>81846254.329409897</v>
+        <v>9488.4603473035022</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -7729,16 +7888,16 @@
       <c r="D200" s="39">
         <v>16.539090000000002</v>
       </c>
-      <c r="E200" s="39">
+      <c r="E200" s="42">
         <v>5688.4449999999997</v>
       </c>
       <c r="F200" s="26">
+        <f t="shared" si="3"/>
+        <v>54.532445000000003</v>
+      </c>
+      <c r="G200" s="26">
         <f t="shared" si="4"/>
-        <v>54.532445000000003</v>
-      </c>
-      <c r="G200" s="26">
-        <f t="shared" si="3"/>
-        <v>35594548.06547533</v>
+        <v>6257.3159479143187</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -7746,14 +7905,14 @@
       <c r="B201" s="35">
         <v>40770</v>
       </c>
-      <c r="C201" s="9"/>
+      <c r="C201" s="73"/>
       <c r="E201" s="45"/>
       <c r="F201" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G201" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G201" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7761,14 +7920,14 @@
       <c r="A202" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="9"/>
+      <c r="C202" s="73"/>
       <c r="E202" s="45"/>
       <c r="F202" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G202" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G202" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7785,16 +7944,16 @@
       <c r="D203" s="39">
         <v>54.833159999999999</v>
       </c>
-      <c r="E203" s="39">
+      <c r="E203" s="42">
         <v>2573.2359999999999</v>
       </c>
       <c r="F203" s="26">
+        <f t="shared" si="3"/>
+        <v>1037.3479600000001</v>
+      </c>
+      <c r="G203" s="26">
         <f t="shared" si="4"/>
-        <v>1037.3479600000001</v>
-      </c>
-      <c r="G203" s="26">
-        <f t="shared" si="3"/>
-        <v>7287005.205844745</v>
+        <v>2831.2021698263125</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -7808,16 +7967,16 @@
       <c r="D204" s="39">
         <v>50.66272</v>
       </c>
-      <c r="E204" s="39">
+      <c r="E204" s="42">
         <v>3212.377</v>
       </c>
       <c r="F204" s="26">
+        <f t="shared" si="3"/>
+        <v>156.80258000000001</v>
+      </c>
+      <c r="G204" s="26">
         <f t="shared" si="4"/>
-        <v>156.80258000000001</v>
-      </c>
-      <c r="G204" s="26">
-        <f t="shared" si="3"/>
-        <v>11354125.97145948</v>
+        <v>3534.0541264396938</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -7831,16 +7990,16 @@
       <c r="D205" s="39">
         <v>2215.2199999999998</v>
       </c>
-      <c r="E205" s="39">
+      <c r="E205" s="42">
         <v>4859.0360000000001</v>
       </c>
       <c r="F205" s="26">
+        <f t="shared" si="3"/>
+        <v>557.23129000000006</v>
+      </c>
+      <c r="G205" s="26">
         <f t="shared" si="4"/>
-        <v>557.23129000000006</v>
-      </c>
-      <c r="G205" s="26">
-        <f t="shared" si="3"/>
-        <v>31369173.5474656</v>
+        <v>5874.1885313813482</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -7848,14 +8007,14 @@
       <c r="B206" s="35">
         <v>40360</v>
       </c>
-      <c r="C206" s="9"/>
+      <c r="C206" s="73"/>
       <c r="E206" s="45"/>
       <c r="F206" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G206" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7870,16 +8029,16 @@
       <c r="D207" s="39">
         <v>1867.88</v>
       </c>
-      <c r="E207" s="39">
+      <c r="E207" s="42">
         <v>152.34870000000001</v>
       </c>
       <c r="F207" s="26">
+        <f t="shared" si="3"/>
+        <v>121.82885000000002</v>
+      </c>
+      <c r="G207" s="26">
         <f t="shared" si="4"/>
-        <v>121.82885000000002</v>
-      </c>
-      <c r="G207" s="26">
-        <f t="shared" si="3"/>
-        <v>3863404.40287086</v>
+        <v>2061.490927255792</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -7893,16 +8052,16 @@
       <c r="D208" s="39">
         <v>1869.204</v>
       </c>
-      <c r="E208" s="39">
+      <c r="E208" s="42">
         <v>151.9024</v>
       </c>
       <c r="F208" s="26">
+        <f t="shared" si="3"/>
+        <v>121.56012000000001</v>
+      </c>
+      <c r="G208" s="26">
         <f t="shared" si="4"/>
-        <v>121.56012000000001</v>
-      </c>
-      <c r="G208" s="26">
-        <f t="shared" si="3"/>
-        <v>3868697.7260159361</v>
+        <v>2062.9026876267167</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -7916,16 +8075,16 @@
       <c r="D209" s="39">
         <v>8475.0159999999996</v>
       </c>
-      <c r="E209" s="39">
+      <c r="E209" s="42">
         <v>143.05029999999999</v>
       </c>
       <c r="F209" s="26">
+        <f t="shared" si="3"/>
+        <v>204.85366000000002</v>
+      </c>
+      <c r="G209" s="26">
         <f t="shared" si="4"/>
-        <v>204.85366000000002</v>
-      </c>
-      <c r="G209" s="26">
-        <f t="shared" si="3"/>
-        <v>79030995.547444686</v>
+        <v>9323.845510420535</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -7939,16 +8098,16 @@
       <c r="D210" s="39">
         <v>2217.6579999999999</v>
       </c>
-      <c r="E210" s="39">
+      <c r="E210" s="42">
         <v>4861.8810000000003</v>
       </c>
       <c r="F210" s="26">
+        <f t="shared" si="3"/>
+        <v>557.19191000000001</v>
+      </c>
+      <c r="G210" s="26">
         <f t="shared" si="4"/>
-        <v>557.19191000000001</v>
-      </c>
-      <c r="G210" s="26">
-        <f t="shared" si="3"/>
-        <v>31411483.249437507</v>
+        <v>5878.1486519465689</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -7962,16 +8121,16 @@
       <c r="D211" s="39">
         <v>50.466900000000003</v>
       </c>
-      <c r="E211" s="39">
+      <c r="E211" s="42">
         <v>3214.0349999999999</v>
       </c>
       <c r="F211" s="26">
+        <f t="shared" si="3"/>
+        <v>156.18735000000001</v>
+      </c>
+      <c r="G211" s="26">
         <f t="shared" si="4"/>
-        <v>156.18735000000001</v>
-      </c>
-      <c r="G211" s="26">
-        <f t="shared" si="3"/>
-        <v>11365824.678142671</v>
+        <v>3535.8743113913051</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -7979,14 +8138,14 @@
       <c r="B212" s="35">
         <v>40770</v>
       </c>
-      <c r="C212" s="9"/>
+      <c r="C212" s="73"/>
       <c r="E212" s="45"/>
       <c r="F212" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G212" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7994,14 +8153,14 @@
       <c r="A213" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C213" s="9"/>
+      <c r="C213" s="73"/>
       <c r="E213" s="45"/>
       <c r="F213" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G213" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8018,16 +8177,16 @@
       <c r="D214" s="39">
         <v>30326.57</v>
       </c>
-      <c r="E214" s="39">
+      <c r="E214" s="42">
         <v>4201.643</v>
       </c>
       <c r="F214" s="26">
+        <f t="shared" si="3"/>
+        <v>47245.813999999998</v>
+      </c>
+      <c r="G214" s="26">
         <f t="shared" si="4"/>
-        <v>47245.813999999998</v>
-      </c>
-      <c r="G214" s="26">
-        <f t="shared" si="3"/>
-        <v>1031090117.050784</v>
+        <v>33677.872984436864</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -8041,16 +8200,16 @@
       <c r="D215" s="39">
         <v>23865.65</v>
       </c>
-      <c r="E215" s="39">
+      <c r="E215" s="42">
         <v>628.03110000000004</v>
       </c>
       <c r="F215" s="26">
+        <f t="shared" si="3"/>
+        <v>6705.1105000000007</v>
+      </c>
+      <c r="G215" s="26">
         <f t="shared" si="4"/>
-        <v>6705.1105000000007</v>
-      </c>
-      <c r="G215" s="26">
-        <f t="shared" si="3"/>
-        <v>626960040.28357399</v>
+        <v>26261.303172385247</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -8064,16 +8223,16 @@
       <c r="D216" s="39">
         <v>38590.81</v>
       </c>
-      <c r="E216" s="39">
+      <c r="E216" s="42">
         <v>2733.998</v>
       </c>
       <c r="F216" s="26">
+        <f t="shared" si="3"/>
+        <v>71772.107000000004</v>
+      </c>
+      <c r="G216" s="26">
         <f t="shared" si="4"/>
-        <v>71772.107000000004</v>
-      </c>
-      <c r="G216" s="26">
-        <f t="shared" si="3"/>
-        <v>1646397897.6721141</v>
+        <v>42556.288459396055</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -8081,14 +8240,14 @@
       <c r="B217" s="35">
         <v>40360</v>
       </c>
-      <c r="C217" s="9"/>
+      <c r="C217" s="73"/>
       <c r="E217" s="45"/>
       <c r="F217" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G217" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G217" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8103,16 +8262,16 @@
       <c r="D218" s="39">
         <v>6226.7330000000002</v>
       </c>
-      <c r="E218" s="39">
+      <c r="E218" s="42">
         <v>14075.51</v>
       </c>
       <c r="F218" s="26">
+        <f t="shared" si="3"/>
+        <v>9223.4142000000011</v>
+      </c>
+      <c r="G218" s="26">
         <f t="shared" si="4"/>
-        <v>9223.4142000000011</v>
-      </c>
-      <c r="G218" s="26">
-        <f t="shared" si="3"/>
-        <v>260581404.17472795</v>
+        <v>16930.432498675298</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -8126,16 +8285,16 @@
       <c r="D219" s="39">
         <v>5733.8959999999997</v>
       </c>
-      <c r="E219" s="39">
+      <c r="E219" s="42">
         <v>14333.84</v>
       </c>
       <c r="F219" s="26">
+        <f t="shared" si="3"/>
+        <v>8815.0568000000003</v>
+      </c>
+      <c r="G219" s="26">
         <f t="shared" si="4"/>
-        <v>8815.0568000000003</v>
-      </c>
-      <c r="G219" s="26">
-        <f t="shared" si="3"/>
-        <v>262170185.73285758</v>
+        <v>16981.967032889428</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -8149,16 +8308,16 @@
       <c r="D220" s="39">
         <v>712.327</v>
       </c>
-      <c r="E220" s="39">
+      <c r="E220" s="42">
         <v>62454.57</v>
       </c>
       <c r="F220" s="26">
+        <f t="shared" si="3"/>
+        <v>217563.06000000003</v>
+      </c>
+      <c r="G220" s="26">
         <f t="shared" si="4"/>
-        <v>217563.06000000003</v>
-      </c>
-      <c r="G220" s="26">
-        <f t="shared" si="3"/>
-        <v>4291188796.0038123</v>
+        <v>68704.495308561833</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -8172,16 +8331,16 @@
       <c r="D221" s="39">
         <v>37282.39</v>
       </c>
-      <c r="E221" s="39">
+      <c r="E221" s="42">
         <v>2976.8719999999998</v>
       </c>
       <c r="F221" s="26">
+        <f t="shared" si="3"/>
+        <v>67977.899000000005</v>
+      </c>
+      <c r="G221" s="26">
         <f t="shared" si="4"/>
-        <v>67977.899000000005</v>
-      </c>
-      <c r="G221" s="26">
-        <f t="shared" si="3"/>
-        <v>1538722208.1181324</v>
+        <v>41141.152498805204</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -8195,16 +8354,16 @@
       <c r="D222" s="39">
         <v>23645.040000000001</v>
       </c>
-      <c r="E222" s="39">
+      <c r="E222" s="42">
         <v>407.73</v>
       </c>
       <c r="F222" s="26">
+        <f t="shared" si="3"/>
+        <v>6460.9974000000002</v>
+      </c>
+      <c r="G222" s="26">
         <f t="shared" si="4"/>
-        <v>6460.9974000000002</v>
-      </c>
-      <c r="G222" s="26">
-        <f t="shared" si="3"/>
-        <v>615179576.38995016</v>
+        <v>26013.410657369503</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -8212,14 +8371,14 @@
       <c r="B223" s="35">
         <v>40770</v>
       </c>
-      <c r="C223" s="9"/>
+      <c r="C223" s="73"/>
       <c r="E223" s="45"/>
       <c r="F223" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G223" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8262,13 +8421,13 @@
     <mergeCell ref="A159:A168"/>
     <mergeCell ref="A170:A179"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:J158 E163:E168 E159:E161 F159:J168 E169:J194 E202:J1048576 E196:E201 F195:J201">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="E163:E168 E159:E161 F159:F168 E169:F194 E224:J1048576 E196:E201 F195:F201 E1:J128 E129:F158 E202:F223 G129:J223">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCB1C4-5E28-410B-980F-7434CDC52B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69033C1-DFB4-45F0-9D92-9B62DF918899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,11 +1207,11 @@
       </c>
       <c r="I2" s="41" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">1/((D2*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3932048314367598</v>
+        <v>0.58168103996561915</v>
       </c>
       <c r="J2" s="41" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9268071078114977</v>
+        <v>0.83041008679626827</v>
       </c>
       <c r="L2" s="63" t="s">
         <v>36</v>
@@ -1308,11 +1308,11 @@
       </c>
       <c r="E3" s="41" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3957473116322396</v>
+        <v>0.58286617110843242</v>
       </c>
       <c r="F3" s="41" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9318905268653728</v>
+        <v>0.83277963061549909</v>
       </c>
       <c r="G3" s="41" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C3*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1324,11 +1324,11 @@
       </c>
       <c r="I3" s="41" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">1/((D3*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3937044008924251</v>
+        <v>0.58191390522882136</v>
       </c>
       <c r="J3" s="41" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9275428886448989</v>
+        <v>0.83075305771950236</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="51"/>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="E4" s="41" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951072601052825</v>
+        <v>0.58256782266939644</v>
       </c>
       <c r="F4" s="41" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308530623378752</v>
+        <v>0.83229603529653184</v>
       </c>
       <c r="G4" s="41" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C4*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1419,11 +1419,11 @@
       </c>
       <c r="I4" s="41" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">1/((D4*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3933367619793322</v>
+        <v>0.58174253700106093</v>
       </c>
       <c r="J4" s="41" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9270856330934172</v>
+        <v>0.8305399163171634</v>
       </c>
       <c r="L4" s="65"/>
       <c r="M4" s="51"/>
@@ -1498,11 +1498,11 @@
       </c>
       <c r="E5" s="41" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F5" s="41" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G5" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="I5" s="41" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">1/((D5*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J5" s="41" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>37</v>
@@ -1580,8 +1580,8 @@
       <c r="AE5" s="4">
         <v>1</v>
       </c>
-      <c r="AF5" s="39">
-        <v>7.8540000000000004E-5</v>
+      <c r="AF5" s="2">
+        <v>3.6609999999999997E-5</v>
       </c>
       <c r="AG5" s="6">
         <v>3.7999999999999999E-2</v>
@@ -1615,11 +1615,11 @@
       </c>
       <c r="E6" s="41" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.395279760501027</v>
+        <v>0.58264823060787618</v>
       </c>
       <c r="F6" s="41" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9311326541807787</v>
+        <v>0.83242636197553233</v>
       </c>
       <c r="G6" s="41" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C6*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I6" s="41" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">1/((D6*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3948061140162915</v>
+        <v>0.58242744886855635</v>
       </c>
       <c r="J6" s="41" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9301242397268701</v>
+        <v>0.8319563078227743</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
@@ -1674,11 +1674,11 @@
       </c>
       <c r="E7" s="41" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3952805885743369</v>
+        <v>0.5826486165992677</v>
       </c>
       <c r="F7" s="41" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9311339963647689</v>
+        <v>0.83242698761031564</v>
       </c>
       <c r="G7" s="41" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C7*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="I7" s="41" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">1/((D7*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.394807815894807</v>
+        <v>0.58242824216843458</v>
       </c>
       <c r="J7" s="41" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9301274416605856</v>
+        <v>0.83195780034624467</v>
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="65"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="AF7" s="67" cm="1">
         <f t="array" aca="1" ref="AF7" ca="1">INDIRECT(ADDRESS(5,32))</f>
-        <v>7.8540000000000004E-5</v>
+        <v>3.6609999999999997E-5</v>
       </c>
       <c r="AG7" s="67" cm="1">
         <f t="array" aca="1" ref="AG7" ca="1">INDIRECT(ADDRESS(5,33))</f>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="E8" s="41" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3939432912504031</v>
+        <v>0.5820252596470239</v>
       </c>
       <c r="F8" s="41" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9289667769471182</v>
+        <v>0.8314167774896104</v>
       </c>
       <c r="G8" s="41" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C8*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1804,11 +1804,11 @@
       </c>
       <c r="I8" s="41" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">1/((D8*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3938705566149014</v>
+        <v>0.58199135571265015</v>
       </c>
       <c r="J8" s="41" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9288119717727086</v>
+        <v>0.83134461785840119</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="63" t="s">
@@ -1849,11 +1849,11 @@
       </c>
       <c r="E9" s="41" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951067932234062</v>
+        <v>0.58256760504085703</v>
       </c>
       <c r="F9" s="41" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308523056224809</v>
+        <v>0.83229568256734199</v>
       </c>
       <c r="G9" s="41" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C9*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="I9" s="41" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">1/((D9*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.39333587479471</v>
+        <v>0.58174212345600096</v>
       </c>
       <c r="J9" s="41" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9270839832269582</v>
+        <v>0.83053914726176314</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="E10" s="41" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3957480380012428</v>
+        <v>0.58286650969220144</v>
       </c>
       <c r="F10" s="41" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9318917043314388</v>
+        <v>0.83278017947000227</v>
       </c>
       <c r="G10" s="41" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C10*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="I10" s="41" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">1/((D10*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.393704811463941</v>
+        <v>0.58191409660930571</v>
       </c>
       <c r="J10" s="41" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9275433934366668</v>
+        <v>0.83075329301905221</v>
       </c>
       <c r="L10" s="65"/>
       <c r="M10" s="65"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="E11" s="41" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F11" s="41" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G11" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="I11" s="41" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">1/((D11*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J11" s="41" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="E15" s="41" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3943221572522906</v>
+        <v>0.582201861179098</v>
       </c>
       <c r="F15" s="41" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9295806965746372</v>
+        <v>0.83170294501651987</v>
       </c>
       <c r="G15" s="41" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C15*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="I15" s="41" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">1/((D15*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3940300942810819</v>
+        <v>0.58206572130927436</v>
       </c>
       <c r="J15" s="41" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">1/((D15*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C15*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9289590500132743</v>
+        <v>0.83141317571920026</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="E16" s="41" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951167366081925</v>
+        <v>0.58257223996977237</v>
       </c>
       <c r="F16" s="41" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308684217347403</v>
+        <v>0.83230319480148762</v>
       </c>
       <c r="G16" s="41" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C16*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2127,11 +2127,11 @@
       </c>
       <c r="I16" s="41" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">1/((D16*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3948727821040188</v>
+        <v>0.58245852499144513</v>
       </c>
       <c r="J16" s="41" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">1/((D16*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C16*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9303490174335338</v>
+        <v>0.83206108388390154</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="E17" s="41" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3943938478352136</v>
+        <v>0.58223527844725198</v>
       </c>
       <c r="F17" s="41" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9296968711355129</v>
+        <v>0.83175709768616146</v>
       </c>
       <c r="G17" s="41" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C17*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="I17" s="41" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">1/((D17*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3937400898363381</v>
+        <v>0.58193054098431807</v>
       </c>
       <c r="J17" s="41" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">1/((D17*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C17*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9283055196821004</v>
+        <v>0.8311085443794457</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -2199,11 +2199,11 @@
       </c>
       <c r="E18" s="41" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F18" s="41" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G18" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2215,11 +2215,11 @@
       </c>
       <c r="I18" s="41" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">1/((D18*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J18" s="41" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="E19" s="41" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3954051954133475</v>
+        <v>0.58270669982279921</v>
       </c>
       <c r="F19" s="41" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9313359685492761</v>
+        <v>0.83252113328990318</v>
       </c>
       <c r="G19" s="41" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C19*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2259,11 +2259,11 @@
       </c>
       <c r="I19" s="41" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">1/((D19*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3936319191649966</v>
+        <v>0.58188011918297056</v>
       </c>
       <c r="J19" s="41" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">1/((D19*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C19*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9275622345399119</v>
+        <v>0.83076207545844327</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -2287,11 +2287,11 @@
       </c>
       <c r="E20" s="41" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3954060367235943</v>
+        <v>0.58270709198434933</v>
       </c>
       <c r="F20" s="41" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9313373322286744</v>
+        <v>0.83252176894438201</v>
       </c>
       <c r="G20" s="41" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C20*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="I20" s="41" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">1/((D20*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3936319761920526</v>
+        <v>0.58188014576510039</v>
       </c>
       <c r="J20" s="41" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">1/((D20*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C20*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.927561929149856</v>
+        <v>0.83076193310639446</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -2331,11 +2331,11 @@
       </c>
       <c r="E21" s="41" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3957346357127323</v>
+        <v>0.58286026245789579</v>
       </c>
       <c r="F21" s="41" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9318699788498992</v>
+        <v>0.83277005252985492</v>
       </c>
       <c r="G21" s="41" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C21*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2347,11 +2347,11 @@
       </c>
       <c r="I21" s="41" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">1/((D21*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3921663411933509</v>
+        <v>0.58119696652773811</v>
       </c>
       <c r="J21" s="41" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">1/((D21*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C21*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9242804016949915</v>
+        <v>0.8292323084549742</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -2375,11 +2375,11 @@
       </c>
       <c r="E22" s="41" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3943940395443088</v>
+        <v>0.58223536780897822</v>
       </c>
       <c r="F22" s="41" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9296971818026543</v>
+        <v>0.83175724249802863</v>
       </c>
       <c r="G22" s="41" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C22*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="I22" s="41" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">1/((D22*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3937403365754273</v>
+        <v>0.58193065599727967</v>
       </c>
       <c r="J22" s="41" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">1/((D22*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C22*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.928305947343484</v>
+        <v>0.8311087437260618</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -2419,11 +2419,11 @@
       </c>
       <c r="E23" s="41" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951183271160463</v>
+        <v>0.58257298135623192</v>
       </c>
       <c r="F23" s="41" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308709996132487</v>
+        <v>0.83230439643291354</v>
       </c>
       <c r="G23" s="41" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C23*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="I23" s="41" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">1/((D23*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3948749089444261</v>
+        <v>0.5824595163796209</v>
       </c>
       <c r="J23" s="41" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">1/((D23*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C23*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9303527368250899</v>
+        <v>0.83206281761098166</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="E24" s="41" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F24" s="41" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G24" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="I24" s="41" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">1/((D24*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J24" s="41" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2569,11 +2569,11 @@
       </c>
       <c r="E28" s="41" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.392275823108641</v>
+        <v>0.58124799954172834</v>
       </c>
       <c r="F28" s="41" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9262654398916919</v>
+        <v>0.83015759809568168</v>
       </c>
       <c r="G28" s="41" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C28*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="I28" s="41" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">1/((D28*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3908811110426078</v>
+        <v>0.58059787974624189</v>
       </c>
       <c r="J28" s="41" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">1/((D28*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C28*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9233001965442451</v>
+        <v>0.82877540355850265</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="E29" s="41" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3932421078314587</v>
+        <v>0.58169841568257841</v>
       </c>
       <c r="F29" s="41" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.927830714295204</v>
+        <v>0.83088722243885171</v>
       </c>
       <c r="G29" s="41" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C29*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2629,11 +2629,11 @@
       </c>
       <c r="I29" s="41" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">1/((D29*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3923965643504337</v>
+        <v>0.58130428088705566</v>
       </c>
       <c r="J29" s="41" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">1/((D29*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C29*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9260320577710441</v>
+        <v>0.83004881124265251</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="E30" s="41" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3916729914946799</v>
+        <v>0.58096700049172689</v>
       </c>
       <c r="F30" s="41" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9252890997378524</v>
+        <v>0.82970249479759062</v>
       </c>
       <c r="G30" s="41" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C30*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="I30" s="41" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">1/((D30*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3900117227279467</v>
+        <v>0.58019263011293742</v>
       </c>
       <c r="J30" s="41" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">1/((D30*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C30*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9217582405589235</v>
+        <v>0.82805664867407902</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -2701,11 +2701,11 @@
       </c>
       <c r="E31" s="41" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F31" s="41" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G31" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="I31" s="41" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">1/((D31*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J31" s="41" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="E32" s="41" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3931288129490151</v>
+        <v>0.58164560532293663</v>
       </c>
       <c r="F32" s="41" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9276471706792861</v>
+        <v>0.83080166690308976</v>
       </c>
       <c r="G32" s="41" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C32*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2761,11 +2761,11 @@
       </c>
       <c r="I32" s="41" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">1/((D32*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3924902248773718</v>
+        <v>0.58134793904711701</v>
       </c>
       <c r="J32" s="41" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">1/((D32*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C32*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9262887039562315</v>
+        <v>0.83016844221845698</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="E33" s="41" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3931307795676484</v>
+        <v>0.58164652202663114</v>
       </c>
       <c r="F33" s="41" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9276503566622298</v>
+        <v>0.83080315199139587</v>
       </c>
       <c r="G33" s="41" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C33*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="I33" s="41" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">1/((D33*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.392491704829514</v>
+        <v>0.58134862890003181</v>
       </c>
       <c r="J33" s="41" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">1/((D33*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C33*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9262908539555372</v>
+        <v>0.83016944440173379</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="E34" s="41" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3892496078016596</v>
+        <v>0.57983738402875939</v>
       </c>
       <c r="F34" s="41" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9213656093452762</v>
+        <v>0.82787363073759312</v>
       </c>
       <c r="G34" s="41" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C34*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="I34" s="41" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">1/((D34*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3864493120349635</v>
+        <v>0.57853207682200147</v>
       </c>
       <c r="J34" s="41" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">1/((D34*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C34*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9154214563161784</v>
+        <v>0.82510287134880644</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -2877,11 +2877,11 @@
       </c>
       <c r="E35" s="41" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3916711644778204</v>
+        <v>0.5809661488608735</v>
       </c>
       <c r="F35" s="41" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9252861409299644</v>
+        <v>0.82970111560282667</v>
       </c>
       <c r="G35" s="41" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C35*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="I35" s="41" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">1/((D35*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3900089824088098</v>
+        <v>0.58019135276275158</v>
       </c>
       <c r="J35" s="41" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">1/((D35*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C35*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9217533440919765</v>
+        <v>0.82805436627460227</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="E36" s="41" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3932399785320833</v>
+        <v>0.58169742314819928</v>
       </c>
       <c r="F36" s="41" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9278272646740526</v>
+        <v>0.83088561446036513</v>
       </c>
       <c r="G36" s="41" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C36*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2937,11 +2937,11 @@
       </c>
       <c r="I36" s="41" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">1/((D36*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3923942754902203</v>
+        <v>0.58130321397627882</v>
       </c>
       <c r="J36" s="41" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">1/((D36*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C36*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9260282701882598</v>
+        <v>0.83004704572946508</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -2965,11 +2965,11 @@
       </c>
       <c r="E37" s="41" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F37" s="41" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G37" s="41" t="e" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="I37" s="41" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">1/((D37*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J37" s="41" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -3085,11 +3085,11 @@
       </c>
       <c r="E41" s="43" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3942353770154612</v>
+        <v>0.58216141014178802</v>
       </c>
       <c r="F41" s="43" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9294400718602147</v>
+        <v>0.83163739535017145</v>
       </c>
       <c r="G41" s="43" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C41*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="I41" s="43" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">1/((D41*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3891943825333324</v>
+        <v>0.57981164176910194</v>
       </c>
       <c r="J41" s="43" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9187296436790593</v>
+        <v>0.82664492303399983</v>
       </c>
       <c r="L41" s="60" t="s">
         <v>36</v>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="E42" s="43" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3953840787014564</v>
+        <v>0.58269685664960935</v>
       </c>
       <c r="F42" s="43" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9313017405690682</v>
+        <v>0.83250517853620565</v>
       </c>
       <c r="G42" s="43" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C42*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3164,11 +3164,11 @@
       </c>
       <c r="I42" s="43" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">1/((D42*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3891360787139004</v>
+        <v>0.57978446449854704</v>
       </c>
       <c r="J42" s="43" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9180273660925167</v>
+        <v>0.82631756904312459</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="46"/>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="E43" s="43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951300399639903</v>
+        <v>0.58257844108838408</v>
       </c>
       <c r="F43" s="43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308899837045437</v>
+        <v>0.83231324552359753</v>
       </c>
       <c r="G43" s="43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C43*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3219,11 +3219,11 @@
       </c>
       <c r="I43" s="43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3829025134289954</v>
+        <v>0.57687880082296261</v>
       </c>
       <c r="J43" s="74" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9049711315568483</v>
+        <v>0.82023164153674744</v>
       </c>
       <c r="L43" s="62"/>
       <c r="M43" s="46"/>
@@ -3258,11 +3258,11 @@
       </c>
       <c r="E44" s="43" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F44" s="43" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G44" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3274,11 +3274,11 @@
       </c>
       <c r="I44" s="43" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">1/((D44*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J44" s="43" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L44" s="60" t="s">
         <v>37</v>
@@ -3321,11 +3321,11 @@
       </c>
       <c r="E45" s="43" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950883866853312</v>
+        <v>0.58255902516615721</v>
       </c>
       <c r="F45" s="43" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308224726380621</v>
+        <v>0.83228177646141388</v>
       </c>
       <c r="G45" s="43" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C45*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3337,11 +3337,11 @@
       </c>
       <c r="I45" s="43" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">1/((D45*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3930940571234447</v>
+        <v>0.58162940452367318</v>
       </c>
       <c r="J45" s="43" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9265791341916834</v>
+        <v>0.83030382101804823</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="61"/>
@@ -3376,11 +3376,11 @@
       </c>
       <c r="E46" s="43" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950888174001745</v>
+        <v>0.58255922593608855</v>
       </c>
       <c r="F46" s="43" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308231707314216</v>
+        <v>0.83228210186500307</v>
       </c>
       <c r="G46" s="43" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C46*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3392,11 +3392,11 @@
       </c>
       <c r="I46" s="43" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">1/((D46*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3930940026970249</v>
+        <v>0.5816293791537821</v>
       </c>
       <c r="J46" s="43" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.926578800165839</v>
+        <v>0.83030366531794497</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="62"/>
@@ -3431,11 +3431,11 @@
       </c>
       <c r="E47" s="43" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3941844724745804</v>
+        <v>0.58213768191105664</v>
       </c>
       <c r="F47" s="43" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9293575839492476</v>
+        <v>0.83159894510290244</v>
       </c>
       <c r="G47" s="43" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C47*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3447,11 +3447,11 @@
       </c>
       <c r="I47" s="43" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">1/((D47*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3828765464631454</v>
+        <v>0.57686669679164448</v>
       </c>
       <c r="J47" s="43" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9053878990448223</v>
+        <v>0.82042591016082156</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="60" t="s">
@@ -3488,11 +3488,11 @@
       </c>
       <c r="E48" s="43" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951303938433313</v>
+        <v>0.58257860604283618</v>
       </c>
       <c r="F48" s="43" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308905572701951</v>
+        <v>0.83231351288084854</v>
       </c>
       <c r="G48" s="43" cm="1">
         <f t="array" aca="1" ref="G48" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C48*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3504,11 +3504,11 @@
       </c>
       <c r="I48" s="43" cm="1">
         <f t="array" aca="1" ref="I48" ca="1">1/((D48*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3828933210681633</v>
+        <v>0.5768745159702755</v>
       </c>
       <c r="J48" s="43" cm="1">
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9049515576681308</v>
+        <v>0.82022251752266673</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="61"/>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="E49" s="43" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3953849532631382</v>
+        <v>0.58269726431071422</v>
       </c>
       <c r="F49" s="43" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9313031581386562</v>
+        <v>0.83250583931062128</v>
       </c>
       <c r="G49" s="43" cm="1">
         <f t="array" aca="1" ref="G49" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C49*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="I49" s="43" cm="1">
         <f t="array" aca="1" ref="I49" ca="1">1/((D49*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.389133907002996</v>
+        <v>0.57978345219480132</v>
       </c>
       <c r="J49" s="43" cm="1">
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9180223224530399</v>
+        <v>0.82631521804183561</v>
       </c>
       <c r="L49" s="62"/>
       <c r="M49" s="62"/>
@@ -3598,11 +3598,11 @@
       </c>
       <c r="E50" s="43" cm="1">
         <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F50" s="43" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G50" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="I50" s="43" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">1/((D50*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J50" s="43" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3676,11 +3676,11 @@
       </c>
       <c r="E54" s="43" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3939680088843276</v>
+        <v>0.58203678132486947</v>
       </c>
       <c r="F54" s="43" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9290068280671684</v>
+        <v>0.83143544659458923</v>
       </c>
       <c r="G54" s="43" cm="1">
         <f t="array" aca="1" ref="G54" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C54*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3692,11 +3692,11 @@
       </c>
       <c r="I54" s="43" cm="1">
         <f t="array" aca="1" ref="I54" ca="1">1/((D54*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3910824000308928</v>
+        <v>0.58069170696627093</v>
       </c>
       <c r="J54" s="43" cm="1">
         <f t="array" aca="1" ref="J54" ca="1">1/((D54*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C54*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9228715657538098</v>
+        <v>0.82857560507062633</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="E55" s="43" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950902219058574</v>
+        <v>0.58255988062100128</v>
       </c>
       <c r="F55" s="43" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308254471245347</v>
+        <v>0.83228316296446669</v>
       </c>
       <c r="G55" s="43" cm="1">
         <f t="array" aca="1" ref="G55" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C55*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3736,11 +3736,11 @@
       </c>
       <c r="I55" s="43" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">1/((D55*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3915077239623144</v>
+        <v>0.58088996402164894</v>
       </c>
       <c r="J55" s="43" cm="1">
         <f t="array" aca="1" ref="J55" ca="1">1/((D55*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C55*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9232074335128733</v>
+        <v>0.82873216374976177</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -3764,11 +3764,11 @@
       </c>
       <c r="E56" s="43" cm="1">
         <f t="array" aca="1" ref="E56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3944592799878022</v>
+        <v>0.58226577846133742</v>
       </c>
       <c r="F56" s="43" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9298029056249111</v>
+        <v>0.83180652374494501</v>
       </c>
       <c r="G56" s="43" cm="1">
         <f t="array" aca="1" ref="G56" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C56*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="I56" s="43" cm="1">
         <f t="array" aca="1" ref="I56" ca="1">1/((D56*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3867221877240166</v>
+        <v>0.57865927288739782</v>
       </c>
       <c r="J56" s="43" cm="1">
         <f t="array" aca="1" ref="J56" ca="1">1/((D56*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C56*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9133792251508139</v>
+        <v>0.82415092224053055</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -3808,11 +3808,11 @@
       </c>
       <c r="E57" s="43" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F57" s="43" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G57" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3824,11 +3824,11 @@
       </c>
       <c r="I57" s="43" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">1/((D57*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J57" s="43" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="E58" s="43" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951761037276902</v>
+        <v>0.58259991287841539</v>
       </c>
       <c r="F58" s="43" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309646439964361</v>
+        <v>0.83234804706785748</v>
       </c>
       <c r="G58" s="43" cm="1">
         <f t="array" aca="1" ref="G58" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C58*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3868,11 +3868,11 @@
       </c>
       <c r="I58" s="43" cm="1">
         <f t="array" aca="1" ref="I58" ca="1">1/((D58*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3929639136131446</v>
+        <v>0.58156874048099327</v>
       </c>
       <c r="J58" s="43" cm="1">
         <f t="array" aca="1" ref="J58" ca="1">1/((D58*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C58*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9262579970864659</v>
+        <v>0.8301541287666856</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -3896,11 +3896,11 @@
       </c>
       <c r="E59" s="43" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951768347538374</v>
+        <v>0.5826002536330277</v>
       </c>
       <c r="F59" s="43" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309658288524263</v>
+        <v>0.83234859936704009</v>
       </c>
       <c r="G59" s="43" cm="1">
         <f t="array" aca="1" ref="G59" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C59*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3912,11 +3912,11 @@
       </c>
       <c r="I59" s="43" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">1/((D59*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3929636809109902</v>
+        <v>0.58156863201109399</v>
       </c>
       <c r="J59" s="43" cm="1">
         <f t="array" aca="1" ref="J59" ca="1">1/((D59*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C59*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9262571319821609</v>
+        <v>0.83015372551396571</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="E60" s="43" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3949892741632151</v>
+        <v>0.58251282565718476</v>
       </c>
       <c r="F60" s="43" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9306618350760685</v>
+        <v>0.83220689816825666</v>
       </c>
       <c r="G60" s="43" cm="1">
         <f t="array" aca="1" ref="G60" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C60*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -3956,11 +3956,11 @@
       </c>
       <c r="I60" s="43" cm="1">
         <f t="array" aca="1" ref="I60" ca="1">1/((D60*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.38557171355317</v>
+        <v>0.57812300016783236</v>
       </c>
       <c r="J60" s="43" cm="1">
         <f t="array" aca="1" ref="J60" ca="1">1/((D60*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C60*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9106796366243057</v>
+        <v>0.82289255789172144</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
@@ -3984,11 +3984,11 @@
       </c>
       <c r="E61" s="43" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3944593032261627</v>
+        <v>0.58226578929347861</v>
       </c>
       <c r="F61" s="43" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9298029432835633</v>
+        <v>0.83180654129884468</v>
       </c>
       <c r="G61" s="43" cm="1">
         <f t="array" aca="1" ref="G61" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C61*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="I61" s="43" cm="1">
         <f t="array" aca="1" ref="I61" ca="1">1/((D61*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3867164601397328</v>
+        <v>0.57865660307761124</v>
       </c>
       <c r="J61" s="43" cm="1">
         <f t="array" aca="1" ref="J61" ca="1">1/((D61*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C61*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9133670901482591</v>
+        <v>0.82414526572864433</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
@@ -4028,11 +4028,11 @@
       </c>
       <c r="E62" s="43" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950915760441611</v>
+        <v>0.58256051182807145</v>
       </c>
       <c r="F62" s="43" cm="1">
         <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308276418839765</v>
+        <v>0.83228418601187149</v>
       </c>
       <c r="G62" s="43" cm="1">
         <f t="array" aca="1" ref="G62" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C62*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4044,11 +4044,11 @@
       </c>
       <c r="I62" s="43" cm="1">
         <f t="array" aca="1" ref="I62" ca="1">1/((D62*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3915074752892034</v>
+        <v>0.58088984810717736</v>
       </c>
       <c r="J62" s="43" cm="1">
         <f t="array" aca="1" ref="J62" ca="1">1/((D62*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C62*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9232062208434875</v>
+        <v>0.8287315984858683</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
@@ -4072,11 +4072,11 @@
       </c>
       <c r="E63" s="43" cm="1">
         <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F63" s="43" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G63" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4088,11 +4088,11 @@
       </c>
       <c r="I63" s="43" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">1/((D63*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J63" s="43" cm="1">
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
@@ -4178,11 +4178,11 @@
       </c>
       <c r="E67" s="43" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948892918941036</v>
+        <v>0.5824662207313871</v>
       </c>
       <c r="F67" s="43" cm="1">
         <f t="array" aca="1" ref="F67" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.930499791663264</v>
+        <v>0.83213136456317915</v>
       </c>
       <c r="G67" s="43" cm="1">
         <f t="array" aca="1" ref="G67" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C67*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4194,11 +4194,11 @@
       </c>
       <c r="I67" s="43" cm="1">
         <f t="array" aca="1" ref="I67" ca="1">1/((D67*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3947713290102226</v>
+        <v>0.58241123446733178</v>
       </c>
       <c r="J67" s="43" cm="1">
         <f t="array" aca="1" ref="J67" ca="1">1/((D67*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C67*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9302486449708827</v>
+        <v>0.83201429707644503</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
@@ -4222,11 +4222,11 @@
       </c>
       <c r="E68" s="43" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3952192033585873</v>
+        <v>0.58262000299156957</v>
       </c>
       <c r="F68" s="43" cm="1">
         <f t="array" aca="1" ref="F68" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9310345007462657</v>
+        <v>0.83238060952789406</v>
       </c>
       <c r="G68" s="43" cm="1">
         <f t="array" aca="1" ref="G68" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C68*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="I68" s="43" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">1/((D68*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3951440919760607</v>
+        <v>0.58258499117957152</v>
       </c>
       <c r="J68" s="43" cm="1">
         <f t="array" aca="1" ref="J68" ca="1">1/((D68*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C68*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9308745650660746</v>
+        <v>0.83230605840423899</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
@@ -4266,11 +4266,11 @@
       </c>
       <c r="E69" s="43" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3947224638520135</v>
+        <v>0.58238845685793494</v>
       </c>
       <c r="F69" s="43" cm="1">
         <f t="array" aca="1" ref="F69" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9302294183657804</v>
+        <v>0.83200533494233797</v>
       </c>
       <c r="G69" s="43" cm="1">
         <f t="array" aca="1" ref="G69" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C69*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4282,11 +4282,11 @@
       </c>
       <c r="I69" s="43" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">1/((D69*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3945822500923559</v>
+        <v>0.58232309875071531</v>
       </c>
       <c r="J69" s="43" cm="1">
         <f t="array" aca="1" ref="J69" ca="1">1/((D69*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C69*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9299309189160327</v>
+        <v>0.83186619482449631</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
@@ -4310,11 +4310,11 @@
       </c>
       <c r="E70" s="43" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F70" s="43" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G70" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4326,11 +4326,11 @@
       </c>
       <c r="I70" s="43" cm="1">
         <f t="array" aca="1" ref="I70" ca="1">1/((D70*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J70" s="43" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -4354,11 +4354,11 @@
       </c>
       <c r="E71" s="43" cm="1">
         <f t="array" aca="1" ref="E71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951821877863444</v>
+        <v>0.58260274885227981</v>
       </c>
       <c r="F71" s="43" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309745051182494</v>
+        <v>0.8323526436513764</v>
       </c>
       <c r="G71" s="43" cm="1">
         <f t="array" aca="1" ref="G71" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C71*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4370,11 +4370,11 @@
       </c>
       <c r="I71" s="43" cm="1">
         <f t="array" aca="1" ref="I71" ca="1">1/((D71*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3951235916311679</v>
+        <v>0.58257543531470612</v>
       </c>
       <c r="J71" s="43" cm="1">
         <f t="array" aca="1" ref="J71" ca="1">1/((D71*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C71*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9308497364024881</v>
+        <v>0.83229448497192604</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -4398,11 +4398,11 @@
       </c>
       <c r="E72" s="43" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3951829962447673</v>
+        <v>0.58260312570054662</v>
       </c>
       <c r="F72" s="43" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9309758154792944</v>
+        <v>0.83235325445246966</v>
       </c>
       <c r="G72" s="43" cm="1">
         <f t="array" aca="1" ref="G72" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C72*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4414,11 +4414,11 @@
       </c>
       <c r="I72" s="43" cm="1">
         <f t="array" aca="1" ref="I72" ca="1">1/((D72*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3951243062025092</v>
+        <v>0.58257576839920833</v>
       </c>
       <c r="J72" s="43" cm="1">
         <f t="array" aca="1" ref="J72" ca="1">1/((D72*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C72*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9308508468185437</v>
+        <v>0.83229500257227995</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -4442,11 +4442,11 @@
       </c>
       <c r="E73" s="43" cm="1">
         <f t="array" aca="1" ref="E73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3940422884991546</v>
+        <v>0.58207140542340285</v>
       </c>
       <c r="F73" s="43" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9291271881495358</v>
+        <v>0.83149155026934696</v>
       </c>
       <c r="G73" s="43" cm="1">
         <f t="array" aca="1" ref="G73" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C73*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4458,11 +4458,11 @@
       </c>
       <c r="I73" s="43" cm="1">
         <f t="array" aca="1" ref="I73" ca="1">1/((D73*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3938129043796263</v>
+        <v>0.58196448216626018</v>
       </c>
       <c r="J73" s="43" cm="1">
         <f t="array" aca="1" ref="J73" ca="1">1/((D73*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C73*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9286389884232027</v>
+        <v>0.8312639847997636</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -4486,11 +4486,11 @@
       </c>
       <c r="E74" s="43" cm="1">
         <f t="array" aca="1" ref="E74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.394720421142829</v>
+        <v>0.58238750468600675</v>
       </c>
       <c r="F74" s="43" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9302261078729734</v>
+        <v>0.8320037918160117</v>
       </c>
       <c r="G74" s="43" cm="1">
         <f t="array" aca="1" ref="G74" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C74*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="I74" s="43" cm="1">
         <f t="array" aca="1" ref="I74" ca="1">1/((D74*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3945802302340251</v>
+        <v>0.58232215723029834</v>
       </c>
       <c r="J74" s="43" cm="1">
         <f t="array" aca="1" ref="J74" ca="1">1/((D74*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C74*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9299276572830149</v>
+        <v>0.83186467447327672</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -4530,11 +4530,11 @@
       </c>
       <c r="E75" s="43" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3952180500909956</v>
+        <v>0.58261946541674758</v>
       </c>
       <c r="F75" s="43" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9310326314976902</v>
+        <v>0.83237973821149014</v>
       </c>
       <c r="G75" s="43" cm="1">
         <f t="array" aca="1" ref="G75" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C75*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4546,11 +4546,11 @@
       </c>
       <c r="I75" s="43" cm="1">
         <f t="array" aca="1" ref="I75" ca="1">1/((D75*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3951430169033743</v>
+        <v>0.58258449005389057</v>
       </c>
       <c r="J75" s="43" cm="1">
         <f t="array" aca="1" ref="J75" ca="1">1/((D75*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C75*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9308728623794429</v>
+        <v>0.83230526472767208</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="E76" s="43" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F76" s="43" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G76" s="43" t="e" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4590,11 +4590,11 @@
       </c>
       <c r="I76" s="43" cm="1">
         <f t="array" aca="1" ref="I76" ca="1">1/((D76*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J76" s="43" cm="1">
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="E80" s="44" cm="1">
         <f t="array" aca="1" ref="E80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3913642123482086</v>
+        <v>0.58082306867924505</v>
       </c>
       <c r="F80" s="44" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9247890577412741</v>
+        <v>0.82946940926799151</v>
       </c>
       <c r="G80" s="44" cm="1">
         <f t="array" aca="1" ref="G80" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C80*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4710,11 +4710,11 @@
       </c>
       <c r="I80" s="44" cm="1">
         <f t="array" aca="1" ref="I80" ca="1">1/((D80*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3913216401471757</v>
+        <v>0.58080322441797927</v>
       </c>
       <c r="J80" s="44" cm="1">
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9246985304541879</v>
+        <v>0.82942721161099864</v>
       </c>
       <c r="L80" s="47" t="s">
         <v>36</v>
@@ -4753,11 +4753,11 @@
       </c>
       <c r="E81" s="44" cm="1">
         <f t="array" aca="1" ref="E81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3954849457406118</v>
+        <v>0.58274387399495531</v>
       </c>
       <c r="F81" s="44" cm="1">
         <f t="array" aca="1" ref="F81" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9314652370200713</v>
+        <v>0.83258138944874971</v>
       </c>
       <c r="G81" s="44" cm="1">
         <f t="array" aca="1" ref="G81" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C81*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4769,11 +4769,11 @@
       </c>
       <c r="I81" s="44" cm="1">
         <f t="array" aca="1" ref="I81" ca="1">1/((D81*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0449883791642298</v>
+        <v>0.41936624091166874</v>
       </c>
       <c r="J81" s="44" cm="1">
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2674000652012651</v>
+        <v>0.52303942433178374</v>
       </c>
       <c r="L81" s="48"/>
       <c r="M81" s="50"/>
@@ -4808,11 +4808,11 @@
       </c>
       <c r="E82" s="44" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3949828486991822</v>
+        <v>0.58250983054338001</v>
       </c>
       <c r="F82" s="44" cm="1">
         <f t="array" aca="1" ref="F82" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9306514210736339</v>
+        <v>0.83220204386943908</v>
       </c>
       <c r="G82" s="44" cm="1">
         <f t="array" aca="1" ref="G82" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C82*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4824,11 +4824,11 @@
       </c>
       <c r="I82" s="44" cm="1">
         <f t="array" aca="1" ref="I82" ca="1">1/((D82*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.7186192724731799</v>
+        <v>0.26723518672323765</v>
       </c>
       <c r="J82" s="44" cm="1">
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.7595308024126353</v>
+        <v>0.28630535620482012</v>
       </c>
       <c r="L82" s="49"/>
       <c r="M82" s="50"/>
@@ -4863,11 +4863,11 @@
       </c>
       <c r="E83" s="44" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F83" s="44" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G83" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4879,11 +4879,11 @@
       </c>
       <c r="I83" s="44" cm="1">
         <f t="array" aca="1" ref="I83" ca="1">1/((D83*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J83" s="44" cm="1">
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L83" s="47" t="s">
         <v>37</v>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="E84" s="44" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948787971482677</v>
+        <v>0.58246132879549384</v>
       </c>
       <c r="F84" s="44" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.930482782824408</v>
+        <v>0.83212343620068219</v>
       </c>
       <c r="G84" s="44" cm="1">
         <f t="array" aca="1" ref="G84" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C84*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4938,11 +4938,11 @@
       </c>
       <c r="I84" s="44" cm="1">
         <f t="array" aca="1" ref="I84" ca="1">1/((D84*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3651438358197661</v>
+        <v>0.56860091455769801</v>
       </c>
       <c r="J84" s="44" cm="1">
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.8678609980978429</v>
+        <v>0.8029334242470334</v>
       </c>
       <c r="L84" s="48"/>
       <c r="M84" s="48"/>
@@ -4977,11 +4977,11 @@
       </c>
       <c r="E85" s="44" cm="1">
         <f t="array" aca="1" ref="E85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948799884090652</v>
+        <v>0.58246188408016142</v>
       </c>
       <c r="F85" s="44" cm="1">
         <f t="array" aca="1" ref="F85" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9304847134991534</v>
+        <v>0.83212433614978365</v>
       </c>
       <c r="G85" s="44" cm="1">
         <f t="array" aca="1" ref="G85" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C85*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -4993,11 +4993,11 @@
       </c>
       <c r="I85" s="44" cm="1">
         <f t="array" aca="1" ref="I85" ca="1">1/((D85*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3650998981334954</v>
+        <v>0.56858043380019407</v>
       </c>
       <c r="J85" s="44" cm="1">
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.8677688903216301</v>
+        <v>0.80289048987362932</v>
       </c>
       <c r="L85" s="48"/>
       <c r="M85" s="49"/>
@@ -5032,11 +5032,11 @@
       </c>
       <c r="E86" s="44" cm="1">
         <f t="array" aca="1" ref="E86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3910700030259191</v>
+        <v>0.58068592832669852</v>
       </c>
       <c r="F86" s="44" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.92431264417807</v>
+        <v>0.8292473377051075</v>
       </c>
       <c r="G86" s="44" cm="1">
         <f t="array" aca="1" ref="G86" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C86*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5048,11 +5048,11 @@
       </c>
       <c r="I86" s="44" cm="1">
         <f t="array" aca="1" ref="I86" ca="1">1/((D86*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.5470944929109525</v>
+        <v>0.18728201407524758</v>
       </c>
       <c r="J86" s="44" cm="1">
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.5229983603570387</v>
+        <v>0.17605003784913653</v>
       </c>
       <c r="L86" s="48"/>
       <c r="M86" s="47" t="s">
@@ -5089,11 +5089,11 @@
       </c>
       <c r="E87" s="44" cm="1">
         <f t="array" aca="1" ref="E87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3949837681892783</v>
+        <v>0.58251025914705212</v>
       </c>
       <c r="F87" s="44" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9306529113264523</v>
+        <v>0.83220273852382776</v>
       </c>
       <c r="G87" s="44" cm="1">
         <f t="array" aca="1" ref="G87" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C87*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="I87" s="44" cm="1">
         <f t="array" aca="1" ref="I87" ca="1">1/((D87*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.7180096693312028</v>
+        <v>0.26695103124796704</v>
       </c>
       <c r="J87" s="44" cm="1">
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.7586560962131887</v>
+        <v>0.28589762773573746</v>
       </c>
       <c r="L87" s="48"/>
       <c r="M87" s="48"/>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="E88" s="44" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3954862649276296</v>
+        <v>0.5827444889101161</v>
       </c>
       <c r="F88" s="44" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9314673753300027</v>
+        <v>0.83258238618323666</v>
       </c>
       <c r="G88" s="44" cm="1">
         <f t="array" aca="1" ref="G88" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C88*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="I88" s="44" cm="1">
         <f t="array" aca="1" ref="I88" ca="1">1/((D88*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0447101519663309</v>
+        <v>0.41923655033724705</v>
       </c>
       <c r="J88" s="44" cm="1">
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.2669281063652411</v>
+        <v>0.52281942925937686</v>
       </c>
       <c r="L88" s="49"/>
       <c r="M88" s="49"/>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="E89" s="44" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F89" s="44" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G89" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="I89" s="44" cm="1">
         <f t="array" aca="1" ref="I89" ca="1">1/((D89*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J89" s="44" cm="1">
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -5277,11 +5277,11 @@
       </c>
       <c r="E93" s="44" cm="1">
         <f t="array" aca="1" ref="E93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3897251364548699</v>
+        <v>0.58005904310685996</v>
       </c>
       <c r="F93" s="44" cm="1">
         <f t="array" aca="1" ref="F93" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9221353200336839</v>
+        <v>0.82823241744885623</v>
       </c>
       <c r="G93" s="44" cm="1">
         <f t="array" aca="1" ref="G93" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C93*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5293,11 +5293,11 @@
       </c>
       <c r="I93" s="44" cm="1">
         <f t="array" aca="1" ref="I93" ca="1">1/((D93*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3084747622670201</v>
+        <v>0.54218565121715834</v>
       </c>
       <c r="J93" s="44" cm="1">
         <f t="array" aca="1" ref="J93" ca="1">1/((D93*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C93*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.7544470651124442</v>
+        <v>0.7500675713492051</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="E94" s="44" cm="1">
         <f t="array" aca="1" ref="E94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948858588511803</v>
+        <v>0.58246462048054126</v>
       </c>
       <c r="F94" s="44" cm="1">
         <f t="array" aca="1" ref="F94" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9304942277245702</v>
+        <v>0.83212877103382366</v>
       </c>
       <c r="G94" s="44" cm="1">
         <f t="array" aca="1" ref="G94" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C94*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="I94" s="44" cm="1">
         <f t="array" aca="1" ref="I94" ca="1">1/((D94*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.2702055607903295</v>
+        <v>0.52434715534166032</v>
       </c>
       <c r="J94" s="44" cm="1">
         <f t="array" aca="1" ref="J94" ca="1">1/((D94*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C94*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.6765716663225576</v>
+        <v>0.71376736317887479</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -5365,11 +5365,11 @@
       </c>
       <c r="E95" s="44" cm="1">
         <f t="array" aca="1" ref="E95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3925370694340646</v>
+        <v>0.58136977478967555</v>
       </c>
       <c r="F95" s="44" cm="1">
         <f t="array" aca="1" ref="F95" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9266885949198058</v>
+        <v>0.83035484415602356</v>
       </c>
       <c r="G95" s="44" cm="1">
         <f t="array" aca="1" ref="G95" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C95*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5381,11 +5381,11 @@
       </c>
       <c r="I95" s="44" cm="1">
         <f t="array" aca="1" ref="I95" ca="1">1/((D95*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0785465766427111</v>
+        <v>0.43500878750814387</v>
       </c>
       <c r="J95" s="44" cm="1">
         <f t="array" aca="1" ref="J95" ca="1">1/((D95*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C95*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.3257441518993338</v>
+        <v>0.55023546474451979</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -5409,11 +5409,11 @@
       </c>
       <c r="E96" s="44" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F96" s="44" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G96" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5425,11 +5425,11 @@
       </c>
       <c r="I96" s="44" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">1/((D96*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J96" s="44" cm="1">
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="E97" s="44" cm="1">
         <f t="array" aca="1" ref="E97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950911582436252</v>
+        <v>0.58256031707791078</v>
       </c>
       <c r="F97" s="44" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308269647214074</v>
+        <v>0.83228387036479146</v>
       </c>
       <c r="G97" s="44" cm="1">
         <f t="array" aca="1" ref="G97" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C97*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5469,11 +5469,11 @@
       </c>
       <c r="I97" s="44" cm="1">
         <f t="array" aca="1" ref="I97" ca="1">1/((D97*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3510728182187446</v>
+        <v>0.56204196428556408</v>
       </c>
       <c r="J97" s="44" cm="1">
         <f t="array" aca="1" ref="J97" ca="1">1/((D97*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C97*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.8385956551061482</v>
+        <v>0.78929191410028121</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -5497,11 +5497,11 @@
       </c>
       <c r="E98" s="44" cm="1">
         <f t="array" aca="1" ref="E98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3950927358124936</v>
+        <v>0.58256105243309642</v>
       </c>
       <c r="F98" s="44" cm="1">
         <f t="array" aca="1" ref="F98" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9308295216131346</v>
+        <v>0.83228506221360909</v>
       </c>
       <c r="G98" s="44" cm="1">
         <f t="array" aca="1" ref="G98" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C98*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="I98" s="44" cm="1">
         <f t="array" aca="1" ref="I98" ca="1">1/((D98*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3510151941901274</v>
+        <v>0.56201510388719833</v>
       </c>
       <c r="J98" s="44" cm="1">
         <f t="array" aca="1" ref="J98" ca="1">1/((D98*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C98*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.8384760867161241</v>
+        <v>0.78923617945858515</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -5541,11 +5541,11 @@
       </c>
       <c r="E99" s="44" cm="1">
         <f t="array" aca="1" ref="E99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3946038345560585</v>
+        <v>0.58233315995794888</v>
       </c>
       <c r="F99" s="44" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9300371658212345</v>
+        <v>0.8319157198970637</v>
       </c>
       <c r="G99" s="44" cm="1">
         <f t="array" aca="1" ref="G99" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C99*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5557,11 +5557,11 @@
       </c>
       <c r="I99" s="44" cm="1">
         <f t="array" aca="1" ref="I99" ca="1">1/((D99*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.7347519380404548</v>
+        <v>0.27475513689407993</v>
       </c>
       <c r="J99" s="44" cm="1">
         <f t="array" aca="1" ref="J99" ca="1">1/((D99*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C99*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>1.7828322700617165</v>
+        <v>0.29716691376317073</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -5585,11 +5585,11 @@
       </c>
       <c r="E100" s="44" cm="1">
         <f t="array" aca="1" ref="E100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.392537300265015</v>
+        <v>0.58136988238734655</v>
       </c>
       <c r="F100" s="44" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.926688968820891</v>
+        <v>0.83035501844324955</v>
       </c>
       <c r="G100" s="44" cm="1">
         <f t="array" aca="1" ref="G100" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C100*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5601,11 +5601,11 @@
       </c>
       <c r="I100" s="44" cm="1">
         <f t="array" aca="1" ref="I100" ca="1">1/((D100*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.0781802951406605</v>
+        <v>0.43483805201298154</v>
       </c>
       <c r="J100" s="44" cm="1">
         <f t="array" aca="1" ref="J100" ca="1">1/((D100*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C100*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.3251106016295244</v>
+        <v>0.54994014674887803</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -5629,11 +5629,11 @@
       </c>
       <c r="E101" s="44" cm="1">
         <f t="array" aca="1" ref="E101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3948894701000198</v>
+        <v>0.58246630379885067</v>
       </c>
       <c r="F101" s="44" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9305000804820271</v>
+        <v>0.83213149919082019</v>
       </c>
       <c r="G101" s="44" cm="1">
         <f t="array" aca="1" ref="G101" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C101*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5645,11 +5645,11 @@
       </c>
       <c r="I101" s="44" cm="1">
         <f t="array" aca="1" ref="I101" ca="1">1/((D101*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.2700873211534072</v>
+        <v>0.52429204007418151</v>
       </c>
       <c r="J101" s="44" cm="1">
         <f t="array" aca="1" ref="J101" ca="1">1/((D101*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C101*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.6763396568056144</v>
+        <v>0.71365921614022798</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="E102" s="44" cm="1">
         <f t="array" aca="1" ref="E102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F102" s="44" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G102" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G102" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C102*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5689,11 +5689,11 @@
       </c>
       <c r="I102" s="44" cm="1">
         <f t="array" aca="1" ref="I102" ca="1">1/((D102*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J102" s="44" cm="1">
         <f t="array" aca="1" ref="J102" ca="1">1/((D102*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C102*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -5779,11 +5779,11 @@
       </c>
       <c r="E106" s="44" cm="1">
         <f t="array" aca="1" ref="E106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.1392946431831699</v>
+        <v>0.46332539962994468</v>
       </c>
       <c r="F106" s="44" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.5283627959657649</v>
+        <v>0.64468247975944304</v>
       </c>
       <c r="G106" s="44" cm="1">
         <f t="array" aca="1" ref="G106" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C106*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="I106" s="44" cm="1">
         <f t="array" aca="1" ref="I106" ca="1">1/((D106*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.18366456074180637</v>
+        <v>-0.44825618068808859</v>
       </c>
       <c r="J106" s="44" cm="1">
         <f t="array" aca="1" ref="J106" ca="1">1/((D106*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C106*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>4.2385813123847038E-2</v>
+        <v>-0.51411071277738696</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -5823,11 +5823,11 @@
       </c>
       <c r="E107" s="44" cm="1">
         <f t="array" aca="1" ref="E107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3568792532137435</v>
+        <v>0.56474852890444538</v>
       </c>
       <c r="F107" s="44" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.8691713858183507</v>
+        <v>0.80354423777450745</v>
       </c>
       <c r="G107" s="44" cm="1">
         <f t="array" aca="1" ref="G107" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C107*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5839,11 +5839,11 @@
       </c>
       <c r="I107" s="44" cm="1">
         <f t="array" aca="1" ref="I107" ca="1">1/((D107*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.47275732135875437</v>
+        <v>-0.31350082079266639</v>
       </c>
       <c r="J107" s="44" cm="1">
         <f t="array" aca="1" ref="J107" ca="1">1/((D107*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C107*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.31582736725315774</v>
+        <v>-0.38665087961372413</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -5867,11 +5867,11 @@
       </c>
       <c r="E108" s="44" cm="1">
         <f t="array" aca="1" ref="E108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.0208377113256297</v>
+        <v>0.40810884404929082</v>
       </c>
       <c r="F108" s="44" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.3498542126905586</v>
+        <v>0.56147393336645468</v>
       </c>
       <c r="G108" s="44" cm="1">
         <f t="array" aca="1" ref="G108" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C108*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5883,11 +5883,11 @@
       </c>
       <c r="I108" s="44" cm="1">
         <f t="array" aca="1" ref="I108" ca="1">1/((D108*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-4.0957048467318513E-2</v>
+        <v>-0.55295947981141502</v>
       </c>
       <c r="J108" s="44" cm="1">
         <f t="array" aca="1" ref="J108" ca="1">1/((D108*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C108*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.16387304789467105</v>
+        <v>-0.61025454906320231</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E109" s="44" cm="1">
         <f t="array" aca="1" ref="E109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F109" s="44" cm="1">
         <f t="array" aca="1" ref="F109" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G109" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G109" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C109*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="I109" s="44" cm="1">
         <f t="array" aca="1" ref="I109" ca="1">1/((D109*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J109" s="44" cm="1">
         <f t="array" aca="1" ref="J109" ca="1">1/((D109*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C109*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -5955,11 +5955,11 @@
       </c>
       <c r="E110" s="44" cm="1">
         <f t="array" aca="1" ref="E110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.342488522630394</v>
+        <v>0.55804055021006782</v>
       </c>
       <c r="F110" s="44" cm="1">
         <f t="array" aca="1" ref="F110" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.8460946652891708</v>
+        <v>0.79278744201981843</v>
       </c>
       <c r="G110" s="44" cm="1">
         <f t="array" aca="1" ref="G110" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C110*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -5971,11 +5971,11 @@
       </c>
       <c r="I110" s="44" cm="1">
         <f t="array" aca="1" ref="I110" ca="1">1/((D110*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.0234281186285399</v>
+        <v>-5.6815591762276019E-2</v>
       </c>
       <c r="J110" s="44" cm="1">
         <f t="array" aca="1" ref="J110" ca="1">1/((D110*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C110*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.89018956056078946</v>
+        <v>-0.11892233496141458</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -5999,11 +5999,11 @@
       </c>
       <c r="E111" s="44" cm="1">
         <f t="array" aca="1" ref="E111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3448136747925283</v>
+        <v>0.55912437782218571</v>
       </c>
       <c r="F111" s="44" cm="1">
         <f t="array" aca="1" ref="F111" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.8498179705597688</v>
+        <v>0.79452299340709365</v>
       </c>
       <c r="G111" s="44" cm="1">
         <f t="array" aca="1" ref="G111" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C111*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -6015,11 +6015,11 @@
       </c>
       <c r="I111" s="44" cm="1">
         <f t="array" aca="1" ref="I111" ca="1">1/((D111*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>1.0200439829107024</v>
+        <v>-5.8393045399022014E-2</v>
       </c>
       <c r="J111" s="44" cm="1">
         <f t="array" aca="1" ref="J111" ca="1">1/((D111*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C111*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.88627255557516738</v>
+        <v>-0.12074817596629905</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -6043,11 +6043,11 @@
       </c>
       <c r="E112" s="44" cm="1">
         <f t="array" aca="1" ref="E112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>1.4674022116349885</v>
+        <v>0.15013489900632693</v>
       </c>
       <c r="F112" s="44" cm="1">
         <f t="array" aca="1" ref="F112" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>1.5753541033075971</v>
+        <v>0.2004547201692275</v>
       </c>
       <c r="G112" s="44" cm="1">
         <f t="array" aca="1" ref="G112" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C112*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -6059,11 +6059,11 @@
       </c>
       <c r="I112" s="44" cm="1">
         <f t="array" aca="1" ref="I112" ca="1">1/((D112*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-0.39281427064203367</v>
+        <v>-0.71697135788394262</v>
       </c>
       <c r="J112" s="44" cm="1">
         <f t="array" aca="1" ref="J112" ca="1">1/((D112*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C112*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.47633914927617937</v>
+        <v>-0.75590496886937775</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -6087,11 +6087,11 @@
       </c>
       <c r="E113" s="44" cm="1">
         <f t="array" aca="1" ref="E113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.0385750143859545</v>
+        <v>0.41637676695530668</v>
       </c>
       <c r="F113" s="44" cm="1">
         <f t="array" aca="1" ref="F113" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.3762791177115137</v>
+        <v>0.57379142474431521</v>
       </c>
       <c r="G113" s="44" cm="1">
         <f t="array" aca="1" ref="G113" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C113*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -6103,11 +6103,11 @@
       </c>
       <c r="I113" s="44" cm="1">
         <f t="array" aca="1" ref="I113" ca="1">1/((D113*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>-1.0832067462735018E-2</v>
+        <v>-0.53891726495811998</v>
       </c>
       <c r="J113" s="44" cm="1">
         <f t="array" aca="1" ref="J113" ca="1">1/((D113*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C113*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>-0.13654497552682876</v>
+        <v>-0.5975160625673186</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -6131,11 +6131,11 @@
       </c>
       <c r="E114" s="44" cm="1">
         <f t="array" aca="1" ref="E114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3582808171334184</v>
+        <v>0.56540184256753823</v>
       </c>
       <c r="F114" s="44" cm="1">
         <f t="array" aca="1" ref="F114" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.8714230713500677</v>
+        <v>0.80459382024606541</v>
       </c>
       <c r="G114" s="44" cm="1">
         <f t="array" aca="1" ref="G114" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C114*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -6147,11 +6147,11 @@
       </c>
       <c r="I114" s="44" cm="1">
         <f t="array" aca="1" ref="I114" ca="1">1/((D114*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.48418029547758845</v>
+        <v>-0.30817620807951984</v>
       </c>
       <c r="J114" s="44" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">1/((D114*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C114*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.3269886226676415</v>
+        <v>-0.38144826233941498</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -6175,11 +6175,11 @@
       </c>
       <c r="E115" s="44" cm="1">
         <f t="array" aca="1" ref="E115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="F115" s="44" cm="1">
         <f t="array" aca="1" ref="F115" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>2.9319864737553538</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="G115" s="44" t="e" cm="1">
         <f t="array" aca="1" ref="G115" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C115*INDIRECT(ADDRESS(5,37)))-1</f>
@@ -6191,11 +6191,11 @@
       </c>
       <c r="I115" s="44" cm="1">
         <f t="array" aca="1" ref="I115" ca="1">1/((D115*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>2.3958065000614419</v>
+        <v>0.58289376072382715</v>
       </c>
       <c r="J115" s="44" cm="1">
         <f t="array" aca="1" ref="J115" ca="1">1/((D115*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C115*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>2.9319864737553543</v>
+        <v>0.83282435452232617</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69033C1-DFB4-45F0-9D92-9B62DF918899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D411A4-BF58-49A6-88AF-7C67A6C84ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="64">
   <si>
     <t>Elemento</t>
   </si>
@@ -321,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -438,11 +438,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,69 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,95 +604,101 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -742,72 +716,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF3300"/>
@@ -1089,16 +997,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:S10"/>
+    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="11" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="26" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="26" bestFit="1" customWidth="1"/>
@@ -1129,10 +1037,10 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="47" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="25" t="s">
@@ -1159,10 +1067,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="59"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1085,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
@@ -1213,10 +1121,10 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83041008679626827</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="59" t="s">
         <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1296,7 +1204,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
@@ -1330,8 +1238,8 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075305771950236</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="51"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1299,7 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
@@ -1425,8 +1333,8 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8305399163171634</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1394,7 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
@@ -1520,10 +1428,10 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="65" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1603,7 +1511,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
@@ -1637,8 +1545,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8319563078227743</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +1570,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
@@ -1696,8 +1604,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83195780034624467</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1719,64 +1627,64 @@
         <f t="array" aca="1" ref="S7" ca="1">INDIRECT(ADDRESS(Q7+2,24))/(O7*INDIRECT(ADDRESS(Q7+2,27))*INDIRECT(ADDRESS(Q7+2,28))*INDIRECT(ADDRESS(Q7+2,29))*INDIRECT(ADDRESS(Q7+2,31))) -1</f>
         <v>1.8903039335230094</v>
       </c>
-      <c r="W7" s="67" cm="1">
+      <c r="W7" s="46" cm="1">
         <f t="array" aca="1" ref="W7" ca="1">INDIRECT(ADDRESS(5,23))</f>
         <v>950000000</v>
       </c>
-      <c r="X7" s="67" cm="1">
+      <c r="X7" s="46" cm="1">
         <f t="array" aca="1" ref="X7" ca="1">INDIRECT(ADDRESS(5,24))</f>
         <v>1100000000</v>
       </c>
-      <c r="Y7" s="67" cm="1">
+      <c r="Y7" s="46" cm="1">
         <f t="array" aca="1" ref="Y7" ca="1">INDIRECT(ADDRESS(5,25))</f>
         <v>548000000</v>
       </c>
-      <c r="Z7" s="67" cm="1">
+      <c r="Z7" s="46" cm="1">
         <f t="array" aca="1" ref="Z7" ca="1">INDIRECT(ADDRESS(5,26))</f>
         <v>655000000</v>
       </c>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67" cm="1">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46" cm="1">
         <f t="array" aca="1" ref="AD7" ca="1">INDIRECT(ADDRESS(5,30))</f>
         <v>1</v>
       </c>
-      <c r="AE7" s="67" cm="1">
+      <c r="AE7" s="46" cm="1">
         <f t="array" aca="1" ref="AE7" ca="1">INDIRECT(ADDRESS(5,31))</f>
         <v>1</v>
       </c>
-      <c r="AF7" s="67" cm="1">
+      <c r="AF7" s="46" cm="1">
         <f t="array" aca="1" ref="AF7" ca="1">INDIRECT(ADDRESS(5,32))</f>
         <v>3.6609999999999997E-5</v>
       </c>
-      <c r="AG7" s="67" cm="1">
+      <c r="AG7" s="46" cm="1">
         <f t="array" aca="1" ref="AG7" ca="1">INDIRECT(ADDRESS(5,33))</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AH7" s="67" cm="1">
+      <c r="AH7" s="46" cm="1">
         <f t="array" aca="1" ref="AH7" ca="1">INDIRECT(ADDRESS(5,34))</f>
         <v>21972.1</v>
       </c>
-      <c r="AI7" s="67" cm="1">
+      <c r="AI7" s="46" cm="1">
         <f t="array" aca="1" ref="AI7" ca="1">INDIRECT(ADDRESS(5,35))</f>
         <v>13241.4</v>
       </c>
-      <c r="AJ7" s="67" cm="1">
+      <c r="AJ7" s="46" cm="1">
         <f t="array" aca="1" ref="AJ7" ca="1">INDIRECT(ADDRESS(5,36))</f>
         <v>1</v>
       </c>
-      <c r="AK7" s="67" cm="1">
+      <c r="AK7" s="46" cm="1">
         <f t="array" aca="1" ref="AK7" ca="1">INDIRECT(ADDRESS(5,37))</f>
         <v>1.4</v>
       </c>
-      <c r="AL7" s="67" cm="1">
+      <c r="AL7" s="46" cm="1">
         <f t="array" aca="1" ref="AL7" ca="1">INDIRECT(ADDRESS(5,38))</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
@@ -1810,8 +1718,8 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83134461785840119</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="63" t="s">
+      <c r="L8" s="66"/>
+      <c r="M8" s="65" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1837,7 +1745,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
@@ -1871,8 +1779,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83053914726176314</v>
       </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1804,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
@@ -1930,8 +1838,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075329301905221</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -1955,7 +1863,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
@@ -2013,10 +1921,10 @@
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="47" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -2053,7 +1961,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
@@ -2099,7 +2007,7 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
@@ -2143,7 +2051,7 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
@@ -2187,7 +2095,7 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
@@ -2231,7 +2139,7 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
@@ -2275,7 +2183,7 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
@@ -2319,7 +2227,7 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
@@ -2363,7 +2271,7 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
@@ -2407,7 +2315,7 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
@@ -2451,7 +2359,7 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2521,10 +2429,10 @@
       <c r="B27" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="47" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="27" t="s">
@@ -2555,7 +2463,7 @@
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
@@ -2601,7 +2509,7 @@
       <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
@@ -2645,7 +2553,7 @@
       <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
@@ -2689,7 +2597,7 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
@@ -2733,7 +2641,7 @@
       <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
@@ -2777,7 +2685,7 @@
       <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
@@ -2821,7 +2729,7 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
@@ -2865,7 +2773,7 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
@@ -2909,7 +2817,7 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
@@ -2953,7 +2861,7 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="66"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -3023,10 +2931,10 @@
       <c r="B40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="28" t="s">
@@ -3047,16 +2955,14 @@
       <c r="J40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" s="54" t="s">
+      <c r="M40" s="69"/>
+      <c r="N40" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="55"/>
+      <c r="O40" s="69"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -3071,7 +2977,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -3107,12 +3013,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82664492303399983</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="46" t="s">
-        <v>57</v>
-      </c>
+      <c r="M41" s="73"/>
       <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
@@ -3136,7 +3040,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3170,28 +3074,32 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82631756904312459</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="46"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="75"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="40"/>
+      <c r="O42" s="40">
+        <v>9500000</v>
+      </c>
       <c r="P42" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">INDIRECT(ADDRESS(Q42+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>2</v>
+      </c>
+      <c r="R42" s="20" cm="1">
         <f t="array" aca="1" ref="R42" ca="1">INDIRECT(ADDRESS(Q42+2,23))/(O42*INDIRECT(ADDRESS(Q42+2,27))*INDIRECT(ADDRESS(Q42+2,28))*INDIRECT(ADDRESS(Q42+2,29))*INDIRECT(ADDRESS(Q42+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S42" s="20" t="e" cm="1">
+        <v>8.885721064494442</v>
+      </c>
+      <c r="S42" s="20" cm="1">
         <f t="array" aca="1" ref="S42" ca="1">INDIRECT(ADDRESS(Q42+2,24))/(O42*INDIRECT(ADDRESS(Q42+2,27))*INDIRECT(ADDRESS(Q42+2,28))*INDIRECT(ADDRESS(Q42+2,29))*INDIRECT(ADDRESS(Q42+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>8.2793968392054502</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3221,32 +3129,36 @@
         <f t="array" aca="1" ref="I43" ca="1">1/((D43*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
         <v>0.57687880082296261</v>
       </c>
-      <c r="J43" s="74" cm="1">
+      <c r="J43" s="53" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82023164153674744</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="46"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="77"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="19"/>
+      <c r="O43" s="40">
+        <v>3630000</v>
+      </c>
       <c r="P43" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">INDIRECT(ADDRESS(Q43+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>2</v>
+      </c>
+      <c r="R43" s="20" cm="1">
         <f t="array" aca="1" ref="R43" ca="1">INDIRECT(ADDRESS(Q43+2,23))/(O43*INDIRECT(ADDRESS(Q43+2,27))*INDIRECT(ADDRESS(Q43+2,28))*INDIRECT(ADDRESS(Q43+2,29))*INDIRECT(ADDRESS(Q43+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S43" s="20" t="e" cm="1">
+        <v>24.87172179413146</v>
+      </c>
+      <c r="S43" s="20" cm="1">
         <f t="array" aca="1" ref="S43" ca="1">INDIRECT(ADDRESS(Q43+2,24))/(O43*INDIRECT(ADDRESS(Q43+2,27))*INDIRECT(ADDRESS(Q43+2,28))*INDIRECT(ADDRESS(Q43+2,29))*INDIRECT(ADDRESS(Q43+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>23.284922857424736</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3280,12 +3192,10 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="60" t="s">
+      <c r="L44" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="M44" s="73"/>
       <c r="N44" s="36" t="s">
         <v>22</v>
       </c>
@@ -3309,7 +3219,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3343,28 +3253,32 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030382101804823</v>
       </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="36"/>
+      <c r="O45" s="40">
+        <v>76400000</v>
+      </c>
       <c r="P45" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">INDIRECT(ADDRESS(Q45+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q45" s="36">
+        <v>2</v>
+      </c>
+      <c r="R45" s="20" cm="1">
         <f t="array" aca="1" ref="R45" ca="1">INDIRECT(ADDRESS(Q45+2,23))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S45" s="20" t="e" cm="1">
+        <v>0.22924542032326167</v>
+      </c>
+      <c r="S45" s="20" cm="1">
         <f t="array" aca="1" ref="S45" ca="1">INDIRECT(ADDRESS(Q45+2,24))/(O45*INDIRECT(ADDRESS(Q45+2,27))*INDIRECT(ADDRESS(Q45+2,28))*INDIRECT(ADDRESS(Q45+2,29))*INDIRECT(ADDRESS(Q45+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>0.15385170121010172</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3398,28 +3312,32 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030366531794497</v>
       </c>
-      <c r="L46" s="61"/>
-      <c r="M46" s="62"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="77"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O46" s="36"/>
+      <c r="O46" s="40">
+        <v>9160000</v>
+      </c>
       <c r="P46" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">INDIRECT(ADDRESS(Q46+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="20" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q46" s="36">
+        <v>2</v>
+      </c>
+      <c r="R46" s="20" cm="1">
         <f t="array" aca="1" ref="R46" ca="1">INDIRECT(ADDRESS(Q46+2,23))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S46" s="20" t="e" cm="1">
+        <v>9.252658309246419</v>
+      </c>
+      <c r="S46" s="20" cm="1">
         <f t="array" aca="1" ref="S46" ca="1">INDIRECT(ADDRESS(Q46+2,24))/(O46*INDIRECT(ADDRESS(Q46+2,27))*INDIRECT(ADDRESS(Q46+2,28))*INDIRECT(ADDRESS(Q46+2,29))*INDIRECT(ADDRESS(Q46+2,31))) -1</f>
-        <v>#VALUE!</v>
+        <v>8.62382859961264</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3453,30 +3371,17 @@
         <f t="array" aca="1" ref="J47" ca="1">1/((D47*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C47*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82042591016082156</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="N47" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="36"/>
-      <c r="P47" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P47" ca="1">INDIRECT(ADDRESS(Q47+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R47" ca="1">INDIRECT(ADDRESS(Q47+2,23))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S47" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S47" ca="1">INDIRECT(ADDRESS(Q47+2,24))/(O47*INDIRECT(ADDRESS(Q47+2,27))*INDIRECT(ADDRESS(Q47+2,28))*INDIRECT(ADDRESS(Q47+2,29))*INDIRECT(ADDRESS(Q47+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3510,28 +3415,17 @@
         <f t="array" aca="1" ref="J48" ca="1">1/((D48*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C48*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82022251752266673</v>
       </c>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P48" ca="1">INDIRECT(ADDRESS(Q48+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R48" ca="1">INDIRECT(ADDRESS(Q48+2,23))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S48" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S48" ca="1">INDIRECT(ADDRESS(Q48+2,24))/(O48*INDIRECT(ADDRESS(Q48+2,27))*INDIRECT(ADDRESS(Q48+2,28))*INDIRECT(ADDRESS(Q48+2,29))*INDIRECT(ADDRESS(Q48+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3565,28 +3459,17 @@
         <f t="array" aca="1" ref="J49" ca="1">1/((D49*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C49*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82631521804183561</v>
       </c>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="20" t="str" cm="1">
-        <f t="array" aca="1" ref="P49" ca="1">INDIRECT(ADDRESS(Q49+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="R49" ca="1">INDIRECT(ADDRESS(Q49+2,23))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S49" s="20" t="e" cm="1">
-        <f t="array" aca="1" ref="S49" ca="1">INDIRECT(ADDRESS(Q49+2,24))/(O49*INDIRECT(ADDRESS(Q49+2,27))*INDIRECT(ADDRESS(Q49+2,28))*INDIRECT(ADDRESS(Q49+2,29))*INDIRECT(ADDRESS(Q49+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3628,10 +3511,10 @@
       <c r="B53" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="29" t="s">
@@ -3662,7 +3545,7 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3708,7 +3591,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3752,7 +3635,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3796,7 +3679,7 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3840,7 +3723,7 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3884,7 +3767,7 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3928,7 +3811,7 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3972,7 +3855,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -4016,7 +3899,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -4060,7 +3943,7 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -4130,10 +4013,10 @@
       <c r="B66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E66" s="29" t="s">
@@ -4164,7 +4047,7 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4210,7 +4093,7 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4254,7 +4137,7 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4298,7 +4181,7 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4342,7 +4225,7 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4386,7 +4269,7 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4430,7 +4313,7 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4474,7 +4357,7 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4518,7 +4401,7 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4562,7 +4445,7 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4632,10 +4515,10 @@
       <c r="B79" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="71" t="s">
+      <c r="C79" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="50" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="30" t="s">
@@ -4656,16 +4539,14 @@
       <c r="J79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="21" t="s">
+      <c r="L79" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N79" s="56" t="s">
+      <c r="M79" s="71"/>
+      <c r="N79" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="57"/>
+      <c r="O79" s="71"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4680,16 +4561,16 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
         <v>40230</v>
       </c>
-      <c r="C80" s="72">
+      <c r="C80" s="51">
         <v>757.39114000000006</v>
       </c>
-      <c r="D80" s="72">
+      <c r="D80" s="51">
         <v>63.590456816631459</v>
       </c>
       <c r="E80" s="44" cm="1">
@@ -4716,12 +4597,10 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82942721161099864</v>
       </c>
-      <c r="L80" s="47" t="s">
+      <c r="L80" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="50" t="s">
-        <v>57</v>
-      </c>
+      <c r="M80" s="79"/>
       <c r="N80" s="23" t="s">
         <v>22</v>
       </c>
@@ -4741,14 +4620,14 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
-      <c r="C81" s="72">
+      <c r="C81" s="51">
         <v>54.757109000000007</v>
       </c>
-      <c r="D81" s="72">
+      <c r="D81" s="51">
         <v>6254.3874766060389</v>
       </c>
       <c r="E81" s="44" cm="1">
@@ -4775,8 +4654,8 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52303942433178374</v>
       </c>
-      <c r="L81" s="48"/>
-      <c r="M81" s="50"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="81"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4796,14 +4675,14 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
-      <c r="C82" s="72">
+      <c r="C82" s="51">
         <v>140.27937000000003</v>
       </c>
-      <c r="D82" s="72">
+      <c r="D82" s="51">
         <v>9482.5288112684048</v>
       </c>
       <c r="E82" s="44" cm="1">
@@ -4830,8 +4709,8 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.28630535620482012</v>
       </c>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
+      <c r="L82" s="82"/>
+      <c r="M82" s="83"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4851,14 +4730,14 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
-      <c r="C83" s="72">
-        <v>0</v>
-      </c>
-      <c r="D83" s="72">
+      <c r="C83" s="51">
+        <v>0</v>
+      </c>
+      <c r="D83" s="51">
         <v>0</v>
       </c>
       <c r="E83" s="44" cm="1">
@@ -4885,12 +4764,10 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="47" t="s">
+      <c r="L83" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="M83" s="79"/>
       <c r="N83" s="35" t="s">
         <v>22</v>
       </c>
@@ -4910,14 +4787,14 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="48"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
-      <c r="C84" s="72">
+      <c r="C84" s="51">
         <v>158.00565000000003</v>
       </c>
-      <c r="D84" s="72">
+      <c r="D84" s="51">
         <v>1689.0842550621214</v>
       </c>
       <c r="E84" s="44" cm="1">
@@ -4944,8 +4821,8 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8029334242470334</v>
       </c>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
+      <c r="L84" s="80"/>
+      <c r="M84" s="81"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
@@ -4965,14 +4842,14 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
-      <c r="C85" s="72">
+      <c r="C85" s="51">
         <v>157.80270000000002</v>
       </c>
-      <c r="D85" s="72">
+      <c r="D85" s="51">
         <v>1690.3816694725656</v>
       </c>
       <c r="E85" s="44" cm="1">
@@ -4999,8 +4876,8 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.80289048987362932</v>
       </c>
-      <c r="L85" s="48"/>
-      <c r="M85" s="49"/>
+      <c r="L85" s="82"/>
+      <c r="M85" s="83"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
@@ -5020,14 +4897,14 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
-      <c r="C86" s="72">
+      <c r="C86" s="51">
         <v>807.62264000000005</v>
       </c>
-      <c r="D86" s="72">
+      <c r="D86" s="51">
         <v>11155.285192415331</v>
       </c>
       <c r="E86" s="44" cm="1">
@@ -5054,37 +4931,24 @@
         <f t="array" aca="1" ref="J86" ca="1">1/((D86*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C86*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.17605003784913653</v>
       </c>
-      <c r="L86" s="48"/>
-      <c r="M86" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N86" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" s="35"/>
-      <c r="P86" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P86" ca="1">INDIRECT(ADDRESS(Q86+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R86" ca="1">INDIRECT(ADDRESS(Q86+2,23))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S86" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S86" ca="1">INDIRECT(ADDRESS(Q86+2,24))/(O86*INDIRECT(ADDRESS(Q86+2,27))*INDIRECT(ADDRESS(Q86+2,28))*INDIRECT(ADDRESS(Q86+2,29))*INDIRECT(ADDRESS(Q86+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
-      <c r="C87" s="72">
+      <c r="C87" s="51">
         <v>140.12273000000002</v>
       </c>
-      <c r="D87" s="72">
+      <c r="D87" s="51">
         <v>9488.4603473035022</v>
       </c>
       <c r="E87" s="44" cm="1">
@@ -5111,35 +4975,24 @@
         <f t="array" aca="1" ref="J87" ca="1">1/((D87*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C87*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.28589762773573746</v>
       </c>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="O87" s="35"/>
-      <c r="P87" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P87" ca="1">INDIRECT(ADDRESS(Q87+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R87" ca="1">INDIRECT(ADDRESS(Q87+2,23))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S87" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S87" ca="1">INDIRECT(ADDRESS(Q87+2,24))/(O87*INDIRECT(ADDRESS(Q87+2,27))*INDIRECT(ADDRESS(Q87+2,28))*INDIRECT(ADDRESS(Q87+2,29))*INDIRECT(ADDRESS(Q87+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="48"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
-      <c r="C88" s="72">
+      <c r="C88" s="51">
         <v>54.532445000000003</v>
       </c>
-      <c r="D88" s="72">
+      <c r="D88" s="51">
         <v>6257.3159479143187</v>
       </c>
       <c r="E88" s="44" cm="1">
@@ -5166,35 +5019,24 @@
         <f t="array" aca="1" ref="J88" ca="1">1/((D88*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C88*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52281942925937686</v>
       </c>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O88" s="35"/>
-      <c r="P88" s="24" t="str" cm="1">
-        <f t="array" aca="1" ref="P88" ca="1">INDIRECT(ADDRESS(Q88+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="R88" ca="1">INDIRECT(ADDRESS(Q88+2,23))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S88" s="24" t="e" cm="1">
-        <f t="array" aca="1" ref="S88" ca="1">INDIRECT(ADDRESS(Q88+2,24))/(O88*INDIRECT(ADDRESS(Q88+2,27))*INDIRECT(ADDRESS(Q88+2,28))*INDIRECT(ADDRESS(Q88+2,29))*INDIRECT(ADDRESS(Q88+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="49"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
-      <c r="C89" s="72">
-        <v>0</v>
-      </c>
-      <c r="D89" s="72">
+      <c r="C89" s="51">
+        <v>0</v>
+      </c>
+      <c r="D89" s="51">
         <v>0</v>
       </c>
       <c r="E89" s="44" cm="1">
@@ -5229,10 +5071,10 @@
       <c r="B92" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="C92" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="50" t="s">
         <v>50</v>
       </c>
       <c r="E92" s="30" t="s">
@@ -5263,16 +5105,16 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="57" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
         <v>40230</v>
       </c>
-      <c r="C93" s="72">
+      <c r="C93" s="51">
         <v>1037.3479600000001</v>
       </c>
-      <c r="D93" s="72">
+      <c r="D93" s="51">
         <v>2831.2021698263125</v>
       </c>
       <c r="E93" s="44" cm="1">
@@ -5309,14 +5151,14 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
-      <c r="C94" s="72">
+      <c r="C94" s="51">
         <v>156.80258000000001</v>
       </c>
-      <c r="D94" s="72">
+      <c r="D94" s="51">
         <v>3534.0541264396938</v>
       </c>
       <c r="E94" s="44" cm="1">
@@ -5353,14 +5195,14 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
-      <c r="C95" s="72">
+      <c r="C95" s="51">
         <v>557.23129000000006</v>
       </c>
-      <c r="D95" s="72">
+      <c r="D95" s="51">
         <v>5874.1885313813482</v>
       </c>
       <c r="E95" s="44" cm="1">
@@ -5397,14 +5239,14 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="50"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
-      <c r="C96" s="72">
-        <v>0</v>
-      </c>
-      <c r="D96" s="72">
+      <c r="C96" s="51">
+        <v>0</v>
+      </c>
+      <c r="D96" s="51">
         <v>0</v>
       </c>
       <c r="E96" s="44" cm="1">
@@ -5441,14 +5283,14 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
-      <c r="C97" s="72">
+      <c r="C97" s="51">
         <v>121.82885000000002</v>
       </c>
-      <c r="D97" s="72">
+      <c r="D97" s="51">
         <v>2061.490927255792</v>
       </c>
       <c r="E97" s="44" cm="1">
@@ -5485,14 +5327,14 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
-      <c r="C98" s="72">
+      <c r="C98" s="51">
         <v>121.56012000000001</v>
       </c>
-      <c r="D98" s="72">
+      <c r="D98" s="51">
         <v>2062.9026876267167</v>
       </c>
       <c r="E98" s="44" cm="1">
@@ -5529,14 +5371,14 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
-      <c r="C99" s="72">
+      <c r="C99" s="51">
         <v>204.85366000000002</v>
       </c>
-      <c r="D99" s="72">
+      <c r="D99" s="51">
         <v>9323.845510420535</v>
       </c>
       <c r="E99" s="44" cm="1">
@@ -5573,14 +5415,14 @@
       <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="50"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
-      <c r="C100" s="72">
+      <c r="C100" s="51">
         <v>557.19191000000001</v>
       </c>
-      <c r="D100" s="72">
+      <c r="D100" s="51">
         <v>5878.1486519465689</v>
       </c>
       <c r="E100" s="44" cm="1">
@@ -5617,14 +5459,14 @@
       <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="50"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
-      <c r="C101" s="72">
+      <c r="C101" s="51">
         <v>156.18735000000001</v>
       </c>
-      <c r="D101" s="72">
+      <c r="D101" s="51">
         <v>3535.8743113913051</v>
       </c>
       <c r="E101" s="44" cm="1">
@@ -5661,14 +5503,14 @@
       <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="50"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
-      <c r="C102" s="72">
-        <v>0</v>
-      </c>
-      <c r="D102" s="72">
+      <c r="C102" s="51">
+        <v>0</v>
+      </c>
+      <c r="D102" s="51">
         <v>0</v>
       </c>
       <c r="E102" s="44" cm="1">
@@ -5731,10 +5573,10 @@
       <c r="B105" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="71" t="s">
+      <c r="C105" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="50" t="s">
         <v>50</v>
       </c>
       <c r="E105" s="30" t="s">
@@ -5765,16 +5607,16 @@
       <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
         <v>40230</v>
       </c>
-      <c r="C106" s="72">
+      <c r="C106" s="51">
         <v>47245.813999999998</v>
       </c>
-      <c r="D106" s="72">
+      <c r="D106" s="51">
         <v>33677.872984436864</v>
       </c>
       <c r="E106" s="44" cm="1">
@@ -5811,14 +5653,14 @@
       <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="50"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
-      <c r="C107" s="72">
+      <c r="C107" s="51">
         <v>6705.1105000000007</v>
       </c>
-      <c r="D107" s="72">
+      <c r="D107" s="51">
         <v>26261.303172385247</v>
       </c>
       <c r="E107" s="44" cm="1">
@@ -5855,14 +5697,14 @@
       <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="50"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
-      <c r="C108" s="72">
+      <c r="C108" s="51">
         <v>71772.107000000004</v>
       </c>
-      <c r="D108" s="72">
+      <c r="D108" s="51">
         <v>42556.288459396055</v>
       </c>
       <c r="E108" s="44" cm="1">
@@ -5899,14 +5741,14 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
-      <c r="C109" s="72">
-        <v>0</v>
-      </c>
-      <c r="D109" s="72">
+      <c r="C109" s="51">
+        <v>0</v>
+      </c>
+      <c r="D109" s="51">
         <v>0</v>
       </c>
       <c r="E109" s="44" cm="1">
@@ -5943,14 +5785,14 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="50"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
-      <c r="C110" s="72">
+      <c r="C110" s="51">
         <v>9223.4142000000011</v>
       </c>
-      <c r="D110" s="72">
+      <c r="D110" s="51">
         <v>16930.432498675298</v>
       </c>
       <c r="E110" s="44" cm="1">
@@ -5987,14 +5829,14 @@
       <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="50"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
-      <c r="C111" s="72">
+      <c r="C111" s="51">
         <v>8815.0568000000003</v>
       </c>
-      <c r="D111" s="72">
+      <c r="D111" s="51">
         <v>16981.967032889428</v>
       </c>
       <c r="E111" s="44" cm="1">
@@ -6031,14 +5873,14 @@
       <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="50"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
-      <c r="C112" s="72">
+      <c r="C112" s="51">
         <v>217563.06000000003</v>
       </c>
-      <c r="D112" s="72">
+      <c r="D112" s="51">
         <v>68704.495308561833</v>
       </c>
       <c r="E112" s="44" cm="1">
@@ -6075,14 +5917,14 @@
       <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="50"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
-      <c r="C113" s="72">
+      <c r="C113" s="51">
         <v>67977.899000000005</v>
       </c>
-      <c r="D113" s="72">
+      <c r="D113" s="51">
         <v>41141.152498805204</v>
       </c>
       <c r="E113" s="44" cm="1">
@@ -6119,14 +5961,14 @@
       <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="50"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
-      <c r="C114" s="72">
+      <c r="C114" s="51">
         <v>6460.9974000000002</v>
       </c>
-      <c r="D114" s="72">
+      <c r="D114" s="51">
         <v>26013.410657369503</v>
       </c>
       <c r="E114" s="44" cm="1">
@@ -6163,14 +6005,14 @@
       <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="50"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
-      <c r="C115" s="72">
-        <v>0</v>
-      </c>
-      <c r="D115" s="72">
+      <c r="C115" s="51">
+        <v>0</v>
+      </c>
+      <c r="D115" s="51">
         <v>0</v>
       </c>
       <c r="E115" s="44" cm="1">
@@ -6239,10 +6081,10 @@
       <c r="A127" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C127" s="69" t="s">
+      <c r="C127" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E127" s="45" t="s">
@@ -6259,7 +6101,7 @@
       <c r="U127" s="9"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="51" t="s">
+      <c r="A128" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B128" s="35">
@@ -6287,7 +6129,7 @@
       <c r="U128" s="9"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="51"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="35">
         <v>40240</v>
       </c>
@@ -6315,7 +6157,7 @@
       <c r="U129" s="9"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="51"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="35">
         <v>40250</v>
       </c>
@@ -6343,7 +6185,7 @@
       <c r="U130" s="9"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="51"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="35">
         <v>40360</v>
       </c>
@@ -6362,7 +6204,7 @@
       <c r="U131" s="9"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="51"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="35">
         <v>40390</v>
       </c>
@@ -6390,7 +6232,7 @@
       <c r="U132" s="9"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="51"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="35">
         <v>40710</v>
       </c>
@@ -6418,7 +6260,7 @@
       <c r="U133" s="9"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="51"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="35">
         <v>40740</v>
       </c>
@@ -6444,7 +6286,7 @@
       <c r="L134" s="39"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="51"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="35">
         <v>40750</v>
       </c>
@@ -6470,7 +6312,7 @@
       <c r="L135" s="39"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="51"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="35">
         <v>40760</v>
       </c>
@@ -6496,7 +6338,7 @@
       <c r="L136" s="39"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="51"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="35">
         <v>40770</v>
       </c>
@@ -6513,7 +6355,7 @@
       <c r="L137" s="39"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B138" s="35">
@@ -6541,7 +6383,7 @@
       <c r="L138" s="39"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="35">
         <v>40240</v>
       </c>
@@ -6567,7 +6409,7 @@
       <c r="L139" s="39"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="53"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="35">
         <v>40250</v>
       </c>
@@ -6593,7 +6435,7 @@
       <c r="L140" s="39"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="53"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="35">
         <v>40360</v>
       </c>
@@ -6610,7 +6452,7 @@
       <c r="L141" s="39"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="53"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="35">
         <v>40390</v>
       </c>
@@ -6636,7 +6478,7 @@
       <c r="L142" s="39"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="53"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="35">
         <v>40710</v>
       </c>
@@ -6662,7 +6504,7 @@
       <c r="L143" s="39"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="53"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="35">
         <v>40740</v>
       </c>
@@ -6688,7 +6530,7 @@
       <c r="L144" s="39"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="53"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="35">
         <v>40750</v>
       </c>
@@ -6714,7 +6556,7 @@
       <c r="L145" s="39"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="53"/>
+      <c r="A146" s="61"/>
       <c r="B146" s="35">
         <v>40760</v>
       </c>
@@ -6740,7 +6582,7 @@
       <c r="L146" s="39"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="53"/>
+      <c r="A147" s="61"/>
       <c r="B147" s="35">
         <v>40770</v>
       </c>
@@ -6757,7 +6599,7 @@
       <c r="L147" s="39"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="35">
@@ -6785,7 +6627,7 @@
       <c r="L148" s="39"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="53"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="35">
         <v>40240</v>
       </c>
@@ -6811,7 +6653,7 @@
       <c r="L149" s="39"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="53"/>
+      <c r="A150" s="61"/>
       <c r="B150" s="35">
         <v>40250</v>
       </c>
@@ -6837,7 +6679,7 @@
       <c r="L150" s="39"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="53"/>
+      <c r="A151" s="61"/>
       <c r="B151" s="35">
         <v>40360</v>
       </c>
@@ -6854,7 +6696,7 @@
       <c r="L151" s="39"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="53"/>
+      <c r="A152" s="61"/>
       <c r="B152" s="35">
         <v>40390</v>
       </c>
@@ -6880,7 +6722,7 @@
       <c r="L152" s="39"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="53"/>
+      <c r="A153" s="61"/>
       <c r="B153" s="35">
         <v>40710</v>
       </c>
@@ -6903,7 +6745,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="53"/>
+      <c r="A154" s="61"/>
       <c r="B154" s="35">
         <v>40740</v>
       </c>
@@ -6926,7 +6768,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="53"/>
+      <c r="A155" s="61"/>
       <c r="B155" s="35">
         <v>40750</v>
       </c>
@@ -6949,7 +6791,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="53"/>
+      <c r="A156" s="61"/>
       <c r="B156" s="35">
         <v>40760</v>
       </c>
@@ -6972,11 +6814,11 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="53"/>
+      <c r="A157" s="61"/>
       <c r="B157" s="35">
         <v>40770</v>
       </c>
-      <c r="C157" s="73"/>
+      <c r="C157" s="52"/>
       <c r="E157" s="45"/>
       <c r="F157" s="26">
         <f t="shared" si="0"/>
@@ -6991,10 +6833,10 @@
       <c r="A158" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="73"/>
+      <c r="C158" s="52"/>
       <c r="E158" s="45"/>
       <c r="F158" s="26">
-        <f t="shared" ref="F129:F192" si="2">C158*1.1*1</f>
+        <f t="shared" ref="F158:F192" si="2">C158*1.1*1</f>
         <v>0</v>
       </c>
       <c r="G158" s="26">
@@ -7003,7 +6845,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="35">
@@ -7028,7 +6870,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="46"/>
+      <c r="A160" s="58"/>
       <c r="B160" s="35">
         <v>40240</v>
       </c>
@@ -7051,7 +6893,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="46"/>
+      <c r="A161" s="58"/>
       <c r="B161" s="35">
         <v>40250</v>
       </c>
@@ -7074,7 +6916,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="46"/>
+      <c r="A162" s="58"/>
       <c r="B162" s="35">
         <v>40360</v>
       </c>
@@ -7088,7 +6930,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="46"/>
+      <c r="A163" s="58"/>
       <c r="B163" s="35">
         <v>40390</v>
       </c>
@@ -7111,7 +6953,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="46"/>
+      <c r="A164" s="58"/>
       <c r="B164" s="35">
         <v>40710</v>
       </c>
@@ -7134,7 +6976,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="46"/>
+      <c r="A165" s="58"/>
       <c r="B165" s="35">
         <v>40740</v>
       </c>
@@ -7157,7 +6999,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="46"/>
+      <c r="A166" s="58"/>
       <c r="B166" s="35">
         <v>40750</v>
       </c>
@@ -7180,7 +7022,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="46"/>
+      <c r="A167" s="58"/>
       <c r="B167" s="35">
         <v>40760</v>
       </c>
@@ -7203,11 +7045,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="46"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="35">
         <v>40770</v>
       </c>
-      <c r="C168" s="73"/>
+      <c r="C168" s="52"/>
       <c r="E168" s="45"/>
       <c r="F168" s="26">
         <f t="shared" si="2"/>
@@ -7222,7 +7064,7 @@
       <c r="A169" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="73"/>
+      <c r="C169" s="52"/>
       <c r="E169" s="45"/>
       <c r="F169" s="26">
         <f t="shared" si="2"/>
@@ -7234,7 +7076,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="35">
@@ -7259,7 +7101,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="46"/>
+      <c r="A171" s="58"/>
       <c r="B171" s="35">
         <v>40240</v>
       </c>
@@ -7282,7 +7124,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="46"/>
+      <c r="A172" s="58"/>
       <c r="B172" s="35">
         <v>40250</v>
       </c>
@@ -7305,7 +7147,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="46"/>
+      <c r="A173" s="58"/>
       <c r="B173" s="35">
         <v>40360</v>
       </c>
@@ -7322,7 +7164,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="46"/>
+      <c r="A174" s="58"/>
       <c r="B174" s="35">
         <v>40390</v>
       </c>
@@ -7345,7 +7187,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="46"/>
+      <c r="A175" s="58"/>
       <c r="B175" s="35">
         <v>40710</v>
       </c>
@@ -7368,7 +7210,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="46"/>
+      <c r="A176" s="58"/>
       <c r="B176" s="35">
         <v>40740</v>
       </c>
@@ -7391,7 +7233,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="46"/>
+      <c r="A177" s="58"/>
       <c r="B177" s="35">
         <v>40750</v>
       </c>
@@ -7414,7 +7256,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="46"/>
+      <c r="A178" s="58"/>
       <c r="B178" s="35">
         <v>40760</v>
       </c>
@@ -7437,11 +7279,11 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="46"/>
+      <c r="A179" s="58"/>
       <c r="B179" s="35">
         <v>40770</v>
       </c>
-      <c r="C179" s="73"/>
+      <c r="C179" s="52"/>
       <c r="E179" s="45"/>
       <c r="F179" s="26">
         <f t="shared" si="2"/>
@@ -7456,7 +7298,7 @@
       <c r="A180" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="73"/>
+      <c r="C180" s="52"/>
       <c r="E180" s="45"/>
       <c r="F180" s="26">
         <f t="shared" si="2"/>
@@ -7468,7 +7310,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="46" t="s">
+      <c r="A181" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="35">
@@ -7493,7 +7335,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="46"/>
+      <c r="A182" s="58"/>
       <c r="B182" s="35">
         <v>40240</v>
       </c>
@@ -7516,7 +7358,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="46"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="35">
         <v>40250</v>
       </c>
@@ -7539,11 +7381,11 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="46"/>
+      <c r="A184" s="58"/>
       <c r="B184" s="35">
         <v>40360</v>
       </c>
-      <c r="C184" s="73"/>
+      <c r="C184" s="52"/>
       <c r="E184" s="45"/>
       <c r="F184" s="26">
         <f t="shared" si="2"/>
@@ -7555,7 +7397,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="46"/>
+      <c r="A185" s="58"/>
       <c r="B185" s="35">
         <v>40390</v>
       </c>
@@ -7578,7 +7420,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="46"/>
+      <c r="A186" s="58"/>
       <c r="B186" s="35">
         <v>40710</v>
       </c>
@@ -7601,7 +7443,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="46"/>
+      <c r="A187" s="58"/>
       <c r="B187" s="35">
         <v>40740</v>
       </c>
@@ -7624,7 +7466,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="46"/>
+      <c r="A188" s="58"/>
       <c r="B188" s="35">
         <v>40750</v>
       </c>
@@ -7647,7 +7489,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="46"/>
+      <c r="A189" s="58"/>
       <c r="B189" s="35">
         <v>40760</v>
       </c>
@@ -7670,11 +7512,11 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="46"/>
+      <c r="A190" s="58"/>
       <c r="B190" s="35">
         <v>40770</v>
       </c>
-      <c r="C190" s="73"/>
+      <c r="C190" s="52"/>
       <c r="E190" s="45"/>
       <c r="F190" s="26">
         <f t="shared" si="2"/>
@@ -7689,7 +7531,7 @@
       <c r="A191" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="73"/>
+      <c r="C191" s="52"/>
       <c r="E191" s="45"/>
       <c r="F191" s="26">
         <f t="shared" si="2"/>
@@ -7701,7 +7543,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="54" t="s">
         <v>60</v>
       </c>
       <c r="B192" s="35">
@@ -7726,7 +7568,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="48"/>
+      <c r="A193" s="55"/>
       <c r="B193" s="35">
         <v>40240</v>
       </c>
@@ -7749,7 +7591,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="48"/>
+      <c r="A194" s="55"/>
       <c r="B194" s="35">
         <v>40250</v>
       </c>
@@ -7772,7 +7614,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="48"/>
+      <c r="A195" s="55"/>
       <c r="B195" s="35">
         <v>40360</v>
       </c>
@@ -7786,7 +7628,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="48"/>
+      <c r="A196" s="55"/>
       <c r="B196" s="35">
         <v>40390</v>
       </c>
@@ -7809,7 +7651,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="48"/>
+      <c r="A197" s="55"/>
       <c r="B197" s="35">
         <v>40710</v>
       </c>
@@ -7832,7 +7674,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="48"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="35">
         <v>40740</v>
       </c>
@@ -7855,7 +7697,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="48"/>
+      <c r="A199" s="55"/>
       <c r="B199" s="35">
         <v>40750</v>
       </c>
@@ -7878,7 +7720,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="48"/>
+      <c r="A200" s="55"/>
       <c r="B200" s="35">
         <v>40760</v>
       </c>
@@ -7901,11 +7743,11 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="49"/>
+      <c r="A201" s="56"/>
       <c r="B201" s="35">
         <v>40770</v>
       </c>
-      <c r="C201" s="73"/>
+      <c r="C201" s="52"/>
       <c r="E201" s="45"/>
       <c r="F201" s="26">
         <f t="shared" si="3"/>
@@ -7920,7 +7762,7 @@
       <c r="A202" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C202" s="73"/>
+      <c r="C202" s="52"/>
       <c r="E202" s="45"/>
       <c r="F202" s="26">
         <f t="shared" si="3"/>
@@ -7932,7 +7774,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="50" t="s">
+      <c r="A203" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B203" s="35">
@@ -7957,7 +7799,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="50"/>
+      <c r="A204" s="57"/>
       <c r="B204" s="35">
         <v>40240</v>
       </c>
@@ -7980,7 +7822,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="50"/>
+      <c r="A205" s="57"/>
       <c r="B205" s="35">
         <v>40250</v>
       </c>
@@ -8003,11 +7845,11 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="50"/>
+      <c r="A206" s="57"/>
       <c r="B206" s="35">
         <v>40360</v>
       </c>
-      <c r="C206" s="73"/>
+      <c r="C206" s="52"/>
       <c r="E206" s="45"/>
       <c r="F206" s="26">
         <f t="shared" si="3"/>
@@ -8019,7 +7861,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="50"/>
+      <c r="A207" s="57"/>
       <c r="B207" s="35">
         <v>40390</v>
       </c>
@@ -8042,7 +7884,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="50"/>
+      <c r="A208" s="57"/>
       <c r="B208" s="35">
         <v>40710</v>
       </c>
@@ -8065,7 +7907,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="50"/>
+      <c r="A209" s="57"/>
       <c r="B209" s="35">
         <v>40740</v>
       </c>
@@ -8088,7 +7930,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="50"/>
+      <c r="A210" s="57"/>
       <c r="B210" s="35">
         <v>40750</v>
       </c>
@@ -8111,7 +7953,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="50"/>
+      <c r="A211" s="57"/>
       <c r="B211" s="35">
         <v>40760</v>
       </c>
@@ -8134,11 +7976,11 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="50"/>
+      <c r="A212" s="57"/>
       <c r="B212" s="35">
         <v>40770</v>
       </c>
-      <c r="C212" s="73"/>
+      <c r="C212" s="52"/>
       <c r="E212" s="45"/>
       <c r="F212" s="26">
         <f t="shared" si="3"/>
@@ -8153,7 +7995,7 @@
       <c r="A213" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C213" s="73"/>
+      <c r="C213" s="52"/>
       <c r="E213" s="45"/>
       <c r="F213" s="26">
         <f t="shared" si="3"/>
@@ -8165,7 +8007,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="50" t="s">
+      <c r="A214" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B214" s="35">
@@ -8190,7 +8032,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="50"/>
+      <c r="A215" s="57"/>
       <c r="B215" s="35">
         <v>40240</v>
       </c>
@@ -8213,7 +8055,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="50"/>
+      <c r="A216" s="57"/>
       <c r="B216" s="35">
         <v>40250</v>
       </c>
@@ -8236,11 +8078,11 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="50"/>
+      <c r="A217" s="57"/>
       <c r="B217" s="35">
         <v>40360</v>
       </c>
-      <c r="C217" s="73"/>
+      <c r="C217" s="52"/>
       <c r="E217" s="45"/>
       <c r="F217" s="26">
         <f t="shared" si="3"/>
@@ -8252,7 +8094,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="50"/>
+      <c r="A218" s="57"/>
       <c r="B218" s="35">
         <v>40390</v>
       </c>
@@ -8275,7 +8117,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="50"/>
+      <c r="A219" s="57"/>
       <c r="B219" s="35">
         <v>40710</v>
       </c>
@@ -8298,7 +8140,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="50"/>
+      <c r="A220" s="57"/>
       <c r="B220" s="35">
         <v>40740</v>
       </c>
@@ -8321,7 +8163,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="50"/>
+      <c r="A221" s="57"/>
       <c r="B221" s="35">
         <v>40750</v>
       </c>
@@ -8344,7 +8186,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="50"/>
+      <c r="A222" s="57"/>
       <c r="B222" s="35">
         <v>40760</v>
       </c>
@@ -8367,11 +8209,11 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="50"/>
+      <c r="A223" s="57"/>
       <c r="B223" s="35">
         <v>40770</v>
       </c>
-      <c r="C223" s="73"/>
+      <c r="C223" s="52"/>
       <c r="E223" s="45"/>
       <c r="F223" s="26">
         <f t="shared" si="3"/>
@@ -8383,34 +8225,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A93:A102"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L49"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N79:O79"/>
+  <mergeCells count="32">
     <mergeCell ref="A181:A190"/>
     <mergeCell ref="A192:A201"/>
     <mergeCell ref="A203:A212"/>
@@ -8420,14 +8235,37 @@
     <mergeCell ref="A148:A157"/>
     <mergeCell ref="A159:A168"/>
     <mergeCell ref="A170:A179"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="L44:M46"/>
+    <mergeCell ref="L41:M43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L83:M85"/>
+    <mergeCell ref="L80:M82"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
   </mergeCells>
   <conditionalFormatting sqref="E163:E168 E159:E161 F159:F168 E169:F194 E224:J1048576 E196:E201 F195:F201 E1:J128 E129:F158 E202:F223 G129:J223">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="R1:S46 R50:S85 R89:S1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D411A4-BF58-49A6-88AF-7C67A6C84ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE373D48-C09A-463B-B76E-CDFB3B78FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,6 +604,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,24 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,6 +677,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,40 +1000,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="16.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9"/>
     <col min="3" max="3" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="26" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="26" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" style="42" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="42" customWidth="1"/>
     <col min="12" max="12" width="15" style="10" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="10" customWidth="1"/>
     <col min="15" max="15" width="10" style="10" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="10"/>
-    <col min="18" max="19" width="8.88671875" style="11"/>
-    <col min="22" max="22" width="14.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="10"/>
+    <col min="18" max="19" width="8.85546875" style="11"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
     <col min="25" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="11.21875" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1067,10 +1070,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="64"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1087,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
@@ -1121,10 +1124,10 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83041008679626827</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1203,8 +1206,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
@@ -1238,8 +1241,8 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075305771950236</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
@@ -1298,8 +1301,8 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
@@ -1333,8 +1336,8 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8305399163171634</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="59"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1393,8 +1396,8 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
@@ -1428,10 +1431,10 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="81" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1510,8 +1513,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
@@ -1545,8 +1548,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8319563078227743</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1572,8 @@
         <v>6.6655886932566757</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
@@ -1604,8 +1607,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83195780034624467</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1686,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
@@ -1718,8 +1721,8 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83134461785840119</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65" t="s">
+      <c r="L8" s="82"/>
+      <c r="M8" s="81" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1744,8 +1747,8 @@
         <v>121.7775347805735</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
@@ -1779,8 +1782,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83053914726176314</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1803,8 +1806,8 @@
         <v>146.90984894706673</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
@@ -1838,8 +1841,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075329301905221</v>
       </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1865,8 @@
         <v>50.552204662252507</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>0.83282435452232617</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AE12" t="s">
         <v>63</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>7.8540000000000004E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AE13" t="s">
         <v>61</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>6.3616999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
@@ -1960,8 +1963,8 @@
         <v>3.6609999999999997E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
@@ -2006,8 +2009,8 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
@@ -2050,8 +2053,8 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
@@ -2094,8 +2097,8 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
@@ -2138,8 +2141,8 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
@@ -2182,8 +2185,8 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
@@ -2226,8 +2229,8 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
@@ -2270,8 +2273,8 @@
       <c r="R21"/>
       <c r="S21"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
@@ -2314,8 +2317,8 @@
       <c r="R22"/>
       <c r="S22"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
@@ -2358,8 +2361,8 @@
       <c r="R23"/>
       <c r="S23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -2412,7 +2415,7 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -2422,7 +2425,7 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -2462,8 +2465,8 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
@@ -2508,8 +2511,8 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
@@ -2552,8 +2555,8 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
@@ -2596,8 +2599,8 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
@@ -2640,8 +2643,8 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
@@ -2684,8 +2687,8 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
@@ -2728,8 +2731,8 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
@@ -2772,8 +2775,8 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
@@ -2816,8 +2819,8 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
@@ -2860,8 +2863,8 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -2914,7 +2917,7 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -2924,7 +2927,7 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>1</v>
       </c>
@@ -2955,14 +2958,14 @@
       <c r="J40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="69"/>
-      <c r="N40" s="68" t="s">
+      <c r="M40" s="64"/>
+      <c r="N40" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="69"/>
+      <c r="O40" s="64"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2976,8 +2979,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -3013,10 +3016,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82664492303399983</v>
       </c>
-      <c r="L41" s="72" t="s">
+      <c r="L41" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="73"/>
+      <c r="M41" s="68"/>
       <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
@@ -3039,8 +3042,8 @@
         <v>6.4707008451230319</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3074,8 +3077,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82631756904312459</v>
       </c>
-      <c r="L42" s="74"/>
-      <c r="M42" s="75"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="70"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3098,8 +3101,8 @@
         <v>8.2793968392054502</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3133,8 +3136,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82023164153674744</v>
       </c>
-      <c r="L43" s="76"/>
-      <c r="M43" s="77"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="72"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3157,8 +3160,8 @@
         <v>23.284922857424736</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3192,10 +3195,10 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="73"/>
+      <c r="M44" s="68"/>
       <c r="N44" s="36" t="s">
         <v>22</v>
       </c>
@@ -3218,8 +3221,8 @@
         <v>1.8528889958722261</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3253,8 +3256,8 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030382101804823</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="70"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
@@ -3277,8 +3280,8 @@
         <v>0.15385170121010172</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3312,8 +3315,8 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030366531794497</v>
       </c>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="72"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
@@ -3336,8 +3339,8 @@
         <v>8.62382859961264</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3380,8 +3383,8 @@
       <c r="R47"/>
       <c r="S47"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3424,8 +3427,8 @@
       <c r="R48"/>
       <c r="S48"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3468,8 +3471,8 @@
       <c r="R49"/>
       <c r="S49"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>0.83282435452232617</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>1</v>
       </c>
@@ -3544,8 +3547,8 @@
       <c r="R53"/>
       <c r="S53"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3590,8 +3593,8 @@
       <c r="R54"/>
       <c r="S54"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3634,8 +3637,8 @@
       <c r="R55"/>
       <c r="S55"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3678,8 +3681,8 @@
       <c r="R56"/>
       <c r="S56"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3722,8 +3725,8 @@
       <c r="R57"/>
       <c r="S57"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3766,8 +3769,8 @@
       <c r="R58"/>
       <c r="S58"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3810,8 +3813,8 @@
       <c r="R59"/>
       <c r="S59"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3854,8 +3857,8 @@
       <c r="R60"/>
       <c r="S60"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3898,8 +3901,8 @@
       <c r="R61"/>
       <c r="S61"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -3942,8 +3945,8 @@
       <c r="R62"/>
       <c r="S62"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -3986,7 +3989,7 @@
       <c r="R63"/>
       <c r="S63"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
@@ -3996,7 +3999,7 @@
       <c r="R64"/>
       <c r="S64"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
@@ -4006,7 +4009,7 @@
       <c r="R65"/>
       <c r="S65"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>1</v>
       </c>
@@ -4046,8 +4049,8 @@
       <c r="R66"/>
       <c r="S66"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="58" t="s">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4092,8 +4095,8 @@
       <c r="R67"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4136,8 +4139,8 @@
       <c r="R68"/>
       <c r="S68"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="58"/>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4180,8 +4183,8 @@
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="58"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="55"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4224,8 +4227,8 @@
       <c r="R70"/>
       <c r="S70"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="58"/>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4268,8 +4271,8 @@
       <c r="R71"/>
       <c r="S71"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="58"/>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4312,8 +4315,8 @@
       <c r="R72"/>
       <c r="S72"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="58"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4356,8 +4359,8 @@
       <c r="R73"/>
       <c r="S73"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="58"/>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4400,8 +4403,8 @@
       <c r="R74"/>
       <c r="S74"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="58"/>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4444,8 +4447,8 @@
       <c r="R75"/>
       <c r="S75"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="58"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4488,7 +4491,7 @@
       <c r="R76"/>
       <c r="S76"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
@@ -4498,7 +4501,7 @@
       <c r="R77"/>
       <c r="S77"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
@@ -4508,7 +4511,7 @@
       <c r="R78"/>
       <c r="S78"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>1</v>
       </c>
@@ -4539,14 +4542,14 @@
       <c r="J79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="70" t="s">
+      <c r="L79" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="71"/>
-      <c r="N79" s="70" t="s">
+      <c r="M79" s="66"/>
+      <c r="N79" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="71"/>
+      <c r="O79" s="66"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4560,8 +4563,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="54" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4597,30 +4600,34 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82942721161099864</v>
       </c>
-      <c r="L80" s="78" t="s">
+      <c r="L80" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="79"/>
+      <c r="M80" s="74"/>
       <c r="N80" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O80" s="23"/>
+      <c r="O80" s="51">
+        <v>25800000</v>
+      </c>
       <c r="P80" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P80" ca="1">INDIRECT(ADDRESS(Q80+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q80" s="23">
+        <v>2</v>
+      </c>
+      <c r="R80" s="24" cm="1">
         <f t="array" aca="1" ref="R80" ca="1">INDIRECT(ADDRESS(Q80+2,23))/(O80*INDIRECT(ADDRESS(Q80+2,27))*INDIRECT(ADDRESS(Q80+2,28))*INDIRECT(ADDRESS(Q80+2,29))*INDIRECT(ADDRESS(Q80+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S80" s="24" t="e" cm="1">
+        <v>2.640091089639427</v>
+      </c>
+      <c r="S80" s="24" cm="1">
         <f t="array" aca="1" ref="S80" ca="1">INDIRECT(ADDRESS(Q80+2,24))/(O80*INDIRECT(ADDRESS(Q80+2,27))*INDIRECT(ADDRESS(Q80+2,28))*INDIRECT(ADDRESS(Q80+2,29))*INDIRECT(ADDRESS(Q80+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
+        <v>2.4168321694748758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="57"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
@@ -4654,28 +4661,32 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52303942433178374</v>
       </c>
-      <c r="L81" s="80"/>
-      <c r="M81" s="81"/>
+      <c r="L81" s="75"/>
+      <c r="M81" s="76"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O81" s="23"/>
+      <c r="O81" s="51">
+        <v>13900000</v>
+      </c>
       <c r="P81" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P81" ca="1">INDIRECT(ADDRESS(Q81+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q81" s="23">
+        <v>2</v>
+      </c>
+      <c r="R81" s="24" cm="1">
         <f t="array" aca="1" ref="R81" ca="1">INDIRECT(ADDRESS(Q81+2,23))/(O81*INDIRECT(ADDRESS(Q81+2,27))*INDIRECT(ADDRESS(Q81+2,28))*INDIRECT(ADDRESS(Q81+2,29))*INDIRECT(ADDRESS(Q81+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S81" s="24" t="e" cm="1">
+        <v>5.7564280656616704</v>
+      </c>
+      <c r="S81" s="24" cm="1">
         <f t="array" aca="1" ref="S81" ca="1">INDIRECT(ADDRESS(Q81+2,24))/(O81*INDIRECT(ADDRESS(Q81+2,27))*INDIRECT(ADDRESS(Q81+2,28))*INDIRECT(ADDRESS(Q81+2,29))*INDIRECT(ADDRESS(Q81+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
+        <v>5.342033810967755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="57"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
@@ -4709,28 +4720,32 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.28630535620482012</v>
       </c>
-      <c r="L82" s="82"/>
-      <c r="M82" s="83"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="78"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O82" s="23"/>
+      <c r="O82" s="51">
+        <v>21100000</v>
+      </c>
       <c r="P82" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P82" ca="1">INDIRECT(ADDRESS(Q82+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q82" s="54">
+        <v>2</v>
+      </c>
+      <c r="R82" s="24" cm="1">
         <f t="array" aca="1" ref="R82" ca="1">INDIRECT(ADDRESS(Q82+2,23))/(O82*INDIRECT(ADDRESS(Q82+2,27))*INDIRECT(ADDRESS(Q82+2,28))*INDIRECT(ADDRESS(Q82+2,29))*INDIRECT(ADDRESS(Q82+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S82" s="24" t="e" cm="1">
+        <v>3.4509170669524742</v>
+      </c>
+      <c r="S82" s="24" cm="1">
         <f t="array" aca="1" ref="S82" ca="1">INDIRECT(ADDRESS(Q82+2,24))/(O82*INDIRECT(ADDRESS(Q82+2,27))*INDIRECT(ADDRESS(Q82+2,28))*INDIRECT(ADDRESS(Q82+2,29))*INDIRECT(ADDRESS(Q82+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
+        <v>3.1779274868460554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
@@ -4764,30 +4779,34 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="78" t="s">
+      <c r="L83" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="79"/>
+      <c r="M83" s="74"/>
       <c r="N83" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="O83" s="35"/>
+      <c r="O83" s="51">
+        <v>40200000</v>
+      </c>
       <c r="P83" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">INDIRECT(ADDRESS(Q83+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q83" s="54">
+        <v>2</v>
+      </c>
+      <c r="R83" s="24" cm="1">
         <f t="array" aca="1" ref="R83" ca="1">INDIRECT(ADDRESS(Q83+2,23))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S83" s="24" t="e" cm="1">
+        <v>1.3361778634999304</v>
+      </c>
+      <c r="S83" s="24" cm="1">
         <f t="array" aca="1" ref="S83" ca="1">INDIRECT(ADDRESS(Q83+2,24))/(O83*INDIRECT(ADDRESS(Q83+2,27))*INDIRECT(ADDRESS(Q83+2,28))*INDIRECT(ADDRESS(Q83+2,29))*INDIRECT(ADDRESS(Q83+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
+        <v>1.1928922878719348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="57"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
@@ -4821,28 +4840,32 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8029334242470334</v>
       </c>
-      <c r="L84" s="80"/>
-      <c r="M84" s="81"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="76"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O84" s="35"/>
+      <c r="O84" s="51">
+        <v>38400000</v>
+      </c>
       <c r="P84" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P84" ca="1">INDIRECT(ADDRESS(Q84+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q84" s="54">
+        <v>2</v>
+      </c>
+      <c r="R84" s="24" cm="1">
         <f t="array" aca="1" ref="R84" ca="1">INDIRECT(ADDRESS(Q84+2,23))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S84" s="24" t="e" cm="1">
+        <v>1.4456862008514895</v>
+      </c>
+      <c r="S84" s="24" cm="1">
         <f t="array" aca="1" ref="S84" ca="1">INDIRECT(ADDRESS(Q84+2,24))/(O84*INDIRECT(ADDRESS(Q84+2,27))*INDIRECT(ADDRESS(Q84+2,28))*INDIRECT(ADDRESS(Q84+2,29))*INDIRECT(ADDRESS(Q84+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
+        <v>1.2956841138659314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
@@ -4876,28 +4899,32 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.80289048987362932</v>
       </c>
-      <c r="L85" s="82"/>
-      <c r="M85" s="83"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="78"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O85" s="35"/>
+      <c r="O85" s="51">
+        <v>46700000</v>
+      </c>
       <c r="P85" s="24" t="str" cm="1">
         <f t="array" aca="1" ref="P85" ca="1">INDIRECT(ADDRESS(Q85+2,22))</f>
-        <v>Material</v>
-      </c>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="24" t="e" cm="1">
+        <v>CFRP</v>
+      </c>
+      <c r="Q85" s="54">
+        <v>2</v>
+      </c>
+      <c r="R85" s="24" cm="1">
         <f t="array" aca="1" ref="R85" ca="1">INDIRECT(ADDRESS(Q85+2,23))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,30))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S85" s="24" t="e" cm="1">
+        <v>1.0110139210427662</v>
+      </c>
+      <c r="S85" s="24" cm="1">
         <f t="array" aca="1" ref="S85" ca="1">INDIRECT(ADDRESS(Q85+2,24))/(O85*INDIRECT(ADDRESS(Q85+2,27))*INDIRECT(ADDRESS(Q85+2,28))*INDIRECT(ADDRESS(Q85+2,29))*INDIRECT(ADDRESS(Q85+2,31))) -1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
+        <v>0.88767173388547693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
@@ -4940,8 +4967,8 @@
       <c r="R86"/>
       <c r="S86"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="57"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
@@ -4984,8 +5011,8 @@
       <c r="R87"/>
       <c r="S87"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="57"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
@@ -5028,8 +5055,8 @@
       <c r="R88"/>
       <c r="S88"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
@@ -5064,7 +5091,7 @@
         <v>0.83282435452232617</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>1</v>
       </c>
@@ -5104,8 +5131,8 @@
       <c r="R92"/>
       <c r="S92"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="57" t="s">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5150,8 +5177,8 @@
       <c r="R93"/>
       <c r="S93"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="59"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5194,8 +5221,8 @@
       <c r="R94"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="59"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5238,8 +5265,8 @@
       <c r="R95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
@@ -5282,8 +5309,8 @@
       <c r="R96"/>
       <c r="S96"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
@@ -5326,8 +5353,8 @@
       <c r="R97"/>
       <c r="S97"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="59"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
@@ -5370,8 +5397,8 @@
       <c r="R98"/>
       <c r="S98"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
@@ -5414,8 +5441,8 @@
       <c r="R99"/>
       <c r="S99"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
@@ -5458,8 +5485,8 @@
       <c r="R100"/>
       <c r="S100"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
@@ -5502,8 +5529,8 @@
       <c r="R101"/>
       <c r="S101"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
@@ -5546,7 +5573,7 @@
       <c r="R102"/>
       <c r="S102"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -5556,7 +5583,7 @@
       <c r="R103"/>
       <c r="S103"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -5566,7 +5593,7 @@
       <c r="R104"/>
       <c r="S104"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>1</v>
       </c>
@@ -5606,8 +5633,8 @@
       <c r="R105"/>
       <c r="S105"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="57" t="s">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -5652,8 +5679,8 @@
       <c r="R106"/>
       <c r="S106"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="59"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
@@ -5696,8 +5723,8 @@
       <c r="R107"/>
       <c r="S107"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="59"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
@@ -5740,8 +5767,8 @@
       <c r="R108"/>
       <c r="S108"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
@@ -5784,8 +5811,8 @@
       <c r="R109"/>
       <c r="S109"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="59"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
@@ -5828,8 +5855,8 @@
       <c r="R110"/>
       <c r="S110"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
@@ -5872,8 +5899,8 @@
       <c r="R111"/>
       <c r="S111"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
@@ -5916,8 +5943,8 @@
       <c r="R112"/>
       <c r="S112"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="59"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
@@ -5960,8 +5987,8 @@
       <c r="R113"/>
       <c r="S113"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="59"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
@@ -6004,8 +6031,8 @@
       <c r="R114"/>
       <c r="S114"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="57"/>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
@@ -6048,7 +6075,7 @@
       <c r="R115"/>
       <c r="S115"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
@@ -6058,7 +6085,7 @@
       <c r="R116"/>
       <c r="S116"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
@@ -6068,16 +6095,16 @@
       <c r="R117"/>
       <c r="S117"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L126" s="16"/>
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>1</v>
       </c>
@@ -6100,8 +6127,8 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="59" t="s">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B128" s="35">
@@ -6128,8 +6155,8 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A129" s="59"/>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="60"/>
       <c r="B129" s="35">
         <v>40240</v>
       </c>
@@ -6156,8 +6183,8 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A130" s="59"/>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="60"/>
       <c r="B130" s="35">
         <v>40250</v>
       </c>
@@ -6184,8 +6211,8 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A131" s="59"/>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="60"/>
       <c r="B131" s="35">
         <v>40360</v>
       </c>
@@ -6203,8 +6230,8 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="59"/>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="60"/>
       <c r="B132" s="35">
         <v>40390</v>
       </c>
@@ -6231,8 +6258,8 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="59"/>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="60"/>
       <c r="B133" s="35">
         <v>40710</v>
       </c>
@@ -6259,8 +6286,8 @@
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A134" s="59"/>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="60"/>
       <c r="B134" s="35">
         <v>40740</v>
       </c>
@@ -6285,8 +6312,8 @@
       <c r="J134" s="42"/>
       <c r="L134" s="39"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="59"/>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="60"/>
       <c r="B135" s="35">
         <v>40750</v>
       </c>
@@ -6311,8 +6338,8 @@
       <c r="J135" s="42"/>
       <c r="L135" s="39"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="59"/>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="60"/>
       <c r="B136" s="35">
         <v>40760</v>
       </c>
@@ -6337,8 +6364,8 @@
       <c r="J136" s="42"/>
       <c r="L136" s="39"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="59"/>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="60"/>
       <c r="B137" s="35">
         <v>40770</v>
       </c>
@@ -6354,8 +6381,8 @@
       <c r="J137" s="42"/>
       <c r="L137" s="39"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="60" t="s">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B138" s="35">
@@ -6382,8 +6409,8 @@
       <c r="J138" s="42"/>
       <c r="L138" s="39"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="61"/>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="62"/>
       <c r="B139" s="35">
         <v>40240</v>
       </c>
@@ -6408,8 +6435,8 @@
       <c r="J139" s="42"/>
       <c r="L139" s="39"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="61"/>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="62"/>
       <c r="B140" s="35">
         <v>40250</v>
       </c>
@@ -6434,8 +6461,8 @@
       <c r="J140" s="42"/>
       <c r="L140" s="39"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="61"/>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="62"/>
       <c r="B141" s="35">
         <v>40360</v>
       </c>
@@ -6451,8 +6478,8 @@
       <c r="J141" s="42"/>
       <c r="L141" s="39"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="61"/>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="62"/>
       <c r="B142" s="35">
         <v>40390</v>
       </c>
@@ -6477,8 +6504,8 @@
       <c r="J142" s="42"/>
       <c r="L142" s="39"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="61"/>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="62"/>
       <c r="B143" s="35">
         <v>40710</v>
       </c>
@@ -6503,8 +6530,8 @@
       <c r="J143" s="42"/>
       <c r="L143" s="39"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="61"/>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="62"/>
       <c r="B144" s="35">
         <v>40740</v>
       </c>
@@ -6529,8 +6556,8 @@
       <c r="J144" s="42"/>
       <c r="L144" s="39"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="61"/>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="62"/>
       <c r="B145" s="35">
         <v>40750</v>
       </c>
@@ -6555,8 +6582,8 @@
       <c r="J145" s="42"/>
       <c r="L145" s="39"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="61"/>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="62"/>
       <c r="B146" s="35">
         <v>40760</v>
       </c>
@@ -6581,8 +6608,8 @@
       <c r="J146" s="42"/>
       <c r="L146" s="39"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="61"/>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="62"/>
       <c r="B147" s="35">
         <v>40770</v>
       </c>
@@ -6598,8 +6625,8 @@
       <c r="J147" s="42"/>
       <c r="L147" s="39"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="60" t="s">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="35">
@@ -6626,8 +6653,8 @@
       <c r="J148" s="42"/>
       <c r="L148" s="39"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="61"/>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="62"/>
       <c r="B149" s="35">
         <v>40240</v>
       </c>
@@ -6652,8 +6679,8 @@
       <c r="J149" s="42"/>
       <c r="L149" s="39"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="61"/>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="62"/>
       <c r="B150" s="35">
         <v>40250</v>
       </c>
@@ -6678,8 +6705,8 @@
       <c r="J150" s="42"/>
       <c r="L150" s="39"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="61"/>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="62"/>
       <c r="B151" s="35">
         <v>40360</v>
       </c>
@@ -6695,8 +6722,8 @@
       <c r="J151" s="42"/>
       <c r="L151" s="39"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="61"/>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="62"/>
       <c r="B152" s="35">
         <v>40390</v>
       </c>
@@ -6721,8 +6748,8 @@
       <c r="J152" s="42"/>
       <c r="L152" s="39"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="61"/>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="62"/>
       <c r="B153" s="35">
         <v>40710</v>
       </c>
@@ -6744,8 +6771,8 @@
         <v>246.21966422535979</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="61"/>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="62"/>
       <c r="B154" s="35">
         <v>40740</v>
       </c>
@@ -6767,8 +6794,8 @@
         <v>516.53805541108568</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="61"/>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="62"/>
       <c r="B155" s="35">
         <v>40750</v>
       </c>
@@ -6790,8 +6817,8 @@
         <v>397.43381468558431</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="61"/>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="62"/>
       <c r="B156" s="35">
         <v>40760</v>
       </c>
@@ -6813,8 +6840,8 @@
         <v>283.24009322782172</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="61"/>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="62"/>
       <c r="B157" s="35">
         <v>40770</v>
       </c>
@@ -6829,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>1</v>
       </c>
@@ -6844,8 +6871,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="58" t="s">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="35">
@@ -6869,8 +6896,8 @@
         <v>691.85613928286932</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="58"/>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="55"/>
       <c r="B160" s="35">
         <v>40240</v>
       </c>
@@ -6892,8 +6919,8 @@
         <v>770.05832331724548</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="58"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="55"/>
       <c r="B161" s="35">
         <v>40250</v>
       </c>
@@ -6915,8 +6942,8 @@
         <v>1078.8142927535805</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="58"/>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="55"/>
       <c r="B162" s="35">
         <v>40360</v>
       </c>
@@ -6929,8 +6956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="58"/>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="55"/>
       <c r="B163" s="35">
         <v>40390</v>
       </c>
@@ -6952,8 +6979,8 @@
         <v>434.71005766385548</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="58"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="55"/>
       <c r="B164" s="35">
         <v>40710</v>
       </c>
@@ -6975,8 +7002,8 @@
         <v>434.76289217237417</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="58"/>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="55"/>
       <c r="B165" s="35">
         <v>40740</v>
       </c>
@@ -6998,8 +7025,8 @@
         <v>1037.6766423498807</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="58"/>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="55"/>
       <c r="B166" s="35">
         <v>40750</v>
       </c>
@@ -7021,8 +7048,8 @@
         <v>1079.2374514890096</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="58"/>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="55"/>
       <c r="B167" s="35">
         <v>40760</v>
       </c>
@@ -7044,8 +7071,8 @@
         <v>770.24624665345038</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="58"/>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="55"/>
       <c r="B168" s="35">
         <v>40770</v>
       </c>
@@ -7060,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>1</v>
       </c>
@@ -7075,8 +7102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="58" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="35">
@@ -7100,8 +7127,8 @@
         <v>523.26373683203974</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="58"/>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="55"/>
       <c r="B171" s="35">
         <v>40240</v>
       </c>
@@ -7123,8 +7150,8 @@
         <v>582.83598886207665</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="58"/>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="55"/>
       <c r="B172" s="35">
         <v>40250</v>
       </c>
@@ -7146,8 +7173,8 @@
         <v>857.55671171378231</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="58"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="55"/>
       <c r="B173" s="35">
         <v>40360</v>
       </c>
@@ -7163,8 +7190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="58"/>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="55"/>
       <c r="B174" s="35">
         <v>40390</v>
       </c>
@@ -7186,8 +7213,8 @@
         <v>457.84294746712669</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="58"/>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="55"/>
       <c r="B175" s="35">
         <v>40710</v>
       </c>
@@ -7209,8 +7236,8 @@
         <v>457.94261458837536</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="58"/>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="55"/>
       <c r="B176" s="35">
         <v>40740</v>
       </c>
@@ -7232,8 +7259,8 @@
         <v>946.24382114477976</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="58"/>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="55"/>
       <c r="B177" s="35">
         <v>40750</v>
       </c>
@@ -7255,8 +7282,8 @@
         <v>857.87643884235001</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="58"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="55"/>
       <c r="B178" s="35">
         <v>40760</v>
       </c>
@@ -7278,8 +7305,8 @@
         <v>582.96621254895524</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="58"/>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="55"/>
       <c r="B179" s="35">
         <v>40770</v>
       </c>
@@ -7294,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>1</v>
       </c>
@@ -7309,8 +7336,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="58" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="35">
@@ -7334,8 +7361,8 @@
         <v>105.6895472386293</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="58"/>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="55"/>
       <c r="B182" s="35">
         <v>40240</v>
       </c>
@@ -7357,8 +7384,8 @@
         <v>84.322759228857649</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="58"/>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="55"/>
       <c r="B183" s="35">
         <v>40250</v>
       </c>
@@ -7380,8 +7407,8 @@
         <v>115.23616927642703</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="58"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="55"/>
       <c r="B184" s="35">
         <v>40360</v>
       </c>
@@ -7396,8 +7423,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="58"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="55"/>
       <c r="B185" s="35">
         <v>40390</v>
       </c>
@@ -7419,8 +7446,8 @@
         <v>74.478686585170564</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="58"/>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="55"/>
       <c r="B186" s="35">
         <v>40710</v>
       </c>
@@ -7442,8 +7469,8 @@
         <v>74.538305248268884</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="58"/>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="55"/>
       <c r="B187" s="35">
         <v>40740</v>
       </c>
@@ -7465,8 +7492,8 @@
         <v>147.43964210554773</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="58"/>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="55"/>
       <c r="B188" s="35">
         <v>40750</v>
       </c>
@@ -7488,8 +7515,8 @@
         <v>115.22688220934388</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="58"/>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="55"/>
       <c r="B189" s="35">
         <v>40760</v>
       </c>
@@ -7511,8 +7538,8 @@
         <v>84.27889706774225</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="58"/>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="55"/>
       <c r="B190" s="35">
         <v>40770</v>
       </c>
@@ -7527,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="21" t="s">
         <v>1</v>
       </c>
@@ -7542,8 +7569,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="54" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="56" t="s">
         <v>60</v>
       </c>
       <c r="B192" s="35">
@@ -7567,8 +7594,8 @@
         <v>63.590456816631459</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="55"/>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="57"/>
       <c r="B193" s="35">
         <v>40240</v>
       </c>
@@ -7590,8 +7617,8 @@
         <v>6254.3874766060389</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="55"/>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="57"/>
       <c r="B194" s="35">
         <v>40250</v>
       </c>
@@ -7613,8 +7640,8 @@
         <v>9482.5288112684048</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="55"/>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="57"/>
       <c r="B195" s="35">
         <v>40360</v>
       </c>
@@ -7627,8 +7654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="55"/>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="57"/>
       <c r="B196" s="35">
         <v>40390</v>
       </c>
@@ -7650,8 +7677,8 @@
         <v>1689.0842550621214</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="55"/>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="57"/>
       <c r="B197" s="35">
         <v>40710</v>
       </c>
@@ -7673,8 +7700,8 @@
         <v>1690.3816694725656</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="55"/>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="57"/>
       <c r="B198" s="35">
         <v>40740</v>
       </c>
@@ -7696,8 +7723,8 @@
         <v>11155.285192415331</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="55"/>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="57"/>
       <c r="B199" s="35">
         <v>40750</v>
       </c>
@@ -7719,8 +7746,8 @@
         <v>9488.4603473035022</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="55"/>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="57"/>
       <c r="B200" s="35">
         <v>40760</v>
       </c>
@@ -7742,8 +7769,8 @@
         <v>6257.3159479143187</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="56"/>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="58"/>
       <c r="B201" s="35">
         <v>40770</v>
       </c>
@@ -7758,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>1</v>
       </c>
@@ -7773,8 +7800,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="57" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="59" t="s">
         <v>59</v>
       </c>
       <c r="B203" s="35">
@@ -7798,8 +7825,8 @@
         <v>2831.2021698263125</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="57"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="59"/>
       <c r="B204" s="35">
         <v>40240</v>
       </c>
@@ -7821,8 +7848,8 @@
         <v>3534.0541264396938</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="57"/>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="59"/>
       <c r="B205" s="35">
         <v>40250</v>
       </c>
@@ -7844,8 +7871,8 @@
         <v>5874.1885313813482</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="57"/>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="59"/>
       <c r="B206" s="35">
         <v>40360</v>
       </c>
@@ -7860,8 +7887,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="57"/>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="59"/>
       <c r="B207" s="35">
         <v>40390</v>
       </c>
@@ -7883,8 +7910,8 @@
         <v>2061.490927255792</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="57"/>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="59"/>
       <c r="B208" s="35">
         <v>40710</v>
       </c>
@@ -7906,8 +7933,8 @@
         <v>2062.9026876267167</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="57"/>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="59"/>
       <c r="B209" s="35">
         <v>40740</v>
       </c>
@@ -7929,8 +7956,8 @@
         <v>9323.845510420535</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="57"/>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="59"/>
       <c r="B210" s="35">
         <v>40750</v>
       </c>
@@ -7952,8 +7979,8 @@
         <v>5878.1486519465689</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="57"/>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="59"/>
       <c r="B211" s="35">
         <v>40760</v>
       </c>
@@ -7975,8 +8002,8 @@
         <v>3535.8743113913051</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="57"/>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="59"/>
       <c r="B212" s="35">
         <v>40770</v>
       </c>
@@ -7991,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
         <v>1</v>
       </c>
@@ -8006,8 +8033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="57" t="s">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="59" t="s">
         <v>58</v>
       </c>
       <c r="B214" s="35">
@@ -8031,8 +8058,8 @@
         <v>33677.872984436864</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="57"/>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="59"/>
       <c r="B215" s="35">
         <v>40240</v>
       </c>
@@ -8054,8 +8081,8 @@
         <v>26261.303172385247</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="57"/>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="59"/>
       <c r="B216" s="35">
         <v>40250</v>
       </c>
@@ -8077,8 +8104,8 @@
         <v>42556.288459396055</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="57"/>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="59"/>
       <c r="B217" s="35">
         <v>40360</v>
       </c>
@@ -8093,8 +8120,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="57"/>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="59"/>
       <c r="B218" s="35">
         <v>40390</v>
       </c>
@@ -8116,8 +8143,8 @@
         <v>16930.432498675298</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="57"/>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="59"/>
       <c r="B219" s="35">
         <v>40710</v>
       </c>
@@ -8139,8 +8166,8 @@
         <v>16981.967032889428</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="57"/>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="59"/>
       <c r="B220" s="35">
         <v>40740</v>
       </c>
@@ -8162,8 +8189,8 @@
         <v>68704.495308561833</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="57"/>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="59"/>
       <c r="B221" s="35">
         <v>40750</v>
       </c>
@@ -8185,8 +8212,8 @@
         <v>41141.152498805204</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="57"/>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="59"/>
       <c r="B222" s="35">
         <v>40760</v>
       </c>
@@ -8208,8 +8235,8 @@
         <v>26013.410657369503</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="57"/>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="59"/>
       <c r="B223" s="35">
         <v>40770</v>
       </c>
@@ -8226,6 +8253,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="L83:M85"/>
+    <mergeCell ref="L80:M82"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="L44:M46"/>
+    <mergeCell ref="L41:M43"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="A181:A190"/>
     <mergeCell ref="A192:A201"/>
     <mergeCell ref="A203:A212"/>
@@ -8235,29 +8285,6 @@
     <mergeCell ref="A148:A157"/>
     <mergeCell ref="A159:A168"/>
     <mergeCell ref="A170:A179"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="L44:M46"/>
-    <mergeCell ref="L41:M43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L83:M85"/>
-    <mergeCell ref="L80:M82"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A93:A102"/>
   </mergeCells>
   <conditionalFormatting sqref="E163:E168 E159:E161 F159:F168 E169:F194 E224:J1048576 E196:E201 F195:F201 E1:J128 E129:F158 E202:F223 G129:J223">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D411A4-BF58-49A6-88AF-7C67A6C84ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF4696-2A90-4A4E-A5A3-7DC66AC09D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,6 +604,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,24 +626,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,6 +674,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,10 +1067,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="64"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1121,7 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83041008679626827</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="80" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="59" t="s">
@@ -1238,7 +1238,7 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075305771950236</v>
       </c>
-      <c r="L3" s="66"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="59"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8305399163171634</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="59"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
@@ -1428,10 +1428,10 @@
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="80" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1545,8 +1545,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8319563078227743</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1604,8 +1604,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83195780034624467</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="82"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1718,8 +1718,8 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83134461785840119</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65" t="s">
+      <c r="L8" s="81"/>
+      <c r="M8" s="80" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1779,8 +1779,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83053914726176314</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1838,8 +1838,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075329301905221</v>
       </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
@@ -2955,14 +2955,14 @@
       <c r="J40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="69"/>
-      <c r="N40" s="68" t="s">
+      <c r="M40" s="63"/>
+      <c r="N40" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="69"/>
+      <c r="O40" s="63"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -3013,10 +3013,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82664492303399983</v>
       </c>
-      <c r="L41" s="72" t="s">
+      <c r="L41" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="73"/>
+      <c r="M41" s="67"/>
       <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3074,8 +3074,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82631756904312459</v>
       </c>
-      <c r="L42" s="74"/>
-      <c r="M42" s="75"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="69"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3133,8 +3133,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82023164153674744</v>
       </c>
-      <c r="L43" s="76"/>
-      <c r="M43" s="77"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="71"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
@@ -3192,10 +3192,10 @@
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L44" s="72" t="s">
+      <c r="L44" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="73"/>
+      <c r="M44" s="67"/>
       <c r="N44" s="36" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3253,8 +3253,8 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030382101804823</v>
       </c>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="69"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3312,8 +3312,8 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030366531794497</v>
       </c>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="71"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="S47"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="S48"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="S49"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3591,7 +3591,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="58"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="58"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="58"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="58"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4093,7 +4093,7 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="58"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="58"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="58"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="58"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="58"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="58"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="58"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="58"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
@@ -4539,14 +4539,14 @@
       <c r="J79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="70" t="s">
+      <c r="L79" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="71"/>
-      <c r="N79" s="70" t="s">
+      <c r="M79" s="65"/>
+      <c r="N79" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="71"/>
+      <c r="O79" s="65"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="55" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4597,10 +4597,10 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82942721161099864</v>
       </c>
-      <c r="L80" s="78" t="s">
+      <c r="L80" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="79"/>
+      <c r="M80" s="73"/>
       <c r="N80" s="23" t="s">
         <v>22</v>
       </c>
@@ -4620,7 +4620,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
@@ -4654,8 +4654,8 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52303942433178374</v>
       </c>
-      <c r="L81" s="80"/>
-      <c r="M81" s="81"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="75"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="55"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
@@ -4709,8 +4709,8 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.28630535620482012</v>
       </c>
-      <c r="L82" s="82"/>
-      <c r="M82" s="83"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="77"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
@@ -4764,10 +4764,10 @@
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83282435452232617</v>
       </c>
-      <c r="L83" s="78" t="s">
+      <c r="L83" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="79"/>
+      <c r="M83" s="73"/>
       <c r="N83" s="35" t="s">
         <v>22</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
@@ -4821,8 +4821,8 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8029334242470334</v>
       </c>
-      <c r="L84" s="80"/>
-      <c r="M84" s="81"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="75"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
@@ -4876,8 +4876,8 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.80289048987362932</v>
       </c>
-      <c r="L85" s="82"/>
-      <c r="M85" s="83"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="77"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="S86"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="S88"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5151,7 +5151,7 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="S96"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="23">
         <v>40390</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="S97"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="23">
         <v>40710</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="S98"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="23">
         <v>40740</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="S99"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="23">
         <v>40750</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="S100"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="23">
         <v>40760</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="S101"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="23">
         <v>40770</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="S105"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B106" s="23">
@@ -5653,7 +5653,7 @@
       <c r="S106"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="23">
         <v>40240</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="S107"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="23">
         <v>40250</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="S108"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="23">
         <v>40360</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="S109"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="23">
         <v>40390</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="S110"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="23">
         <v>40710</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="S111"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="23">
         <v>40740</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="S112"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="23">
         <v>40750</v>
       </c>
@@ -5961,7 +5961,7 @@
       <c r="S113"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="23">
         <v>40760</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="S114"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="57"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="23">
         <v>40770</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="58" t="s">
+      <c r="A159" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B159" s="35">
@@ -6870,7 +6870,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="58"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="35">
         <v>40240</v>
       </c>
@@ -6893,7 +6893,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="58"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="35">
         <v>40250</v>
       </c>
@@ -6916,7 +6916,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="58"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="35">
         <v>40360</v>
       </c>
@@ -6930,7 +6930,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="58"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="35">
         <v>40390</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="58"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="35">
         <v>40710</v>
       </c>
@@ -6976,7 +6976,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="58"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="35">
         <v>40740</v>
       </c>
@@ -6999,7 +6999,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="58"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="35">
         <v>40750</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="58"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="35">
         <v>40760</v>
       </c>
@@ -7045,7 +7045,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="58"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="35">
         <v>40770</v>
       </c>
@@ -7076,7 +7076,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="58" t="s">
+      <c r="A170" s="54" t="s">
         <v>31</v>
       </c>
       <c r="B170" s="35">
@@ -7101,7 +7101,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="58"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="35">
         <v>40240</v>
       </c>
@@ -7124,7 +7124,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="58"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="35">
         <v>40250</v>
       </c>
@@ -7147,7 +7147,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="58"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="35">
         <v>40360</v>
       </c>
@@ -7164,7 +7164,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="58"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="35">
         <v>40390</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="58"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="35">
         <v>40710</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="58"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="35">
         <v>40740</v>
       </c>
@@ -7233,7 +7233,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="58"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="35">
         <v>40750</v>
       </c>
@@ -7256,7 +7256,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="58"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="35">
         <v>40760</v>
       </c>
@@ -7279,7 +7279,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="58"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="35">
         <v>40770</v>
       </c>
@@ -7310,7 +7310,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="58" t="s">
+      <c r="A181" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B181" s="35">
@@ -7335,7 +7335,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="58"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="35">
         <v>40240</v>
       </c>
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="58"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="35">
         <v>40250</v>
       </c>
@@ -7381,7 +7381,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="58"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="35">
         <v>40360</v>
       </c>
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="58"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="35">
         <v>40390</v>
       </c>
@@ -7420,7 +7420,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="58"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="35">
         <v>40710</v>
       </c>
@@ -7443,7 +7443,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="58"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="35">
         <v>40740</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="58"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="35">
         <v>40750</v>
       </c>
@@ -7489,7 +7489,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="58"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="35">
         <v>40760</v>
       </c>
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="58"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="35">
         <v>40770</v>
       </c>
@@ -7543,7 +7543,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="54" t="s">
+      <c r="A192" s="55" t="s">
         <v>60</v>
       </c>
       <c r="B192" s="35">
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="55"/>
+      <c r="A193" s="56"/>
       <c r="B193" s="35">
         <v>40240</v>
       </c>
@@ -7591,7 +7591,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="55"/>
+      <c r="A194" s="56"/>
       <c r="B194" s="35">
         <v>40250</v>
       </c>
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="55"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="35">
         <v>40360</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="55"/>
+      <c r="A196" s="56"/>
       <c r="B196" s="35">
         <v>40390</v>
       </c>
@@ -7651,7 +7651,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="55"/>
+      <c r="A197" s="56"/>
       <c r="B197" s="35">
         <v>40710</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="55"/>
+      <c r="A198" s="56"/>
       <c r="B198" s="35">
         <v>40740</v>
       </c>
@@ -7697,7 +7697,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="55"/>
+      <c r="A199" s="56"/>
       <c r="B199" s="35">
         <v>40750</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="55"/>
+      <c r="A200" s="56"/>
       <c r="B200" s="35">
         <v>40760</v>
       </c>
@@ -7743,7 +7743,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="56"/>
+      <c r="A201" s="57"/>
       <c r="B201" s="35">
         <v>40770</v>
       </c>
@@ -7774,7 +7774,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="57" t="s">
+      <c r="A203" s="58" t="s">
         <v>59</v>
       </c>
       <c r="B203" s="35">
@@ -7799,7 +7799,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="57"/>
+      <c r="A204" s="58"/>
       <c r="B204" s="35">
         <v>40240</v>
       </c>
@@ -7822,7 +7822,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="57"/>
+      <c r="A205" s="58"/>
       <c r="B205" s="35">
         <v>40250</v>
       </c>
@@ -7845,7 +7845,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="57"/>
+      <c r="A206" s="58"/>
       <c r="B206" s="35">
         <v>40360</v>
       </c>
@@ -7861,7 +7861,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="57"/>
+      <c r="A207" s="58"/>
       <c r="B207" s="35">
         <v>40390</v>
       </c>
@@ -7884,7 +7884,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="57"/>
+      <c r="A208" s="58"/>
       <c r="B208" s="35">
         <v>40710</v>
       </c>
@@ -7907,7 +7907,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="57"/>
+      <c r="A209" s="58"/>
       <c r="B209" s="35">
         <v>40740</v>
       </c>
@@ -7930,7 +7930,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="57"/>
+      <c r="A210" s="58"/>
       <c r="B210" s="35">
         <v>40750</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="57"/>
+      <c r="A211" s="58"/>
       <c r="B211" s="35">
         <v>40760</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="57"/>
+      <c r="A212" s="58"/>
       <c r="B212" s="35">
         <v>40770</v>
       </c>
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="57" t="s">
+      <c r="A214" s="58" t="s">
         <v>58</v>
       </c>
       <c r="B214" s="35">
@@ -8032,7 +8032,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="57"/>
+      <c r="A215" s="58"/>
       <c r="B215" s="35">
         <v>40240</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="57"/>
+      <c r="A216" s="58"/>
       <c r="B216" s="35">
         <v>40250</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="57"/>
+      <c r="A217" s="58"/>
       <c r="B217" s="35">
         <v>40360</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="57"/>
+      <c r="A218" s="58"/>
       <c r="B218" s="35">
         <v>40390</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="57"/>
+      <c r="A219" s="58"/>
       <c r="B219" s="35">
         <v>40710</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="57"/>
+      <c r="A220" s="58"/>
       <c r="B220" s="35">
         <v>40740</v>
       </c>
@@ -8163,7 +8163,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="57"/>
+      <c r="A221" s="58"/>
       <c r="B221" s="35">
         <v>40750</v>
       </c>
@@ -8186,7 +8186,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="57"/>
+      <c r="A222" s="58"/>
       <c r="B222" s="35">
         <v>40760</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="57"/>
+      <c r="A223" s="58"/>
       <c r="B223" s="35">
         <v>40770</v>
       </c>
@@ -8226,6 +8226,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A67:A76"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A93:A102"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="L83:M85"/>
+    <mergeCell ref="L80:M82"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="L44:M46"/>
+    <mergeCell ref="L41:M43"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="A181:A190"/>
     <mergeCell ref="A192:A201"/>
     <mergeCell ref="A203:A212"/>
@@ -8235,29 +8258,6 @@
     <mergeCell ref="A148:A157"/>
     <mergeCell ref="A159:A168"/>
     <mergeCell ref="A170:A179"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="L44:M46"/>
-    <mergeCell ref="L41:M43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L83:M85"/>
-    <mergeCell ref="L80:M82"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A67:A76"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A93:A102"/>
   </mergeCells>
   <conditionalFormatting sqref="E163:E168 E159:E161 F159:F168 E169:F194 E224:J1048576 E196:E201 F195:F201 E1:J128 E129:F158 E202:F223 G129:J223">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/Satelite/Satelite.xlsx
+++ b/Satelite/Satelite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\EUE\Practica2_EUE\Satelite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF4696-2A90-4A4E-A5A3-7DC66AC09D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE36327-7224-43F2-A002-FC83049E5CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4368" yWindow="780" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -469,11 +469,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,7 +622,22 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,28 +649,49 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,47 +712,89 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -716,6 +812,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF3300"/>
@@ -740,7 +902,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -997,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:S46"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,10 +1229,10 @@
       <c r="M1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="79"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1247,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="8">
@@ -1121,10 +1283,10 @@
         <f t="array" aca="1" ref="J2" ca="1">1/((D2*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C2*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83041008679626827</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="56" t="s">
         <v>57</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -1204,7 +1366,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="8">
         <v>40240</v>
       </c>
@@ -1238,8 +1400,8 @@
         <f t="array" aca="1" ref="J3" ca="1">1/((D3*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C3*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075305771950236</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="59"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="13" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1461,7 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="8">
         <v>40250</v>
       </c>
@@ -1333,8 +1495,8 @@
         <f t="array" aca="1" ref="J4" ca="1">1/((D4*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C4*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8305399163171634</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="59"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1394,44 +1556,44 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="8">
         <v>40360</v>
       </c>
       <c r="C5" s="34">
-        <v>0</v>
+        <v>317.17411000000004</v>
       </c>
       <c r="D5" s="34">
-        <v>0</v>
+        <v>83.127620352914519</v>
       </c>
       <c r="E5" s="41" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58202595329523055</v>
       </c>
       <c r="F5" s="41" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G5" s="41" t="e" cm="1">
+        <v>0.83141790143665495</v>
+      </c>
+      <c r="G5" s="41" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C5*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="41" t="e" cm="1">
+        <v>29.997956711376386</v>
+      </c>
+      <c r="H5" s="41" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C5)*INDIRECT(ADDRESS(5,38))/(D5*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>21.231356783117025</v>
       </c>
       <c r="I5" s="41" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">1/((D5*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58199196519093377</v>
       </c>
       <c r="J5" s="41" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">1/((D5*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C5*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L5" s="80" t="s">
+        <v>0.83134556262872294</v>
+      </c>
+      <c r="L5" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="73" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="37" t="s">
@@ -1511,7 +1673,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="8">
         <v>40390</v>
       </c>
@@ -1545,8 +1707,8 @@
         <f t="array" aca="1" ref="J6" ca="1">1/((D6*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C6*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8319563078227743</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1732,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="8">
         <v>40710</v>
       </c>
@@ -1604,8 +1766,8 @@
         <f t="array" aca="1" ref="J7" ca="1">1/((D7*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C7*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83195780034624467</v>
       </c>
-      <c r="L7" s="81"/>
-      <c r="M7" s="82"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1846,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="8">
         <v>40740</v>
       </c>
@@ -1718,8 +1880,8 @@
         <f t="array" aca="1" ref="J8" ca="1">1/((D8*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C8*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83134461785840119</v>
       </c>
-      <c r="L8" s="81"/>
-      <c r="M8" s="80" t="s">
+      <c r="L8" s="74"/>
+      <c r="M8" s="73" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="37" t="s">
@@ -1745,7 +1907,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="8">
         <v>40750</v>
       </c>
@@ -1779,8 +1941,8 @@
         <f t="array" aca="1" ref="J9" ca="1">1/((D9*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C9*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83053914726176314</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1966,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="8">
         <v>40760</v>
       </c>
@@ -1838,8 +2000,8 @@
         <f t="array" aca="1" ref="J10" ca="1">1/((D10*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C10*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83075329301905221</v>
       </c>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
       <c r="N10" s="37" t="s">
         <v>24</v>
       </c>
@@ -1863,39 +2025,39 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="8">
         <v>40770</v>
       </c>
       <c r="C11" s="34">
-        <v>0</v>
+        <v>119.57044</v>
       </c>
       <c r="D11" s="34">
-        <v>0</v>
+        <v>424.15166567582401</v>
       </c>
       <c r="E11" s="41" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58256649703258145</v>
       </c>
       <c r="F11" s="41" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G11" s="41" t="e" cm="1">
+        <v>0.83229388672415361</v>
+      </c>
+      <c r="G11" s="41" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C11*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="41" t="e" cm="1">
+        <v>81.22558461564023</v>
+      </c>
+      <c r="H11" s="41" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C11)*INDIRECT(ADDRESS(5,38))/(D11*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>3.4210510730552794</v>
       </c>
       <c r="I11" s="41" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">1/((D11*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58168143595210142</v>
       </c>
       <c r="J11" s="41" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">1/((D11*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C11*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.83041066342348513</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -1961,7 +2123,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
@@ -2007,7 +2169,7 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="8">
         <v>40240</v>
       </c>
@@ -2051,7 +2213,7 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="8">
         <v>40250</v>
       </c>
@@ -2095,39 +2257,39 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="8">
         <v>40360</v>
       </c>
       <c r="C18" s="34">
-        <v>0</v>
+        <v>12.798434000000002</v>
       </c>
       <c r="D18" s="34">
-        <v>0</v>
+        <v>581.51685804881618</v>
       </c>
       <c r="E18" s="41" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58285872500620872</v>
       </c>
       <c r="F18" s="41" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G18" s="41" t="e" cm="1">
+        <v>0.8327675602829141</v>
+      </c>
+      <c r="G18" s="41" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C18*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="41" t="e" cm="1">
+        <v>767.19940093837499</v>
+      </c>
+      <c r="H18" s="41" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C18)*INDIRECT(ADDRESS(5,38))/(D18*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>2.2498966706976899</v>
       </c>
       <c r="I18" s="41" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">1/((D18*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58119540605454856</v>
       </c>
       <c r="J18" s="41" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">1/((D18*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C18*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82922977142714371</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -2139,7 +2301,7 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="8">
         <v>40390</v>
       </c>
@@ -2183,7 +2345,7 @@
       <c r="S19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="8">
         <v>40710</v>
       </c>
@@ -2227,7 +2389,7 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="8">
         <v>40740</v>
       </c>
@@ -2271,7 +2433,7 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="8">
         <v>40750</v>
       </c>
@@ -2315,7 +2477,7 @@
       <c r="S22"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="8">
         <v>40760</v>
       </c>
@@ -2359,39 +2521,39 @@
       <c r="S23"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="8">
         <v>40770</v>
       </c>
       <c r="C24" s="34">
-        <v>0</v>
+        <v>252.45231000000004</v>
       </c>
       <c r="D24" s="34">
-        <v>0</v>
+        <v>166.4213046523426</v>
       </c>
       <c r="E24" s="41" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58220295874816985</v>
       </c>
       <c r="F24" s="41" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G24" s="41" t="e" cm="1">
+        <v>0.8317047236122368</v>
+      </c>
+      <c r="G24" s="41" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C24*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="41" t="e" cm="1">
+        <v>37.944976703716165</v>
+      </c>
+      <c r="H24" s="41" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C24)*INDIRECT(ADDRESS(5,38))/(D24*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>10.158033011402006</v>
       </c>
       <c r="I24" s="41" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">1/((D24*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.5820667020855832</v>
       </c>
       <c r="J24" s="41" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">1/((D24*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C24*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.83141470551098062</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -2463,7 +2625,7 @@
       <c r="S27"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="8">
@@ -2509,7 +2671,7 @@
       <c r="S28"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="8">
         <v>40240</v>
       </c>
@@ -2553,7 +2715,7 @@
       <c r="S29"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="8">
         <v>40250</v>
       </c>
@@ -2597,39 +2759,39 @@
       <c r="S30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="8">
         <v>40360</v>
       </c>
       <c r="C31" s="34">
-        <v>0</v>
+        <v>1118.942</v>
       </c>
       <c r="D31" s="34">
-        <v>0</v>
+        <v>516.39816207488263</v>
       </c>
       <c r="E31" s="41" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.57983650511735596</v>
       </c>
       <c r="F31" s="41" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G31" s="41" t="e" cm="1">
+        <v>0.82787220817455287</v>
+      </c>
+      <c r="G31" s="41" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C31*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="41" t="e" cm="1">
+        <v>7.7866478617741866</v>
+      </c>
+      <c r="H31" s="41" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C31)*INDIRECT(ADDRESS(5,38))/(D31*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>2.365337250377622</v>
       </c>
       <c r="I31" s="41" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">1/((D31*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.57853190614434546</v>
       </c>
       <c r="J31" s="41" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">1/((D31*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C31*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82510295243233012</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -2641,7 +2803,7 @@
       <c r="S31"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="8">
         <v>40390</v>
       </c>
@@ -2685,7 +2847,7 @@
       <c r="S32"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="8">
         <v>40710</v>
       </c>
@@ -2729,7 +2891,7 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="8">
         <v>40740</v>
       </c>
@@ -2773,7 +2935,7 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="8">
         <v>40750</v>
       </c>
@@ -2817,7 +2979,7 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="8">
         <v>40760</v>
       </c>
@@ -2861,39 +3023,39 @@
       <c r="S36"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="8">
         <v>40770</v>
       </c>
       <c r="C37" s="34">
-        <v>0</v>
+        <v>602.19830000000002</v>
       </c>
       <c r="D37" s="34">
-        <v>0</v>
+        <v>364.0773230568883</v>
       </c>
       <c r="E37" s="41" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58124692132748645</v>
       </c>
       <c r="F37" s="41" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G37" s="41" t="e" cm="1">
+        <v>0.83015585170702511</v>
+      </c>
+      <c r="G37" s="41" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C37*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="41" t="e" cm="1">
+        <v>15.32643156207736</v>
+      </c>
+      <c r="H37" s="41" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C37)*INDIRECT(ADDRESS(5,38))/(D37*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>3.9683657970101462</v>
       </c>
       <c r="I37" s="41" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">1/((D37*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58059630095156911</v>
       </c>
       <c r="J37" s="41" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">1/((D37*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C37*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82877259458485364</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -2955,14 +3117,14 @@
       <c r="J40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="62" t="s">
+      <c r="M40" s="77"/>
+      <c r="N40" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="63"/>
+      <c r="O40" s="77"/>
       <c r="P40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +3139,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="19">
@@ -3013,10 +3175,10 @@
         <f t="array" aca="1" ref="J41" ca="1">1/((D41*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C41*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82664492303399983</v>
       </c>
-      <c r="L41" s="66" t="s">
+      <c r="L41" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="67"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="19" t="s">
         <v>22</v>
       </c>
@@ -3040,7 +3202,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="19">
         <v>40240</v>
       </c>
@@ -3074,8 +3236,8 @@
         <f t="array" aca="1" ref="J42" ca="1">1/((D42*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C42*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82631756904312459</v>
       </c>
-      <c r="L42" s="68"/>
-      <c r="M42" s="69"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="81"/>
       <c r="N42" s="19" t="s">
         <v>23</v>
       </c>
@@ -3099,7 +3261,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="19">
         <v>40250</v>
       </c>
@@ -3133,8 +3295,8 @@
         <f t="array" aca="1" ref="J43" ca="1">1/((D43*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C43*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82023164153674744</v>
       </c>
-      <c r="L43" s="70"/>
-      <c r="M43" s="71"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="83"/>
       <c r="N43" s="19" t="s">
         <v>24</v>
       </c>
@@ -3158,44 +3320,44 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="19">
         <v>40360</v>
       </c>
       <c r="C44" s="40">
-        <v>0</v>
+        <v>276.28249</v>
       </c>
       <c r="D44" s="40">
-        <v>0</v>
+        <v>1038.4870209208323</v>
       </c>
       <c r="E44" s="43" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.5821377817913036</v>
       </c>
       <c r="F44" s="43" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G44" s="43" t="e" cm="1">
+        <v>0.83159910695219086</v>
+      </c>
+      <c r="G44" s="43" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C44*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="43" t="e" cm="1">
+        <v>34.585857546561613</v>
+      </c>
+      <c r="H44" s="43" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C44)*INDIRECT(ADDRESS(5,38))/(D44*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>0.784961608738733</v>
       </c>
       <c r="I44" s="43" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">1/((D44*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.57685860083459395</v>
       </c>
       <c r="J44" s="43" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">1/((D44*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C44*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L44" s="66" t="s">
+        <v>0.8204087706437273</v>
+      </c>
+      <c r="L44" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="67"/>
+      <c r="M44" s="79"/>
       <c r="N44" s="36" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +3381,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="19">
         <v>40390</v>
       </c>
@@ -3253,8 +3415,8 @@
         <f t="array" aca="1" ref="J45" ca="1">1/((D45*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C45*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030382101804823</v>
       </c>
-      <c r="L45" s="68"/>
-      <c r="M45" s="69"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="81"/>
       <c r="N45" s="36" t="s">
         <v>23</v>
       </c>
@@ -3278,7 +3440,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="19">
         <v>40710</v>
       </c>
@@ -3312,8 +3474,8 @@
         <f t="array" aca="1" ref="J46" ca="1">1/((D46*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C46*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.83030366531794497</v>
       </c>
-      <c r="L46" s="70"/>
-      <c r="M46" s="71"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="83"/>
       <c r="N46" s="36" t="s">
         <v>24</v>
       </c>
@@ -3337,7 +3499,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="19">
         <v>40740</v>
       </c>
@@ -3381,7 +3543,7 @@
       <c r="S47"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="19">
         <v>40750</v>
       </c>
@@ -3425,7 +3587,7 @@
       <c r="S48"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="19">
         <v>40760</v>
       </c>
@@ -3469,39 +3631,39 @@
       <c r="S49"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="19">
         <v>40770</v>
       </c>
       <c r="C50" s="40">
-        <v>0</v>
+        <v>267.38195000000002</v>
       </c>
       <c r="D50" s="40">
-        <v>0</v>
+        <v>692.05259398699582</v>
       </c>
       <c r="E50" s="43" cm="1">
         <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58216212466827577</v>
       </c>
       <c r="F50" s="43" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G50" s="43" t="e" cm="1">
+        <v>0.831638553206824</v>
+      </c>
+      <c r="G50" s="43" cm="1">
         <f t="array" aca="1" ref="G50" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C50*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="43" t="e" cm="1">
+        <v>35.770430209478725</v>
+      </c>
+      <c r="H50" s="43" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C50)*INDIRECT(ADDRESS(5,38))/(D50*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>1.6802625524862069</v>
       </c>
       <c r="I50" s="43" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">1/((D50*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.5798110214508474</v>
       </c>
       <c r="J50" s="43" cm="1">
         <f t="array" aca="1" ref="J50" ca="1">1/((D50*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C50*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82664324737428574</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3545,7 +3707,7 @@
       <c r="S53"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="19">
@@ -3591,7 +3753,7 @@
       <c r="S54"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="19">
         <v>40240</v>
       </c>
@@ -3635,7 +3797,7 @@
       <c r="S55"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="19">
         <v>40250</v>
       </c>
@@ -3679,39 +3841,39 @@
       <c r="S56"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="19">
         <v>40360</v>
       </c>
       <c r="C57" s="40">
-        <v>0</v>
+        <v>139.25318000000001</v>
       </c>
       <c r="D57" s="40">
-        <v>0</v>
+        <v>946.81307402208029</v>
       </c>
       <c r="E57" s="43" cm="1">
         <f t="array" aca="1" ref="E57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58251263844342849</v>
       </c>
       <c r="F57" s="43" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G57" s="43" t="e" cm="1">
+        <v>0.83220659474333813</v>
+      </c>
+      <c r="G57" s="43" cm="1">
         <f t="array" aca="1" ref="G57" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C57*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="43" t="e" cm="1">
+        <v>69.603409787477247</v>
+      </c>
+      <c r="H57" s="43" cm="1">
         <f t="array" aca="1" ref="H57" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C57)*INDIRECT(ADDRESS(5,38))/(D57*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>0.97767780907366109</v>
       </c>
       <c r="I57" s="43" cm="1">
         <f t="array" aca="1" ref="I57" ca="1">1/((D57*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.57811755314124302</v>
       </c>
       <c r="J57" s="43" cm="1">
         <f t="array" aca="1" ref="J57" ca="1">1/((D57*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C57*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82288113427768184</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -3723,7 +3885,7 @@
       <c r="S57"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="19">
         <v>40390</v>
       </c>
@@ -3767,7 +3929,7 @@
       <c r="S58"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="19">
         <v>40710</v>
       </c>
@@ -3811,7 +3973,7 @@
       <c r="S59"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="19">
         <v>40740</v>
       </c>
@@ -3855,7 +4017,7 @@
       <c r="S60"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="19">
         <v>40750</v>
       </c>
@@ -3899,7 +4061,7 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="19">
         <v>40760</v>
       </c>
@@ -3943,39 +4105,39 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="19">
         <v>40770</v>
       </c>
       <c r="C63" s="40">
-        <v>0</v>
+        <v>312.90006000000005</v>
       </c>
       <c r="D63" s="40">
-        <v>0</v>
+        <v>523.47026049956435</v>
       </c>
       <c r="E63" s="43" cm="1">
         <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58203764102810407</v>
       </c>
       <c r="F63" s="43" cm="1">
         <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G63" s="43" t="e" cm="1">
+        <v>0.83143683961567172</v>
+      </c>
+      <c r="G63" s="43" cm="1">
         <f t="array" aca="1" ref="G63" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C63*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="43" t="e" cm="1">
+        <v>30.421372471930272</v>
+      </c>
+      <c r="H63" s="43" cm="1">
         <f t="array" aca="1" ref="H63" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C63)*INDIRECT(ADDRESS(5,38))/(D63*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>2.5314845993708479</v>
       </c>
       <c r="I63" s="43" cm="1">
         <f t="array" aca="1" ref="I63" ca="1">1/((D63*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58069150386449975</v>
       </c>
       <c r="J63" s="43" cm="1">
         <f t="array" aca="1" ref="J63" ca="1">1/((D63*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C63*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.82857473894997713</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
@@ -4047,7 +4209,7 @@
       <c r="S66"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="19">
@@ -4093,7 +4255,7 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="19">
         <v>40240</v>
       </c>
@@ -4137,7 +4299,7 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="19">
         <v>40250</v>
       </c>
@@ -4181,39 +4343,39 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="19">
         <v>40360</v>
       </c>
       <c r="C70" s="40">
-        <v>0</v>
+        <v>300.72757000000001</v>
       </c>
       <c r="D70" s="40">
-        <v>0</v>
+        <v>147.41642065084889</v>
       </c>
       <c r="E70" s="43" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58207092862559984</v>
       </c>
       <c r="F70" s="43" cm="1">
         <f t="array" aca="1" ref="F70" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G70" s="43" t="e" cm="1">
+        <v>0.83149077767624613</v>
+      </c>
+      <c r="G70" s="43" cm="1">
         <f t="array" aca="1" ref="G70" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C70*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="43" t="e" cm="1">
+        <v>31.693209111985745</v>
+      </c>
+      <c r="H70" s="43" cm="1">
         <f t="array" aca="1" ref="H70" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C70)*INDIRECT(ADDRESS(5,38))/(D70*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>11.551519043300219</v>
       </c>
       <c r="I70" s="43" cm="1">
         <f t="array" aca="1" ref="I70" ca="1">1/((D70*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58196403913943451</v>
       </c>
       <c r="J70" s="43" cm="1">
         <f t="array" aca="1" ref="J70" ca="1">1/((D70*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C70*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.83126328415775608</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -4225,7 +4387,7 @@
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="19">
         <v>40390</v>
       </c>
@@ -4269,7 +4431,7 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="19">
         <v>40710</v>
       </c>
@@ -4313,7 +4475,7 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="19">
         <v>40740</v>
       </c>
@@ -4357,7 +4519,7 @@
       <c r="S73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="19">
         <v>40750</v>
       </c>
@@ -4401,7 +4563,7 @@
       <c r="S74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="19">
         <v>40760</v>
       </c>
@@ -4445,39 +4607,39 @@
       <c r="S75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="19">
         <v>40770</v>
       </c>
       <c r="C76" s="40">
-        <v>0</v>
+        <v>156.53396000000001</v>
       </c>
       <c r="D76" s="40">
-        <v>0</v>
+        <v>105.72986667271532</v>
       </c>
       <c r="E76" s="43" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58246535544582789</v>
       </c>
       <c r="F76" s="43" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G76" s="43" t="e" cm="1">
+        <v>0.83212996219309376</v>
+      </c>
+      <c r="G76" s="43" cm="1">
         <f t="array" aca="1" ref="G76" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C76*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="43" t="e" cm="1">
+        <v>61.809050072900035</v>
+      </c>
+      <c r="H76" s="43" cm="1">
         <f t="array" aca="1" ref="H76" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C76)*INDIRECT(ADDRESS(5,38))/(D76*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>16.687682693430627</v>
       </c>
       <c r="I76" s="43" cm="1">
         <f t="array" aca="1" ref="I76" ca="1">1/((D76*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58241032731287756</v>
       </c>
       <c r="J76" s="43" cm="1">
         <f t="array" aca="1" ref="J76" ca="1">1/((D76*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C76*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.83201280564690694</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -4539,14 +4701,14 @@
       <c r="J79" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="64" t="s">
+      <c r="L79" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="65"/>
-      <c r="N79" s="64" t="s">
+      <c r="M79" s="70"/>
+      <c r="N79" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="O79" s="65"/>
+      <c r="O79" s="70"/>
       <c r="P79" s="22" t="s">
         <v>9</v>
       </c>
@@ -4561,7 +4723,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="55" t="s">
+      <c r="A80" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="23">
@@ -4597,10 +4759,10 @@
         <f t="array" aca="1" ref="J80" ca="1">1/((D80*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C80*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.82942721161099864</v>
       </c>
-      <c r="L80" s="72" t="s">
+      <c r="L80" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M80" s="73"/>
+      <c r="M80" s="64"/>
       <c r="N80" s="23" t="s">
         <v>22</v>
       </c>
@@ -4620,7 +4782,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="23">
         <v>40240</v>
       </c>
@@ -4654,8 +4816,8 @@
         <f t="array" aca="1" ref="J81" ca="1">1/((D81*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C81*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.52303942433178374</v>
       </c>
-      <c r="L81" s="74"/>
-      <c r="M81" s="75"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="66"/>
       <c r="N81" s="23" t="s">
         <v>23</v>
       </c>
@@ -4675,7 +4837,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="23">
         <v>40250</v>
       </c>
@@ -4709,8 +4871,8 @@
         <f t="array" aca="1" ref="J82" ca="1">1/((D82*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C82*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.28630535620482012</v>
       </c>
-      <c r="L82" s="76"/>
-      <c r="M82" s="77"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="68"/>
       <c r="N82" s="23" t="s">
         <v>24</v>
       </c>
@@ -4730,44 +4892,44 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="23">
         <v>40360</v>
       </c>
       <c r="C83" s="51">
-        <v>0</v>
+        <v>807.39186000000007</v>
       </c>
       <c r="D83" s="51">
-        <v>0</v>
+        <v>11173.359299668702</v>
       </c>
       <c r="E83" s="44" cm="1">
         <f t="array" aca="1" ref="E83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58068655834008709</v>
       </c>
       <c r="F83" s="44" cm="1">
         <f t="array" aca="1" ref="F83" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G83" s="44" t="e" cm="1">
+        <v>0.82924835785148732</v>
+      </c>
+      <c r="G83" s="44" cm="1">
         <f t="array" aca="1" ref="G83" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C83*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H83" s="44" t="e" cm="1">
+        <v>11.17717172891653</v>
+      </c>
+      <c r="H83" s="44" cm="1">
         <f t="array" aca="1" ref="H83" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C83)*INDIRECT(ADDRESS(5,38))/(D83*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.84063254266078125</v>
       </c>
       <c r="I83" s="44" cm="1">
         <f t="array" aca="1" ref="I83" ca="1">1/((D83*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.18644411411500705</v>
       </c>
       <c r="J83" s="44" cm="1">
         <f t="array" aca="1" ref="J83" ca="1">1/((D83*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C83*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="L83" s="72" t="s">
+        <v>0.17493313252638587</v>
+      </c>
+      <c r="L83" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M83" s="73"/>
+      <c r="M83" s="64"/>
       <c r="N83" s="35" t="s">
         <v>22</v>
       </c>
@@ -4787,7 +4949,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="23">
         <v>40390</v>
       </c>
@@ -4821,8 +4983,8 @@
         <f t="array" aca="1" ref="J84" ca="1">1/((D84*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C84*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.8029334242470334</v>
       </c>
-      <c r="L84" s="74"/>
-      <c r="M84" s="75"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="66"/>
       <c r="N84" s="35" t="s">
         <v>23</v>
       </c>
@@ -4842,7 +5004,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="23">
         <v>40710</v>
       </c>
@@ -4876,8 +5038,8 @@
         <f t="array" aca="1" ref="J85" ca="1">1/((D85*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C85*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
         <v>0.80289048987362932</v>
       </c>
-      <c r="L85" s="76"/>
-      <c r="M85" s="77"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="68"/>
       <c r="N85" s="35" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +5059,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="23">
         <v>40740</v>
       </c>
@@ -4941,7 +5103,7 @@
       <c r="S86"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="23">
         <v>40750</v>
       </c>
@@ -4985,7 +5147,7 @@
       <c r="S87"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="23">
         <v>40760</v>
       </c>
@@ -5029,39 +5191,39 @@
       <c r="S88"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="23">
         <v>40770</v>
       </c>
       <c r="C89" s="51">
-        <v>0</v>
+        <v>755.92099000000007</v>
       </c>
       <c r="D89" s="51">
-        <v>0</v>
+        <v>5000.5085096949942</v>
       </c>
       <c r="E89" s="44" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58082708279177586</v>
       </c>
       <c r="F89" s="44" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G89" s="44" t="e" cm="1">
+        <v>0.82947590955770956</v>
+      </c>
+      <c r="G89" s="44" cm="1">
         <f t="array" aca="1" ref="G89" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C89*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="44" t="e" cm="1">
+        <v>12.006318731471305</v>
+      </c>
+      <c r="H89" s="44" cm="1">
         <f t="array" aca="1" ref="H89" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C89)*INDIRECT(ADDRESS(5,38))/(D89*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.6424876737647941</v>
       </c>
       <c r="I89" s="44" cm="1">
         <f t="array" aca="1" ref="I89" ca="1">1/((D89*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.47077436022864605</v>
       </c>
       <c r="J89" s="44" cm="1">
         <f t="array" aca="1" ref="J89" ca="1">1/((D89*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C89*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.61372508251923219</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -5105,7 +5267,7 @@
       <c r="S92"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B93" s="23">
@@ -5151,7 +5313,7 @@
       <c r="S93"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="58"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="23">
         <v>40240</v>
       </c>
@@ -5195,7 +5357,7 @@
       <c r="S94"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="58"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="23">
         <v>40250</v>
       </c>
@@ -5239,39 +5401,39 @@
       <c r="S95"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="58"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="23">
         <v>40360</v>
       </c>
       <c r="C96" s="51">
-        <v>0</v>
+        <v>205.05760000000001</v>
       </c>
       <c r="D96" s="51">
-        <v>0</v>
+        <v>9335.2650843982155</v>
       </c>
       <c r="E96" s="44" cm="1">
         <f t="array" aca="1" ref="E96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,23))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))-1</f>
-        <v>0.58289376072382715</v>
+        <v>0.58233260205535187</v>
       </c>
       <c r="F96" s="44" cm="1">
         <f t="array" aca="1" ref="F96" ca="1">INDIRECT(ADDRESS(5,32))*INDIRECT(ADDRESS(5,24))/(INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>0.83282435452232617</v>
-      </c>
-      <c r="G96" s="44" t="e" cm="1">
+        <v>0.83191481576390403</v>
+      </c>
+      <c r="G96" s="44" cm="1">
         <f t="array" aca="1" ref="G96" ca="1">INDIRECT(ADDRESS(5,35))/((1-INDIRECT(ADDRESS(5,33)))*C96*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H96" s="44" t="e" cm="1">
+        <v>46.946281102233378</v>
+      </c>
+      <c r="H96" s="44" cm="1">
         <f t="array" aca="1" ref="H96" ca="1">(INDIRECT(ADDRESS(5,35))-(1-INDIRECT(ADDRESS(5,33)))*C96)*INDIRECT(ADDRESS(5,38))/(D96*INDIRECT(ADDRESS(5,37)))-1</f>
-        <v>#DIV/0!</v>
+        <v>-0.80038619347678397</v>
       </c>
       <c r="I96" s="44" cm="1">
         <f t="array" aca="1" ref="I96" ca="1">1/((D96*INDIRECT(ADDRESS(5,36))/INDIRECT(ADDRESS(5,25))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,36)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,23)))^2)^0.5 - 1</f>
-        <v>0.58289376072382715</v>
+        <v>0.27420688350893685</v>
       </c>
       <c r="J96" s="44" cm="1">
         <f t="array" aca="1" ref="J96" ca="1">1/((D96*INDIRECT(ADDRESS(5,37))/INDIRECT(ADDRESS(5,26))/INDIRECT(ADDRESS(5,32)))^2+((INDIRECT(ADDRESS(5,34))+INDIRECT(ADDRESS(5,33))*C96*INDIRECT(ADDRESS(5,37)))/INDIRECT(ADDRESS(5,32))/INDIRECT(ADDRESS(5,24)))^2)^0.5 - 1</f>
-        <v>0.83282435452232617</v>
+        <v>0.29637468557672553</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -5283,7 +5445,7 @@
  